--- a/sources/European_Exposure_Model_Data_Inputs_Sources.xlsx
+++ b/sources/European_Exposure_Model_Data_Inputs_Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helencrowley/Documents/5-GitHub/esrm20_exposure/sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848149F3-B28F-8D46-8DC1-D119477E6CC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84C653C-B2D5-754E-94DB-D1604756A2ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="460" windowWidth="28300" windowHeight="16700" xr2:uid="{3ADB8CE8-CD4D-1C4D-B72A-BA24B45CE5E7}"/>
   </bookViews>
@@ -2893,9 +2893,6 @@
     <t>REF_EU4</t>
   </si>
   <si>
-    <t>aiswal, K. S., and Wald, D. J. (2010b). Development of a semi-empirical loss model within the USGS Prompt Assessment of Global Earthquakes for Response (PAGER) System. Proc. of the 9th US and 10th Canadian Conference on Earthquake Engineering: Reaching Beyond Borders, July 25-29, 2010, Toronto, Canada. Available from URL: https://earthquake.usgs.gov/static/lfs/data/pager/Jaiswal_Wald_2010_Semi.pdf</t>
-  </si>
-  <si>
     <t>SERA Deliverable D26.3, Available from URL: http://eu-risk.eucentre.it/wp-content/uploads/2019/08/SERA_D26.3_Exposure_Models_Non-res_Res.pdf</t>
   </si>
   <si>
@@ -2924,6 +2921,9 @@
   </si>
   <si>
     <t>De Bono A, Chatenoux B (2014) A Global exposure model for GAR 2015. Available from URL: https://www.unisdr.org/we/inform/publications/49763.</t>
+  </si>
+  <si>
+    <t>Jaiswal, K. S., and Wald, D. J. (2010b). Development of a semi-empirical loss model within the USGS Prompt Assessment of Global Earthquakes for Response (PAGER) System. Proc. of the 9th US and 10th Canadian Conference on Earthquake Engineering: Reaching Beyond Borders, July 25-29, 2010, Toronto, Canada. Available from URL: https://earthquake.usgs.gov/static/lfs/data/pager/Jaiswal_Wald_2010_Semi.pdf</t>
   </si>
 </sst>
 </file>
@@ -3705,13 +3705,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3719,12 +3725,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4055,51 +4055,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="48" customHeight="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="182" t="s">
         <v>901</v>
       </c>
-      <c r="B1" s="187"/>
+      <c r="B1" s="182"/>
     </row>
     <row r="2" spans="1:3" ht="22" customHeight="1">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="184" t="s">
+        <v>918</v>
+      </c>
+      <c r="B2" s="184"/>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" ht="22" customHeight="1">
+      <c r="A3" s="186" t="s">
+        <v>920</v>
+      </c>
+      <c r="B3" s="184"/>
+    </row>
+    <row r="4" spans="1:3" ht="22" customHeight="1">
+      <c r="A4" s="184" t="s">
+        <v>900</v>
+      </c>
+      <c r="B4" s="184"/>
+    </row>
+    <row r="5" spans="1:3" ht="22" customHeight="1">
+      <c r="A5" s="184" t="s">
         <v>919</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" ht="22" customHeight="1">
-      <c r="A3" s="184" t="s">
-        <v>921</v>
-      </c>
-      <c r="B3" s="183"/>
-    </row>
-    <row r="4" spans="1:3" ht="22" customHeight="1">
-      <c r="A4" s="183" t="s">
-        <v>900</v>
-      </c>
-      <c r="B4" s="183"/>
-    </row>
-    <row r="5" spans="1:3" ht="22" customHeight="1">
-      <c r="A5" s="183" t="s">
-        <v>920</v>
-      </c>
-      <c r="B5" s="183"/>
+      <c r="B5" s="184"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="188"/>
-      <c r="B6" s="188"/>
+      <c r="A6" s="183"/>
+      <c r="B6" s="183"/>
     </row>
     <row r="7" spans="1:3" ht="39">
-      <c r="A7" s="185" t="s">
+      <c r="A7" s="187" t="s">
         <v>692</v>
       </c>
-      <c r="B7" s="185"/>
+      <c r="B7" s="187"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="186" t="s">
+      <c r="A8" s="188" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="186"/>
+      <c r="B8" s="188"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3"/>
@@ -4265,10 +4265,10 @@
       <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="182" t="s">
+      <c r="A30" s="185" t="s">
         <v>212</v>
       </c>
-      <c r="B30" s="182"/>
+      <c r="B30" s="185"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4"/>
@@ -4335,10 +4335,10 @@
       <c r="B39" s="4"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="182" t="s">
+      <c r="A41" s="185" t="s">
         <v>703</v>
       </c>
-      <c r="B41" s="182"/>
+      <c r="B41" s="185"/>
     </row>
     <row r="42" spans="1:2" ht="51">
       <c r="A42" s="61" t="s">
@@ -4357,16 +4357,16 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="39">
-      <c r="A45" s="185" t="s">
+      <c r="A45" s="187" t="s">
         <v>864</v>
       </c>
-      <c r="B45" s="185"/>
+      <c r="B45" s="187"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="186" t="s">
+      <c r="A46" s="188" t="s">
         <v>451</v>
       </c>
-      <c r="B46" s="186"/>
+      <c r="B46" s="188"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="3"/>
@@ -4481,10 +4481,10 @@
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="182" t="s">
+      <c r="A64" s="185" t="s">
         <v>703</v>
       </c>
-      <c r="B64" s="182"/>
+      <c r="B64" s="185"/>
     </row>
     <row r="65" spans="1:2" ht="51">
       <c r="A65" s="61" t="s">
@@ -4503,16 +4503,16 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="39">
-      <c r="A68" s="185" t="s">
+      <c r="A68" s="187" t="s">
         <v>863</v>
       </c>
-      <c r="B68" s="185"/>
+      <c r="B68" s="187"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="186" t="s">
+      <c r="A69" s="188" t="s">
         <v>551</v>
       </c>
-      <c r="B69" s="186"/>
+      <c r="B69" s="188"/>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3"/>
@@ -4595,10 +4595,10 @@
       <c r="B80" s="4"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="182" t="s">
+      <c r="A81" s="185" t="s">
         <v>212</v>
       </c>
-      <c r="B81" s="182"/>
+      <c r="B81" s="185"/>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="4"/>
@@ -4637,10 +4637,10 @@
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="182" t="s">
+      <c r="A88" s="185" t="s">
         <v>703</v>
       </c>
-      <c r="B88" s="182"/>
+      <c r="B88" s="185"/>
     </row>
     <row r="89" spans="1:2" ht="51">
       <c r="A89" s="61" t="s">
@@ -4668,12 +4668,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A64:B64"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -4685,6 +4679,12 @@
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A64:B64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13244,7 +13244,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13274,7 +13274,7 @@
         <v>898</v>
       </c>
       <c r="B3" s="136" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="51">
@@ -13282,7 +13282,7 @@
         <v>903</v>
       </c>
       <c r="B4" s="136" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="51">
@@ -13290,7 +13290,7 @@
         <v>911</v>
       </c>
       <c r="B5" s="136" t="s">
-        <v>912</v>
+        <v>922</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -13302,7 +13302,7 @@
         <v>907</v>
       </c>
       <c r="B7" s="136" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -13314,7 +13314,7 @@
         <v>709</v>
       </c>
       <c r="B9" s="136" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="34">
@@ -13330,7 +13330,7 @@
         <v>711</v>
       </c>
       <c r="B11" s="136" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="33" customHeight="1">
@@ -13338,7 +13338,7 @@
         <v>730</v>
       </c>
       <c r="B12" s="136" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -13349,7 +13349,7 @@
         <v>763</v>
       </c>
       <c r="B14" s="181" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
   </sheetData>

--- a/sources/European_Exposure_Model_Data_Inputs_Sources.xlsx
+++ b/sources/European_Exposure_Model_Data_Inputs_Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helencrowley/Documents/5-GitHub/esrm20_exposure/sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84C653C-B2D5-754E-94DB-D1604756A2ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A64486-BBFE-A94E-B6DA-799E7DC03054}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="28300" windowHeight="16700" xr2:uid="{3ADB8CE8-CD4D-1C4D-B72A-BA24B45CE5E7}"/>
+    <workbookView xWindow="500" yWindow="520" windowWidth="28300" windowHeight="16700" xr2:uid="{3ADB8CE8-CD4D-1C4D-B72A-BA24B45CE5E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="924">
   <si>
     <t>data_Albania_RES_census-buildings.xlsx</t>
   </si>
@@ -824,9 +824,6 @@
     <t>see data_Romania_RES_README.txt</t>
   </si>
   <si>
-    <t>10226,	10227,	10228,	10229,	10230,	10231,	10310,	10311,	10312,	10313,	10314,	10315,	10316,	10317,	10318,	10319,	10320,	10321,	10322,	10323,	10329,	10402,	10409,	10458,	10508,	10513,	10534,	10535,	10584,	10585,	10695,	10706,	10828,	10855,	10861,	10917,	10952,	10954,	10956,	10988,	11003,	11031,	11032,	11033,	11034,	11035,	11037,	11039,	11040,	11041,	11043,	11044,	11045,	11046,	11047,	11048,	11049,	11050,	11051,	11052,	11053,	11054,	11055,	11056,	11057,	11058,	11060,	11061,	11062,	11064,	11065,	11066,	11067,	11068,	11069,	11070,	11095,	11319,	11382,	11514,	11655,	11677,	11730,	11836,	12127,	12187,	12552,	12602,	12610,	12736,	12906,	12915,	12925,	13049,	13129,	13186,</t>
-  </si>
-  <si>
     <t>data_Serbia_RES_census-dwellings.xlsx</t>
   </si>
   <si>
@@ -1305,9 +1302,6 @@
     <t>7</t>
   </si>
   <si>
-    <t>3792</t>
-  </si>
-  <si>
     <t>Not considered</t>
   </si>
   <si>
@@ -1425,9 +1419,6 @@
     <t>mapping_Romania_RES.xlsx</t>
   </si>
   <si>
-    <t>166, 170, 172, 175, 176,177, 180, 210, 212, 214, 215, 222, 223, 224, 248, 249, 251, 252, 255</t>
-  </si>
-  <si>
     <t>mapping_Greece_RES.xlsx</t>
   </si>
   <si>
@@ -1453,9 +1444,6 @@
   </si>
   <si>
     <t>The number was obtained using total national industrial area and a similar area per facility to the neighbouring countries</t>
-  </si>
-  <si>
-    <t>https://forumdacasa.com/discussion/53535/orientacao-valor-medio-construcao-2018/</t>
   </si>
   <si>
     <t>data_Albania_IND_buildings.csv</t>
@@ -2743,9 +2731,6 @@
     <t>Only buildings in government controlled area included in final model</t>
   </si>
   <si>
-    <t>Only buildings in government controlled area included in final model. Total population in government controlled area in 2018 has been obtained from  http://www.cystat.gov.cy</t>
-  </si>
-  <si>
     <t>COM</t>
   </si>
   <si>
@@ -2908,9 +2893,6 @@
     <t xml:space="preserve">Crowley H., Despotaki V., Silva V., Dabbeek J., Romão X., Pereira N., Castro J.M., Daniell J., Veliu E., Bilgin H., Adam C.,  Deyanova M., Ademović N., Atalic J., Riga E., Karatzetzou A., Bessason B., Shendova V., Tiganescu A., Toma-Danila D., Zugic Z., Akkar Z., Hancilar U. (2020) "Model of Seismic Design Lateral Force Levels for the Existing Reinforced Concrete European Building Stock", Submitted to Bulletin of Earthquake Engineering, draft available here: </t>
   </si>
   <si>
-    <t>Sousa L., Silva V., and Bazzurro P. (2017) "Using Open-Access Data in the Development of Exposure Data Sets of Industrial Buildings for Earthquake Risk Modeling," Earthquake Spectra,  doi: https://doi.org/10.1193/020316eqs027m</t>
-  </si>
-  <si>
     <t>This file contains a summary of the inputs and sources available at https://gitlab.seismo.ethz.ch/efehr/esrm20_exposure and used to develop the European Exposure Model, a component of the European Seismic Risk Model 2020 (ESRM20)</t>
   </si>
   <si>
@@ -2924,6 +2906,27 @@
   </si>
   <si>
     <t>Jaiswal, K. S., and Wald, D. J. (2010b). Development of a semi-empirical loss model within the USGS Prompt Assessment of Global Earthquakes for Response (PAGER) System. Proc. of the 9th US and 10th Canadian Conference on Earthquake Engineering: Reaching Beyond Borders, July 25-29, 2010, Toronto, Canada. Available from URL: https://earthquake.usgs.gov/static/lfs/data/pager/Jaiswal_Wald_2010_Semi.pdf</t>
+  </si>
+  <si>
+    <t>Lisboa, Porto, Setubal</t>
+  </si>
+  <si>
+    <t>3015146, 12058091</t>
+  </si>
+  <si>
+    <t>10226, 10227, 10228, 10229, 10230, 10231, 10310,	10311, 10312, 10313, 10314, 10315, 10316, 10317,	10318, 10319, 10320, 10321, 10322, 10323, 10329, 10402, 10409, 10458, 10508, 10513, 10534, 10535, 10584, 10585, 10695, 10706, 10828, 10855, 10861, 10917, 10952, 10954, 10956, 10988, 11003, 11031, 11032, 11033, 11034, 11035, 11037, 11039, 11040, 11041, 11043,	 11044, 11045, 11046, 11047, 11048, 11049, 11050, 11051, 11052, 11053, 11054, 11055, 11056, 11057, 11058, 11060, 11061, 11062, 11064, 11065, 11066, 11067, 11068, 11069, 11070, 11095, 11319, 11382, 11514,	11655, 11677, 11730, 11836, 12127, 12187, 12552, 12602, 12610, 12736, 12906, 12915, 12925, 13049, 13129, 13186,</t>
+  </si>
+  <si>
+    <t>3792</t>
+  </si>
+  <si>
+    <t>Only buildings in government controlled area included in final model. Total population in government controlled area in 2018 has been obtained from  http://www.cystat.gov.cy and scaled up to an estimated 2020 value</t>
+  </si>
+  <si>
+    <t>710 (https://forumdacasa.com/discussion/53535/orientacao-valor-medio-construcao-2018/)</t>
+  </si>
+  <si>
+    <t>Sousa L., Silva V., and Bazzurro P. (2019) "Using Open-Access Data in the Development of Exposure Data Sets of Industrial Buildings for Earthquake Risk Modeling," Earthquake Spectra,  doi: https://doi.org/10.1193/020316eqs027m</t>
   </si>
 </sst>
 </file>
@@ -3238,7 +3241,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3705,26 +3708,29 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4055,51 +4061,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="48" customHeight="1">
-      <c r="A1" s="182" t="s">
-        <v>901</v>
-      </c>
-      <c r="B1" s="182"/>
+      <c r="A1" s="188" t="s">
+        <v>896</v>
+      </c>
+      <c r="B1" s="188"/>
     </row>
     <row r="2" spans="1:3" ht="22" customHeight="1">
       <c r="A2" s="184" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="B2" s="184"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="22" customHeight="1">
-      <c r="A3" s="186" t="s">
-        <v>920</v>
+      <c r="A3" s="185" t="s">
+        <v>914</v>
       </c>
       <c r="B3" s="184"/>
     </row>
     <row r="4" spans="1:3" ht="22" customHeight="1">
       <c r="A4" s="184" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="B4" s="184"/>
     </row>
     <row r="5" spans="1:3" ht="22" customHeight="1">
       <c r="A5" s="184" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="B5" s="184"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="183"/>
-      <c r="B6" s="183"/>
+      <c r="A6" s="189"/>
+      <c r="B6" s="189"/>
     </row>
     <row r="7" spans="1:3" ht="39">
-      <c r="A7" s="187" t="s">
-        <v>692</v>
-      </c>
-      <c r="B7" s="187"/>
+      <c r="A7" s="186" t="s">
+        <v>688</v>
+      </c>
+      <c r="B7" s="186"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="187" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="188"/>
+      <c r="B8" s="187"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3"/>
@@ -4107,18 +4113,18 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="16" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="17" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4142,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4158,31 +4164,31 @@
         <v>4</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="17" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4190,7 +4196,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
@@ -4201,7 +4207,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4209,7 +4215,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4233,31 +4239,31 @@
         <v>36</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="16" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="17" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="18" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4265,10 +4271,10 @@
       <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="185" t="s">
+      <c r="A30" s="183" t="s">
         <v>212</v>
       </c>
-      <c r="B30" s="185"/>
+      <c r="B30" s="183"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4"/>
@@ -4303,7 +4309,7 @@
         <v>19</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4319,7 +4325,7 @@
         <v>20</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4335,38 +4341,38 @@
       <c r="B39" s="4"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="185" t="s">
-        <v>703</v>
-      </c>
-      <c r="B41" s="185"/>
+      <c r="A41" s="183" t="s">
+        <v>699</v>
+      </c>
+      <c r="B41" s="183"/>
     </row>
     <row r="42" spans="1:2" ht="51">
       <c r="A42" s="61" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B42" s="68" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="34">
       <c r="A43" s="8" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="B43" s="177" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="39">
-      <c r="A45" s="187" t="s">
-        <v>864</v>
-      </c>
-      <c r="B45" s="187"/>
+      <c r="A45" s="186" t="s">
+        <v>859</v>
+      </c>
+      <c r="B45" s="186"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="188" t="s">
-        <v>451</v>
-      </c>
-      <c r="B46" s="188"/>
+      <c r="A46" s="187" t="s">
+        <v>448</v>
+      </c>
+      <c r="B46" s="187"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="3"/>
@@ -4374,25 +4380,25 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="91" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B48" s="91"/>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="66" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B49" s="66"/>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="66" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B50" s="66"/>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="66" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B51" s="66"/>
     </row>
@@ -4401,12 +4407,12 @@
         <v>2</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="103" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B53" s="6"/>
     </row>
@@ -4418,18 +4424,18 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="90" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="90" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B56" s="82" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -4437,23 +4443,23 @@
         <v>2</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="10" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="11" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -4461,7 +4467,7 @@
         <v>40</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -4469,50 +4475,50 @@
         <v>4</v>
       </c>
       <c r="B61" s="178" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="126" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="185" t="s">
-        <v>703</v>
-      </c>
-      <c r="B64" s="185"/>
+      <c r="A64" s="183" t="s">
+        <v>699</v>
+      </c>
+      <c r="B64" s="183"/>
     </row>
     <row r="65" spans="1:2" ht="51">
       <c r="A65" s="61" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B65" s="68" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="34">
       <c r="A66" s="8" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="B66" s="177" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="39">
-      <c r="A68" s="187" t="s">
-        <v>863</v>
-      </c>
-      <c r="B68" s="187"/>
+      <c r="A68" s="186" t="s">
+        <v>858</v>
+      </c>
+      <c r="B68" s="186"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="188" t="s">
-        <v>551</v>
-      </c>
-      <c r="B69" s="188"/>
+      <c r="A69" s="187" t="s">
+        <v>547</v>
+      </c>
+      <c r="B69" s="187"/>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3"/>
@@ -4520,10 +4526,10 @@
     </row>
     <row r="71" spans="1:2" ht="34">
       <c r="A71" s="153" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B71" s="153" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4531,15 +4537,15 @@
         <v>6</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="110" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4555,39 +4561,39 @@
         <v>4</v>
       </c>
       <c r="B75" s="178" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="6" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="157" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="131" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="158" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -4595,10 +4601,10 @@
       <c r="B80" s="4"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="185" t="s">
+      <c r="A81" s="183" t="s">
         <v>212</v>
       </c>
-      <c r="B81" s="185"/>
+      <c r="B81" s="183"/>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="4"/>
@@ -4606,26 +4612,26 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="140" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="B83" s="140" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="139" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="B84" s="139" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="139" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="B85" s="139" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -4633,29 +4639,29 @@
         <v>2</v>
       </c>
       <c r="B86" s="36" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="185" t="s">
-        <v>703</v>
-      </c>
-      <c r="B88" s="185"/>
+      <c r="A88" s="183" t="s">
+        <v>699</v>
+      </c>
+      <c r="B88" s="183"/>
     </row>
     <row r="89" spans="1:2" ht="51">
       <c r="A89" s="61" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B89" s="68" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="34">
       <c r="A90" s="8" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="B90" s="177" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="51">
@@ -4663,11 +4669,17 @@
         <v>4</v>
       </c>
       <c r="B91" s="68" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A64:B64"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -4679,12 +4691,6 @@
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A64:B64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4695,10 +4701,10 @@
   <dimension ref="A1:AS82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AQ10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="AQ17" sqref="AQ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4751,7 +4757,7 @@
   <sheetData>
     <row r="1" spans="1:45" s="1" customFormat="1" ht="35" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
@@ -4937,7 +4943,7 @@
     </row>
     <row r="3" spans="1:45">
       <c r="A3" s="16" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B3" s="52" t="s">
         <v>0</v>
@@ -4955,7 +4961,7 @@
         <v>96</v>
       </c>
       <c r="G3" s="57" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>8</v>
@@ -4964,16 +4970,16 @@
         <v>8</v>
       </c>
       <c r="J3" s="57" t="s">
+        <v>428</v>
+      </c>
+      <c r="K3" s="57" t="s">
+        <v>429</v>
+      </c>
+      <c r="L3" s="57" t="s">
         <v>430</v>
       </c>
-      <c r="K3" s="57" t="s">
+      <c r="M3" s="57" t="s">
         <v>431</v>
-      </c>
-      <c r="L3" s="57" t="s">
-        <v>432</v>
-      </c>
-      <c r="M3" s="57" t="s">
-        <v>433</v>
       </c>
       <c r="N3" s="70" t="s">
         <v>8</v>
@@ -4994,52 +5000,52 @@
         <v>8</v>
       </c>
       <c r="T3" s="57" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="U3" s="57" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="V3" s="57" t="s">
         <v>244</v>
       </c>
       <c r="W3" s="57" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="X3" s="57" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y3" s="57" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z3" s="57" t="s">
         <v>437</v>
       </c>
-      <c r="Y3" s="57" t="s">
-        <v>438</v>
-      </c>
-      <c r="Z3" s="57" t="s">
+      <c r="AA3" s="57" t="s">
+        <v>444</v>
+      </c>
+      <c r="AB3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI3" s="57" t="s">
         <v>439</v>
-      </c>
-      <c r="AA3" s="57" t="s">
-        <v>446</v>
-      </c>
-      <c r="AB3" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC3" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD3" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE3" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF3" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG3" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH3" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI3" s="57" t="s">
-        <v>441</v>
       </c>
       <c r="AJ3" s="57" t="s">
         <v>240</v>
@@ -5054,33 +5060,33 @@
         <v>8</v>
       </c>
       <c r="AN3" s="57" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AO3" s="57" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AP3" s="57" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AQ3" s="57" t="s">
+        <v>382</v>
+      </c>
+      <c r="AR3" s="57" t="s">
         <v>383</v>
       </c>
-      <c r="AR3" s="57" t="s">
-        <v>384</v>
-      </c>
       <c r="AS3" s="57" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:45">
       <c r="A4" s="17" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B4" s="53" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>8</v>
@@ -5119,7 +5125,7 @@
         <v>8</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Q4" s="21" t="s">
         <v>8</v>
@@ -5161,10 +5167,10 @@
         <v>198</v>
       </c>
       <c r="AD4" s="34" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AE4" s="34" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF4" s="34" t="s">
         <v>213</v>
@@ -5185,10 +5191,10 @@
         <v>8</v>
       </c>
       <c r="AL4" s="81" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AM4" s="81" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AN4" s="21" t="s">
         <v>8</v>
@@ -5354,7 +5360,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>42</v>
@@ -5375,16 +5381,16 @@
         <v>118</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="N6" s="72" t="s">
         <v>133</v>
@@ -5393,7 +5399,7 @@
         <v>139</v>
       </c>
       <c r="P6" s="22" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="Q6" s="22" t="s">
         <v>150</v>
@@ -5405,28 +5411,28 @@
         <v>161</v>
       </c>
       <c r="T6" s="22" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="U6" s="22" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="V6" s="22" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="W6" s="22" t="s">
         <v>175</v>
       </c>
       <c r="X6" s="22" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="Y6" s="22" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="Z6" s="22" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="AA6" s="22" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="AB6" s="22" t="s">
         <v>194</v>
@@ -5435,7 +5441,7 @@
         <v>199</v>
       </c>
       <c r="AD6" s="22" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="AE6" s="22" t="s">
         <v>206</v>
@@ -5450,7 +5456,7 @@
         <v>229</v>
       </c>
       <c r="AI6" s="22" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="AJ6" s="22" t="s">
         <v>241</v>
@@ -5459,33 +5465,33 @@
         <v>248</v>
       </c>
       <c r="AL6" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM6" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AN6" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AO6" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AP6" s="22" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="AQ6" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AR6" s="22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AS6" s="22" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
     </row>
     <row r="7" spans="1:45">
       <c r="A7" s="11" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>3</v>
@@ -5575,7 +5581,7 @@
         <v>203</v>
       </c>
       <c r="AE7" s="35" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AF7" s="35" t="s">
         <v>215</v>
@@ -5596,28 +5602,28 @@
         <v>247</v>
       </c>
       <c r="AL7" s="35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AM7" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AN7" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AO7" s="35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AP7" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ7" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="AQ7" s="35" t="s">
+      <c r="AR7" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="AR7" s="35" t="s">
+      <c r="AS7" s="35" t="s">
         <v>282</v>
-      </c>
-      <c r="AS7" s="35" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:45" ht="34">
@@ -5628,7 +5634,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>31</v>
@@ -5667,7 +5673,7 @@
         <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>31</v>
@@ -5682,7 +5688,7 @@
         <v>168</v>
       </c>
       <c r="U8" s="76" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="V8" s="76" t="s">
         <v>31</v>
@@ -5694,7 +5700,7 @@
         <v>181</v>
       </c>
       <c r="Y8" s="7" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="Z8" s="7" t="s">
         <v>188</v>
@@ -5709,7 +5715,7 @@
         <v>201</v>
       </c>
       <c r="AD8" s="7" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="AE8" s="7" t="s">
         <v>31</v>
@@ -5745,16 +5751,16 @@
         <v>31</v>
       </c>
       <c r="AP8" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AQ8" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AR8" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS8" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="AS8" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -5777,7 +5783,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>112</v>
@@ -5807,7 +5813,7 @@
         <v>146</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="R9" s="13" t="s">
         <v>156</v>
@@ -5867,442 +5873,442 @@
         <v>243</v>
       </c>
       <c r="AK9" s="13" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AL9" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AM9" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AN9" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AO9" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AP9" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="AQ9" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="AR9" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AS9" s="13" t="s">
         <v>290</v>
-      </c>
-      <c r="AQ9" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="AR9" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="AS9" s="13" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:45">
       <c r="A10" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B10" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="C10" s="82" t="s">
         <v>390</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="D10" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="E10" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="F10" s="82" t="s">
         <v>391</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="G10" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="H10" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="I10" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="J10" s="82" t="s">
         <v>390</v>
       </c>
-      <c r="E10" s="82" t="s">
+      <c r="K10" s="82" t="s">
         <v>390</v>
       </c>
-      <c r="F10" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="G10" s="82" t="s">
+      <c r="L10" s="82" t="s">
         <v>390</v>
       </c>
-      <c r="H10" s="82" t="s">
+      <c r="M10" s="82" t="s">
         <v>390</v>
       </c>
-      <c r="I10" s="82" t="s">
+      <c r="N10" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="O10" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="P10" s="82" t="s">
         <v>390</v>
       </c>
-      <c r="J10" s="82" t="s">
+      <c r="Q10" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="R10" s="82" t="s">
         <v>391</v>
       </c>
-      <c r="K10" s="82" t="s">
+      <c r="S10" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="T10" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="U10" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="V10" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="W10" s="82" t="s">
         <v>391</v>
       </c>
-      <c r="L10" s="82" t="s">
+      <c r="X10" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y10" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="Z10" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA10" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="AB10" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="AC10" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="AD10" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="AE10" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF10" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="AG10" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="AH10" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="AI10" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="AJ10" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="AK10" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="AL10" s="82" t="s">
         <v>391</v>
       </c>
-      <c r="M10" s="82" t="s">
+      <c r="AM10" s="82" t="s">
         <v>391</v>
       </c>
-      <c r="N10" s="82" t="s">
+      <c r="AN10" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="AO10" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="AP10" s="82" t="s">
         <v>390</v>
       </c>
-      <c r="O10" s="82" t="s">
+      <c r="AQ10" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="AR10" s="82" t="s">
+        <v>391</v>
+      </c>
+      <c r="AS10" s="82" t="s">
         <v>390</v>
-      </c>
-      <c r="P10" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q10" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="R10" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="S10" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="T10" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="U10" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="V10" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="W10" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="X10" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="Y10" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="Z10" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="AA10" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="AB10" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="AC10" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="AD10" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="AE10" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="AF10" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="AG10" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="AH10" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="AI10" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="AJ10" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="AK10" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="AL10" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="AM10" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="AN10" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="AO10" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="AP10" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="AQ10" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="AR10" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="AS10" s="82" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:45">
       <c r="A11" s="17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B11" s="82" t="s">
+        <v>412</v>
+      </c>
+      <c r="C11" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="D11" s="82" t="s">
         <v>414</v>
       </c>
-      <c r="C11" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="D11" s="82" t="s">
-        <v>416</v>
-      </c>
       <c r="E11" s="82" t="s">
+        <v>415</v>
+      </c>
+      <c r="F11" s="82" t="s">
+        <v>413</v>
+      </c>
+      <c r="G11" s="82" t="s">
         <v>417</v>
       </c>
-      <c r="F11" s="82" t="s">
+      <c r="H11" s="82" t="s">
+        <v>418</v>
+      </c>
+      <c r="I11" s="82" t="s">
+        <v>419</v>
+      </c>
+      <c r="J11" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="K11" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="L11" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="M11" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="N11" s="82" t="s">
         <v>415</v>
       </c>
-      <c r="G11" s="82" t="s">
+      <c r="O11" s="82" t="s">
         <v>419</v>
       </c>
-      <c r="H11" s="82" t="s">
+      <c r="P11" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q11" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="R11" s="82" t="s">
+        <v>413</v>
+      </c>
+      <c r="S11" s="82" t="s">
+        <v>419</v>
+      </c>
+      <c r="T11" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="U11" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="V11" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="W11" s="82" t="s">
         <v>420</v>
       </c>
-      <c r="I11" s="82" t="s">
+      <c r="X11" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y11" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="Z11" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA11" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="AB11" s="82" t="s">
+        <v>418</v>
+      </c>
+      <c r="AC11" s="82" t="s">
+        <v>419</v>
+      </c>
+      <c r="AD11" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="AE11" s="82" t="s">
+        <v>418</v>
+      </c>
+      <c r="AF11" s="82" t="s">
         <v>421</v>
       </c>
-      <c r="J11" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="K11" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="L11" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="M11" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="N11" s="82" t="s">
+      <c r="AG11" s="82" t="s">
+        <v>418</v>
+      </c>
+      <c r="AH11" s="82" t="s">
+        <v>412</v>
+      </c>
+      <c r="AI11" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="AJ11" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="AK11" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="AL11" s="82" t="s">
+        <v>422</v>
+      </c>
+      <c r="AM11" s="82" t="s">
+        <v>423</v>
+      </c>
+      <c r="AN11" s="82" t="s">
         <v>417</v>
       </c>
-      <c r="O11" s="82" t="s">
-        <v>421</v>
-      </c>
-      <c r="P11" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q11" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="R11" s="82" t="s">
-        <v>415</v>
-      </c>
-      <c r="S11" s="82" t="s">
-        <v>421</v>
-      </c>
-      <c r="T11" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="U11" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="V11" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="W11" s="82" t="s">
-        <v>422</v>
-      </c>
-      <c r="X11" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="Y11" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="Z11" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="AA11" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="AB11" s="82" t="s">
-        <v>420</v>
-      </c>
-      <c r="AC11" s="82" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD11" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="AE11" s="82" t="s">
-        <v>420</v>
-      </c>
-      <c r="AF11" s="82" t="s">
-        <v>423</v>
-      </c>
-      <c r="AG11" s="82" t="s">
-        <v>420</v>
-      </c>
-      <c r="AH11" s="82" t="s">
-        <v>414</v>
-      </c>
-      <c r="AI11" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="AJ11" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="AK11" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="AL11" s="82" t="s">
+      <c r="AO11" s="82" t="s">
         <v>424</v>
       </c>
-      <c r="AM11" s="82" t="s">
+      <c r="AP11" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ11" s="82" t="s">
         <v>425</v>
       </c>
-      <c r="AN11" s="82" t="s">
-        <v>419</v>
-      </c>
-      <c r="AO11" s="82" t="s">
+      <c r="AR11" s="82" t="s">
         <v>426</v>
       </c>
-      <c r="AP11" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="AQ11" s="82" t="s">
-        <v>427</v>
-      </c>
-      <c r="AR11" s="82" t="s">
-        <v>428</v>
-      </c>
       <c r="AS11" s="82" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:45">
       <c r="A12" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="B12" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="C12" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="D12" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="E12" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="F12" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="G12" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="H12" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="I12" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="J12" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="K12" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="L12" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="M12" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="N12" s="82" t="s">
+        <v>395</v>
+      </c>
+      <c r="O12" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="P12" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q12" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="R12" s="82" t="s">
+        <v>396</v>
+      </c>
+      <c r="S12" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="T12" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="U12" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="V12" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="W12" s="82" t="s">
         <v>394</v>
       </c>
-      <c r="B12" s="82" t="s">
-        <v>393</v>
-      </c>
-      <c r="C12" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="D12" s="82" t="s">
-        <v>393</v>
-      </c>
-      <c r="E12" s="82" t="s">
-        <v>393</v>
-      </c>
-      <c r="F12" s="82" t="s">
-        <v>393</v>
-      </c>
-      <c r="G12" s="82" t="s">
-        <v>393</v>
-      </c>
-      <c r="H12" s="82" t="s">
-        <v>393</v>
-      </c>
-      <c r="I12" s="82" t="s">
-        <v>393</v>
-      </c>
-      <c r="J12" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="K12" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="L12" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="M12" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="N12" s="82" t="s">
-        <v>396</v>
-      </c>
-      <c r="O12" s="82" t="s">
-        <v>393</v>
-      </c>
-      <c r="P12" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q12" s="82" t="s">
-        <v>393</v>
-      </c>
-      <c r="R12" s="82" t="s">
+      <c r="X12" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y12" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="Z12" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA12" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="AB12" s="82" t="s">
+        <v>394</v>
+      </c>
+      <c r="AC12" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="AD12" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="AE12" s="83" t="s">
+        <v>392</v>
+      </c>
+      <c r="AF12" s="83" t="s">
+        <v>392</v>
+      </c>
+      <c r="AG12" s="83" t="s">
+        <v>392</v>
+      </c>
+      <c r="AH12" s="83" t="s">
+        <v>392</v>
+      </c>
+      <c r="AI12" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="AJ12" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="AK12" s="83" t="s">
+        <v>392</v>
+      </c>
+      <c r="AL12" s="83" t="s">
+        <v>392</v>
+      </c>
+      <c r="AM12" s="82" t="s">
         <v>397</v>
       </c>
-      <c r="S12" s="82" t="s">
-        <v>393</v>
-      </c>
-      <c r="T12" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="U12" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="V12" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="W12" s="82" t="s">
-        <v>395</v>
-      </c>
-      <c r="X12" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="Y12" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="Z12" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="AA12" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="AB12" s="82" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC12" s="82" t="s">
-        <v>393</v>
-      </c>
-      <c r="AD12" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="AE12" s="83" t="s">
-        <v>393</v>
-      </c>
-      <c r="AF12" s="83" t="s">
-        <v>393</v>
-      </c>
-      <c r="AG12" s="83" t="s">
-        <v>393</v>
-      </c>
-      <c r="AH12" s="83" t="s">
-        <v>393</v>
-      </c>
-      <c r="AI12" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="AJ12" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="AK12" s="83" t="s">
-        <v>393</v>
-      </c>
-      <c r="AL12" s="83" t="s">
-        <v>393</v>
-      </c>
-      <c r="AM12" s="82" t="s">
+      <c r="AN12" s="83" t="s">
+        <v>392</v>
+      </c>
+      <c r="AO12" s="83" t="s">
+        <v>392</v>
+      </c>
+      <c r="AP12" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ12" s="83" t="s">
+        <v>392</v>
+      </c>
+      <c r="AR12" s="82" t="s">
         <v>398</v>
       </c>
-      <c r="AN12" s="83" t="s">
-        <v>393</v>
-      </c>
-      <c r="AO12" s="83" t="s">
-        <v>393</v>
-      </c>
-      <c r="AP12" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="AQ12" s="83" t="s">
-        <v>393</v>
-      </c>
-      <c r="AR12" s="82" t="s">
-        <v>399</v>
-      </c>
       <c r="AS12" s="82" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:45" ht="17">
@@ -6310,106 +6316,106 @@
         <v>6</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="J13" s="73" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="K13" s="73" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="L13" s="73" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="M13" s="73" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="Q13" s="14" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="R13" s="14" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="S13" s="14" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="T13" s="14" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="U13" s="14" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="V13" s="14" t="s">
         <v>244</v>
       </c>
       <c r="W13" s="14" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="X13" s="22" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="Y13" s="14" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="Z13" s="22" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="AA13" s="22" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="AB13" s="14" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="AC13" s="14" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="AD13" s="14" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="AE13" s="14" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="AF13" s="14" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="AG13" s="14" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="AH13" s="14" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="AI13" s="22" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="AJ13" s="14" t="s">
         <v>250</v>
@@ -6418,28 +6424,28 @@
         <v>251</v>
       </c>
       <c r="AL13" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AM13" s="14" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="AN13" s="14" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="AO13" s="14" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="AP13" s="22" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="AQ13" s="14" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="AR13" s="14" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="AS13" s="14" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -6447,136 +6453,136 @@
         <v>9</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="U14" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="V14" s="11" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="W14" s="11" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="X14" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="Z14" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AA14" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AB14" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AC14" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AD14" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AE14" s="11" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="AF14" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AG14" s="11" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="AH14" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AI14" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AJ14" s="11" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="AK14" s="11" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="AL14" s="11" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="AM14" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AN14" s="11" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="AO14" s="11" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="AP14" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AQ14" s="11" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="AR14" s="11" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="AS14" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -6584,136 +6590,136 @@
         <v>28</v>
       </c>
       <c r="B15" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="D15" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="E15" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>300</v>
-      </c>
       <c r="F15" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="G15" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>307</v>
-      </c>
       <c r="H15" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P15" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q15" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R15" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S15" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="T15" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="U15" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="V15" s="15" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="W15" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="X15" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Y15" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Z15" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AA15" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="AB15" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="AB15" s="15" t="s">
-        <v>348</v>
-      </c>
       <c r="AC15" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AD15" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AE15" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF15" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AG15" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH15" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="AH15" s="15" t="s">
-        <v>360</v>
-      </c>
       <c r="AI15" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AJ15" s="15" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="AK15" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL15" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AM15" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AN15" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AO15" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="AP15" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="AP15" s="15" t="s">
-        <v>375</v>
-      </c>
       <c r="AQ15" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AR15" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AS15" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16" spans="1:45" ht="54" customHeight="1">
@@ -6724,7 +6730,7 @@
         <v>108</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>47</v>
@@ -6733,10 +6739,10 @@
         <v>108</v>
       </c>
       <c r="F16" s="74" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="G16" s="74" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>108</v>
@@ -6745,16 +6751,16 @@
         <v>108</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="N16" s="9" t="s">
         <v>136</v>
@@ -6763,7 +6769,7 @@
         <v>141</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>108</v>
@@ -6775,28 +6781,28 @@
         <v>205</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="V16" s="78" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="W16" s="9" t="s">
         <v>177</v>
       </c>
       <c r="X16" s="9" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="Y16" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="Z16" s="9" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="AA16" s="9" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="AB16" s="9" t="s">
         <v>197</v>
@@ -6805,10 +6811,10 @@
         <v>136</v>
       </c>
       <c r="AD16" s="9" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="AE16" s="74" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF16" s="74" t="s">
         <v>219</v>
@@ -6830,28 +6836,28 @@
         <v>108</v>
       </c>
       <c r="AM16" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AN16" s="74" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AO16" s="74" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AP16" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="AQ16" s="74" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AR16" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AS16" s="9" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="17" spans="1:45" ht="178" customHeight="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" ht="191" customHeight="1">
       <c r="A17" s="18" t="s">
         <v>13</v>
       </c>
@@ -6859,16 +6865,16 @@
         <v>24</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D17" s="61" t="s">
         <v>46</v>
       </c>
       <c r="E17" s="84" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F17" s="84" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G17" s="61" t="s">
         <v>109</v>
@@ -6877,73 +6883,73 @@
         <v>113</v>
       </c>
       <c r="I17" s="61" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J17" s="61" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K17" s="61" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L17" s="61" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M17" s="61" t="s">
-        <v>405</v>
-      </c>
-      <c r="N17" s="84" t="s">
+        <v>404</v>
+      </c>
+      <c r="N17" s="182" t="s">
         <v>137</v>
       </c>
       <c r="O17" s="61" t="s">
         <v>142</v>
       </c>
       <c r="P17" s="61" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Q17" s="62" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="R17" s="61" t="s">
         <v>158</v>
       </c>
       <c r="S17" s="61" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="T17" s="61" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U17" s="61" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="V17" s="61" t="s">
-        <v>405</v>
+        <v>918</v>
       </c>
       <c r="W17" s="61" t="s">
         <v>179</v>
       </c>
       <c r="X17" s="61" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Y17" s="61" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Z17" s="61" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AA17" s="61" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AB17" s="61" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AC17" s="61" t="s">
         <v>202</v>
       </c>
       <c r="AD17" s="61" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AE17" s="85" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF17" s="61" t="s">
         <v>218</v>
@@ -6955,37 +6961,37 @@
         <v>234</v>
       </c>
       <c r="AI17" s="61" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AJ17" s="79" t="s">
-        <v>448</v>
+        <v>917</v>
       </c>
       <c r="AK17" s="79" t="s">
-        <v>252</v>
+        <v>919</v>
       </c>
       <c r="AL17" s="84" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AM17" s="62" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AN17" s="86" t="s">
-        <v>408</v>
+        <v>920</v>
       </c>
       <c r="AO17" s="61" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AP17" s="61" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AQ17" s="61" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AR17" s="61" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AS17" s="61" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:45">
@@ -6993,162 +6999,162 @@
         <v>36</v>
       </c>
       <c r="B18" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="C18" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="D18" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="E18" s="41" t="s">
         <v>303</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="F18" s="41" t="s">
         <v>304</v>
       </c>
-      <c r="F18" s="41" t="s">
-        <v>305</v>
-      </c>
       <c r="G18" s="41" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H18" s="41" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I18" s="41" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J18" s="41" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K18" s="41" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L18" s="41" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M18" s="41" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N18" s="41" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O18" s="41" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P18" s="41" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q18" s="41" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R18" s="41" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S18" s="41" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="T18" s="41" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="U18" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="V18" s="41" t="s">
         <v>336</v>
       </c>
-      <c r="V18" s="41" t="s">
-        <v>337</v>
-      </c>
       <c r="W18" s="41" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="X18" s="41" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y18" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z18" s="41" t="s">
         <v>344</v>
       </c>
-      <c r="Z18" s="41" t="s">
+      <c r="AA18" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="AA18" s="41" t="s">
-        <v>346</v>
-      </c>
       <c r="AB18" s="41" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AC18" s="41" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AD18" s="41" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AE18" s="41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF18" s="41" t="s">
+        <v>356</v>
+      </c>
+      <c r="AG18" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="AG18" s="41" t="s">
-        <v>358</v>
-      </c>
       <c r="AH18" s="41" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AI18" s="41" t="s">
+        <v>362</v>
+      </c>
+      <c r="AJ18" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="AJ18" s="41" t="s">
-        <v>364</v>
-      </c>
       <c r="AK18" s="41" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AL18" s="41" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM18" s="41" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AN18" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="AO18" s="41" t="s">
         <v>372</v>
       </c>
-      <c r="AO18" s="41" t="s">
-        <v>373</v>
-      </c>
       <c r="AP18" s="41" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AQ18" s="41" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AR18" s="41" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AS18" s="41" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:45">
       <c r="A19" s="16" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="B19" s="42">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="C19" s="42" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="42">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="E19" s="42">
-        <v>1230</v>
+        <v>1625</v>
       </c>
       <c r="F19" s="42">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="G19" s="42">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="H19" s="42">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="I19" s="42" t="s">
         <v>8</v>
@@ -7166,10 +7172,10 @@
         <v>8</v>
       </c>
       <c r="N19" s="42">
-        <v>1260</v>
+        <v>1700</v>
       </c>
       <c r="O19" s="42">
-        <v>1230</v>
+        <v>1600</v>
       </c>
       <c r="P19" s="42" t="s">
         <v>8</v>
@@ -7178,10 +7184,10 @@
         <v>850</v>
       </c>
       <c r="R19" s="42">
-        <v>550</v>
+        <v>825</v>
       </c>
       <c r="S19" s="42">
-        <v>2000</v>
+        <v>1850</v>
       </c>
       <c r="T19" s="42" t="s">
         <v>8</v>
@@ -7189,11 +7195,11 @@
       <c r="U19" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="V19" s="42" t="s">
-        <v>8</v>
+      <c r="V19" s="42">
+        <v>1200</v>
       </c>
       <c r="W19" s="42">
-        <v>260</v>
+        <v>325</v>
       </c>
       <c r="X19" s="42" t="s">
         <v>8</v>
@@ -7204,22 +7210,26 @@
       <c r="Z19" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="AA19" s="42"/>
+      <c r="AA19" s="42" t="s">
+        <v>8</v>
+      </c>
       <c r="AB19" s="42" t="s">
         <v>8</v>
       </c>
       <c r="AC19" s="42">
-        <v>560</v>
-      </c>
-      <c r="AD19" s="42"/>
+        <v>520</v>
+      </c>
+      <c r="AD19" s="42" t="s">
+        <v>8</v>
+      </c>
       <c r="AE19" s="42">
-        <v>820</v>
+        <v>520</v>
       </c>
       <c r="AF19" s="42">
-        <v>1300</v>
+        <v>1625</v>
       </c>
       <c r="AG19" s="42">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="AH19" s="42">
         <v>2170</v>
@@ -7227,7 +7237,9 @@
       <c r="AI19" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="AJ19" s="57"/>
+      <c r="AJ19" s="57">
+        <v>820</v>
+      </c>
       <c r="AK19" s="42">
         <v>480</v>
       </c>
@@ -7235,10 +7247,10 @@
         <v>600</v>
       </c>
       <c r="AM19" s="42">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="AN19" s="42">
-        <v>900</v>
+        <v>830</v>
       </c>
       <c r="AO19" s="42">
         <v>1030</v>
@@ -7247,28 +7259,30 @@
         <v>8</v>
       </c>
       <c r="AQ19" s="42">
-        <v>1740</v>
+        <v>2010</v>
       </c>
       <c r="AR19" s="42">
         <v>440</v>
       </c>
-      <c r="AS19" s="42"/>
-    </row>
-    <row r="20" spans="1:45" ht="34">
+      <c r="AS19" s="42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" ht="51">
       <c r="A20" s="17" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="B20" s="43">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="C20" s="43">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="D20" s="43" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="43">
-        <v>880</v>
+        <v>1250</v>
       </c>
       <c r="F20" s="43">
         <v>360</v>
@@ -7280,61 +7294,61 @@
         <v>570</v>
       </c>
       <c r="I20" s="43" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="J20" s="43">
-        <v>840</v>
+        <v>750</v>
       </c>
       <c r="K20" s="43">
-        <v>1415</v>
+        <v>1420</v>
       </c>
       <c r="L20" s="43">
-        <v>880</v>
+        <v>750</v>
       </c>
       <c r="M20" s="43">
-        <v>1015</v>
+        <v>1200</v>
       </c>
       <c r="N20" s="43">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="O20" s="43">
-        <v>880</v>
+        <v>1300</v>
       </c>
       <c r="P20" s="43">
         <v>1300</v>
       </c>
       <c r="Q20" s="43">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="R20" s="43">
-        <v>390</v>
+        <v>740</v>
       </c>
       <c r="S20" s="43">
         <v>1420</v>
       </c>
       <c r="T20" s="43">
-        <v>1280</v>
+        <v>1400</v>
       </c>
       <c r="U20" s="43">
-        <v>810</v>
+        <v>1200</v>
       </c>
       <c r="V20" s="43">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="W20" s="43">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="X20" s="43">
-        <v>710</v>
+        <v>750</v>
       </c>
       <c r="Y20" s="43">
         <v>1400</v>
       </c>
       <c r="Z20" s="43">
-        <v>880</v>
+        <v>750</v>
       </c>
       <c r="AA20" s="43">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="AB20" s="43" t="s">
         <v>8</v>
@@ -7343,13 +7357,13 @@
         <v>400</v>
       </c>
       <c r="AD20" s="43">
-        <v>1630</v>
+        <v>1550</v>
       </c>
       <c r="AE20" s="43">
-        <v>590</v>
+        <v>400</v>
       </c>
       <c r="AF20" s="43">
-        <v>930</v>
+        <v>1250</v>
       </c>
       <c r="AG20" s="43">
         <v>400</v>
@@ -7358,10 +7372,10 @@
         <v>1550</v>
       </c>
       <c r="AI20" s="43">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="AJ20" s="101" t="s">
-        <v>458</v>
+        <v>922</v>
       </c>
       <c r="AK20" s="43">
         <v>340</v>
@@ -7370,42 +7384,42 @@
         <v>500</v>
       </c>
       <c r="AM20" s="43">
-        <v>930</v>
+        <v>750</v>
       </c>
       <c r="AN20" s="43">
         <v>640</v>
       </c>
       <c r="AO20" s="43">
-        <v>740</v>
+        <v>900</v>
       </c>
       <c r="AP20" s="170">
-        <v>1960</v>
+        <v>1200</v>
       </c>
       <c r="AQ20" s="43">
-        <v>1240</v>
+        <v>1550</v>
       </c>
       <c r="AR20" s="43">
         <v>320</v>
       </c>
       <c r="AS20" s="43">
-        <v>1620</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="21" spans="1:45">
       <c r="A21" s="18" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B21" s="44">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="C21" s="44">
-        <v>580</v>
+        <v>800</v>
       </c>
       <c r="D21" s="44">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E21" s="44">
-        <v>670</v>
+        <v>1060</v>
       </c>
       <c r="F21" s="44">
         <v>280</v>
@@ -7417,76 +7431,76 @@
         <v>440</v>
       </c>
       <c r="I21" s="44" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="J21" s="44">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="K21" s="44">
-        <v>1090</v>
+        <v>1000</v>
       </c>
       <c r="L21" s="44">
-        <v>680</v>
+        <v>640</v>
       </c>
       <c r="M21" s="44">
-        <v>780</v>
+        <v>1100</v>
       </c>
       <c r="N21" s="44">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="O21" s="44">
-        <v>680</v>
+        <v>1100</v>
       </c>
       <c r="P21" s="44">
         <v>1000</v>
       </c>
       <c r="Q21" s="44">
-        <v>470</v>
+        <v>550</v>
       </c>
       <c r="R21" s="44">
-        <v>300</v>
+        <v>590</v>
       </c>
       <c r="S21" s="44">
         <v>1000</v>
       </c>
       <c r="T21" s="44">
-        <v>990</v>
+        <v>1190</v>
       </c>
       <c r="U21" s="44">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="V21" s="44">
+        <v>800</v>
+      </c>
+      <c r="W21" s="44">
+        <v>300</v>
+      </c>
+      <c r="X21" s="44">
+        <v>640</v>
+      </c>
+      <c r="Y21" s="44">
+        <v>1260</v>
+      </c>
+      <c r="Z21" s="44">
+        <v>640</v>
+      </c>
+      <c r="AA21" s="44">
+        <v>1260</v>
+      </c>
+      <c r="AB21" s="44">
         <v>900</v>
       </c>
-      <c r="W21" s="44">
-        <v>260</v>
-      </c>
-      <c r="X21" s="44">
-        <v>550</v>
-      </c>
-      <c r="Y21" s="44">
-        <v>1000</v>
-      </c>
-      <c r="Z21" s="44">
-        <v>670</v>
-      </c>
-      <c r="AA21" s="44">
-        <v>820</v>
-      </c>
-      <c r="AB21" s="44">
-        <v>700</v>
-      </c>
       <c r="AC21" s="44">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AD21" s="44">
-        <v>1255</v>
+        <v>1550</v>
       </c>
       <c r="AE21" s="44">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="AF21" s="44">
-        <v>720</v>
+        <v>1060</v>
       </c>
       <c r="AG21" s="44">
         <v>250</v>
@@ -7495,7 +7509,7 @@
         <v>1190</v>
       </c>
       <c r="AI21" s="44">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AJ21" s="102"/>
       <c r="AK21" s="44">
@@ -7505,19 +7519,19 @@
         <v>400</v>
       </c>
       <c r="AM21" s="44">
-        <v>715</v>
+        <v>640</v>
       </c>
       <c r="AN21" s="44">
         <v>500</v>
       </c>
       <c r="AO21" s="44">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="AP21" s="176">
-        <v>1960</v>
+        <v>1100</v>
       </c>
       <c r="AQ21" s="44">
-        <v>960</v>
+        <v>1400</v>
       </c>
       <c r="AR21" s="44">
         <v>250</v>
@@ -7784,10 +7798,10 @@
         <v>178</v>
       </c>
       <c r="AM24" s="75" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AN24" s="65" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AO24" s="65" t="s">
         <v>101</v>
@@ -7796,10 +7810,10 @@
         <v>8</v>
       </c>
       <c r="AQ24" s="65" t="s">
+        <v>384</v>
+      </c>
+      <c r="AR24" s="65" t="s">
         <v>385</v>
-      </c>
-      <c r="AR24" s="65" t="s">
-        <v>386</v>
       </c>
       <c r="AS24" s="64" t="s">
         <v>8</v>
@@ -7810,13 +7824,13 @@
         <v>2</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C25" s="47" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>102</v>
@@ -7858,7 +7872,7 @@
         <v>102</v>
       </c>
       <c r="R25" s="115" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="S25" s="32" t="s">
         <v>164</v>
@@ -7873,7 +7887,7 @@
         <v>31</v>
       </c>
       <c r="W25" s="115" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="X25" s="47" t="s">
         <v>8</v>
@@ -7906,7 +7920,7 @@
         <v>224</v>
       </c>
       <c r="AH25" s="116" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="AI25" s="47" t="s">
         <v>8</v>
@@ -7921,7 +7935,7 @@
         <v>31</v>
       </c>
       <c r="AM25" s="32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AN25" s="32" t="s">
         <v>224</v>
@@ -7933,10 +7947,10 @@
         <v>8</v>
       </c>
       <c r="AQ25" s="32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AR25" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AS25" s="47" t="s">
         <v>8</v>
@@ -8105,7 +8119,7 @@
         <v>8</v>
       </c>
       <c r="I27" s="60" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="J27" s="59" t="s">
         <v>8</v>
@@ -8120,7 +8134,7 @@
         <v>128</v>
       </c>
       <c r="N27" s="60" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="O27" s="59" t="s">
         <v>8</v>
@@ -8162,7 +8176,7 @@
         <v>172</v>
       </c>
       <c r="AB27" s="102" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AC27" s="59" t="s">
         <v>8</v>
@@ -8177,7 +8191,7 @@
         <v>8</v>
       </c>
       <c r="AG27" s="102" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AH27" s="60" t="s">
         <v>232</v>
@@ -8192,7 +8206,7 @@
         <v>8</v>
       </c>
       <c r="AL27" s="60" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="AM27" s="60" t="s">
         <v>172</v>
@@ -8363,7 +8377,7 @@
         <v>31</v>
       </c>
       <c r="E29" s="115" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="F29" s="55" t="s">
         <v>104</v>
@@ -8411,7 +8425,7 @@
         <v>31</v>
       </c>
       <c r="U29" s="55" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="V29" s="38" t="s">
         <v>8</v>
@@ -8423,7 +8437,7 @@
         <v>183</v>
       </c>
       <c r="Y29" s="55" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="Z29" s="55" t="s">
         <v>172</v>
@@ -8438,7 +8452,7 @@
         <v>8</v>
       </c>
       <c r="AD29" s="55" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="AE29" s="38" t="s">
         <v>8</v>
@@ -8475,7 +8489,7 @@
         <v>31</v>
       </c>
       <c r="AQ29" s="55" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AR29" s="55"/>
       <c r="AS29" s="55" t="s">
@@ -8494,14 +8508,14 @@
       <c r="G31" s="172"/>
       <c r="H31" s="19"/>
       <c r="I31" s="173" t="s">
-        <v>862</v>
+        <v>921</v>
       </c>
       <c r="J31" s="172"/>
       <c r="K31" s="172"/>
       <c r="L31" s="172"/>
       <c r="M31" s="172"/>
       <c r="N31" s="173" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="O31" s="172"/>
       <c r="P31" s="172"/>
@@ -8511,7 +8525,7 @@
       <c r="T31" s="172"/>
       <c r="U31" s="172"/>
       <c r="V31" s="173" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="W31" s="173"/>
       <c r="X31" s="172"/>
@@ -8520,7 +8534,7 @@
       <c r="AA31" s="172"/>
       <c r="AB31" s="19"/>
       <c r="AC31" s="174" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="AD31" s="172"/>
       <c r="AE31" s="172"/>
@@ -8529,14 +8543,14 @@
       <c r="AH31" s="19"/>
       <c r="AI31" s="172"/>
       <c r="AJ31" s="174" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="AK31" s="172"/>
       <c r="AL31" s="172"/>
       <c r="AM31" s="175"/>
       <c r="AN31" s="172"/>
       <c r="AO31" s="19" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="AP31" s="172"/>
       <c r="AQ31" s="172"/>
@@ -8548,7 +8562,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -8690,9 +8704,7 @@
     <hyperlink ref="F29" r:id="rId3" xr:uid="{68C4F114-6133-F049-9B01-9A4B54FDD220}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="AN17" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -8701,10 +8713,10 @@
   <dimension ref="A1:AS23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AC6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AR2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AQ9" sqref="AQ9"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17:AS17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8758,7 +8770,7 @@
   <sheetData>
     <row r="1" spans="1:45" s="1" customFormat="1" ht="35" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
@@ -8895,12 +8907,12 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" s="31" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:45">
       <c r="A3" s="91" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B3" s="42" t="s">
         <v>8</v>
@@ -9029,7 +9041,7 @@
     </row>
     <row r="4" spans="1:45">
       <c r="A4" s="66" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B4" s="169">
         <v>11302</v>
@@ -9156,7 +9168,7 @@
     </row>
     <row r="5" spans="1:45">
       <c r="A5" s="66" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B5" s="170">
         <v>4624</v>
@@ -9283,7 +9295,7 @@
     </row>
     <row r="6" spans="1:45">
       <c r="A6" s="66" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B6" s="169">
         <v>15926</v>
@@ -9415,131 +9427,131 @@
         <v>2</v>
       </c>
       <c r="B7" s="145" t="s">
+        <v>716</v>
+      </c>
+      <c r="C7" s="144" t="s">
+        <v>717</v>
+      </c>
+      <c r="D7" s="92" t="s">
+        <v>714</v>
+      </c>
+      <c r="E7" s="92" t="s">
+        <v>714</v>
+      </c>
+      <c r="F7" s="92" t="s">
+        <v>715</v>
+      </c>
+      <c r="G7" s="92" t="s">
+        <v>714</v>
+      </c>
+      <c r="H7" s="92" t="s">
+        <v>714</v>
+      </c>
+      <c r="I7" s="92" t="s">
+        <v>714</v>
+      </c>
+      <c r="J7" s="146" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="92" t="s">
+        <v>714</v>
+      </c>
+      <c r="L7" s="92" t="s">
+        <v>714</v>
+      </c>
+      <c r="M7" s="92" t="s">
+        <v>714</v>
+      </c>
+      <c r="N7" s="92" t="s">
+        <v>714</v>
+      </c>
+      <c r="O7" s="146" t="s">
+        <v>8</v>
+      </c>
+      <c r="P7" s="146" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="146" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" s="146" t="s">
+        <v>8</v>
+      </c>
+      <c r="S7" s="98" t="s">
+        <v>718</v>
+      </c>
+      <c r="T7" s="92" t="s">
+        <v>714</v>
+      </c>
+      <c r="U7" s="146" t="s">
+        <v>8</v>
+      </c>
+      <c r="V7" s="146" t="s">
+        <v>8</v>
+      </c>
+      <c r="W7" s="98" t="s">
+        <v>729</v>
+      </c>
+      <c r="X7" s="92" t="s">
+        <v>714</v>
+      </c>
+      <c r="Y7" s="98" t="s">
+        <v>719</v>
+      </c>
+      <c r="Z7" s="92" t="s">
+        <v>714</v>
+      </c>
+      <c r="AA7" s="92" t="s">
+        <v>714</v>
+      </c>
+      <c r="AB7" s="98" t="s">
         <v>720</v>
       </c>
-      <c r="C7" s="144" t="s">
+      <c r="AC7" s="98" t="s">
         <v>721</v>
       </c>
-      <c r="D7" s="92" t="s">
-        <v>718</v>
-      </c>
-      <c r="E7" s="92" t="s">
-        <v>718</v>
-      </c>
-      <c r="F7" s="92" t="s">
-        <v>719</v>
-      </c>
-      <c r="G7" s="92" t="s">
-        <v>718</v>
-      </c>
-      <c r="H7" s="92" t="s">
-        <v>718</v>
-      </c>
-      <c r="I7" s="92" t="s">
-        <v>718</v>
-      </c>
-      <c r="J7" s="146" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="92" t="s">
-        <v>718</v>
-      </c>
-      <c r="L7" s="92" t="s">
-        <v>718</v>
-      </c>
-      <c r="M7" s="92" t="s">
-        <v>718</v>
-      </c>
-      <c r="N7" s="92" t="s">
-        <v>718</v>
-      </c>
-      <c r="O7" s="146" t="s">
-        <v>8</v>
-      </c>
-      <c r="P7" s="146" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q7" s="146" t="s">
-        <v>8</v>
-      </c>
-      <c r="R7" s="146" t="s">
-        <v>8</v>
-      </c>
-      <c r="S7" s="98" t="s">
+      <c r="AD7" s="98" t="s">
         <v>722</v>
       </c>
-      <c r="T7" s="92" t="s">
-        <v>718</v>
-      </c>
-      <c r="U7" s="146" t="s">
-        <v>8</v>
-      </c>
-      <c r="V7" s="146" t="s">
-        <v>8</v>
-      </c>
-      <c r="W7" s="98" t="s">
-        <v>733</v>
-      </c>
-      <c r="X7" s="92" t="s">
-        <v>718</v>
-      </c>
-      <c r="Y7" s="98" t="s">
-        <v>723</v>
-      </c>
-      <c r="Z7" s="92" t="s">
-        <v>718</v>
-      </c>
-      <c r="AA7" s="92" t="s">
-        <v>718</v>
-      </c>
-      <c r="AB7" s="98" t="s">
-        <v>724</v>
-      </c>
-      <c r="AC7" s="98" t="s">
-        <v>725</v>
-      </c>
-      <c r="AD7" s="98" t="s">
-        <v>726</v>
-      </c>
       <c r="AE7" s="146" t="s">
         <v>8</v>
       </c>
       <c r="AF7" s="92" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="AG7" s="98" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="AH7" s="92"/>
       <c r="AI7" s="92"/>
       <c r="AJ7" s="92" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="AK7" s="92" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="AL7" s="98" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="AM7" s="92" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="AN7" s="92" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="AO7" s="92"/>
       <c r="AP7" s="92"/>
       <c r="AQ7" s="92" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="AR7" s="92"/>
       <c r="AS7" s="92" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="8" spans="1:45">
       <c r="A8" s="103" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B8" s="148">
         <v>15926</v>
@@ -9679,141 +9691,141 @@
         <v>2</v>
       </c>
       <c r="B9" s="150" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C9" s="99" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D9" s="99" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E9" s="99" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F9" s="99" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G9" s="99" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H9" s="99" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="I9" s="99" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="J9" s="100" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K9" s="99" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L9" s="99" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="M9" s="99" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="N9" s="99" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="O9" s="120" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="P9" s="100" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="Q9" s="100" t="s">
         <v>150</v>
       </c>
       <c r="R9" s="120" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="S9" s="99" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="T9" s="99" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="U9" s="100" t="s">
+        <v>728</v>
+      </c>
+      <c r="V9" s="100" t="s">
+        <v>811</v>
+      </c>
+      <c r="W9" s="99" t="s">
+        <v>462</v>
+      </c>
+      <c r="X9" s="99" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y9" s="99" t="s">
+        <v>462</v>
+      </c>
+      <c r="Z9" s="99" t="s">
+        <v>462</v>
+      </c>
+      <c r="AA9" s="99" t="s">
+        <v>462</v>
+      </c>
+      <c r="AB9" s="99" t="s">
+        <v>462</v>
+      </c>
+      <c r="AC9" s="99" t="s">
+        <v>462</v>
+      </c>
+      <c r="AD9" s="99" t="s">
+        <v>462</v>
+      </c>
+      <c r="AE9" s="100" t="s">
+        <v>454</v>
+      </c>
+      <c r="AF9" s="99" t="s">
+        <v>462</v>
+      </c>
+      <c r="AG9" s="99" t="s">
+        <v>462</v>
+      </c>
+      <c r="AH9" s="100" t="s">
         <v>732</v>
       </c>
-      <c r="V9" s="100" t="s">
-        <v>815</v>
-      </c>
-      <c r="W9" s="99" t="s">
-        <v>466</v>
-      </c>
-      <c r="X9" s="99" t="s">
-        <v>466</v>
-      </c>
-      <c r="Y9" s="99" t="s">
-        <v>466</v>
-      </c>
-      <c r="Z9" s="99" t="s">
-        <v>466</v>
-      </c>
-      <c r="AA9" s="99" t="s">
-        <v>466</v>
-      </c>
-      <c r="AB9" s="99" t="s">
-        <v>466</v>
-      </c>
-      <c r="AC9" s="99" t="s">
-        <v>466</v>
-      </c>
-      <c r="AD9" s="99" t="s">
-        <v>466</v>
-      </c>
-      <c r="AE9" s="100" t="s">
-        <v>457</v>
-      </c>
-      <c r="AF9" s="99" t="s">
-        <v>466</v>
-      </c>
-      <c r="AG9" s="99" t="s">
-        <v>466</v>
-      </c>
-      <c r="AH9" s="100" t="s">
-        <v>736</v>
-      </c>
       <c r="AI9" s="120" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="AJ9" s="99" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AK9" s="99" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AL9" s="99" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AM9" s="99" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AN9" s="99" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AO9" s="120" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="AP9" s="120" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="AQ9" s="107" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AR9" s="100" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AS9" s="99" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:45">
       <c r="A10" s="90" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B10" s="171">
         <v>5012796.6732999999</v>
@@ -9940,7 +9952,7 @@
     </row>
     <row r="11" spans="1:45">
       <c r="A11" s="90" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B11" s="171">
         <v>315</v>
@@ -10080,821 +10092,821 @@
         <v>2</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C12" s="90" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="D12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="G12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="H12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="I12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="J12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="K12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="L12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="M12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="N12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="O12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="P12" s="90" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="Q12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="R12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="S12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="T12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="U12" s="90" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="V12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="W12" s="90" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="X12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="Y12" s="90" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="Z12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="AA12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="AB12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="AC12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="AD12" s="90" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="AE12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="AF12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="AG12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="AH12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="AI12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="AJ12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="AK12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="AL12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="AM12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="AN12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="AO12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="AP12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="AQ12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="AR12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="AS12" s="105" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="13" spans="1:45" s="4" customFormat="1" ht="51">
       <c r="A13" s="10" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B13" s="108" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C13" s="109" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D13" s="108" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="E13" s="108" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F13" s="108" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="G13" s="108" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="H13" s="108" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="I13" s="108" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="J13" s="108" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="K13" s="108" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="L13" s="108" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="M13" s="108" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="N13" s="108" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="O13" s="108" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="P13" s="111" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q13" s="108" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="R13" s="108" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="S13" s="108" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="T13" s="108" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="U13" s="134" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="V13" s="108" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="W13" s="134" t="s">
+        <v>730</v>
+      </c>
+      <c r="X13" s="108" t="s">
+        <v>727</v>
+      </c>
+      <c r="Y13" s="134" t="s">
+        <v>704</v>
+      </c>
+      <c r="Z13" s="108" t="s">
+        <v>727</v>
+      </c>
+      <c r="AA13" s="108" t="s">
+        <v>727</v>
+      </c>
+      <c r="AB13" s="108" t="s">
+        <v>727</v>
+      </c>
+      <c r="AC13" s="108" t="s">
+        <v>727</v>
+      </c>
+      <c r="AD13" s="111" t="s">
+        <v>390</v>
+      </c>
+      <c r="AE13" s="108" t="s">
+        <v>727</v>
+      </c>
+      <c r="AF13" s="108" t="s">
+        <v>727</v>
+      </c>
+      <c r="AG13" s="108" t="s">
+        <v>727</v>
+      </c>
+      <c r="AH13" s="108" t="s">
+        <v>727</v>
+      </c>
+      <c r="AI13" s="108" t="s">
+        <v>727</v>
+      </c>
+      <c r="AJ13" s="108" t="s">
+        <v>727</v>
+      </c>
+      <c r="AK13" s="108" t="s">
+        <v>727</v>
+      </c>
+      <c r="AL13" s="108" t="s">
+        <v>727</v>
+      </c>
+      <c r="AM13" s="108" t="s">
+        <v>727</v>
+      </c>
+      <c r="AN13" s="108" t="s">
+        <v>727</v>
+      </c>
+      <c r="AO13" s="108" t="s">
+        <v>727</v>
+      </c>
+      <c r="AP13" s="108" t="s">
+        <v>727</v>
+      </c>
+      <c r="AQ13" s="108" t="s">
+        <v>727</v>
+      </c>
+      <c r="AR13" s="108" t="s">
         <v>734</v>
       </c>
-      <c r="X13" s="108" t="s">
-        <v>731</v>
-      </c>
-      <c r="Y13" s="134" t="s">
-        <v>708</v>
-      </c>
-      <c r="Z13" s="108" t="s">
-        <v>731</v>
-      </c>
-      <c r="AA13" s="108" t="s">
-        <v>731</v>
-      </c>
-      <c r="AB13" s="108" t="s">
-        <v>731</v>
-      </c>
-      <c r="AC13" s="108" t="s">
-        <v>731</v>
-      </c>
-      <c r="AD13" s="111" t="s">
-        <v>391</v>
-      </c>
-      <c r="AE13" s="108" t="s">
-        <v>731</v>
-      </c>
-      <c r="AF13" s="108" t="s">
-        <v>731</v>
-      </c>
-      <c r="AG13" s="108" t="s">
-        <v>731</v>
-      </c>
-      <c r="AH13" s="108" t="s">
-        <v>731</v>
-      </c>
-      <c r="AI13" s="108" t="s">
-        <v>731</v>
-      </c>
-      <c r="AJ13" s="108" t="s">
-        <v>731</v>
-      </c>
-      <c r="AK13" s="108" t="s">
-        <v>731</v>
-      </c>
-      <c r="AL13" s="108" t="s">
-        <v>731</v>
-      </c>
-      <c r="AM13" s="108" t="s">
-        <v>731</v>
-      </c>
-      <c r="AN13" s="108" t="s">
-        <v>731</v>
-      </c>
-      <c r="AO13" s="108" t="s">
-        <v>731</v>
-      </c>
-      <c r="AP13" s="108" t="s">
-        <v>731</v>
-      </c>
-      <c r="AQ13" s="108" t="s">
-        <v>731</v>
-      </c>
-      <c r="AR13" s="108" t="s">
-        <v>738</v>
-      </c>
       <c r="AS13" s="108" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="14" spans="1:45" s="4" customFormat="1">
       <c r="A14" s="11" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="I14" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="J14" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="K14" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="L14" s="110" t="s">
         <v>471</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="M14" s="110" t="s">
         <v>472</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="N14" s="110" t="s">
         <v>473</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="O14" s="110" t="s">
         <v>474</v>
       </c>
-      <c r="L14" s="110" t="s">
+      <c r="P14" s="110" t="s">
         <v>475</v>
       </c>
-      <c r="M14" s="110" t="s">
+      <c r="Q14" s="110" t="s">
         <v>476</v>
       </c>
-      <c r="N14" s="110" t="s">
+      <c r="R14" s="110" t="s">
         <v>477</v>
       </c>
-      <c r="O14" s="110" t="s">
+      <c r="S14" s="110" t="s">
         <v>478</v>
       </c>
-      <c r="P14" s="110" t="s">
+      <c r="T14" s="110" t="s">
         <v>479</v>
       </c>
-      <c r="Q14" s="110" t="s">
+      <c r="U14" s="110" t="s">
         <v>480</v>
       </c>
-      <c r="R14" s="110" t="s">
+      <c r="V14" s="110" t="s">
         <v>481</v>
       </c>
-      <c r="S14" s="110" t="s">
+      <c r="W14" s="110" t="s">
         <v>482</v>
       </c>
-      <c r="T14" s="110" t="s">
+      <c r="X14" s="110" t="s">
         <v>483</v>
       </c>
-      <c r="U14" s="110" t="s">
+      <c r="Y14" s="110" t="s">
         <v>484</v>
       </c>
-      <c r="V14" s="110" t="s">
+      <c r="Z14" s="110" t="s">
         <v>485</v>
       </c>
-      <c r="W14" s="110" t="s">
+      <c r="AA14" s="110" t="s">
         <v>486</v>
       </c>
-      <c r="X14" s="110" t="s">
+      <c r="AB14" s="110" t="s">
         <v>487</v>
       </c>
-      <c r="Y14" s="110" t="s">
+      <c r="AC14" s="110" t="s">
         <v>488</v>
       </c>
-      <c r="Z14" s="110" t="s">
+      <c r="AD14" s="110" t="s">
         <v>489</v>
       </c>
-      <c r="AA14" s="110" t="s">
+      <c r="AE14" s="110" t="s">
         <v>490</v>
       </c>
-      <c r="AB14" s="110" t="s">
+      <c r="AF14" s="110" t="s">
         <v>491</v>
       </c>
-      <c r="AC14" s="110" t="s">
+      <c r="AG14" s="110" t="s">
         <v>492</v>
       </c>
-      <c r="AD14" s="110" t="s">
+      <c r="AH14" s="110" t="s">
         <v>493</v>
       </c>
-      <c r="AE14" s="110" t="s">
+      <c r="AI14" s="110" t="s">
         <v>494</v>
       </c>
-      <c r="AF14" s="110" t="s">
+      <c r="AJ14" s="110" t="s">
         <v>495</v>
       </c>
-      <c r="AG14" s="110" t="s">
+      <c r="AK14" s="110" t="s">
         <v>496</v>
       </c>
-      <c r="AH14" s="110" t="s">
+      <c r="AL14" s="110" t="s">
         <v>497</v>
       </c>
-      <c r="AI14" s="110" t="s">
+      <c r="AM14" s="110" t="s">
         <v>498</v>
       </c>
-      <c r="AJ14" s="110" t="s">
+      <c r="AN14" s="110" t="s">
         <v>499</v>
       </c>
-      <c r="AK14" s="110" t="s">
+      <c r="AO14" s="110" t="s">
         <v>500</v>
       </c>
-      <c r="AL14" s="110" t="s">
+      <c r="AP14" s="110" t="s">
         <v>501</v>
       </c>
-      <c r="AM14" s="110" t="s">
+      <c r="AQ14" s="110" t="s">
         <v>502</v>
       </c>
-      <c r="AN14" s="110" t="s">
+      <c r="AR14" s="110" t="s">
+        <v>383</v>
+      </c>
+      <c r="AS14" s="110" t="s">
         <v>503</v>
-      </c>
-      <c r="AO14" s="110" t="s">
-        <v>504</v>
-      </c>
-      <c r="AP14" s="110" t="s">
-        <v>505</v>
-      </c>
-      <c r="AQ14" s="110" t="s">
-        <v>506</v>
-      </c>
-      <c r="AR14" s="110" t="s">
-        <v>384</v>
-      </c>
-      <c r="AS14" s="110" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="15" spans="1:45">
       <c r="A15" s="41" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="H15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="I15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="J15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="K15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="M15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="N15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="O15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="P15" s="112" t="s">
         <v>144</v>
       </c>
       <c r="Q15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="R15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="S15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="T15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="U15" s="112" t="s">
         <v>90</v>
       </c>
       <c r="V15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="W15" s="112" t="s">
         <v>90</v>
       </c>
       <c r="X15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="Y15" s="112" t="s">
         <v>34</v>
       </c>
       <c r="Z15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AA15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AB15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AC15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AD15" s="112" t="s">
         <v>144</v>
       </c>
       <c r="AE15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AF15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AG15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AH15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AI15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AJ15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AK15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AL15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AM15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AN15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AO15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AP15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AQ15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AR15" s="41" t="s">
         <v>34</v>
       </c>
       <c r="AS15" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:45">
       <c r="A16" s="82" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B16" s="82" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C16" s="82" t="s">
+        <v>504</v>
+      </c>
+      <c r="D16" s="82" t="s">
+        <v>505</v>
+      </c>
+      <c r="E16" s="82" t="s">
+        <v>506</v>
+      </c>
+      <c r="F16" s="129" t="s">
+        <v>507</v>
+      </c>
+      <c r="G16" s="129" t="s">
         <v>508</v>
       </c>
-      <c r="D16" s="82" t="s">
+      <c r="H16" s="129" t="s">
         <v>509</v>
       </c>
-      <c r="E16" s="82" t="s">
+      <c r="I16" s="129" t="s">
         <v>510</v>
       </c>
-      <c r="F16" s="129" t="s">
+      <c r="J16" s="129" t="s">
         <v>511</v>
       </c>
-      <c r="G16" s="129" t="s">
+      <c r="K16" s="129" t="s">
         <v>512</v>
       </c>
-      <c r="H16" s="129" t="s">
+      <c r="L16" s="129" t="s">
         <v>513</v>
       </c>
-      <c r="I16" s="129" t="s">
+      <c r="M16" s="129" t="s">
         <v>514</v>
       </c>
-      <c r="J16" s="129" t="s">
+      <c r="N16" s="129" t="s">
         <v>515</v>
       </c>
-      <c r="K16" s="129" t="s">
+      <c r="O16" s="129" t="s">
         <v>516</v>
       </c>
-      <c r="L16" s="129" t="s">
+      <c r="P16" s="129" t="s">
         <v>517</v>
       </c>
-      <c r="M16" s="129" t="s">
+      <c r="Q16" s="129" t="s">
         <v>518</v>
       </c>
-      <c r="N16" s="129" t="s">
+      <c r="R16" s="129" t="s">
         <v>519</v>
       </c>
-      <c r="O16" s="129" t="s">
+      <c r="S16" s="129" t="s">
         <v>520</v>
       </c>
-      <c r="P16" s="129" t="s">
+      <c r="T16" s="129" t="s">
         <v>521</v>
       </c>
-      <c r="Q16" s="129" t="s">
+      <c r="U16" s="129" t="s">
         <v>522</v>
       </c>
-      <c r="R16" s="129" t="s">
+      <c r="V16" s="129" t="s">
         <v>523</v>
       </c>
-      <c r="S16" s="129" t="s">
+      <c r="W16" s="129" t="s">
         <v>524</v>
       </c>
-      <c r="T16" s="129" t="s">
+      <c r="X16" s="129" t="s">
         <v>525</v>
       </c>
-      <c r="U16" s="129" t="s">
+      <c r="Y16" s="129" t="s">
         <v>526</v>
       </c>
-      <c r="V16" s="129" t="s">
+      <c r="Z16" s="129" t="s">
         <v>527</v>
       </c>
-      <c r="W16" s="129" t="s">
+      <c r="AA16" s="129" t="s">
         <v>528</v>
       </c>
-      <c r="X16" s="129" t="s">
+      <c r="AB16" s="129" t="s">
         <v>529</v>
       </c>
-      <c r="Y16" s="129" t="s">
+      <c r="AC16" s="129" t="s">
         <v>530</v>
       </c>
-      <c r="Z16" s="129" t="s">
+      <c r="AD16" s="129" t="s">
         <v>531</v>
       </c>
-      <c r="AA16" s="129" t="s">
+      <c r="AE16" s="129" t="s">
         <v>532</v>
       </c>
-      <c r="AB16" s="129" t="s">
+      <c r="AF16" s="129" t="s">
         <v>533</v>
       </c>
-      <c r="AC16" s="129" t="s">
+      <c r="AG16" s="129" t="s">
         <v>534</v>
       </c>
-      <c r="AD16" s="129" t="s">
+      <c r="AH16" s="129" t="s">
         <v>535</v>
       </c>
-      <c r="AE16" s="129" t="s">
+      <c r="AI16" s="129" t="s">
         <v>536</v>
       </c>
-      <c r="AF16" s="129" t="s">
+      <c r="AJ16" s="129" t="s">
         <v>537</v>
       </c>
-      <c r="AG16" s="129" t="s">
+      <c r="AK16" s="129" t="s">
         <v>538</v>
       </c>
-      <c r="AH16" s="129" t="s">
+      <c r="AL16" s="129" t="s">
         <v>539</v>
       </c>
-      <c r="AI16" s="129" t="s">
+      <c r="AM16" s="129" t="s">
         <v>540</v>
       </c>
-      <c r="AJ16" s="129" t="s">
+      <c r="AN16" s="129" t="s">
         <v>541</v>
       </c>
-      <c r="AK16" s="129" t="s">
+      <c r="AO16" s="129" t="s">
         <v>542</v>
       </c>
-      <c r="AL16" s="129" t="s">
+      <c r="AP16" s="129" t="s">
         <v>543</v>
       </c>
-      <c r="AM16" s="129" t="s">
+      <c r="AQ16" s="129" t="s">
         <v>544</v>
       </c>
-      <c r="AN16" s="129" t="s">
+      <c r="AR16" s="129" t="s">
         <v>545</v>
       </c>
-      <c r="AO16" s="129" t="s">
+      <c r="AS16" s="129" t="s">
         <v>546</v>
-      </c>
-      <c r="AP16" s="129" t="s">
-        <v>547</v>
-      </c>
-      <c r="AQ16" s="129" t="s">
-        <v>548</v>
-      </c>
-      <c r="AR16" s="129" t="s">
-        <v>549</v>
-      </c>
-      <c r="AS16" s="129" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="17" spans="1:45">
       <c r="A17" s="126" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B17" s="127">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C17" s="127">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="D17" s="127">
-        <v>1080</v>
+        <v>770</v>
       </c>
       <c r="E17" s="127">
-        <v>730</v>
+        <v>750</v>
       </c>
       <c r="F17" s="127">
+        <v>250</v>
+      </c>
+      <c r="G17" s="127">
+        <v>250</v>
+      </c>
+      <c r="H17" s="127">
         <v>300</v>
       </c>
-      <c r="G17" s="127">
-        <v>350</v>
-      </c>
-      <c r="H17" s="127">
-        <v>470</v>
-      </c>
       <c r="I17" s="127">
-        <v>780</v>
+        <v>500</v>
       </c>
       <c r="J17" s="127">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K17" s="127">
-        <v>1170</v>
+        <v>950</v>
       </c>
       <c r="L17" s="127">
-        <v>730</v>
+        <v>400</v>
       </c>
       <c r="M17" s="127">
-        <v>840</v>
+        <v>800</v>
       </c>
       <c r="N17" s="127">
+        <v>770</v>
+      </c>
+      <c r="O17" s="127">
         <v>750</v>
       </c>
-      <c r="O17" s="127">
-        <v>730</v>
-      </c>
       <c r="P17" s="127">
-        <v>1080</v>
+        <v>750</v>
       </c>
       <c r="Q17" s="127">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R17" s="127">
-        <v>320</v>
+        <v>600</v>
       </c>
       <c r="S17" s="127">
-        <v>1190</v>
+        <v>1020</v>
       </c>
       <c r="T17" s="127">
-        <v>1070</v>
+        <v>860</v>
       </c>
       <c r="U17" s="127">
         <v>670</v>
       </c>
       <c r="V17" s="127">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="W17" s="127">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="X17" s="127">
-        <v>590</v>
+        <v>400</v>
       </c>
       <c r="Y17" s="127">
-        <v>1180</v>
+        <v>900</v>
       </c>
       <c r="Z17" s="127">
-        <v>730</v>
+        <v>400</v>
       </c>
       <c r="AA17" s="127">
-        <v>890</v>
+        <v>750</v>
       </c>
       <c r="AB17" s="127">
-        <v>860</v>
+        <v>600</v>
       </c>
       <c r="AC17" s="127">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="AD17" s="127">
-        <v>1360</v>
+        <v>1020</v>
       </c>
       <c r="AE17" s="127">
-        <v>490</v>
+        <v>250</v>
       </c>
       <c r="AF17" s="127">
-        <v>770</v>
+        <v>790</v>
       </c>
       <c r="AG17" s="127">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="AH17" s="127">
-        <v>1290</v>
+        <v>1020</v>
       </c>
       <c r="AI17" s="127">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="AJ17" s="127">
-        <v>590</v>
+        <v>530</v>
       </c>
       <c r="AK17" s="127">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="AL17" s="127">
-        <v>410</v>
+        <v>250</v>
       </c>
       <c r="AM17" s="127">
-        <v>770</v>
+        <v>500</v>
       </c>
       <c r="AN17" s="127">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="AO17" s="127">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="AP17" s="127">
-        <v>1160</v>
+        <v>700</v>
       </c>
       <c r="AQ17" s="127">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="AR17" s="127">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="AS17" s="128">
-        <v>1350</v>
+        <v>830</v>
       </c>
     </row>
     <row r="19" spans="1:45" s="124" customFormat="1" ht="34">
@@ -10909,7 +10921,7 @@
       <c r="G19" s="168"/>
       <c r="H19" s="164"/>
       <c r="I19" s="165" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="J19" s="164"/>
       <c r="K19" s="164"/>
@@ -10931,7 +10943,7 @@
       <c r="AA19" s="165"/>
       <c r="AB19" s="165"/>
       <c r="AC19" s="165" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="AD19" s="165"/>
       <c r="AE19" s="165"/>
@@ -10940,14 +10952,14 @@
       <c r="AH19" s="165"/>
       <c r="AI19" s="165"/>
       <c r="AJ19" s="165" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="AK19" s="165"/>
       <c r="AL19" s="166"/>
       <c r="AM19" s="166"/>
       <c r="AN19" s="166"/>
       <c r="AO19" s="165" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="AP19" s="166"/>
       <c r="AQ19" s="166"/>
@@ -10969,10 +10981,10 @@
   <dimension ref="A1:AS74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AR2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9:AS11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11026,7 +11038,7 @@
   <sheetData>
     <row r="1" spans="1:45" s="1" customFormat="1" ht="35" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
@@ -11163,144 +11175,144 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" s="114" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="3" spans="1:45" s="143" customFormat="1" ht="68">
       <c r="A3" s="153" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B3" s="153" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C3" s="153" t="s">
+        <v>765</v>
+      </c>
+      <c r="D3" s="153" t="s">
+        <v>752</v>
+      </c>
+      <c r="E3" s="153" t="s">
+        <v>741</v>
+      </c>
+      <c r="F3" s="153" t="s">
+        <v>750</v>
+      </c>
+      <c r="G3" s="153" t="s">
+        <v>764</v>
+      </c>
+      <c r="H3" s="153" t="s">
+        <v>749</v>
+      </c>
+      <c r="I3" s="153" t="s">
+        <v>763</v>
+      </c>
+      <c r="J3" s="153" t="s">
+        <v>743</v>
+      </c>
+      <c r="K3" s="153" t="s">
+        <v>747</v>
+      </c>
+      <c r="L3" s="153" t="s">
+        <v>743</v>
+      </c>
+      <c r="M3" s="153" t="s">
+        <v>747</v>
+      </c>
+      <c r="N3" s="153" t="s">
+        <v>762</v>
+      </c>
+      <c r="O3" s="153" t="s">
+        <v>761</v>
+      </c>
+      <c r="P3" s="153" t="s">
+        <v>754</v>
+      </c>
+      <c r="Q3" s="153" t="s">
+        <v>756</v>
+      </c>
+      <c r="R3" s="153" t="s">
+        <v>760</v>
+      </c>
+      <c r="S3" s="153" t="s">
+        <v>767</v>
+      </c>
+      <c r="T3" s="153" t="s">
+        <v>756</v>
+      </c>
+      <c r="U3" s="153" t="s">
+        <v>771</v>
+      </c>
+      <c r="V3" s="153" t="s">
+        <v>747</v>
+      </c>
+      <c r="W3" s="153" t="s">
+        <v>773</v>
+      </c>
+      <c r="X3" s="153" t="s">
+        <v>756</v>
+      </c>
+      <c r="Y3" s="153" t="s">
+        <v>780</v>
+      </c>
+      <c r="Z3" s="153" t="s">
+        <v>782</v>
+      </c>
+      <c r="AA3" s="153" t="s">
+        <v>782</v>
+      </c>
+      <c r="AB3" s="153" t="s">
+        <v>784</v>
+      </c>
+      <c r="AC3" s="153" t="s">
+        <v>787</v>
+      </c>
+      <c r="AD3" s="153" t="s">
+        <v>788</v>
+      </c>
+      <c r="AE3" s="153" t="s">
+        <v>792</v>
+      </c>
+      <c r="AF3" s="153" t="s">
+        <v>794</v>
+      </c>
+      <c r="AG3" s="153" t="s">
+        <v>791</v>
+      </c>
+      <c r="AH3" s="153" t="s">
+        <v>795</v>
+      </c>
+      <c r="AI3" s="153" t="s">
+        <v>796</v>
+      </c>
+      <c r="AJ3" s="153" t="s">
+        <v>798</v>
+      </c>
+      <c r="AK3" s="153" t="s">
+        <v>799</v>
+      </c>
+      <c r="AL3" s="153" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM3" s="153" t="s">
+        <v>804</v>
+      </c>
+      <c r="AN3" s="153" t="s">
+        <v>805</v>
+      </c>
+      <c r="AO3" s="153" t="s">
+        <v>806</v>
+      </c>
+      <c r="AP3" s="153" t="s">
         <v>769</v>
       </c>
-      <c r="D3" s="153" t="s">
-        <v>756</v>
-      </c>
-      <c r="E3" s="153" t="s">
-        <v>745</v>
-      </c>
-      <c r="F3" s="153" t="s">
-        <v>754</v>
-      </c>
-      <c r="G3" s="153" t="s">
-        <v>768</v>
-      </c>
-      <c r="H3" s="153" t="s">
-        <v>753</v>
-      </c>
-      <c r="I3" s="153" t="s">
-        <v>767</v>
-      </c>
-      <c r="J3" s="153" t="s">
-        <v>747</v>
-      </c>
-      <c r="K3" s="153" t="s">
-        <v>751</v>
-      </c>
-      <c r="L3" s="153" t="s">
-        <v>747</v>
-      </c>
-      <c r="M3" s="153" t="s">
-        <v>751</v>
-      </c>
-      <c r="N3" s="153" t="s">
-        <v>766</v>
-      </c>
-      <c r="O3" s="153" t="s">
-        <v>765</v>
-      </c>
-      <c r="P3" s="153" t="s">
-        <v>758</v>
-      </c>
-      <c r="Q3" s="153" t="s">
-        <v>760</v>
-      </c>
-      <c r="R3" s="153" t="s">
-        <v>764</v>
-      </c>
-      <c r="S3" s="153" t="s">
-        <v>771</v>
-      </c>
-      <c r="T3" s="153" t="s">
-        <v>760</v>
-      </c>
-      <c r="U3" s="153" t="s">
-        <v>775</v>
-      </c>
-      <c r="V3" s="153" t="s">
-        <v>751</v>
-      </c>
-      <c r="W3" s="153" t="s">
-        <v>777</v>
-      </c>
-      <c r="X3" s="153" t="s">
-        <v>760</v>
-      </c>
-      <c r="Y3" s="153" t="s">
-        <v>784</v>
-      </c>
-      <c r="Z3" s="153" t="s">
-        <v>786</v>
-      </c>
-      <c r="AA3" s="153" t="s">
-        <v>786</v>
-      </c>
-      <c r="AB3" s="153" t="s">
-        <v>788</v>
-      </c>
-      <c r="AC3" s="153" t="s">
-        <v>791</v>
-      </c>
-      <c r="AD3" s="153" t="s">
-        <v>792</v>
-      </c>
-      <c r="AE3" s="153" t="s">
-        <v>796</v>
-      </c>
-      <c r="AF3" s="153" t="s">
-        <v>798</v>
-      </c>
-      <c r="AG3" s="153" t="s">
-        <v>795</v>
-      </c>
-      <c r="AH3" s="153" t="s">
-        <v>799</v>
-      </c>
-      <c r="AI3" s="153" t="s">
-        <v>800</v>
-      </c>
-      <c r="AJ3" s="153" t="s">
-        <v>802</v>
-      </c>
-      <c r="AK3" s="153" t="s">
-        <v>803</v>
-      </c>
-      <c r="AL3" s="153" t="s">
-        <v>805</v>
-      </c>
-      <c r="AM3" s="153" t="s">
+      <c r="AQ3" s="153" t="s">
+        <v>809</v>
+      </c>
+      <c r="AR3" s="153" t="s">
         <v>808</v>
       </c>
-      <c r="AN3" s="153" t="s">
-        <v>809</v>
-      </c>
-      <c r="AO3" s="153" t="s">
+      <c r="AS3" s="153" t="s">
         <v>810</v>
-      </c>
-      <c r="AP3" s="153" t="s">
-        <v>773</v>
-      </c>
-      <c r="AQ3" s="153" t="s">
-        <v>813</v>
-      </c>
-      <c r="AR3" s="153" t="s">
-        <v>812</v>
-      </c>
-      <c r="AS3" s="153" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="4" spans="1:45" s="124" customFormat="1" ht="99" customHeight="1">
@@ -11308,273 +11320,273 @@
         <v>6</v>
       </c>
       <c r="B4" s="155" t="s">
+        <v>740</v>
+      </c>
+      <c r="C4" s="155" t="s">
+        <v>735</v>
+      </c>
+      <c r="D4" s="155" t="s">
+        <v>736</v>
+      </c>
+      <c r="E4" s="155" t="s">
+        <v>739</v>
+      </c>
+      <c r="F4" s="155" t="s">
+        <v>738</v>
+      </c>
+      <c r="G4" s="155" t="s">
+        <v>813</v>
+      </c>
+      <c r="H4" s="155" t="s">
+        <v>814</v>
+      </c>
+      <c r="I4" s="155" t="s">
+        <v>815</v>
+      </c>
+      <c r="J4" s="155" t="s">
         <v>744</v>
       </c>
-      <c r="C4" s="155" t="s">
-        <v>739</v>
-      </c>
-      <c r="D4" s="155" t="s">
-        <v>740</v>
-      </c>
-      <c r="E4" s="155" t="s">
-        <v>743</v>
-      </c>
-      <c r="F4" s="155" t="s">
-        <v>742</v>
-      </c>
-      <c r="G4" s="155" t="s">
-        <v>817</v>
-      </c>
-      <c r="H4" s="155" t="s">
-        <v>818</v>
-      </c>
-      <c r="I4" s="155" t="s">
-        <v>819</v>
-      </c>
-      <c r="J4" s="155" t="s">
+      <c r="K4" s="155" t="s">
+        <v>746</v>
+      </c>
+      <c r="L4" s="155" t="s">
         <v>748</v>
-      </c>
-      <c r="K4" s="155" t="s">
-        <v>750</v>
-      </c>
-      <c r="L4" s="155" t="s">
-        <v>752</v>
       </c>
       <c r="M4" s="155" t="s">
         <v>128</v>
       </c>
       <c r="N4" s="155" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="O4" s="155" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="P4" s="155" t="s">
+        <v>753</v>
+      </c>
+      <c r="Q4" s="155" t="s">
         <v>757</v>
       </c>
-      <c r="Q4" s="155" t="s">
-        <v>761</v>
-      </c>
       <c r="R4" s="155" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="S4" s="155" t="s">
+        <v>766</v>
+      </c>
+      <c r="T4" s="155" t="s">
+        <v>768</v>
+      </c>
+      <c r="U4" s="155" t="s">
         <v>770</v>
       </c>
-      <c r="T4" s="155" t="s">
+      <c r="V4" s="155" t="s">
         <v>772</v>
       </c>
-      <c r="U4" s="155" t="s">
+      <c r="W4" s="155" t="s">
         <v>774</v>
       </c>
-      <c r="V4" s="155" t="s">
-        <v>776</v>
-      </c>
-      <c r="W4" s="155" t="s">
+      <c r="X4" s="155" t="s">
         <v>778</v>
       </c>
-      <c r="X4" s="155" t="s">
-        <v>782</v>
-      </c>
       <c r="Y4" s="155" t="s">
+        <v>779</v>
+      </c>
+      <c r="Z4" s="155" t="s">
+        <v>781</v>
+      </c>
+      <c r="AA4" s="155" t="s">
         <v>783</v>
       </c>
-      <c r="Z4" s="155" t="s">
+      <c r="AB4" s="155" t="s">
         <v>785</v>
       </c>
-      <c r="AA4" s="155" t="s">
-        <v>787</v>
-      </c>
-      <c r="AB4" s="155" t="s">
+      <c r="AC4" s="155" t="s">
+        <v>786</v>
+      </c>
+      <c r="AD4" s="155" t="s">
         <v>789</v>
       </c>
-      <c r="AC4" s="155" t="s">
+      <c r="AE4" s="155" t="s">
+        <v>793</v>
+      </c>
+      <c r="AF4" s="155" t="s">
+        <v>819</v>
+      </c>
+      <c r="AG4" s="155" t="s">
         <v>790</v>
-      </c>
-      <c r="AD4" s="155" t="s">
-        <v>793</v>
-      </c>
-      <c r="AE4" s="155" t="s">
-        <v>797</v>
-      </c>
-      <c r="AF4" s="155" t="s">
-        <v>823</v>
-      </c>
-      <c r="AG4" s="155" t="s">
-        <v>794</v>
       </c>
       <c r="AH4" s="155" t="s">
         <v>229</v>
       </c>
       <c r="AI4" s="155" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="AJ4" s="155" t="s">
         <v>241</v>
       </c>
       <c r="AK4" s="155" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="AL4" s="155" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="AM4" s="155" t="s">
+        <v>803</v>
+      </c>
+      <c r="AN4" s="155" t="s">
+        <v>821</v>
+      </c>
+      <c r="AO4" s="155" t="s">
+        <v>822</v>
+      </c>
+      <c r="AP4" s="155" t="s">
         <v>807</v>
       </c>
-      <c r="AN4" s="155" t="s">
-        <v>825</v>
-      </c>
-      <c r="AO4" s="155" t="s">
-        <v>826</v>
-      </c>
-      <c r="AP4" s="155" t="s">
-        <v>811</v>
-      </c>
       <c r="AQ4" s="156" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AR4" s="156" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AS4" s="155" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="5" spans="1:45">
       <c r="A5" s="110" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B5" s="110" t="s">
+        <v>548</v>
+      </c>
+      <c r="C5" s="125" t="s">
         <v>552</v>
       </c>
-      <c r="C5" s="125" t="s">
-        <v>556</v>
-      </c>
       <c r="D5" s="142" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E5" s="110" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="F5" s="110" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="G5" s="110" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H5" s="110" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="I5" s="110" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="J5" s="110" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="K5" s="110" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="L5" s="110" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="M5" s="110" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="N5" s="110" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="O5" s="110" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="P5" s="110" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="Q5" s="110" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="R5" s="110" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="S5" s="110" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="T5" s="110" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="U5" s="110" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="V5" s="110" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="W5" s="110" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="X5" s="110" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="Y5" s="110" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="Z5" s="110" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="AA5" s="110" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="AB5" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="AC5" s="110" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="AD5" s="110" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="AE5" s="110" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="AF5" s="110" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="AG5" s="110" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="AH5" s="110" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="AI5" s="110" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="AJ5" s="110" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="AK5" s="110" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="AL5" s="110" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="AM5" s="110" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="AN5" s="110" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="AO5" s="110" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="AP5" s="110" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="AQ5" s="110" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="AR5" s="110" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AS5" s="110" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -11719,684 +11731,684 @@
         <v>4</v>
       </c>
       <c r="B7" s="132" t="s">
+        <v>549</v>
+      </c>
+      <c r="C7" s="132" t="s">
         <v>553</v>
       </c>
-      <c r="C7" s="132" t="s">
-        <v>557</v>
-      </c>
       <c r="D7" s="129" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="E7" s="132" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F7" s="130" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G7" s="130" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="H7" s="130" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="I7" s="130" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="J7" s="130" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="K7" s="130" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="L7" s="130" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M7" s="130" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="N7" s="130" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="O7" s="130" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="P7" s="130" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="Q7" s="130" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="R7" s="130" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="S7" s="130" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="T7" s="130" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="U7" s="130" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="V7" s="130" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="W7" s="130" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="X7" s="130" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="Y7" s="130" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="Z7" s="130" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="AA7" s="130" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="AB7" s="130" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="AC7" s="130" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="AD7" s="130" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="AE7" s="130" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="AF7" s="130" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="AG7" s="130" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="AH7" s="130" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="AI7" s="130" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="AJ7" s="130" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="AK7" s="130" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="AL7" s="130" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="AM7" s="130" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="AN7" s="130" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="AO7" s="130" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="AP7" s="130" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="AQ7" s="130" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="AR7" s="130" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="AS7" s="130" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="8" spans="1:45">
       <c r="A8" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C8" s="138" t="s">
         <v>554</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="C8" s="138" t="s">
-        <v>558</v>
-      </c>
       <c r="D8" s="9" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="X8" s="9" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="Y8" s="9" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="Z8" s="9" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="AA8" s="9" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="AB8" s="9" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="AC8" s="9" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="AD8" s="9" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="AE8" s="9" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="AF8" s="9" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="AG8" s="9" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="AH8" s="9" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="AI8" s="9" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="AJ8" s="9" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="AK8" s="9" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="AL8" s="9" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="AM8" s="9" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="AN8" s="9" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="AO8" s="9" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="AP8" s="9" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="AQ8" s="9" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="AR8" s="9" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="AS8" s="9" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="9" spans="1:45">
       <c r="A9" s="157" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="B9" s="57">
         <v>400</v>
       </c>
       <c r="C9" s="57">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="D9" s="57">
-        <v>1950</v>
+        <v>1550</v>
       </c>
       <c r="E9" s="57">
-        <v>1320</v>
+        <v>1500</v>
       </c>
       <c r="F9" s="57">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="G9" s="57">
-        <v>640</v>
+        <v>500</v>
       </c>
       <c r="H9" s="57">
-        <v>860</v>
+        <v>600</v>
       </c>
       <c r="I9" s="57">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="J9" s="57">
-        <v>1260</v>
+        <v>1200</v>
       </c>
       <c r="K9" s="57">
-        <v>2120</v>
+        <v>1900</v>
       </c>
       <c r="L9" s="57">
-        <v>1320</v>
+        <v>800</v>
       </c>
       <c r="M9" s="57">
-        <v>1520</v>
+        <v>1600</v>
       </c>
       <c r="N9" s="57">
-        <v>1360</v>
+        <v>1550</v>
       </c>
       <c r="O9" s="57">
-        <v>1310</v>
+        <v>1500</v>
       </c>
       <c r="P9" s="57">
-        <v>1950</v>
+        <v>1500</v>
       </c>
       <c r="Q9" s="57">
-        <v>910</v>
+        <v>800</v>
       </c>
       <c r="R9" s="57">
-        <v>590</v>
+        <v>1200</v>
       </c>
       <c r="S9" s="57">
-        <v>2140</v>
+        <v>2050</v>
       </c>
       <c r="T9" s="57">
-        <v>1930</v>
+        <v>1725</v>
       </c>
       <c r="U9" s="57">
-        <v>1210</v>
+        <v>1350</v>
       </c>
       <c r="V9" s="57">
+        <v>1200</v>
+      </c>
+      <c r="W9" s="57">
+        <v>400</v>
+      </c>
+      <c r="X9" s="57">
+        <v>800</v>
+      </c>
+      <c r="Y9" s="57">
         <v>1800</v>
       </c>
-      <c r="W9" s="57">
-        <v>390</v>
-      </c>
-      <c r="X9" s="57">
-        <v>1060</v>
-      </c>
-      <c r="Y9" s="57">
-        <v>2120</v>
-      </c>
       <c r="Z9" s="57">
-        <v>1320</v>
+        <v>800</v>
       </c>
       <c r="AA9" s="57">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="AB9" s="57">
-        <v>1550</v>
+        <v>1200</v>
       </c>
       <c r="AC9" s="57">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AD9" s="57">
-        <v>2450</v>
+        <v>2050</v>
       </c>
       <c r="AE9" s="57">
-        <v>880</v>
+        <v>500</v>
       </c>
       <c r="AF9" s="57">
-        <v>1390</v>
+        <v>1580</v>
       </c>
       <c r="AG9" s="57">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AH9" s="57">
-        <v>2330</v>
+        <v>2050</v>
       </c>
       <c r="AI9" s="57">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AJ9" s="57">
         <v>1060</v>
       </c>
       <c r="AK9" s="57">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="AL9" s="57">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="AM9" s="57">
-        <v>1390</v>
+        <v>1000</v>
       </c>
       <c r="AN9" s="57">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AO9" s="57">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="AP9" s="57">
-        <v>2100</v>
+        <v>1400</v>
       </c>
       <c r="AQ9" s="57">
-        <v>1860</v>
+        <v>2050</v>
       </c>
       <c r="AR9" s="57">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="AS9" s="57">
-        <v>2430</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="10" spans="1:45">
       <c r="A10" s="131" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B10" s="34">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="C10" s="34">
-        <v>750</v>
+        <v>910</v>
       </c>
       <c r="D10" s="34">
-        <v>1290</v>
+        <v>1180</v>
       </c>
       <c r="E10" s="34">
-        <v>880</v>
+        <v>1140</v>
       </c>
       <c r="F10" s="34">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="G10" s="34">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="H10" s="34">
-        <v>570</v>
+        <v>450</v>
       </c>
       <c r="I10" s="34">
-        <v>940</v>
+        <v>760</v>
       </c>
       <c r="J10" s="34">
-        <v>840</v>
+        <v>910</v>
       </c>
       <c r="K10" s="34">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="L10" s="34">
-        <v>880</v>
+        <v>610</v>
       </c>
       <c r="M10" s="34">
-        <v>1000</v>
+        <v>1220</v>
       </c>
       <c r="N10" s="34">
-        <v>900</v>
+        <v>1180</v>
       </c>
       <c r="O10" s="34">
-        <v>880</v>
+        <v>1140</v>
       </c>
       <c r="P10" s="34">
-        <v>1290</v>
+        <v>1140</v>
       </c>
       <c r="Q10" s="34">
-        <v>600</v>
+        <v>760</v>
       </c>
       <c r="R10" s="34">
-        <v>390</v>
+        <v>910</v>
       </c>
       <c r="S10" s="34">
-        <v>1420</v>
+        <v>1560</v>
       </c>
       <c r="T10" s="34">
-        <v>1290</v>
+        <v>1310</v>
       </c>
       <c r="U10" s="34">
-        <v>810</v>
+        <v>1020</v>
       </c>
       <c r="V10" s="34">
+        <v>910</v>
+      </c>
+      <c r="W10" s="34">
+        <v>300</v>
+      </c>
+      <c r="X10" s="34">
+        <v>610</v>
+      </c>
+      <c r="Y10" s="34">
+        <v>1370</v>
+      </c>
+      <c r="Z10" s="34">
+        <v>610</v>
+      </c>
+      <c r="AA10" s="34">
+        <v>1140</v>
+      </c>
+      <c r="AB10" s="34">
+        <v>910</v>
+      </c>
+      <c r="AC10" s="34">
+        <v>380</v>
+      </c>
+      <c r="AD10" s="34">
+        <v>1560</v>
+      </c>
+      <c r="AE10" s="34">
+        <v>380</v>
+      </c>
+      <c r="AF10" s="34">
         <v>1200</v>
       </c>
-      <c r="W10" s="34">
-        <v>260</v>
-      </c>
-      <c r="X10" s="34">
-        <v>710</v>
-      </c>
-      <c r="Y10" s="34">
-        <v>1410</v>
-      </c>
-      <c r="Z10" s="34">
-        <v>880</v>
-      </c>
-      <c r="AA10" s="34">
+      <c r="AG10" s="34">
+        <v>380</v>
+      </c>
+      <c r="AH10" s="34">
+        <v>1560</v>
+      </c>
+      <c r="AI10" s="34">
+        <v>530</v>
+      </c>
+      <c r="AJ10" s="34">
+        <v>800</v>
+      </c>
+      <c r="AK10" s="34">
+        <v>380</v>
+      </c>
+      <c r="AL10" s="34">
+        <v>380</v>
+      </c>
+      <c r="AM10" s="34">
+        <v>760</v>
+      </c>
+      <c r="AN10" s="34">
+        <v>760</v>
+      </c>
+      <c r="AO10" s="34">
+        <v>910</v>
+      </c>
+      <c r="AP10" s="34">
         <v>1070</v>
       </c>
-      <c r="AB10" s="34">
-        <v>1000</v>
-      </c>
-      <c r="AC10" s="34">
-        <v>400</v>
-      </c>
-      <c r="AD10" s="34">
-        <v>1630</v>
-      </c>
-      <c r="AE10" s="34">
-        <v>580</v>
-      </c>
-      <c r="AF10" s="34">
-        <v>930</v>
-      </c>
-      <c r="AG10" s="34">
-        <v>390</v>
-      </c>
-      <c r="AH10" s="34">
-        <v>1550</v>
-      </c>
-      <c r="AI10" s="34">
-        <v>400</v>
-      </c>
-      <c r="AJ10" s="34">
-        <v>710</v>
-      </c>
-      <c r="AK10" s="34">
-        <v>340</v>
-      </c>
-      <c r="AL10" s="34">
-        <v>500</v>
-      </c>
-      <c r="AM10" s="34">
-        <v>930</v>
-      </c>
-      <c r="AN10" s="34">
-        <v>640</v>
-      </c>
-      <c r="AO10" s="34">
-        <v>730</v>
-      </c>
-      <c r="AP10" s="34">
-        <v>1400</v>
-      </c>
       <c r="AQ10" s="34">
-        <v>1240</v>
+        <v>1560</v>
       </c>
       <c r="AR10" s="34">
-        <v>320</v>
+        <v>450</v>
       </c>
       <c r="AS10" s="34">
-        <v>1620</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="11" spans="1:45">
       <c r="A11" s="158" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B11" s="102">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="C11" s="102">
+        <v>1080</v>
+      </c>
+      <c r="D11" s="102">
+        <v>1390</v>
+      </c>
+      <c r="E11" s="102">
+        <v>1350</v>
+      </c>
+      <c r="F11" s="102">
+        <v>450</v>
+      </c>
+      <c r="G11" s="102">
+        <v>450</v>
+      </c>
+      <c r="H11" s="102">
+        <v>540</v>
+      </c>
+      <c r="I11" s="102">
         <v>900</v>
       </c>
-      <c r="D11" s="102">
+      <c r="J11" s="102">
+        <v>1080</v>
+      </c>
+      <c r="K11" s="102">
+        <v>1710</v>
+      </c>
+      <c r="L11" s="102">
+        <v>720</v>
+      </c>
+      <c r="M11" s="102">
+        <v>1440</v>
+      </c>
+      <c r="N11" s="102">
+        <v>1390</v>
+      </c>
+      <c r="O11" s="102">
+        <v>1350</v>
+      </c>
+      <c r="P11" s="102">
+        <v>1350</v>
+      </c>
+      <c r="Q11" s="102">
+        <v>900</v>
+      </c>
+      <c r="R11" s="102">
+        <v>1080</v>
+      </c>
+      <c r="S11" s="102">
+        <v>1840</v>
+      </c>
+      <c r="T11" s="102">
         <v>1550</v>
       </c>
-      <c r="E11" s="102">
-        <v>1050</v>
-      </c>
-      <c r="F11" s="102">
-        <v>430</v>
-      </c>
-      <c r="G11" s="102">
-        <v>510</v>
-      </c>
-      <c r="H11" s="102">
-        <v>680</v>
-      </c>
-      <c r="I11" s="102">
-        <v>1130</v>
-      </c>
-      <c r="J11" s="102">
-        <v>1010</v>
-      </c>
-      <c r="K11" s="102">
-        <v>1690</v>
-      </c>
-      <c r="L11" s="102">
-        <v>1060</v>
-      </c>
-      <c r="M11" s="102">
+      <c r="U11" s="102">
         <v>1210</v>
       </c>
-      <c r="N11" s="102">
+      <c r="V11" s="102">
         <v>1080</v>
       </c>
-      <c r="O11" s="102">
-        <v>1050</v>
-      </c>
-      <c r="P11" s="102">
-        <v>1560</v>
-      </c>
-      <c r="Q11" s="102">
-        <v>730</v>
-      </c>
-      <c r="R11" s="102">
-        <v>470</v>
-      </c>
-      <c r="S11" s="102">
-        <v>1710</v>
-      </c>
-      <c r="T11" s="102">
-        <v>1540</v>
-      </c>
-      <c r="U11" s="102">
-        <v>970</v>
-      </c>
-      <c r="V11" s="102">
-        <v>1440</v>
-      </c>
       <c r="W11" s="102">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="X11" s="102">
-        <v>850</v>
+        <v>720</v>
       </c>
       <c r="Y11" s="102">
-        <v>1700</v>
+        <v>1620</v>
       </c>
       <c r="Z11" s="102">
-        <v>1050</v>
+        <v>720</v>
       </c>
       <c r="AA11" s="102">
-        <v>1280</v>
+        <v>1350</v>
       </c>
       <c r="AB11" s="102">
-        <v>1240</v>
+        <v>1080</v>
       </c>
       <c r="AC11" s="102">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="AD11" s="102">
-        <v>1950</v>
+        <v>1840</v>
       </c>
       <c r="AE11" s="102">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="AF11" s="102">
-        <v>1110</v>
+        <v>1420</v>
       </c>
       <c r="AG11" s="102">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="AH11" s="102">
-        <v>1860</v>
+        <v>1840</v>
       </c>
       <c r="AI11" s="102">
-        <v>480</v>
+        <v>630</v>
       </c>
       <c r="AJ11" s="102">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="AK11" s="102">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AL11" s="102">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AM11" s="102">
-        <v>1110</v>
+        <v>900</v>
       </c>
       <c r="AN11" s="102">
-        <v>770</v>
+        <v>900</v>
       </c>
       <c r="AO11" s="102">
-        <v>880</v>
+        <v>1080</v>
       </c>
       <c r="AP11" s="102">
-        <v>1680</v>
+        <v>1260</v>
       </c>
       <c r="AQ11" s="102">
-        <v>1490</v>
+        <v>1840</v>
       </c>
       <c r="AR11" s="102">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="AS11" s="102">
-        <v>1950</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -12406,7 +12418,7 @@
     </row>
     <row r="13" spans="1:45">
       <c r="A13" s="140" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B13" s="148">
         <v>1398058</v>
@@ -12564,7 +12576,7 @@
     </row>
     <row r="14" spans="1:45">
       <c r="A14" s="139" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B14" s="149">
         <v>3339806</v>
@@ -12720,7 +12732,7 @@
     </row>
     <row r="15" spans="1:45">
       <c r="A15" s="139" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B15" s="149">
         <v>3728155</v>
@@ -12879,7 +12891,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="150" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C16" s="150" t="s">
         <v>8</v>
@@ -12894,7 +12906,7 @@
         <v>8</v>
       </c>
       <c r="G16" s="152" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="H16" s="152" t="s">
         <v>102</v>
@@ -12903,10 +12915,10 @@
         <v>102</v>
       </c>
       <c r="J16" s="152" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="K16" s="152" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="L16" s="152" t="s">
         <v>102</v>
@@ -12915,19 +12927,19 @@
         <v>102</v>
       </c>
       <c r="N16" s="152" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="O16" s="152" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="P16" s="152" t="s">
         <v>8</v>
       </c>
       <c r="Q16" s="152" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="R16" s="152" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="S16" s="152"/>
       <c r="T16" s="152" t="s">
@@ -12938,7 +12950,7 @@
         <v>102</v>
       </c>
       <c r="W16" s="152" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="X16" s="152" t="s">
         <v>102</v>
@@ -12961,17 +12973,17 @@
       </c>
       <c r="AG16" s="152"/>
       <c r="AH16" s="152" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="AI16" s="152" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="AJ16" s="152" t="s">
         <v>102</v>
       </c>
       <c r="AK16" s="152"/>
       <c r="AL16" s="152" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="AM16" s="152" t="s">
         <v>102</v>
@@ -12986,13 +12998,13 @@
         <v>102</v>
       </c>
       <c r="AQ16" s="152" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="AR16" s="159" t="s">
         <v>8</v>
       </c>
       <c r="AS16" s="152" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="18" spans="1:45" s="124" customFormat="1" ht="68">
@@ -13001,19 +13013,19 @@
       </c>
       <c r="B18" s="162"/>
       <c r="C18" s="163" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="D18" s="163"/>
       <c r="E18" s="164"/>
       <c r="F18" s="164" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="G18" s="168" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="H18" s="164"/>
       <c r="I18" s="165" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="J18" s="164"/>
       <c r="K18" s="164"/>
@@ -13022,56 +13034,56 @@
       <c r="N18" s="164"/>
       <c r="O18" s="164"/>
       <c r="P18" s="165" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="Q18" s="165" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="R18" s="165"/>
       <c r="S18" s="165" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="T18" s="165"/>
       <c r="U18" s="165" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="V18" s="165"/>
       <c r="W18" s="165" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="X18" s="165"/>
       <c r="Y18" s="165" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="Z18" s="165"/>
       <c r="AA18" s="165"/>
       <c r="AB18" s="165"/>
       <c r="AC18" s="165" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="AD18" s="165" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="AE18" s="165" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="AF18" s="165"/>
       <c r="AG18" s="165" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="AH18" s="165"/>
       <c r="AI18" s="165"/>
       <c r="AJ18" s="165" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="AK18" s="165" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="AL18" s="166"/>
       <c r="AM18" s="166"/>
       <c r="AN18" s="166"/>
       <c r="AO18" s="165" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="AP18" s="166"/>
       <c r="AQ18" s="166"/>
@@ -13244,7 +13256,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13263,34 +13275,34 @@
     </row>
     <row r="2" spans="1:2" ht="33" customHeight="1">
       <c r="A2" s="179" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B2" s="136" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17">
       <c r="A3" s="179" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="B3" s="136" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="51">
       <c r="A4" s="179" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="B4" s="136" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="51">
       <c r="A5" s="179" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="B5" s="136" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -13299,10 +13311,10 @@
     </row>
     <row r="7" spans="1:2" ht="34">
       <c r="A7" s="179" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="B7" s="136" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -13311,34 +13323,34 @@
     </row>
     <row r="9" spans="1:2" ht="34">
       <c r="A9" s="180" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B9" s="136" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="34">
       <c r="A10" s="180" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B10" s="136" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="51">
       <c r="A11" s="180" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B11" s="136" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="33" customHeight="1">
       <c r="A12" s="180" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B12" s="136" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -13346,10 +13358,10 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B14" s="181" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
     </row>
   </sheetData>

--- a/sources/European_Exposure_Model_Data_Inputs_Sources.xlsx
+++ b/sources/European_Exposure_Model_Data_Inputs_Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helencrowley/Documents/5-GitHub/esrm20_exposure/sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A64486-BBFE-A94E-B6DA-799E7DC03054}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BC396A-0A68-334D-9C35-F3B25B2CAC8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="520" windowWidth="28300" windowHeight="16700" xr2:uid="{3ADB8CE8-CD4D-1C4D-B72A-BA24B45CE5E7}"/>
+    <workbookView xWindow="500" yWindow="520" windowWidth="28300" windowHeight="16700" activeTab="1" xr2:uid="{3ADB8CE8-CD4D-1C4D-B72A-BA24B45CE5E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="926">
   <si>
     <t>data_Albania_RES_census-buildings.xlsx</t>
   </si>
@@ -2927,6 +2927,15 @@
   </si>
   <si>
     <t>Sousa L., Silva V., and Bazzurro P. (2019) "Using Open-Access Data in the Development of Exposure Data Sets of Industrial Buildings for Earthquake Risk Modeling," Earthquake Spectra,  doi: https://doi.org/10.1193/020316eqs027m</t>
+  </si>
+  <si>
+    <t>Population and Housing Census (2017 value)
+https://data.tuik.gov.tr</t>
+  </si>
+  <si>
+    <t>2000 Population and Housing Census +
+2001-2017 Building permits
+https://data.tuik.gov.tr</t>
   </si>
 </sst>
 </file>
@@ -3711,13 +3720,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3725,12 +3740,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4050,7 +4059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDE1935-F182-8E4C-A9F6-BCE17C9647EE}">
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -4061,51 +4070,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="48" customHeight="1">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="183" t="s">
         <v>896</v>
       </c>
-      <c r="B1" s="188"/>
+      <c r="B1" s="183"/>
     </row>
     <row r="2" spans="1:3" ht="22" customHeight="1">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="185" t="s">
         <v>912</v>
       </c>
-      <c r="B2" s="184"/>
+      <c r="B2" s="185"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="22" customHeight="1">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="187" t="s">
         <v>914</v>
       </c>
-      <c r="B3" s="184"/>
+      <c r="B3" s="185"/>
     </row>
     <row r="4" spans="1:3" ht="22" customHeight="1">
-      <c r="A4" s="184" t="s">
+      <c r="A4" s="185" t="s">
         <v>895</v>
       </c>
-      <c r="B4" s="184"/>
+      <c r="B4" s="185"/>
     </row>
     <row r="5" spans="1:3" ht="22" customHeight="1">
-      <c r="A5" s="184" t="s">
+      <c r="A5" s="185" t="s">
         <v>913</v>
       </c>
-      <c r="B5" s="184"/>
+      <c r="B5" s="185"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="189"/>
-      <c r="B6" s="189"/>
+      <c r="A6" s="184"/>
+      <c r="B6" s="184"/>
     </row>
     <row r="7" spans="1:3" ht="39">
-      <c r="A7" s="186" t="s">
+      <c r="A7" s="188" t="s">
         <v>688</v>
       </c>
-      <c r="B7" s="186"/>
+      <c r="B7" s="188"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="187" t="s">
+      <c r="A8" s="189" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="187"/>
+      <c r="B8" s="189"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3"/>
@@ -4271,10 +4280,10 @@
       <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="183" t="s">
+      <c r="A30" s="186" t="s">
         <v>212</v>
       </c>
-      <c r="B30" s="183"/>
+      <c r="B30" s="186"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4"/>
@@ -4341,10 +4350,10 @@
       <c r="B39" s="4"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="183" t="s">
+      <c r="A41" s="186" t="s">
         <v>699</v>
       </c>
-      <c r="B41" s="183"/>
+      <c r="B41" s="186"/>
     </row>
     <row r="42" spans="1:2" ht="51">
       <c r="A42" s="61" t="s">
@@ -4363,16 +4372,16 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="39">
-      <c r="A45" s="186" t="s">
+      <c r="A45" s="188" t="s">
         <v>859</v>
       </c>
-      <c r="B45" s="186"/>
+      <c r="B45" s="188"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="187" t="s">
+      <c r="A46" s="189" t="s">
         <v>448</v>
       </c>
-      <c r="B46" s="187"/>
+      <c r="B46" s="189"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="3"/>
@@ -4487,10 +4496,10 @@
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="183" t="s">
+      <c r="A64" s="186" t="s">
         <v>699</v>
       </c>
-      <c r="B64" s="183"/>
+      <c r="B64" s="186"/>
     </row>
     <row r="65" spans="1:2" ht="51">
       <c r="A65" s="61" t="s">
@@ -4509,16 +4518,16 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="39">
-      <c r="A68" s="186" t="s">
+      <c r="A68" s="188" t="s">
         <v>858</v>
       </c>
-      <c r="B68" s="186"/>
+      <c r="B68" s="188"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="187" t="s">
+      <c r="A69" s="189" t="s">
         <v>547</v>
       </c>
-      <c r="B69" s="187"/>
+      <c r="B69" s="189"/>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3"/>
@@ -4601,10 +4610,10 @@
       <c r="B80" s="4"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="183" t="s">
+      <c r="A81" s="186" t="s">
         <v>212</v>
       </c>
-      <c r="B81" s="183"/>
+      <c r="B81" s="186"/>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="4"/>
@@ -4643,10 +4652,10 @@
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="183" t="s">
+      <c r="A88" s="186" t="s">
         <v>699</v>
       </c>
-      <c r="B88" s="183"/>
+      <c r="B88" s="186"/>
     </row>
     <row r="89" spans="1:2" ht="51">
       <c r="A89" s="61" t="s">
@@ -4674,12 +4683,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A64:B64"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -4691,6 +4694,12 @@
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A64:B64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4700,11 +4709,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D9D520-21E0-4740-A733-1FA0F3F531E7}">
   <dimension ref="A1:AS82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AQ10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AP2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AQ17" sqref="AQ17"/>
+      <selection pane="bottomRight" activeCell="AR31" sqref="AR31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5483,7 +5492,7 @@
         <v>283</v>
       </c>
       <c r="AR6" s="22" t="s">
-        <v>286</v>
+        <v>925</v>
       </c>
       <c r="AS6" s="22" t="s">
         <v>900</v>
@@ -5757,7 +5766,7 @@
         <v>284</v>
       </c>
       <c r="AR8" s="7" t="s">
-        <v>287</v>
+        <v>924</v>
       </c>
       <c r="AS8" s="7" t="s">
         <v>288</v>
@@ -8554,7 +8563,7 @@
       </c>
       <c r="AP31" s="172"/>
       <c r="AQ31" s="172"/>
-      <c r="AR31" s="172"/>
+      <c r="AR31" s="174"/>
       <c r="AS31" s="172"/>
     </row>
     <row r="34" spans="1:10">

--- a/sources/European_Exposure_Model_Data_Inputs_Sources.xlsx
+++ b/sources/European_Exposure_Model_Data_Inputs_Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helencrowley/Documents/5-GitHub/esrm20_exposure/sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BC396A-0A68-334D-9C35-F3B25B2CAC8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D917E636-E034-4343-9824-DE169483F82A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="520" windowWidth="28300" windowHeight="16700" activeTab="1" xr2:uid="{3ADB8CE8-CD4D-1C4D-B72A-BA24B45CE5E7}"/>
+    <workbookView xWindow="500" yWindow="520" windowWidth="28300" windowHeight="16700" xr2:uid="{3ADB8CE8-CD4D-1C4D-B72A-BA24B45CE5E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="924">
   <si>
     <t>data_Albania_RES_census-buildings.xlsx</t>
   </si>
@@ -2893,6 +2893,9 @@
     <t xml:space="preserve">Crowley H., Despotaki V., Silva V., Dabbeek J., Romão X., Pereira N., Castro J.M., Daniell J., Veliu E., Bilgin H., Adam C.,  Deyanova M., Ademović N., Atalic J., Riga E., Karatzetzou A., Bessason B., Shendova V., Tiganescu A., Toma-Danila D., Zugic Z., Akkar Z., Hancilar U. (2020) "Model of Seismic Design Lateral Force Levels for the Existing Reinforced Concrete European Building Stock", Submitted to Bulletin of Earthquake Engineering, draft available here: </t>
   </si>
   <si>
+    <t>Sousa L., Silva V., and Bazzurro P. (2017) "Using Open-Access Data in the Development of Exposure Data Sets of Industrial Buildings for Earthquake Risk Modeling," Earthquake Spectra,  doi: https://doi.org/10.1193/020316eqs027m</t>
+  </si>
+  <si>
     <t>This file contains a summary of the inputs and sources available at https://gitlab.seismo.ethz.ch/efehr/esrm20_exposure and used to develop the European Exposure Model, a component of the European Seismic Risk Model 2020 (ESRM20)</t>
   </si>
   <si>
@@ -2924,18 +2927,6 @@
   </si>
   <si>
     <t>710 (https://forumdacasa.com/discussion/53535/orientacao-valor-medio-construcao-2018/)</t>
-  </si>
-  <si>
-    <t>Sousa L., Silva V., and Bazzurro P. (2019) "Using Open-Access Data in the Development of Exposure Data Sets of Industrial Buildings for Earthquake Risk Modeling," Earthquake Spectra,  doi: https://doi.org/10.1193/020316eqs027m</t>
-  </si>
-  <si>
-    <t>Population and Housing Census (2017 value)
-https://data.tuik.gov.tr</t>
-  </si>
-  <si>
-    <t>2000 Population and Housing Census +
-2001-2017 Building permits
-https://data.tuik.gov.tr</t>
   </si>
 </sst>
 </file>
@@ -3067,7 +3058,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -3222,17 +3213,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -3587,7 +3567,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3605,14 +3585,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3720,27 +3699,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -4059,8 +4039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDE1935-F182-8E4C-A9F6-BCE17C9647EE}">
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4070,51 +4050,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="48" customHeight="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="187" t="s">
         <v>896</v>
       </c>
-      <c r="B1" s="183"/>
+      <c r="B1" s="187"/>
     </row>
     <row r="2" spans="1:3" ht="22" customHeight="1">
-      <c r="A2" s="185" t="s">
-        <v>912</v>
-      </c>
-      <c r="B2" s="185"/>
+      <c r="A2" s="183" t="s">
+        <v>913</v>
+      </c>
+      <c r="B2" s="183"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="22" customHeight="1">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="184" t="s">
+        <v>915</v>
+      </c>
+      <c r="B3" s="183"/>
+    </row>
+    <row r="4" spans="1:3" ht="22" customHeight="1">
+      <c r="A4" s="183" t="s">
+        <v>895</v>
+      </c>
+      <c r="B4" s="183"/>
+    </row>
+    <row r="5" spans="1:3" ht="22" customHeight="1">
+      <c r="A5" s="183" t="s">
         <v>914</v>
       </c>
-      <c r="B3" s="185"/>
-    </row>
-    <row r="4" spans="1:3" ht="22" customHeight="1">
-      <c r="A4" s="185" t="s">
-        <v>895</v>
-      </c>
-      <c r="B4" s="185"/>
-    </row>
-    <row r="5" spans="1:3" ht="22" customHeight="1">
-      <c r="A5" s="185" t="s">
-        <v>913</v>
-      </c>
-      <c r="B5" s="185"/>
+      <c r="B5" s="183"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="184"/>
-      <c r="B6" s="184"/>
+      <c r="A6" s="188"/>
+      <c r="B6" s="188"/>
     </row>
     <row r="7" spans="1:3" ht="39">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="185" t="s">
         <v>688</v>
       </c>
-      <c r="B7" s="188"/>
+      <c r="B7" s="185"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="189" t="s">
+      <c r="A8" s="186" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="189"/>
+      <c r="B8" s="186"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3"/>
@@ -4280,10 +4260,10 @@
       <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="186" t="s">
+      <c r="A30" s="182" t="s">
         <v>212</v>
       </c>
-      <c r="B30" s="186"/>
+      <c r="B30" s="182"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4"/>
@@ -4350,10 +4330,10 @@
       <c r="B39" s="4"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="186" t="s">
+      <c r="A41" s="182" t="s">
         <v>699</v>
       </c>
-      <c r="B41" s="186"/>
+      <c r="B41" s="182"/>
     </row>
     <row r="42" spans="1:2" ht="51">
       <c r="A42" s="61" t="s">
@@ -4367,21 +4347,21 @@
       <c r="A43" s="8" t="s">
         <v>861</v>
       </c>
-      <c r="B43" s="177" t="s">
+      <c r="B43" s="176" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="39">
-      <c r="A45" s="188" t="s">
+      <c r="A45" s="185" t="s">
         <v>859</v>
       </c>
-      <c r="B45" s="188"/>
+      <c r="B45" s="185"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="189" t="s">
+      <c r="A46" s="186" t="s">
         <v>448</v>
       </c>
-      <c r="B46" s="189"/>
+      <c r="B46" s="186"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="3"/>
@@ -4429,7 +4409,7 @@
       <c r="A54" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="150"/>
+      <c r="B54" s="149"/>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="90" t="s">
@@ -4483,7 +4463,7 @@
       <c r="A61" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B61" s="178" t="s">
+      <c r="B61" s="177" t="s">
         <v>865</v>
       </c>
     </row>
@@ -4496,10 +4476,10 @@
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="186" t="s">
+      <c r="A64" s="182" t="s">
         <v>699</v>
       </c>
-      <c r="B64" s="186"/>
+      <c r="B64" s="182"/>
     </row>
     <row r="65" spans="1:2" ht="51">
       <c r="A65" s="61" t="s">
@@ -4513,36 +4493,36 @@
       <c r="A66" s="8" t="s">
         <v>861</v>
       </c>
-      <c r="B66" s="177" t="s">
+      <c r="B66" s="176" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="39">
-      <c r="A68" s="188" t="s">
+      <c r="A68" s="185" t="s">
         <v>858</v>
       </c>
-      <c r="B68" s="188"/>
+      <c r="B68" s="185"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="189" t="s">
+      <c r="A69" s="186" t="s">
         <v>547</v>
       </c>
-      <c r="B69" s="189"/>
+      <c r="B69" s="186"/>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
     </row>
     <row r="71" spans="1:2" ht="34">
-      <c r="A71" s="153" t="s">
+      <c r="A71" s="152" t="s">
         <v>777</v>
       </c>
-      <c r="B71" s="153" t="s">
+      <c r="B71" s="152" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="154" t="s">
+      <c r="A72" s="153" t="s">
         <v>6</v>
       </c>
       <c r="B72" s="18" t="s">
@@ -4569,7 +4549,7 @@
       <c r="A75" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="B75" s="178" t="s">
+      <c r="B75" s="177" t="s">
         <v>866</v>
       </c>
     </row>
@@ -4582,7 +4562,7 @@
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="157" t="s">
+      <c r="A77" s="156" t="s">
         <v>834</v>
       </c>
       <c r="B77" s="17" t="s">
@@ -4598,7 +4578,7 @@
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="158" t="s">
+      <c r="A79" s="157" t="s">
         <v>832</v>
       </c>
       <c r="B79" s="18" t="s">
@@ -4610,10 +4590,10 @@
       <c r="B80" s="4"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="186" t="s">
+      <c r="A81" s="182" t="s">
         <v>212</v>
       </c>
-      <c r="B81" s="186"/>
+      <c r="B81" s="182"/>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="4"/>
@@ -4652,10 +4632,10 @@
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="186" t="s">
+      <c r="A88" s="182" t="s">
         <v>699</v>
       </c>
-      <c r="B88" s="186"/>
+      <c r="B88" s="182"/>
     </row>
     <row r="89" spans="1:2" ht="51">
       <c r="A89" s="61" t="s">
@@ -4669,7 +4649,7 @@
       <c r="A90" s="8" t="s">
         <v>861</v>
       </c>
-      <c r="B90" s="177" t="s">
+      <c r="B90" s="176" t="s">
         <v>905</v>
       </c>
     </row>
@@ -4683,6 +4663,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A64:B64"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -4694,12 +4680,6 @@
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A64:B64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4709,11 +4689,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D9D520-21E0-4740-A733-1FA0F3F531E7}">
   <dimension ref="A1:AS82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AP2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AR31" sqref="AR31"/>
+      <selection pane="bottomRight" activeCell="AS19" sqref="AS19:AS21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5492,7 +5472,7 @@
         <v>283</v>
       </c>
       <c r="AR6" s="22" t="s">
-        <v>925</v>
+        <v>286</v>
       </c>
       <c r="AS6" s="22" t="s">
         <v>900</v>
@@ -5766,7 +5746,7 @@
         <v>284</v>
       </c>
       <c r="AR8" s="7" t="s">
-        <v>924</v>
+        <v>287</v>
       </c>
       <c r="AS8" s="7" t="s">
         <v>288</v>
@@ -6906,7 +6886,7 @@
       <c r="M17" s="61" t="s">
         <v>404</v>
       </c>
-      <c r="N17" s="182" t="s">
+      <c r="N17" s="181" t="s">
         <v>137</v>
       </c>
       <c r="O17" s="61" t="s">
@@ -6931,7 +6911,7 @@
         <v>404</v>
       </c>
       <c r="V17" s="61" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="W17" s="61" t="s">
         <v>179</v>
@@ -6973,10 +6953,10 @@
         <v>404</v>
       </c>
       <c r="AJ17" s="79" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="AK17" s="79" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="AL17" s="84" t="s">
         <v>442</v>
@@ -6985,7 +6965,7 @@
         <v>256</v>
       </c>
       <c r="AN17" s="86" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="AO17" s="61" t="s">
         <v>278</v>
@@ -7384,7 +7364,7 @@
         <v>600</v>
       </c>
       <c r="AJ20" s="101" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="AK20" s="43">
         <v>340</v>
@@ -7401,7 +7381,7 @@
       <c r="AO20" s="43">
         <v>900</v>
       </c>
-      <c r="AP20" s="170">
+      <c r="AP20" s="169">
         <v>1200</v>
       </c>
       <c r="AQ20" s="43">
@@ -7536,7 +7516,7 @@
       <c r="AO21" s="44">
         <v>800</v>
       </c>
-      <c r="AP21" s="176">
+      <c r="AP21" s="175">
         <v>1100</v>
       </c>
       <c r="AQ21" s="44">
@@ -8509,62 +8489,62 @@
       <c r="A31" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="172"/>
-      <c r="C31" s="173"/>
-      <c r="D31" s="172"/>
-      <c r="E31" s="173"/>
-      <c r="F31" s="173"/>
-      <c r="G31" s="172"/>
+      <c r="B31" s="171"/>
+      <c r="C31" s="172"/>
+      <c r="D31" s="171"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="171"/>
       <c r="H31" s="19"/>
-      <c r="I31" s="173" t="s">
-        <v>921</v>
-      </c>
-      <c r="J31" s="172"/>
-      <c r="K31" s="172"/>
-      <c r="L31" s="172"/>
-      <c r="M31" s="172"/>
-      <c r="N31" s="173" t="s">
+      <c r="I31" s="172" t="s">
+        <v>922</v>
+      </c>
+      <c r="J31" s="171"/>
+      <c r="K31" s="171"/>
+      <c r="L31" s="171"/>
+      <c r="M31" s="171"/>
+      <c r="N31" s="172" t="s">
         <v>835</v>
       </c>
-      <c r="O31" s="172"/>
-      <c r="P31" s="172"/>
-      <c r="Q31" s="172"/>
-      <c r="R31" s="172"/>
-      <c r="S31" s="172"/>
-      <c r="T31" s="172"/>
-      <c r="U31" s="172"/>
-      <c r="V31" s="173" t="s">
+      <c r="O31" s="171"/>
+      <c r="P31" s="171"/>
+      <c r="Q31" s="171"/>
+      <c r="R31" s="171"/>
+      <c r="S31" s="171"/>
+      <c r="T31" s="171"/>
+      <c r="U31" s="171"/>
+      <c r="V31" s="172" t="s">
         <v>853</v>
       </c>
-      <c r="W31" s="173"/>
-      <c r="X31" s="172"/>
-      <c r="Y31" s="172"/>
-      <c r="Z31" s="172"/>
-      <c r="AA31" s="172"/>
+      <c r="W31" s="172"/>
+      <c r="X31" s="171"/>
+      <c r="Y31" s="171"/>
+      <c r="Z31" s="171"/>
+      <c r="AA31" s="171"/>
       <c r="AB31" s="19"/>
-      <c r="AC31" s="174" t="s">
+      <c r="AC31" s="173" t="s">
         <v>854</v>
       </c>
-      <c r="AD31" s="172"/>
-      <c r="AE31" s="172"/>
+      <c r="AD31" s="171"/>
+      <c r="AE31" s="171"/>
       <c r="AF31" s="19"/>
-      <c r="AG31" s="172"/>
+      <c r="AG31" s="171"/>
       <c r="AH31" s="19"/>
-      <c r="AI31" s="172"/>
-      <c r="AJ31" s="174" t="s">
+      <c r="AI31" s="171"/>
+      <c r="AJ31" s="173" t="s">
         <v>856</v>
       </c>
-      <c r="AK31" s="172"/>
-      <c r="AL31" s="172"/>
-      <c r="AM31" s="175"/>
-      <c r="AN31" s="172"/>
+      <c r="AK31" s="171"/>
+      <c r="AL31" s="171"/>
+      <c r="AM31" s="174"/>
+      <c r="AN31" s="171"/>
       <c r="AO31" s="19" t="s">
         <v>855</v>
       </c>
-      <c r="AP31" s="172"/>
-      <c r="AQ31" s="172"/>
-      <c r="AR31" s="174"/>
-      <c r="AS31" s="172"/>
+      <c r="AP31" s="171"/>
+      <c r="AQ31" s="171"/>
+      <c r="AR31" s="171"/>
+      <c r="AS31" s="171"/>
     </row>
     <row r="34" spans="1:10">
       <c r="J34" s="69"/>
@@ -8575,136 +8555,136 @@
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="B39" s="160"/>
+      <c r="B39" s="159"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="B40" s="160"/>
+      <c r="B40" s="159"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="B41" s="160"/>
+      <c r="B41" s="159"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="B42" s="160"/>
+      <c r="B42" s="159"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="B43" s="160"/>
+      <c r="B43" s="159"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="B44" s="160"/>
+      <c r="B44" s="159"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="B45" s="160"/>
+      <c r="B45" s="159"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="B46" s="160"/>
+      <c r="B46" s="159"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="B47" s="160"/>
+      <c r="B47" s="159"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="B48" s="160"/>
+      <c r="B48" s="159"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="160"/>
+      <c r="B49" s="159"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="160"/>
+      <c r="B50" s="159"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="160"/>
+      <c r="B51" s="159"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="160"/>
+      <c r="B52" s="159"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="160"/>
+      <c r="B53" s="159"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="160"/>
+      <c r="B54" s="159"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="160"/>
+      <c r="B55" s="159"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="160"/>
+      <c r="B56" s="159"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="160"/>
+      <c r="B57" s="159"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="160"/>
+      <c r="B58" s="159"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="160"/>
+      <c r="B59" s="159"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="160"/>
+      <c r="B60" s="159"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="160"/>
+      <c r="B61" s="159"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="160"/>
+      <c r="B62" s="159"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="160"/>
+      <c r="B63" s="159"/>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="160"/>
+      <c r="B64" s="159"/>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="160"/>
+      <c r="B65" s="159"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="160"/>
+      <c r="B66" s="159"/>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="160"/>
+      <c r="B67" s="159"/>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="160"/>
+      <c r="B68" s="159"/>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="160"/>
+      <c r="B69" s="159"/>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="160"/>
+      <c r="B70" s="159"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="160"/>
+      <c r="B71" s="159"/>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="160"/>
+      <c r="B72" s="159"/>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="160"/>
+      <c r="B73" s="159"/>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="160"/>
+      <c r="B74" s="159"/>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="160"/>
+      <c r="B75" s="159"/>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="160"/>
+      <c r="B76" s="159"/>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="160"/>
+      <c r="B77" s="159"/>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="160"/>
+      <c r="B78" s="159"/>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="160"/>
+      <c r="B79" s="159"/>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="160"/>
+      <c r="B80" s="159"/>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="160"/>
+      <c r="B81" s="159"/>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="160"/>
+      <c r="B82" s="159"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9052,7 +9032,7 @@
       <c r="A4" s="66" t="s">
         <v>450</v>
       </c>
-      <c r="B4" s="169">
+      <c r="B4" s="168">
         <v>11302</v>
       </c>
       <c r="C4" s="34">
@@ -9179,7 +9159,7 @@
       <c r="A5" s="66" t="s">
         <v>451</v>
       </c>
-      <c r="B5" s="170">
+      <c r="B5" s="169">
         <v>4624</v>
       </c>
       <c r="C5" s="34">
@@ -9306,7 +9286,7 @@
       <c r="A6" s="66" t="s">
         <v>452</v>
       </c>
-      <c r="B6" s="169">
+      <c r="B6" s="168">
         <v>15926</v>
       </c>
       <c r="C6" s="34">
@@ -9435,10 +9415,10 @@
       <c r="A7" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="145" t="s">
+      <c r="B7" s="144" t="s">
         <v>716</v>
       </c>
-      <c r="C7" s="144" t="s">
+      <c r="C7" s="143" t="s">
         <v>717</v>
       </c>
       <c r="D7" s="92" t="s">
@@ -9459,7 +9439,7 @@
       <c r="I7" s="92" t="s">
         <v>714</v>
       </c>
-      <c r="J7" s="146" t="s">
+      <c r="J7" s="145" t="s">
         <v>8</v>
       </c>
       <c r="K7" s="92" t="s">
@@ -9474,16 +9454,16 @@
       <c r="N7" s="92" t="s">
         <v>714</v>
       </c>
-      <c r="O7" s="146" t="s">
-        <v>8</v>
-      </c>
-      <c r="P7" s="146" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q7" s="146" t="s">
-        <v>8</v>
-      </c>
-      <c r="R7" s="146" t="s">
+      <c r="O7" s="145" t="s">
+        <v>8</v>
+      </c>
+      <c r="P7" s="145" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="145" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" s="145" t="s">
         <v>8</v>
       </c>
       <c r="S7" s="98" t="s">
@@ -9492,10 +9472,10 @@
       <c r="T7" s="92" t="s">
         <v>714</v>
       </c>
-      <c r="U7" s="146" t="s">
-        <v>8</v>
-      </c>
-      <c r="V7" s="146" t="s">
+      <c r="U7" s="145" t="s">
+        <v>8</v>
+      </c>
+      <c r="V7" s="145" t="s">
         <v>8</v>
       </c>
       <c r="W7" s="98" t="s">
@@ -9522,7 +9502,7 @@
       <c r="AD7" s="98" t="s">
         <v>722</v>
       </c>
-      <c r="AE7" s="146" t="s">
+      <c r="AE7" s="145" t="s">
         <v>8</v>
       </c>
       <c r="AF7" s="92" t="s">
@@ -9562,7 +9542,7 @@
       <c r="A8" s="103" t="s">
         <v>461</v>
       </c>
-      <c r="B8" s="148">
+      <c r="B8" s="147">
         <v>15926</v>
       </c>
       <c r="C8" s="93">
@@ -9699,7 +9679,7 @@
       <c r="A9" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="150" t="s">
+      <c r="B9" s="149" t="s">
         <v>462</v>
       </c>
       <c r="C9" s="99" t="s">
@@ -9836,7 +9816,7 @@
       <c r="A10" s="90" t="s">
         <v>724</v>
       </c>
-      <c r="B10" s="171">
+      <c r="B10" s="170">
         <v>5012796.6732999999</v>
       </c>
       <c r="C10" s="119" t="s">
@@ -9963,7 +9943,7 @@
       <c r="A11" s="90" t="s">
         <v>453</v>
       </c>
-      <c r="B11" s="171">
+      <c r="B11" s="170">
         <v>315</v>
       </c>
       <c r="C11" s="105">
@@ -10919,63 +10899,63 @@
       </c>
     </row>
     <row r="19" spans="1:45" s="124" customFormat="1" ht="34">
-      <c r="A19" s="161" t="s">
+      <c r="A19" s="160" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="162"/>
-      <c r="C19" s="163"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="164"/>
-      <c r="F19" s="164"/>
-      <c r="G19" s="168"/>
-      <c r="H19" s="164"/>
-      <c r="I19" s="165" t="s">
+      <c r="B19" s="161"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="167"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="164" t="s">
         <v>857</v>
       </c>
-      <c r="J19" s="164"/>
-      <c r="K19" s="164"/>
-      <c r="L19" s="164"/>
-      <c r="M19" s="164"/>
-      <c r="N19" s="164"/>
-      <c r="O19" s="164"/>
-      <c r="P19" s="165"/>
-      <c r="Q19" s="165"/>
-      <c r="R19" s="165"/>
-      <c r="S19" s="165"/>
-      <c r="T19" s="165"/>
-      <c r="U19" s="165"/>
-      <c r="V19" s="165"/>
-      <c r="W19" s="165"/>
-      <c r="X19" s="165"/>
-      <c r="Y19" s="165"/>
-      <c r="Z19" s="165"/>
-      <c r="AA19" s="165"/>
-      <c r="AB19" s="165"/>
-      <c r="AC19" s="165" t="s">
+      <c r="J19" s="163"/>
+      <c r="K19" s="163"/>
+      <c r="L19" s="163"/>
+      <c r="M19" s="163"/>
+      <c r="N19" s="163"/>
+      <c r="O19" s="163"/>
+      <c r="P19" s="164"/>
+      <c r="Q19" s="164"/>
+      <c r="R19" s="164"/>
+      <c r="S19" s="164"/>
+      <c r="T19" s="164"/>
+      <c r="U19" s="164"/>
+      <c r="V19" s="164"/>
+      <c r="W19" s="164"/>
+      <c r="X19" s="164"/>
+      <c r="Y19" s="164"/>
+      <c r="Z19" s="164"/>
+      <c r="AA19" s="164"/>
+      <c r="AB19" s="164"/>
+      <c r="AC19" s="164" t="s">
         <v>848</v>
       </c>
-      <c r="AD19" s="165"/>
-      <c r="AE19" s="165"/>
-      <c r="AF19" s="165"/>
-      <c r="AG19" s="165"/>
-      <c r="AH19" s="165"/>
-      <c r="AI19" s="165"/>
-      <c r="AJ19" s="165" t="s">
+      <c r="AD19" s="164"/>
+      <c r="AE19" s="164"/>
+      <c r="AF19" s="164"/>
+      <c r="AG19" s="164"/>
+      <c r="AH19" s="164"/>
+      <c r="AI19" s="164"/>
+      <c r="AJ19" s="164" t="s">
         <v>850</v>
       </c>
-      <c r="AK19" s="165"/>
-      <c r="AL19" s="166"/>
-      <c r="AM19" s="166"/>
-      <c r="AN19" s="166"/>
-      <c r="AO19" s="165" t="s">
+      <c r="AK19" s="164"/>
+      <c r="AL19" s="165"/>
+      <c r="AM19" s="165"/>
+      <c r="AN19" s="165"/>
+      <c r="AO19" s="164" t="s">
         <v>852</v>
       </c>
-      <c r="AP19" s="166"/>
-      <c r="AQ19" s="166"/>
-      <c r="AR19" s="167" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS19" s="166"/>
+      <c r="AP19" s="165"/>
+      <c r="AQ19" s="165"/>
+      <c r="AR19" s="166" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS19" s="165"/>
     </row>
     <row r="23" spans="1:45">
       <c r="A23" s="135"/>
@@ -10990,10 +10970,10 @@
   <dimension ref="A1:AS74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AR2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9:AS11"/>
+      <selection pane="bottomRight" activeCell="AS4" sqref="AS4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11187,277 +11167,277 @@
         <v>547</v>
       </c>
     </row>
-    <row r="3" spans="1:45" s="143" customFormat="1" ht="68">
-      <c r="A3" s="153" t="s">
+    <row r="3" spans="1:45" s="189" customFormat="1" ht="68">
+      <c r="A3" s="152" t="s">
         <v>777</v>
       </c>
-      <c r="B3" s="153" t="s">
+      <c r="B3" s="152" t="s">
         <v>751</v>
       </c>
-      <c r="C3" s="153" t="s">
+      <c r="C3" s="152" t="s">
         <v>765</v>
       </c>
-      <c r="D3" s="153" t="s">
+      <c r="D3" s="152" t="s">
         <v>752</v>
       </c>
-      <c r="E3" s="153" t="s">
+      <c r="E3" s="152" t="s">
         <v>741</v>
       </c>
-      <c r="F3" s="153" t="s">
+      <c r="F3" s="152" t="s">
         <v>750</v>
       </c>
-      <c r="G3" s="153" t="s">
+      <c r="G3" s="152" t="s">
         <v>764</v>
       </c>
-      <c r="H3" s="153" t="s">
+      <c r="H3" s="152" t="s">
         <v>749</v>
       </c>
-      <c r="I3" s="153" t="s">
+      <c r="I3" s="152" t="s">
         <v>763</v>
       </c>
-      <c r="J3" s="153" t="s">
+      <c r="J3" s="152" t="s">
         <v>743</v>
       </c>
-      <c r="K3" s="153" t="s">
+      <c r="K3" s="152" t="s">
         <v>747</v>
       </c>
-      <c r="L3" s="153" t="s">
+      <c r="L3" s="152" t="s">
         <v>743</v>
       </c>
-      <c r="M3" s="153" t="s">
+      <c r="M3" s="152" t="s">
         <v>747</v>
       </c>
-      <c r="N3" s="153" t="s">
+      <c r="N3" s="152" t="s">
         <v>762</v>
       </c>
-      <c r="O3" s="153" t="s">
+      <c r="O3" s="152" t="s">
         <v>761</v>
       </c>
-      <c r="P3" s="153" t="s">
+      <c r="P3" s="152" t="s">
         <v>754</v>
       </c>
-      <c r="Q3" s="153" t="s">
+      <c r="Q3" s="152" t="s">
         <v>756</v>
       </c>
-      <c r="R3" s="153" t="s">
+      <c r="R3" s="152" t="s">
         <v>760</v>
       </c>
-      <c r="S3" s="153" t="s">
+      <c r="S3" s="152" t="s">
         <v>767</v>
       </c>
-      <c r="T3" s="153" t="s">
+      <c r="T3" s="152" t="s">
         <v>756</v>
       </c>
-      <c r="U3" s="153" t="s">
+      <c r="U3" s="152" t="s">
         <v>771</v>
       </c>
-      <c r="V3" s="153" t="s">
+      <c r="V3" s="152" t="s">
         <v>747</v>
       </c>
-      <c r="W3" s="153" t="s">
+      <c r="W3" s="152" t="s">
         <v>773</v>
       </c>
-      <c r="X3" s="153" t="s">
+      <c r="X3" s="152" t="s">
         <v>756</v>
       </c>
-      <c r="Y3" s="153" t="s">
+      <c r="Y3" s="152" t="s">
         <v>780</v>
       </c>
-      <c r="Z3" s="153" t="s">
+      <c r="Z3" s="152" t="s">
         <v>782</v>
       </c>
-      <c r="AA3" s="153" t="s">
+      <c r="AA3" s="152" t="s">
         <v>782</v>
       </c>
-      <c r="AB3" s="153" t="s">
+      <c r="AB3" s="152" t="s">
         <v>784</v>
       </c>
-      <c r="AC3" s="153" t="s">
+      <c r="AC3" s="152" t="s">
         <v>787</v>
       </c>
-      <c r="AD3" s="153" t="s">
+      <c r="AD3" s="152" t="s">
         <v>788</v>
       </c>
-      <c r="AE3" s="153" t="s">
+      <c r="AE3" s="152" t="s">
         <v>792</v>
       </c>
-      <c r="AF3" s="153" t="s">
+      <c r="AF3" s="152" t="s">
         <v>794</v>
       </c>
-      <c r="AG3" s="153" t="s">
+      <c r="AG3" s="152" t="s">
         <v>791</v>
       </c>
-      <c r="AH3" s="153" t="s">
+      <c r="AH3" s="152" t="s">
         <v>795</v>
       </c>
-      <c r="AI3" s="153" t="s">
+      <c r="AI3" s="152" t="s">
         <v>796</v>
       </c>
-      <c r="AJ3" s="153" t="s">
+      <c r="AJ3" s="152" t="s">
         <v>798</v>
       </c>
-      <c r="AK3" s="153" t="s">
+      <c r="AK3" s="152" t="s">
         <v>799</v>
       </c>
-      <c r="AL3" s="153" t="s">
+      <c r="AL3" s="152" t="s">
         <v>801</v>
       </c>
-      <c r="AM3" s="153" t="s">
+      <c r="AM3" s="152" t="s">
         <v>804</v>
       </c>
-      <c r="AN3" s="153" t="s">
+      <c r="AN3" s="152" t="s">
         <v>805</v>
       </c>
-      <c r="AO3" s="153" t="s">
+      <c r="AO3" s="152" t="s">
         <v>806</v>
       </c>
-      <c r="AP3" s="153" t="s">
+      <c r="AP3" s="152" t="s">
         <v>769</v>
       </c>
-      <c r="AQ3" s="153" t="s">
+      <c r="AQ3" s="152" t="s">
         <v>809</v>
       </c>
-      <c r="AR3" s="153" t="s">
+      <c r="AR3" s="152" t="s">
         <v>808</v>
       </c>
-      <c r="AS3" s="153" t="s">
+      <c r="AS3" s="152" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="4" spans="1:45" s="124" customFormat="1" ht="99" customHeight="1">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="154" t="s">
         <v>740</v>
       </c>
-      <c r="C4" s="155" t="s">
+      <c r="C4" s="154" t="s">
         <v>735</v>
       </c>
-      <c r="D4" s="155" t="s">
+      <c r="D4" s="154" t="s">
         <v>736</v>
       </c>
-      <c r="E4" s="155" t="s">
+      <c r="E4" s="154" t="s">
         <v>739</v>
       </c>
-      <c r="F4" s="155" t="s">
+      <c r="F4" s="154" t="s">
         <v>738</v>
       </c>
-      <c r="G4" s="155" t="s">
+      <c r="G4" s="154" t="s">
         <v>813</v>
       </c>
-      <c r="H4" s="155" t="s">
+      <c r="H4" s="154" t="s">
         <v>814</v>
       </c>
-      <c r="I4" s="155" t="s">
+      <c r="I4" s="154" t="s">
         <v>815</v>
       </c>
-      <c r="J4" s="155" t="s">
+      <c r="J4" s="154" t="s">
         <v>744</v>
       </c>
-      <c r="K4" s="155" t="s">
+      <c r="K4" s="154" t="s">
         <v>746</v>
       </c>
-      <c r="L4" s="155" t="s">
+      <c r="L4" s="154" t="s">
         <v>748</v>
       </c>
-      <c r="M4" s="155" t="s">
+      <c r="M4" s="154" t="s">
         <v>128</v>
       </c>
-      <c r="N4" s="155" t="s">
+      <c r="N4" s="154" t="s">
         <v>816</v>
       </c>
-      <c r="O4" s="155" t="s">
+      <c r="O4" s="154" t="s">
         <v>817</v>
       </c>
-      <c r="P4" s="155" t="s">
+      <c r="P4" s="154" t="s">
         <v>753</v>
       </c>
-      <c r="Q4" s="155" t="s">
+      <c r="Q4" s="154" t="s">
         <v>757</v>
       </c>
-      <c r="R4" s="155" t="s">
+      <c r="R4" s="154" t="s">
         <v>818</v>
       </c>
-      <c r="S4" s="155" t="s">
+      <c r="S4" s="154" t="s">
         <v>766</v>
       </c>
-      <c r="T4" s="155" t="s">
+      <c r="T4" s="154" t="s">
         <v>768</v>
       </c>
-      <c r="U4" s="155" t="s">
+      <c r="U4" s="154" t="s">
         <v>770</v>
       </c>
-      <c r="V4" s="155" t="s">
+      <c r="V4" s="154" t="s">
         <v>772</v>
       </c>
-      <c r="W4" s="155" t="s">
+      <c r="W4" s="154" t="s">
         <v>774</v>
       </c>
-      <c r="X4" s="155" t="s">
+      <c r="X4" s="154" t="s">
         <v>778</v>
       </c>
-      <c r="Y4" s="155" t="s">
+      <c r="Y4" s="154" t="s">
         <v>779</v>
       </c>
-      <c r="Z4" s="155" t="s">
+      <c r="Z4" s="154" t="s">
         <v>781</v>
       </c>
-      <c r="AA4" s="155" t="s">
+      <c r="AA4" s="154" t="s">
         <v>783</v>
       </c>
-      <c r="AB4" s="155" t="s">
+      <c r="AB4" s="154" t="s">
         <v>785</v>
       </c>
-      <c r="AC4" s="155" t="s">
+      <c r="AC4" s="154" t="s">
         <v>786</v>
       </c>
-      <c r="AD4" s="155" t="s">
+      <c r="AD4" s="154" t="s">
         <v>789</v>
       </c>
-      <c r="AE4" s="155" t="s">
+      <c r="AE4" s="154" t="s">
         <v>793</v>
       </c>
-      <c r="AF4" s="155" t="s">
+      <c r="AF4" s="154" t="s">
         <v>819</v>
       </c>
-      <c r="AG4" s="155" t="s">
+      <c r="AG4" s="154" t="s">
         <v>790</v>
       </c>
-      <c r="AH4" s="155" t="s">
+      <c r="AH4" s="154" t="s">
         <v>229</v>
       </c>
-      <c r="AI4" s="155" t="s">
+      <c r="AI4" s="154" t="s">
         <v>820</v>
       </c>
-      <c r="AJ4" s="155" t="s">
+      <c r="AJ4" s="154" t="s">
         <v>241</v>
       </c>
-      <c r="AK4" s="155" t="s">
+      <c r="AK4" s="154" t="s">
         <v>800</v>
       </c>
-      <c r="AL4" s="155" t="s">
+      <c r="AL4" s="154" t="s">
         <v>802</v>
       </c>
-      <c r="AM4" s="155" t="s">
+      <c r="AM4" s="154" t="s">
         <v>803</v>
       </c>
-      <c r="AN4" s="155" t="s">
+      <c r="AN4" s="154" t="s">
         <v>821</v>
       </c>
-      <c r="AO4" s="155" t="s">
+      <c r="AO4" s="154" t="s">
         <v>822</v>
       </c>
-      <c r="AP4" s="155" t="s">
+      <c r="AP4" s="154" t="s">
         <v>807</v>
       </c>
-      <c r="AQ4" s="156" t="s">
+      <c r="AQ4" s="155" t="s">
         <v>283</v>
       </c>
-      <c r="AR4" s="156" t="s">
+      <c r="AR4" s="155" t="s">
         <v>286</v>
       </c>
-      <c r="AS4" s="155" t="s">
+      <c r="AS4" s="154" t="s">
         <v>823</v>
       </c>
     </row>
@@ -12010,7 +11990,7 @@
       </c>
     </row>
     <row r="9" spans="1:45">
-      <c r="A9" s="157" t="s">
+      <c r="A9" s="156" t="s">
         <v>834</v>
       </c>
       <c r="B9" s="57">
@@ -12284,7 +12264,7 @@
       </c>
     </row>
     <row r="11" spans="1:45">
-      <c r="A11" s="158" t="s">
+      <c r="A11" s="157" t="s">
         <v>832</v>
       </c>
       <c r="B11" s="102">
@@ -12429,157 +12409,157 @@
       <c r="A13" s="140" t="s">
         <v>710</v>
       </c>
-      <c r="B13" s="148">
+      <c r="B13" s="147">
         <v>1398058</v>
       </c>
-      <c r="C13" s="148">
+      <c r="C13" s="147">
         <v>503460</v>
       </c>
-      <c r="D13" s="148">
+      <c r="D13" s="147">
         <f>33.26*1000000</f>
         <v>33259999.999999996</v>
       </c>
-      <c r="E13" s="148">
+      <c r="E13" s="147">
         <f>45.25*1000000</f>
         <v>45250000</v>
       </c>
-      <c r="F13" s="148">
+      <c r="F13" s="147">
         <v>3113040</v>
       </c>
-      <c r="G13" s="148">
+      <c r="G13" s="147">
         <v>16055200</v>
       </c>
-      <c r="H13" s="148">
+      <c r="H13" s="147">
         <f>1.91*1000000</f>
         <v>1910000</v>
       </c>
-      <c r="I13" s="148">
+      <c r="I13" s="147">
         <f>1.66*1000000</f>
         <v>1660000</v>
       </c>
-      <c r="J13" s="148">
+      <c r="J13" s="147">
         <f>35.57*1000000</f>
         <v>35570000</v>
       </c>
-      <c r="K13" s="148">
+      <c r="K13" s="147">
         <v>50000000</v>
       </c>
-      <c r="L13" s="148">
+      <c r="L13" s="147">
         <f>1.23*1000000</f>
         <v>1230000</v>
       </c>
-      <c r="M13" s="148">
+      <c r="M13" s="147">
         <f>4.06*1000000</f>
         <v>4059999.9999999995</v>
       </c>
-      <c r="N13" s="148">
+      <c r="N13" s="147">
         <v>200000000</v>
       </c>
-      <c r="O13" s="148">
+      <c r="O13" s="147">
         <v>210000000</v>
       </c>
-      <c r="P13" s="148">
+      <c r="P13" s="147">
         <v>450000</v>
       </c>
-      <c r="Q13" s="148">
+      <c r="Q13" s="147">
         <f>11.51*1000000</f>
         <v>11510000</v>
       </c>
-      <c r="R13" s="148">
+      <c r="R13" s="147">
         <v>4000000</v>
       </c>
-      <c r="S13" s="148">
+      <c r="S13" s="147">
         <v>2273616</v>
       </c>
-      <c r="T13" s="148">
+      <c r="T13" s="147">
         <f>16.13*1000000</f>
         <v>16129999.999999998</v>
       </c>
-      <c r="U13" s="148">
+      <c r="U13" s="147">
         <v>543142.85714285716</v>
       </c>
-      <c r="V13" s="148">
+      <c r="V13" s="147">
         <f>48.47*1000000</f>
         <v>48470000</v>
       </c>
-      <c r="W13" s="148">
+      <c r="W13" s="147">
         <v>2040786.9267534486</v>
       </c>
-      <c r="X13" s="148">
+      <c r="X13" s="147">
         <f>3.72*1000000</f>
         <v>3720000</v>
       </c>
-      <c r="Y13" s="148">
+      <c r="Y13" s="147">
         <v>1756981.5360000001</v>
       </c>
-      <c r="Z13" s="148">
+      <c r="Z13" s="147">
         <f>9.66*1000000</f>
         <v>9660000</v>
       </c>
-      <c r="AA13" s="148">
+      <c r="AA13" s="147">
         <f>4.15*1000000</f>
         <v>4150000.0000000005</v>
       </c>
-      <c r="AB13" s="148">
+      <c r="AB13" s="147">
         <f>0.78*1000000</f>
         <v>780000</v>
       </c>
-      <c r="AC13" s="148">
+      <c r="AC13" s="147">
         <v>1159679.9999999998</v>
       </c>
-      <c r="AD13" s="148">
+      <c r="AD13" s="147">
         <v>194750</v>
       </c>
-      <c r="AE13" s="148">
+      <c r="AE13" s="147">
         <v>1367480</v>
       </c>
-      <c r="AF13" s="148">
+      <c r="AF13" s="147">
         <f>58.67*1000000</f>
         <v>58670000</v>
       </c>
-      <c r="AG13" s="148">
+      <c r="AG13" s="147">
         <v>3589760.0000000014</v>
       </c>
-      <c r="AH13" s="148">
+      <c r="AH13" s="147">
         <v>17000000</v>
       </c>
-      <c r="AI13" s="148">
+      <c r="AI13" s="147">
         <f>98.78*1000000</f>
         <v>98780000</v>
       </c>
-      <c r="AJ13" s="148">
+      <c r="AJ13" s="147">
         <f>21.43*1000000</f>
         <v>21430000</v>
       </c>
-      <c r="AK13" s="148">
+      <c r="AK13" s="147">
         <v>5000000</v>
       </c>
-      <c r="AL13" s="148">
+      <c r="AL13" s="147">
         <v>15428571.43</v>
       </c>
-      <c r="AM13" s="148">
+      <c r="AM13" s="147">
         <f>4.68*1000000</f>
         <v>4680000</v>
       </c>
-      <c r="AN13" s="148">
+      <c r="AN13" s="147">
         <f>3.65*1000000</f>
         <v>3650000</v>
       </c>
-      <c r="AO13" s="148">
+      <c r="AO13" s="147">
         <f>21.04*1000000</f>
         <v>21040000</v>
       </c>
-      <c r="AP13" s="148">
+      <c r="AP13" s="147">
         <f>44.92*1000000</f>
         <v>44920000</v>
       </c>
-      <c r="AQ13" s="148">
+      <c r="AQ13" s="147">
         <v>31000000</v>
       </c>
-      <c r="AR13" s="148" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS13" s="148">
+      <c r="AR13" s="147" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS13" s="147">
         <v>120000000</v>
       </c>
     </row>
@@ -12587,155 +12567,155 @@
       <c r="A14" s="139" t="s">
         <v>711</v>
       </c>
-      <c r="B14" s="149">
+      <c r="B14" s="148">
         <v>3339806</v>
       </c>
-      <c r="C14" s="149">
+      <c r="C14" s="148">
         <v>458079</v>
       </c>
-      <c r="D14" s="149">
+      <c r="D14" s="148">
         <f>32.43*1000000</f>
         <v>32430000</v>
       </c>
-      <c r="E14" s="149">
+      <c r="E14" s="148">
         <f>44.92*1000000</f>
         <v>44920000</v>
       </c>
-      <c r="F14" s="149">
+      <c r="F14" s="148">
         <v>5461610.1379053304</v>
       </c>
-      <c r="G14" s="149">
+      <c r="G14" s="148">
         <v>12000000</v>
       </c>
-      <c r="H14" s="149">
+      <c r="H14" s="148">
         <f>3.25*1000000</f>
         <v>3250000</v>
       </c>
-      <c r="I14" s="149">
+      <c r="I14" s="148">
         <f>1.74*1000000</f>
         <v>1740000</v>
       </c>
-      <c r="J14" s="149">
+      <c r="J14" s="148">
         <v>15000000</v>
       </c>
-      <c r="K14" s="149">
+      <c r="K14" s="148">
         <v>12000000</v>
       </c>
-      <c r="L14" s="149">
+      <c r="L14" s="148">
         <f>1.78*1000000</f>
         <v>1780000</v>
       </c>
-      <c r="M14" s="149">
+      <c r="M14" s="148">
         <f>27.6*1000000</f>
         <v>27600000</v>
       </c>
-      <c r="N14" s="149">
+      <c r="N14" s="148">
         <v>210000000</v>
       </c>
-      <c r="O14" s="149">
+      <c r="O14" s="148">
         <v>430000000</v>
       </c>
-      <c r="P14" s="149">
+      <c r="P14" s="148">
         <v>86152.534784405565</v>
       </c>
-      <c r="Q14" s="149">
+      <c r="Q14" s="148">
         <f>23.59*1000000</f>
         <v>23590000</v>
       </c>
-      <c r="R14" s="149">
+      <c r="R14" s="148">
         <v>28828470</v>
       </c>
-      <c r="S14" s="149">
+      <c r="S14" s="148">
         <v>277411.20000000001</v>
       </c>
-      <c r="T14" s="149">
+      <c r="T14" s="148">
         <f>20.65*1000000</f>
         <v>20650000</v>
       </c>
-      <c r="U14" s="149">
+      <c r="U14" s="148">
         <v>374060.5166666666</v>
       </c>
-      <c r="V14" s="149">
+      <c r="V14" s="148">
         <f>92.4*1000000</f>
         <v>92400000</v>
       </c>
-      <c r="W14" s="149">
+      <c r="W14" s="148">
         <v>1689026.3104721196</v>
       </c>
-      <c r="X14" s="149">
+      <c r="X14" s="148">
         <f>6.1*1000000</f>
         <v>6100000</v>
       </c>
-      <c r="Y14" s="149">
+      <c r="Y14" s="148">
         <v>166356.80000000002</v>
       </c>
-      <c r="Z14" s="149">
+      <c r="Z14" s="148">
         <f>20.09*1000000</f>
         <v>20090000</v>
       </c>
-      <c r="AA14" s="149">
+      <c r="AA14" s="148">
         <f>3.28*1000000</f>
         <v>3280000</v>
       </c>
-      <c r="AB14" s="149">
+      <c r="AB14" s="148">
         <f>0.57*1000000</f>
         <v>570000</v>
       </c>
-      <c r="AC14" s="149">
+      <c r="AC14" s="148">
         <v>3079799.9999999991</v>
       </c>
-      <c r="AD14" s="149">
+      <c r="AD14" s="148">
         <v>102480</v>
       </c>
-      <c r="AE14" s="149">
+      <c r="AE14" s="148">
         <v>3396600</v>
       </c>
-      <c r="AF14" s="149">
+      <c r="AF14" s="148">
         <f>64.28*1000000</f>
         <v>64280000</v>
       </c>
-      <c r="AG14" s="149">
+      <c r="AG14" s="148">
         <v>5853999.9999999972</v>
       </c>
-      <c r="AH14" s="149">
+      <c r="AH14" s="148">
         <v>24000000</v>
       </c>
-      <c r="AI14" s="149">
+      <c r="AI14" s="148">
         <v>94000000</v>
       </c>
-      <c r="AJ14" s="149">
+      <c r="AJ14" s="148">
         <f>30.43*1000000</f>
         <v>30430000</v>
       </c>
-      <c r="AK14" s="149">
+      <c r="AK14" s="148">
         <v>20640880</v>
       </c>
-      <c r="AL14" s="149">
+      <c r="AL14" s="148">
         <v>18000000</v>
       </c>
-      <c r="AM14" s="149">
+      <c r="AM14" s="148">
         <f>1.6*1000000</f>
         <v>1600000</v>
       </c>
-      <c r="AN14" s="149">
+      <c r="AN14" s="148">
         <f>3.13*1000000</f>
         <v>3130000</v>
       </c>
-      <c r="AO14" s="149">
+      <c r="AO14" s="148">
         <f>76.97*1000000</f>
         <v>76970000</v>
       </c>
-      <c r="AP14" s="149">
+      <c r="AP14" s="148">
         <f>50.5*1000000</f>
         <v>50500000</v>
       </c>
-      <c r="AQ14" s="149">
+      <c r="AQ14" s="148">
         <v>14300000</v>
       </c>
-      <c r="AR14" s="149" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS14" s="149">
+      <c r="AR14" s="148" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS14" s="148">
         <v>250000000</v>
       </c>
     </row>
@@ -12743,155 +12723,155 @@
       <c r="A15" s="139" t="s">
         <v>712</v>
       </c>
-      <c r="B15" s="149">
+      <c r="B15" s="148">
         <v>3728155</v>
       </c>
-      <c r="C15" s="149">
+      <c r="C15" s="148">
         <v>834392.07</v>
       </c>
-      <c r="D15" s="149">
+      <c r="D15" s="148">
         <f>29.55*1000000</f>
         <v>29550000</v>
       </c>
-      <c r="E15" s="149">
+      <c r="E15" s="148">
         <f>28.63*1000000</f>
         <v>28630000</v>
       </c>
-      <c r="F15" s="149">
+      <c r="F15" s="148">
         <v>427061.89103883627</v>
       </c>
-      <c r="G15" s="149">
+      <c r="G15" s="148">
         <v>7437000</v>
       </c>
-      <c r="H15" s="149">
+      <c r="H15" s="148">
         <f>15.41*1000000</f>
         <v>15410000</v>
       </c>
-      <c r="I15" s="149">
+      <c r="I15" s="148">
         <f>2.74*1000000</f>
         <v>2740000</v>
       </c>
-      <c r="J15" s="149">
+      <c r="J15" s="148">
         <v>9000000</v>
       </c>
-      <c r="K15" s="149">
+      <c r="K15" s="148">
         <v>8000000</v>
       </c>
-      <c r="L15" s="149">
+      <c r="L15" s="148">
         <f>3.48*1000000</f>
         <v>3480000</v>
       </c>
-      <c r="M15" s="149">
+      <c r="M15" s="148">
         <f>5.1*100000</f>
         <v>509999.99999999994</v>
       </c>
-      <c r="N15" s="149">
+      <c r="N15" s="148">
         <v>64720000</v>
       </c>
-      <c r="O15" s="149">
+      <c r="O15" s="148">
         <v>250000000</v>
       </c>
-      <c r="P15" s="149">
+      <c r="P15" s="148">
         <v>172671.84035476716</v>
       </c>
-      <c r="Q15" s="149">
+      <c r="Q15" s="148">
         <f>23.27*1000000</f>
         <v>23270000</v>
       </c>
-      <c r="R15" s="149">
+      <c r="R15" s="148">
         <v>26000000</v>
       </c>
-      <c r="S15" s="149">
+      <c r="S15" s="148">
         <v>2628120</v>
       </c>
-      <c r="T15" s="149">
+      <c r="T15" s="148">
         <f>21.98*1000000</f>
         <v>21980000</v>
       </c>
-      <c r="U15" s="149">
+      <c r="U15" s="148">
         <v>466855.79904610495</v>
       </c>
-      <c r="V15" s="149">
+      <c r="V15" s="148">
         <f>48.6*1000000</f>
         <v>48600000</v>
       </c>
-      <c r="W15" s="149">
+      <c r="W15" s="148">
         <v>2462589.5473091123</v>
       </c>
-      <c r="X15" s="149">
+      <c r="X15" s="148">
         <f>2.3*1000000</f>
         <v>2300000</v>
       </c>
-      <c r="Y15" s="149">
+      <c r="Y15" s="148">
         <v>57669.192000000003</v>
       </c>
-      <c r="Z15" s="149">
+      <c r="Z15" s="148">
         <f>1.97*1000000</f>
         <v>1970000</v>
       </c>
-      <c r="AA15" s="149">
+      <c r="AA15" s="148">
         <f>2.85*1000000</f>
         <v>2850000</v>
       </c>
-      <c r="AB15" s="149">
+      <c r="AB15" s="148">
         <f>0.75*1000000</f>
         <v>750000</v>
       </c>
-      <c r="AC15" s="149">
+      <c r="AC15" s="148">
         <v>217319.99999999997</v>
       </c>
-      <c r="AD15" s="149">
+      <c r="AD15" s="148">
         <v>319600</v>
       </c>
-      <c r="AE15" s="149">
+      <c r="AE15" s="148">
         <v>1815210</v>
       </c>
-      <c r="AF15" s="149">
+      <c r="AF15" s="148">
         <f>46.66*1000000</f>
         <v>46660000</v>
       </c>
-      <c r="AG15" s="149">
+      <c r="AG15" s="148">
         <v>2205280.0000000005</v>
       </c>
-      <c r="AH15" s="149">
+      <c r="AH15" s="148">
         <v>10000000</v>
       </c>
-      <c r="AI15" s="149">
+      <c r="AI15" s="148">
         <v>40000000</v>
       </c>
-      <c r="AJ15" s="149">
+      <c r="AJ15" s="148">
         <f>14.08*1000000</f>
         <v>14080000</v>
       </c>
-      <c r="AK15" s="149">
+      <c r="AK15" s="148">
         <v>11490500</v>
       </c>
-      <c r="AL15" s="149">
+      <c r="AL15" s="148">
         <v>1714285.7139999999</v>
       </c>
-      <c r="AM15" s="149">
+      <c r="AM15" s="148">
         <f>11.81*1000000</f>
         <v>11810000</v>
       </c>
-      <c r="AN15" s="149">
+      <c r="AN15" s="148">
         <f>2.62*1000000</f>
         <v>2620000</v>
       </c>
-      <c r="AO15" s="149">
+      <c r="AO15" s="148">
         <f>106.8*1000000</f>
         <v>106800000</v>
       </c>
-      <c r="AP15" s="149">
+      <c r="AP15" s="148">
         <f>8.65*1000000</f>
         <v>8650000</v>
       </c>
-      <c r="AQ15" s="149">
+      <c r="AQ15" s="148">
         <v>10500000</v>
       </c>
-      <c r="AR15" s="149" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS15" s="149">
+      <c r="AR15" s="148" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS15" s="148">
         <v>60000000</v>
       </c>
     </row>
@@ -12899,217 +12879,217 @@
       <c r="A16" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="150" t="s">
+      <c r="B16" s="149" t="s">
         <v>684</v>
       </c>
-      <c r="C16" s="150" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="150" t="s">
+      <c r="C16" s="149" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="151" t="s">
+      <c r="E16" s="150" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="151" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="152" t="s">
+      <c r="F16" s="150" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="151" t="s">
         <v>745</v>
       </c>
-      <c r="H16" s="152" t="s">
+      <c r="H16" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="I16" s="152" t="s">
+      <c r="I16" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="J16" s="152" t="s">
+      <c r="J16" s="151" t="s">
         <v>745</v>
       </c>
-      <c r="K16" s="152" t="s">
+      <c r="K16" s="151" t="s">
         <v>742</v>
       </c>
-      <c r="L16" s="152" t="s">
+      <c r="L16" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="M16" s="152" t="s">
+      <c r="M16" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="N16" s="152" t="s">
+      <c r="N16" s="151" t="s">
         <v>742</v>
       </c>
-      <c r="O16" s="152" t="s">
+      <c r="O16" s="151" t="s">
         <v>742</v>
       </c>
-      <c r="P16" s="152" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q16" s="152" t="s">
+      <c r="P16" s="151" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q16" s="151" t="s">
         <v>755</v>
       </c>
-      <c r="R16" s="152" t="s">
+      <c r="R16" s="151" t="s">
         <v>742</v>
       </c>
-      <c r="S16" s="152"/>
-      <c r="T16" s="152" t="s">
+      <c r="S16" s="151"/>
+      <c r="T16" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="U16" s="152"/>
-      <c r="V16" s="152" t="s">
+      <c r="U16" s="151"/>
+      <c r="V16" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="W16" s="152" t="s">
+      <c r="W16" s="151" t="s">
         <v>775</v>
       </c>
-      <c r="X16" s="152" t="s">
+      <c r="X16" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="Y16" s="152"/>
-      <c r="Z16" s="152" t="s">
+      <c r="Y16" s="151"/>
+      <c r="Z16" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="AA16" s="152" t="s">
+      <c r="AA16" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="AB16" s="152" t="s">
+      <c r="AB16" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="AC16" s="152"/>
-      <c r="AD16" s="152"/>
-      <c r="AE16" s="152"/>
-      <c r="AF16" s="152" t="s">
+      <c r="AC16" s="151"/>
+      <c r="AD16" s="151"/>
+      <c r="AE16" s="151"/>
+      <c r="AF16" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="AG16" s="152"/>
-      <c r="AH16" s="152" t="s">
+      <c r="AG16" s="151"/>
+      <c r="AH16" s="151" t="s">
         <v>742</v>
       </c>
-      <c r="AI16" s="152" t="s">
+      <c r="AI16" s="151" t="s">
         <v>797</v>
       </c>
-      <c r="AJ16" s="152" t="s">
+      <c r="AJ16" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="AK16" s="152"/>
-      <c r="AL16" s="152" t="s">
+      <c r="AK16" s="151"/>
+      <c r="AL16" s="151" t="s">
         <v>802</v>
       </c>
-      <c r="AM16" s="152" t="s">
+      <c r="AM16" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="AN16" s="152" t="s">
+      <c r="AN16" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="AO16" s="152" t="s">
+      <c r="AO16" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="AP16" s="152" t="s">
+      <c r="AP16" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="AQ16" s="152" t="s">
+      <c r="AQ16" s="151" t="s">
         <v>742</v>
       </c>
-      <c r="AR16" s="159" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS16" s="152" t="s">
+      <c r="AR16" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS16" s="151" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="18" spans="1:45" s="124" customFormat="1" ht="68">
-      <c r="A18" s="161" t="s">
+      <c r="A18" s="160" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="162"/>
-      <c r="C18" s="163" t="s">
+      <c r="B18" s="161"/>
+      <c r="C18" s="162" t="s">
         <v>840</v>
       </c>
-      <c r="D18" s="163"/>
-      <c r="E18" s="164"/>
-      <c r="F18" s="164" t="s">
+      <c r="D18" s="162"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="163" t="s">
         <v>841</v>
       </c>
-      <c r="G18" s="168" t="s">
+      <c r="G18" s="167" t="s">
         <v>838</v>
       </c>
-      <c r="H18" s="164"/>
-      <c r="I18" s="165" t="s">
+      <c r="H18" s="163"/>
+      <c r="I18" s="164" t="s">
         <v>857</v>
       </c>
-      <c r="J18" s="164"/>
-      <c r="K18" s="164"/>
-      <c r="L18" s="164"/>
-      <c r="M18" s="164"/>
-      <c r="N18" s="164"/>
-      <c r="O18" s="164"/>
-      <c r="P18" s="165" t="s">
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
+      <c r="L18" s="163"/>
+      <c r="M18" s="163"/>
+      <c r="N18" s="163"/>
+      <c r="O18" s="163"/>
+      <c r="P18" s="164" t="s">
         <v>840</v>
       </c>
-      <c r="Q18" s="165" t="s">
+      <c r="Q18" s="164" t="s">
         <v>758</v>
       </c>
-      <c r="R18" s="165"/>
-      <c r="S18" s="165" t="s">
+      <c r="R18" s="164"/>
+      <c r="S18" s="164" t="s">
         <v>842</v>
       </c>
-      <c r="T18" s="165"/>
-      <c r="U18" s="165" t="s">
+      <c r="T18" s="164"/>
+      <c r="U18" s="164" t="s">
         <v>843</v>
       </c>
-      <c r="V18" s="165"/>
-      <c r="W18" s="165" t="s">
+      <c r="V18" s="164"/>
+      <c r="W18" s="164" t="s">
         <v>776</v>
       </c>
-      <c r="X18" s="165"/>
-      <c r="Y18" s="165" t="s">
+      <c r="X18" s="164"/>
+      <c r="Y18" s="164" t="s">
         <v>844</v>
       </c>
-      <c r="Z18" s="165"/>
-      <c r="AA18" s="165"/>
-      <c r="AB18" s="165"/>
-      <c r="AC18" s="165" t="s">
+      <c r="Z18" s="164"/>
+      <c r="AA18" s="164"/>
+      <c r="AB18" s="164"/>
+      <c r="AC18" s="164" t="s">
         <v>849</v>
       </c>
-      <c r="AD18" s="165" t="s">
+      <c r="AD18" s="164" t="s">
         <v>846</v>
       </c>
-      <c r="AE18" s="165" t="s">
+      <c r="AE18" s="164" t="s">
         <v>847</v>
       </c>
-      <c r="AF18" s="165"/>
-      <c r="AG18" s="165" t="s">
+      <c r="AF18" s="164"/>
+      <c r="AG18" s="164" t="s">
         <v>845</v>
       </c>
-      <c r="AH18" s="165"/>
-      <c r="AI18" s="165"/>
-      <c r="AJ18" s="165" t="s">
+      <c r="AH18" s="164"/>
+      <c r="AI18" s="164"/>
+      <c r="AJ18" s="164" t="s">
         <v>850</v>
       </c>
-      <c r="AK18" s="165" t="s">
+      <c r="AK18" s="164" t="s">
         <v>839</v>
       </c>
-      <c r="AL18" s="166"/>
-      <c r="AM18" s="166"/>
-      <c r="AN18" s="166"/>
-      <c r="AO18" s="165" t="s">
+      <c r="AL18" s="165"/>
+      <c r="AM18" s="165"/>
+      <c r="AN18" s="165"/>
+      <c r="AO18" s="164" t="s">
         <v>851</v>
       </c>
-      <c r="AP18" s="166"/>
-      <c r="AQ18" s="166"/>
-      <c r="AR18" s="167" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS18" s="166"/>
+      <c r="AP18" s="165"/>
+      <c r="AQ18" s="165"/>
+      <c r="AR18" s="166" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS18" s="165"/>
     </row>
     <row r="19" spans="1:45">
       <c r="B19" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="147"/>
-      <c r="O19" s="147"/>
+      <c r="H19" s="146"/>
+      <c r="O19" s="146"/>
     </row>
     <row r="20" spans="1:45">
-      <c r="O20" s="147"/>
+      <c r="O20" s="146"/>
     </row>
     <row r="21" spans="1:45">
       <c r="C21" s="113"/>
@@ -13124,136 +13104,136 @@
       <c r="AR21" s="113"/>
     </row>
     <row r="31" spans="1:45">
-      <c r="B31" s="160"/>
+      <c r="B31" s="159"/>
     </row>
     <row r="32" spans="1:45">
-      <c r="B32" s="160"/>
+      <c r="B32" s="159"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="160"/>
+      <c r="B33" s="159"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="160"/>
+      <c r="B34" s="159"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="160"/>
+      <c r="B35" s="159"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="160"/>
+      <c r="B36" s="159"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="160"/>
+      <c r="B37" s="159"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="160"/>
+      <c r="B38" s="159"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="160"/>
+      <c r="B39" s="159"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="160"/>
+      <c r="B40" s="159"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="160"/>
+      <c r="B41" s="159"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="160"/>
+      <c r="B42" s="159"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="160"/>
+      <c r="B43" s="159"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="160"/>
+      <c r="B44" s="159"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="160"/>
+      <c r="B45" s="159"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="160"/>
+      <c r="B46" s="159"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="160"/>
+      <c r="B47" s="159"/>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="160"/>
+      <c r="B48" s="159"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="160"/>
+      <c r="B49" s="159"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="160"/>
+      <c r="B50" s="159"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="160"/>
+      <c r="B51" s="159"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="160"/>
+      <c r="B52" s="159"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="160"/>
+      <c r="B53" s="159"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="160"/>
+      <c r="B54" s="159"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="160"/>
+      <c r="B55" s="159"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="160"/>
+      <c r="B56" s="159"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="160"/>
+      <c r="B57" s="159"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="160"/>
+      <c r="B58" s="159"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="160"/>
+      <c r="B59" s="159"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="160"/>
+      <c r="B60" s="159"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="160"/>
+      <c r="B61" s="159"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="160"/>
+      <c r="B62" s="159"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="160"/>
+      <c r="B63" s="159"/>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="160"/>
+      <c r="B64" s="159"/>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="160"/>
+      <c r="B65" s="159"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="160"/>
+      <c r="B66" s="159"/>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="160"/>
+      <c r="B67" s="159"/>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="160"/>
+      <c r="B68" s="159"/>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="160"/>
+      <c r="B69" s="159"/>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="160"/>
+      <c r="B70" s="159"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="160"/>
+      <c r="B71" s="159"/>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="160"/>
+      <c r="B72" s="159"/>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="160"/>
+      <c r="B73" s="159"/>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="160"/>
+      <c r="B74" s="159"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13265,7 +13245,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13283,7 +13263,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="33" customHeight="1">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="178" t="s">
         <v>825</v>
       </c>
       <c r="B2" s="136" t="s">
@@ -13291,7 +13271,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="17">
-      <c r="A3" s="179" t="s">
+      <c r="A3" s="178" t="s">
         <v>893</v>
       </c>
       <c r="B3" s="136" t="s">
@@ -13299,7 +13279,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="51">
-      <c r="A4" s="179" t="s">
+      <c r="A4" s="178" t="s">
         <v>898</v>
       </c>
       <c r="B4" s="136" t="s">
@@ -13307,19 +13287,19 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="51">
-      <c r="A5" s="179" t="s">
+      <c r="A5" s="178" t="s">
         <v>906</v>
       </c>
       <c r="B5" s="136" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="179"/>
+      <c r="A6" s="178"/>
       <c r="B6" s="136"/>
     </row>
     <row r="7" spans="1:2" ht="34">
-      <c r="A7" s="179" t="s">
+      <c r="A7" s="178" t="s">
         <v>902</v>
       </c>
       <c r="B7" s="136" t="s">
@@ -13327,19 +13307,19 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="179"/>
+      <c r="A8" s="178"/>
       <c r="B8" s="136"/>
     </row>
     <row r="9" spans="1:2" ht="34">
-      <c r="A9" s="180" t="s">
+      <c r="A9" s="179" t="s">
         <v>705</v>
       </c>
       <c r="B9" s="136" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="34">
-      <c r="A10" s="180" t="s">
+      <c r="A10" s="179" t="s">
         <v>706</v>
       </c>
       <c r="B10" s="136" t="s">
@@ -13347,7 +13327,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="51">
-      <c r="A11" s="180" t="s">
+      <c r="A11" s="179" t="s">
         <v>707</v>
       </c>
       <c r="B11" s="136" t="s">
@@ -13355,7 +13335,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="33" customHeight="1">
-      <c r="A12" s="180" t="s">
+      <c r="A12" s="179" t="s">
         <v>726</v>
       </c>
       <c r="B12" s="136" t="s">
@@ -13369,8 +13349,8 @@
       <c r="A14" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="B14" s="181" t="s">
-        <v>915</v>
+      <c r="B14" s="180" t="s">
+        <v>916</v>
       </c>
     </row>
   </sheetData>

--- a/sources/European_Exposure_Model_Data_Inputs_Sources.xlsx
+++ b/sources/European_Exposure_Model_Data_Inputs_Sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helencrowley/Documents/5-GitHub/esrm20_exposure/sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D917E636-E034-4343-9824-DE169483F82A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C6C70E-EB0B-8E47-B20F-3E880A6B38A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="520" windowWidth="28300" windowHeight="16700" xr2:uid="{3ADB8CE8-CD4D-1C4D-B72A-BA24B45CE5E7}"/>
+    <workbookView xWindow="260" yWindow="460" windowWidth="28300" windowHeight="16700" activeTab="1" xr2:uid="{3ADB8CE8-CD4D-1C4D-B72A-BA24B45CE5E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="925">
   <si>
     <t>data_Albania_RES_census-buildings.xlsx</t>
   </si>
@@ -780,10 +780,6 @@
   </si>
   <si>
     <t>mapping_Poland_RES.txt</t>
-  </si>
-  <si>
-    <t>2011 Population and Housing Census
-http://stat.gov.pl</t>
   </si>
   <si>
     <t>data_Portugal_RES_census.txt</t>
@@ -2725,9 +2721,6 @@
     <t>Buildings in Canary islands are not included in final model</t>
   </si>
   <si>
-    <t>Buildings in Azores are not included in final model, and an estimated population of ﻿243,862 has been removed from the total population in the social indicators folder</t>
-  </si>
-  <si>
     <t>Only buildings in government controlled area included in final model</t>
   </si>
   <si>
@@ -2927,6 +2920,16 @@
   </si>
   <si>
     <t>710 (https://forumdacasa.com/discussion/53535/orientacao-valor-medio-construcao-2018/)</t>
+  </si>
+  <si>
+    <t>Eurostat 2011 
+https://tinyurl.com/3ymrfu33</t>
+  </si>
+  <si>
+    <t>The dwellings from the census are occupied dwellings, and so the data has been uniformly scaled to the total number of dwellings from Eurostat 2011</t>
+  </si>
+  <si>
+    <t>Buildings in Azores are not included in final model, and an estimated population of ﻿243,862 has thus been removed from the total population in the social indicators folder</t>
   </si>
 </sst>
 </file>
@@ -3230,7 +3233,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3699,13 +3702,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3714,13 +3724,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -4039,7 +4045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDE1935-F182-8E4C-A9F6-BCE17C9647EE}">
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
@@ -4050,51 +4056,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="48" customHeight="1">
-      <c r="A1" s="187" t="s">
-        <v>896</v>
-      </c>
-      <c r="B1" s="187"/>
+      <c r="A1" s="183" t="s">
+        <v>894</v>
+      </c>
+      <c r="B1" s="183"/>
     </row>
     <row r="2" spans="1:3" ht="22" customHeight="1">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="185" t="s">
+        <v>911</v>
+      </c>
+      <c r="B2" s="185"/>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" ht="22" customHeight="1">
+      <c r="A3" s="187" t="s">
         <v>913</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" ht="22" customHeight="1">
-      <c r="A3" s="184" t="s">
-        <v>915</v>
-      </c>
-      <c r="B3" s="183"/>
+      <c r="B3" s="185"/>
     </row>
     <row r="4" spans="1:3" ht="22" customHeight="1">
-      <c r="A4" s="183" t="s">
-        <v>895</v>
-      </c>
-      <c r="B4" s="183"/>
+      <c r="A4" s="185" t="s">
+        <v>893</v>
+      </c>
+      <c r="B4" s="185"/>
     </row>
     <row r="5" spans="1:3" ht="22" customHeight="1">
-      <c r="A5" s="183" t="s">
-        <v>914</v>
-      </c>
-      <c r="B5" s="183"/>
+      <c r="A5" s="185" t="s">
+        <v>912</v>
+      </c>
+      <c r="B5" s="185"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="188"/>
-      <c r="B6" s="188"/>
+      <c r="A6" s="184"/>
+      <c r="B6" s="184"/>
     </row>
     <row r="7" spans="1:3" ht="39">
-      <c r="A7" s="185" t="s">
-        <v>688</v>
-      </c>
-      <c r="B7" s="185"/>
+      <c r="A7" s="188" t="s">
+        <v>687</v>
+      </c>
+      <c r="B7" s="188"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="186" t="s">
+      <c r="A8" s="189" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="186"/>
+      <c r="B8" s="189"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3"/>
@@ -4102,18 +4108,18 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="16" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="17" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4137,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4153,31 +4159,31 @@
         <v>4</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="17" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4185,7 +4191,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
@@ -4196,7 +4202,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4204,7 +4210,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4228,31 +4234,31 @@
         <v>36</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="16" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="17" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4260,10 +4266,10 @@
       <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="182" t="s">
+      <c r="A30" s="186" t="s">
         <v>212</v>
       </c>
-      <c r="B30" s="182"/>
+      <c r="B30" s="186"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4"/>
@@ -4298,7 +4304,7 @@
         <v>19</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4314,7 +4320,7 @@
         <v>20</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4330,38 +4336,38 @@
       <c r="B39" s="4"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="182" t="s">
-        <v>699</v>
-      </c>
-      <c r="B41" s="182"/>
+      <c r="A41" s="186" t="s">
+        <v>698</v>
+      </c>
+      <c r="B41" s="186"/>
     </row>
     <row r="42" spans="1:2" ht="51">
       <c r="A42" s="61" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B42" s="68" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="34">
       <c r="A43" s="8" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B43" s="176" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="39">
-      <c r="A45" s="185" t="s">
-        <v>859</v>
-      </c>
-      <c r="B45" s="185"/>
+      <c r="A45" s="188" t="s">
+        <v>857</v>
+      </c>
+      <c r="B45" s="188"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="186" t="s">
-        <v>448</v>
-      </c>
-      <c r="B46" s="186"/>
+      <c r="A46" s="189" t="s">
+        <v>447</v>
+      </c>
+      <c r="B46" s="189"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="3"/>
@@ -4369,25 +4375,25 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="91" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B48" s="91"/>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="66" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B49" s="66"/>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="66" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B50" s="66"/>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="66" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B51" s="66"/>
     </row>
@@ -4396,12 +4402,12 @@
         <v>2</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="103" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B53" s="6"/>
     </row>
@@ -4413,18 +4419,18 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="90" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="90" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B56" s="82" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -4432,23 +4438,23 @@
         <v>2</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="10" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -4456,7 +4462,7 @@
         <v>40</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -4464,50 +4470,50 @@
         <v>4</v>
       </c>
       <c r="B61" s="177" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="126" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="182" t="s">
-        <v>699</v>
-      </c>
-      <c r="B64" s="182"/>
+      <c r="A64" s="186" t="s">
+        <v>698</v>
+      </c>
+      <c r="B64" s="186"/>
     </row>
     <row r="65" spans="1:2" ht="51">
       <c r="A65" s="61" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B65" s="68" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="34">
       <c r="A66" s="8" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B66" s="176" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="39">
-      <c r="A68" s="185" t="s">
-        <v>858</v>
-      </c>
-      <c r="B68" s="185"/>
+      <c r="A68" s="188" t="s">
+        <v>856</v>
+      </c>
+      <c r="B68" s="188"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="186" t="s">
-        <v>547</v>
-      </c>
-      <c r="B69" s="186"/>
+      <c r="A69" s="189" t="s">
+        <v>546</v>
+      </c>
+      <c r="B69" s="189"/>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3"/>
@@ -4515,10 +4521,10 @@
     </row>
     <row r="71" spans="1:2" ht="34">
       <c r="A71" s="152" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B71" s="152" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4526,15 +4532,15 @@
         <v>6</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="110" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4550,39 +4556,39 @@
         <v>4</v>
       </c>
       <c r="B75" s="177" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="156" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="131" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="157" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -4590,10 +4596,10 @@
       <c r="B80" s="4"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="182" t="s">
+      <c r="A81" s="186" t="s">
         <v>212</v>
       </c>
-      <c r="B81" s="182"/>
+      <c r="B81" s="186"/>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="4"/>
@@ -4601,26 +4607,26 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="140" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B83" s="140" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="139" t="s">
+        <v>875</v>
+      </c>
+      <c r="B84" s="139" t="s">
         <v>877</v>
-      </c>
-      <c r="B84" s="139" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="139" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B85" s="139" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -4628,29 +4634,29 @@
         <v>2</v>
       </c>
       <c r="B86" s="36" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="182" t="s">
-        <v>699</v>
-      </c>
-      <c r="B88" s="182"/>
+      <c r="A88" s="186" t="s">
+        <v>698</v>
+      </c>
+      <c r="B88" s="186"/>
     </row>
     <row r="89" spans="1:2" ht="51">
       <c r="A89" s="61" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B89" s="68" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="34">
       <c r="A90" s="8" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B90" s="176" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="51">
@@ -4658,17 +4664,11 @@
         <v>4</v>
       </c>
       <c r="B91" s="68" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A64:B64"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -4680,6 +4680,12 @@
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A64:B64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4689,11 +4695,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D9D520-21E0-4740-A733-1FA0F3F531E7}">
   <dimension ref="A1:AS82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AS19" sqref="AS19:AS21"/>
+      <selection pane="bottomRight" activeCell="AK31" sqref="AK31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4746,7 +4752,7 @@
   <sheetData>
     <row r="1" spans="1:45" s="1" customFormat="1" ht="35" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
@@ -4932,7 +4938,7 @@
     </row>
     <row r="3" spans="1:45">
       <c r="A3" s="16" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B3" s="52" t="s">
         <v>0</v>
@@ -4950,7 +4956,7 @@
         <v>96</v>
       </c>
       <c r="G3" s="57" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>8</v>
@@ -4959,16 +4965,16 @@
         <v>8</v>
       </c>
       <c r="J3" s="57" t="s">
+        <v>427</v>
+      </c>
+      <c r="K3" s="57" t="s">
         <v>428</v>
       </c>
-      <c r="K3" s="57" t="s">
+      <c r="L3" s="57" t="s">
         <v>429</v>
       </c>
-      <c r="L3" s="57" t="s">
+      <c r="M3" s="57" t="s">
         <v>430</v>
-      </c>
-      <c r="M3" s="57" t="s">
-        <v>431</v>
       </c>
       <c r="N3" s="70" t="s">
         <v>8</v>
@@ -4989,28 +4995,28 @@
         <v>8</v>
       </c>
       <c r="T3" s="57" t="s">
+        <v>432</v>
+      </c>
+      <c r="U3" s="57" t="s">
         <v>433</v>
       </c>
-      <c r="U3" s="57" t="s">
+      <c r="V3" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="W3" s="57" t="s">
+        <v>399</v>
+      </c>
+      <c r="X3" s="57" t="s">
         <v>434</v>
       </c>
-      <c r="V3" s="57" t="s">
-        <v>244</v>
-      </c>
-      <c r="W3" s="57" t="s">
-        <v>400</v>
-      </c>
-      <c r="X3" s="57" t="s">
+      <c r="Y3" s="57" t="s">
         <v>435</v>
       </c>
-      <c r="Y3" s="57" t="s">
+      <c r="Z3" s="57" t="s">
         <v>436</v>
       </c>
-      <c r="Z3" s="57" t="s">
-        <v>437</v>
-      </c>
       <c r="AA3" s="57" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AB3" s="33" t="s">
         <v>8</v>
@@ -5034,48 +5040,48 @@
         <v>8</v>
       </c>
       <c r="AI3" s="57" t="s">
+        <v>438</v>
+      </c>
+      <c r="AJ3" s="57" t="s">
+        <v>239</v>
+      </c>
+      <c r="AK3" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN3" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="AO3" s="57" t="s">
+        <v>272</v>
+      </c>
+      <c r="AP3" s="57" t="s">
         <v>439</v>
       </c>
-      <c r="AJ3" s="57" t="s">
-        <v>240</v>
-      </c>
-      <c r="AK3" s="57" t="s">
-        <v>246</v>
-      </c>
-      <c r="AL3" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM3" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN3" s="57" t="s">
-        <v>264</v>
-      </c>
-      <c r="AO3" s="57" t="s">
-        <v>273</v>
-      </c>
-      <c r="AP3" s="57" t="s">
-        <v>440</v>
-      </c>
       <c r="AQ3" s="57" t="s">
+        <v>381</v>
+      </c>
+      <c r="AR3" s="57" t="s">
         <v>382</v>
       </c>
-      <c r="AR3" s="57" t="s">
-        <v>383</v>
-      </c>
       <c r="AS3" s="57" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:45">
       <c r="A4" s="17" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B4" s="53" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>8</v>
@@ -5114,7 +5120,7 @@
         <v>8</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Q4" s="21" t="s">
         <v>8</v>
@@ -5132,7 +5138,7 @@
         <v>8</v>
       </c>
       <c r="V4" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="W4" s="21" t="s">
         <v>8</v>
@@ -5156,10 +5162,10 @@
         <v>198</v>
       </c>
       <c r="AD4" s="34" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AE4" s="34" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF4" s="34" t="s">
         <v>213</v>
@@ -5174,16 +5180,16 @@
         <v>8</v>
       </c>
       <c r="AJ4" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AK4" s="21" t="s">
         <v>8</v>
       </c>
       <c r="AL4" s="81" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AM4" s="81" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AN4" s="21" t="s">
         <v>8</v>
@@ -5349,7 +5355,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>42</v>
@@ -5370,16 +5376,16 @@
         <v>118</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="N6" s="72" t="s">
         <v>133</v>
@@ -5388,7 +5394,7 @@
         <v>139</v>
       </c>
       <c r="P6" s="22" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="Q6" s="22" t="s">
         <v>150</v>
@@ -5400,28 +5406,28 @@
         <v>161</v>
       </c>
       <c r="T6" s="22" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="U6" s="22" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="V6" s="22" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="W6" s="22" t="s">
         <v>175</v>
       </c>
       <c r="X6" s="22" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="Y6" s="22" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="Z6" s="22" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="AA6" s="22" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="AB6" s="22" t="s">
         <v>194</v>
@@ -5430,7 +5436,7 @@
         <v>199</v>
       </c>
       <c r="AD6" s="22" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="AE6" s="22" t="s">
         <v>206</v>
@@ -5445,42 +5451,42 @@
         <v>229</v>
       </c>
       <c r="AI6" s="22" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="AJ6" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AK6" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AL6" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AM6" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AN6" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AO6" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AP6" s="22" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="AQ6" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AR6" s="22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AS6" s="22" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="7" spans="1:45">
       <c r="A7" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>3</v>
@@ -5570,7 +5576,7 @@
         <v>203</v>
       </c>
       <c r="AE7" s="35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF7" s="35" t="s">
         <v>215</v>
@@ -5585,34 +5591,34 @@
         <v>236</v>
       </c>
       <c r="AJ7" s="35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AK7" s="35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AL7" s="35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM7" s="35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AN7" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AO7" s="35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AP7" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="AQ7" s="35" t="s">
         <v>279</v>
       </c>
-      <c r="AQ7" s="35" t="s">
+      <c r="AR7" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="AR7" s="35" t="s">
+      <c r="AS7" s="35" t="s">
         <v>281</v>
-      </c>
-      <c r="AS7" s="35" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:45" ht="34">
@@ -5623,7 +5629,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>31</v>
@@ -5662,7 +5668,7 @@
         <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>31</v>
@@ -5677,7 +5683,7 @@
         <v>168</v>
       </c>
       <c r="U8" s="76" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="V8" s="76" t="s">
         <v>31</v>
@@ -5689,7 +5695,7 @@
         <v>181</v>
       </c>
       <c r="Y8" s="7" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="Z8" s="7" t="s">
         <v>188</v>
@@ -5704,7 +5710,7 @@
         <v>201</v>
       </c>
       <c r="AD8" s="7" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="AE8" s="7" t="s">
         <v>31</v>
@@ -5740,16 +5746,16 @@
         <v>31</v>
       </c>
       <c r="AP8" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AQ8" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AR8" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS8" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="AS8" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -5772,7 +5778,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>112</v>
@@ -5802,7 +5808,7 @@
         <v>146</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="R9" s="13" t="s">
         <v>156</v>
@@ -5859,445 +5865,445 @@
         <v>238</v>
       </c>
       <c r="AJ9" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AK9" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AL9" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AM9" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AN9" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AO9" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AP9" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="AQ9" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="AR9" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="AS9" s="13" t="s">
         <v>289</v>
-      </c>
-      <c r="AQ9" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="AR9" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="AS9" s="13" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:45">
       <c r="A10" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B10" s="82" t="s">
+        <v>388</v>
+      </c>
+      <c r="C10" s="82" t="s">
         <v>389</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="D10" s="82" t="s">
+        <v>388</v>
+      </c>
+      <c r="E10" s="82" t="s">
+        <v>388</v>
+      </c>
+      <c r="F10" s="82" t="s">
         <v>390</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="G10" s="82" t="s">
+        <v>388</v>
+      </c>
+      <c r="H10" s="82" t="s">
+        <v>388</v>
+      </c>
+      <c r="I10" s="82" t="s">
+        <v>388</v>
+      </c>
+      <c r="J10" s="82" t="s">
         <v>389</v>
       </c>
-      <c r="E10" s="82" t="s">
+      <c r="K10" s="82" t="s">
         <v>389</v>
       </c>
-      <c r="F10" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="G10" s="82" t="s">
+      <c r="L10" s="82" t="s">
         <v>389</v>
       </c>
-      <c r="H10" s="82" t="s">
+      <c r="M10" s="82" t="s">
         <v>389</v>
       </c>
-      <c r="I10" s="82" t="s">
+      <c r="N10" s="82" t="s">
+        <v>388</v>
+      </c>
+      <c r="O10" s="82" t="s">
+        <v>388</v>
+      </c>
+      <c r="P10" s="82" t="s">
         <v>389</v>
       </c>
-      <c r="J10" s="82" t="s">
+      <c r="Q10" s="82" t="s">
+        <v>388</v>
+      </c>
+      <c r="R10" s="82" t="s">
         <v>390</v>
       </c>
-      <c r="K10" s="82" t="s">
+      <c r="S10" s="82" t="s">
+        <v>388</v>
+      </c>
+      <c r="T10" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="U10" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="V10" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="W10" s="82" t="s">
         <v>390</v>
       </c>
-      <c r="L10" s="82" t="s">
+      <c r="X10" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y10" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z10" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA10" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB10" s="82" t="s">
+        <v>388</v>
+      </c>
+      <c r="AC10" s="82" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD10" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE10" s="82" t="s">
+        <v>388</v>
+      </c>
+      <c r="AF10" s="82" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG10" s="82" t="s">
+        <v>388</v>
+      </c>
+      <c r="AH10" s="82" t="s">
+        <v>388</v>
+      </c>
+      <c r="AI10" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="AJ10" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="AK10" s="82" t="s">
+        <v>388</v>
+      </c>
+      <c r="AL10" s="82" t="s">
         <v>390</v>
       </c>
-      <c r="M10" s="82" t="s">
+      <c r="AM10" s="82" t="s">
         <v>390</v>
       </c>
-      <c r="N10" s="82" t="s">
+      <c r="AN10" s="82" t="s">
+        <v>388</v>
+      </c>
+      <c r="AO10" s="82" t="s">
+        <v>388</v>
+      </c>
+      <c r="AP10" s="82" t="s">
         <v>389</v>
       </c>
-      <c r="O10" s="82" t="s">
+      <c r="AQ10" s="82" t="s">
+        <v>388</v>
+      </c>
+      <c r="AR10" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="AS10" s="82" t="s">
         <v>389</v>
-      </c>
-      <c r="P10" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q10" s="82" t="s">
-        <v>389</v>
-      </c>
-      <c r="R10" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="S10" s="82" t="s">
-        <v>389</v>
-      </c>
-      <c r="T10" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="U10" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="V10" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="W10" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="X10" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="Y10" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="Z10" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="AA10" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="AB10" s="82" t="s">
-        <v>389</v>
-      </c>
-      <c r="AC10" s="82" t="s">
-        <v>389</v>
-      </c>
-      <c r="AD10" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="AE10" s="82" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF10" s="82" t="s">
-        <v>389</v>
-      </c>
-      <c r="AG10" s="82" t="s">
-        <v>389</v>
-      </c>
-      <c r="AH10" s="82" t="s">
-        <v>389</v>
-      </c>
-      <c r="AI10" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="AJ10" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="AK10" s="82" t="s">
-        <v>389</v>
-      </c>
-      <c r="AL10" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="AM10" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="AN10" s="82" t="s">
-        <v>389</v>
-      </c>
-      <c r="AO10" s="82" t="s">
-        <v>389</v>
-      </c>
-      <c r="AP10" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="AQ10" s="82" t="s">
-        <v>389</v>
-      </c>
-      <c r="AR10" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="AS10" s="82" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:45">
       <c r="A11" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B11" s="82" t="s">
+        <v>411</v>
+      </c>
+      <c r="C11" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="D11" s="82" t="s">
+        <v>413</v>
+      </c>
+      <c r="E11" s="82" t="s">
+        <v>414</v>
+      </c>
+      <c r="F11" s="82" t="s">
         <v>412</v>
       </c>
-      <c r="C11" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="D11" s="82" t="s">
+      <c r="G11" s="82" t="s">
+        <v>416</v>
+      </c>
+      <c r="H11" s="82" t="s">
+        <v>417</v>
+      </c>
+      <c r="I11" s="82" t="s">
+        <v>418</v>
+      </c>
+      <c r="J11" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="K11" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="L11" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="M11" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="N11" s="82" t="s">
         <v>414</v>
       </c>
-      <c r="E11" s="82" t="s">
-        <v>415</v>
-      </c>
-      <c r="F11" s="82" t="s">
-        <v>413</v>
-      </c>
-      <c r="G11" s="82" t="s">
+      <c r="O11" s="82" t="s">
+        <v>418</v>
+      </c>
+      <c r="P11" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q11" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="R11" s="82" t="s">
+        <v>412</v>
+      </c>
+      <c r="S11" s="82" t="s">
+        <v>418</v>
+      </c>
+      <c r="T11" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="U11" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="V11" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="W11" s="82" t="s">
+        <v>419</v>
+      </c>
+      <c r="X11" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y11" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z11" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA11" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB11" s="82" t="s">
         <v>417</v>
       </c>
-      <c r="H11" s="82" t="s">
+      <c r="AC11" s="82" t="s">
         <v>418</v>
       </c>
-      <c r="I11" s="82" t="s">
-        <v>419</v>
-      </c>
-      <c r="J11" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="K11" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="L11" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="M11" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="N11" s="82" t="s">
-        <v>415</v>
-      </c>
-      <c r="O11" s="82" t="s">
-        <v>419</v>
-      </c>
-      <c r="P11" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q11" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="R11" s="82" t="s">
-        <v>413</v>
-      </c>
-      <c r="S11" s="82" t="s">
-        <v>419</v>
-      </c>
-      <c r="T11" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="U11" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="V11" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="W11" s="82" t="s">
+      <c r="AD11" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE11" s="82" t="s">
+        <v>417</v>
+      </c>
+      <c r="AF11" s="82" t="s">
         <v>420</v>
       </c>
-      <c r="X11" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="Y11" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="Z11" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="AA11" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="AB11" s="82" t="s">
-        <v>418</v>
-      </c>
-      <c r="AC11" s="82" t="s">
-        <v>419</v>
-      </c>
-      <c r="AD11" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="AE11" s="82" t="s">
-        <v>418</v>
-      </c>
-      <c r="AF11" s="82" t="s">
+      <c r="AG11" s="82" t="s">
+        <v>417</v>
+      </c>
+      <c r="AH11" s="82" t="s">
+        <v>411</v>
+      </c>
+      <c r="AI11" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="AJ11" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="AK11" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="AL11" s="82" t="s">
         <v>421</v>
       </c>
-      <c r="AG11" s="82" t="s">
-        <v>418</v>
-      </c>
-      <c r="AH11" s="82" t="s">
-        <v>412</v>
-      </c>
-      <c r="AI11" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="AJ11" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="AK11" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="AL11" s="82" t="s">
+      <c r="AM11" s="82" t="s">
         <v>422</v>
       </c>
-      <c r="AM11" s="82" t="s">
+      <c r="AN11" s="82" t="s">
+        <v>416</v>
+      </c>
+      <c r="AO11" s="82" t="s">
         <v>423</v>
       </c>
-      <c r="AN11" s="82" t="s">
-        <v>417</v>
-      </c>
-      <c r="AO11" s="82" t="s">
+      <c r="AP11" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="AQ11" s="82" t="s">
         <v>424</v>
       </c>
-      <c r="AP11" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="AQ11" s="82" t="s">
+      <c r="AR11" s="82" t="s">
         <v>425</v>
       </c>
-      <c r="AR11" s="82" t="s">
-        <v>426</v>
-      </c>
       <c r="AS11" s="82" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:45">
       <c r="A12" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="B12" s="82" t="s">
+        <v>391</v>
+      </c>
+      <c r="C12" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="D12" s="82" t="s">
+        <v>391</v>
+      </c>
+      <c r="E12" s="82" t="s">
+        <v>391</v>
+      </c>
+      <c r="F12" s="82" t="s">
+        <v>391</v>
+      </c>
+      <c r="G12" s="82" t="s">
+        <v>391</v>
+      </c>
+      <c r="H12" s="82" t="s">
+        <v>391</v>
+      </c>
+      <c r="I12" s="82" t="s">
+        <v>391</v>
+      </c>
+      <c r="J12" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="K12" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="L12" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="M12" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="N12" s="82" t="s">
+        <v>394</v>
+      </c>
+      <c r="O12" s="82" t="s">
+        <v>391</v>
+      </c>
+      <c r="P12" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q12" s="82" t="s">
+        <v>391</v>
+      </c>
+      <c r="R12" s="82" t="s">
+        <v>395</v>
+      </c>
+      <c r="S12" s="82" t="s">
+        <v>391</v>
+      </c>
+      <c r="T12" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="U12" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="V12" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="W12" s="82" t="s">
         <v>393</v>
       </c>
-      <c r="B12" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="C12" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="D12" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="E12" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="F12" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="G12" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="H12" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="I12" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="J12" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="K12" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="L12" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="M12" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="N12" s="82" t="s">
-        <v>395</v>
-      </c>
-      <c r="O12" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="P12" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q12" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="R12" s="82" t="s">
+      <c r="X12" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y12" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z12" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA12" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB12" s="82" t="s">
+        <v>393</v>
+      </c>
+      <c r="AC12" s="82" t="s">
+        <v>391</v>
+      </c>
+      <c r="AD12" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE12" s="83" t="s">
+        <v>391</v>
+      </c>
+      <c r="AF12" s="83" t="s">
+        <v>391</v>
+      </c>
+      <c r="AG12" s="83" t="s">
+        <v>391</v>
+      </c>
+      <c r="AH12" s="83" t="s">
+        <v>391</v>
+      </c>
+      <c r="AI12" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="AJ12" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="AK12" s="83" t="s">
+        <v>391</v>
+      </c>
+      <c r="AL12" s="83" t="s">
+        <v>391</v>
+      </c>
+      <c r="AM12" s="82" t="s">
         <v>396</v>
       </c>
-      <c r="S12" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="T12" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="U12" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="V12" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="W12" s="82" t="s">
-        <v>394</v>
-      </c>
-      <c r="X12" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="Y12" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="Z12" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="AA12" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="AB12" s="82" t="s">
-        <v>394</v>
-      </c>
-      <c r="AC12" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="AD12" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="AE12" s="83" t="s">
-        <v>392</v>
-      </c>
-      <c r="AF12" s="83" t="s">
-        <v>392</v>
-      </c>
-      <c r="AG12" s="83" t="s">
-        <v>392</v>
-      </c>
-      <c r="AH12" s="83" t="s">
-        <v>392</v>
-      </c>
-      <c r="AI12" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="AJ12" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="AK12" s="83" t="s">
-        <v>392</v>
-      </c>
-      <c r="AL12" s="83" t="s">
-        <v>392</v>
-      </c>
-      <c r="AM12" s="82" t="s">
+      <c r="AN12" s="83" t="s">
+        <v>391</v>
+      </c>
+      <c r="AO12" s="83" t="s">
+        <v>391</v>
+      </c>
+      <c r="AP12" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="AQ12" s="83" t="s">
+        <v>391</v>
+      </c>
+      <c r="AR12" s="82" t="s">
         <v>397</v>
       </c>
-      <c r="AN12" s="83" t="s">
-        <v>392</v>
-      </c>
-      <c r="AO12" s="83" t="s">
-        <v>392</v>
-      </c>
-      <c r="AP12" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="AQ12" s="83" t="s">
-        <v>392</v>
-      </c>
-      <c r="AR12" s="82" t="s">
-        <v>398</v>
-      </c>
       <c r="AS12" s="82" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:45" ht="17">
@@ -6305,136 +6311,136 @@
         <v>6</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>899</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="J13" s="73" t="s">
         <v>897</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>901</v>
-      </c>
-      <c r="D13" s="14" t="s">
+      <c r="K13" s="73" t="s">
         <v>897</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="L13" s="73" t="s">
         <v>897</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="M13" s="73" t="s">
         <v>897</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="N13" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="P13" s="14" t="s">
         <v>897</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="Q13" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="T13" s="14" t="s">
         <v>897</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="U13" s="14" t="s">
+        <v>898</v>
+      </c>
+      <c r="V13" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="W13" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="X13" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="Y13" s="14" t="s">
+        <v>898</v>
+      </c>
+      <c r="Z13" s="22" t="s">
         <v>897</v>
       </c>
-      <c r="J13" s="73" t="s">
-        <v>899</v>
-      </c>
-      <c r="K13" s="73" t="s">
-        <v>899</v>
-      </c>
-      <c r="L13" s="73" t="s">
-        <v>899</v>
-      </c>
-      <c r="M13" s="73" t="s">
-        <v>899</v>
-      </c>
-      <c r="N13" s="14" t="s">
+      <c r="AA13" s="22" t="s">
         <v>897</v>
       </c>
-      <c r="O13" s="14" t="s">
+      <c r="AB13" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="AC13" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="AD13" s="14" t="s">
         <v>897</v>
       </c>
-      <c r="P13" s="14" t="s">
-        <v>899</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>897</v>
-      </c>
-      <c r="R13" s="14" t="s">
-        <v>897</v>
-      </c>
-      <c r="S13" s="14" t="s">
-        <v>897</v>
-      </c>
-      <c r="T13" s="14" t="s">
-        <v>899</v>
-      </c>
-      <c r="U13" s="14" t="s">
-        <v>900</v>
-      </c>
-      <c r="V13" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="W13" s="14" t="s">
-        <v>897</v>
-      </c>
-      <c r="X13" s="22" t="s">
-        <v>900</v>
-      </c>
-      <c r="Y13" s="14" t="s">
-        <v>900</v>
-      </c>
-      <c r="Z13" s="22" t="s">
-        <v>899</v>
-      </c>
-      <c r="AA13" s="22" t="s">
-        <v>899</v>
-      </c>
-      <c r="AB13" s="14" t="s">
-        <v>897</v>
-      </c>
-      <c r="AC13" s="14" t="s">
-        <v>897</v>
-      </c>
-      <c r="AD13" s="14" t="s">
-        <v>899</v>
-      </c>
       <c r="AE13" s="14" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="AF13" s="14" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="AG13" s="14" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="AH13" s="14" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="AI13" s="22" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="AJ13" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="AK13" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="AK13" s="14" t="s">
-        <v>251</v>
-      </c>
       <c r="AL13" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AM13" s="14" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="AN13" s="14" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="AO13" s="14" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="AP13" s="22" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="AQ13" s="14" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="AR13" s="14" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="AS13" s="14" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -6442,136 +6448,136 @@
         <v>9</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="U14" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="V14" s="11" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="W14" s="11" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="X14" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Z14" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AA14" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AB14" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AC14" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AD14" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AE14" s="11" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="AF14" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG14" s="11" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="AH14" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AI14" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AJ14" s="11" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="AK14" s="11" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="AL14" s="11" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="AM14" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AN14" s="11" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="AO14" s="11" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="AP14" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AQ14" s="11" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="AR14" s="11" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="AS14" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -6579,136 +6585,136 @@
         <v>28</v>
       </c>
       <c r="B15" s="40" t="s">
+        <v>295</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="D15" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="E15" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>299</v>
-      </c>
       <c r="F15" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="G15" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>306</v>
-      </c>
       <c r="H15" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P15" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q15" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="R15" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S15" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T15" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U15" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="V15" s="15" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="W15" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="X15" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Y15" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Z15" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AA15" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB15" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="AB15" s="15" t="s">
-        <v>347</v>
-      </c>
       <c r="AC15" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AD15" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AE15" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF15" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG15" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH15" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="AH15" s="15" t="s">
-        <v>359</v>
-      </c>
       <c r="AI15" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AJ15" s="15" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="AK15" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AL15" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AM15" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AN15" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AO15" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="AP15" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="AP15" s="15" t="s">
-        <v>374</v>
-      </c>
       <c r="AQ15" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AR15" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AS15" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:45" ht="54" customHeight="1">
@@ -6719,7 +6725,7 @@
         <v>108</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>47</v>
@@ -6728,10 +6734,10 @@
         <v>108</v>
       </c>
       <c r="F16" s="74" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G16" s="74" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>108</v>
@@ -6740,16 +6746,16 @@
         <v>108</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="N16" s="9" t="s">
         <v>136</v>
@@ -6758,7 +6764,7 @@
         <v>141</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>108</v>
@@ -6770,28 +6776,28 @@
         <v>205</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="V16" s="78" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="W16" s="9" t="s">
         <v>177</v>
       </c>
       <c r="X16" s="9" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="Y16" s="9" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="Z16" s="9" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="AA16" s="9" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="AB16" s="9" t="s">
         <v>197</v>
@@ -6800,10 +6806,10 @@
         <v>136</v>
       </c>
       <c r="AD16" s="9" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="AE16" s="74" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF16" s="74" t="s">
         <v>219</v>
@@ -6816,34 +6822,34 @@
       </c>
       <c r="AI16" s="9"/>
       <c r="AJ16" s="80" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AK16" s="74" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AL16" s="9" t="s">
         <v>108</v>
       </c>
       <c r="AM16" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AN16" s="74" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AO16" s="74" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AP16" s="9" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="AQ16" s="74" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AR16" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AS16" s="9" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="191" customHeight="1">
@@ -6854,16 +6860,16 @@
         <v>24</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D17" s="61" t="s">
         <v>46</v>
       </c>
       <c r="E17" s="84" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F17" s="84" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G17" s="61" t="s">
         <v>109</v>
@@ -6872,19 +6878,19 @@
         <v>113</v>
       </c>
       <c r="I17" s="61" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J17" s="61" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K17" s="61" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L17" s="61" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M17" s="61" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N17" s="181" t="s">
         <v>137</v>
@@ -6893,52 +6899,52 @@
         <v>142</v>
       </c>
       <c r="P17" s="61" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Q17" s="62" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="R17" s="61" t="s">
         <v>158</v>
       </c>
       <c r="S17" s="61" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="T17" s="61" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="U17" s="61" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="V17" s="61" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="W17" s="61" t="s">
         <v>179</v>
       </c>
       <c r="X17" s="61" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Y17" s="61" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Z17" s="61" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AA17" s="61" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AB17" s="61" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AC17" s="61" t="s">
         <v>202</v>
       </c>
       <c r="AD17" s="61" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AE17" s="85" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF17" s="61" t="s">
         <v>218</v>
@@ -6950,37 +6956,37 @@
         <v>234</v>
       </c>
       <c r="AI17" s="61" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AJ17" s="79" t="s">
+        <v>916</v>
+      </c>
+      <c r="AK17" s="79" t="s">
         <v>918</v>
       </c>
-      <c r="AK17" s="79" t="s">
-        <v>920</v>
-      </c>
       <c r="AL17" s="84" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AM17" s="62" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AN17" s="86" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="AO17" s="61" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AP17" s="61" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AQ17" s="61" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AR17" s="61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AS17" s="61" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:45">
@@ -6988,141 +6994,141 @@
         <v>36</v>
       </c>
       <c r="B18" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="C18" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="D18" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="E18" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="F18" s="41" t="s">
         <v>303</v>
       </c>
-      <c r="F18" s="41" t="s">
-        <v>304</v>
-      </c>
       <c r="G18" s="41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H18" s="41" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I18" s="41" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J18" s="41" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K18" s="41" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L18" s="41" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M18" s="41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N18" s="41" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O18" s="41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P18" s="41" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q18" s="41" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R18" s="41" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S18" s="41" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="T18" s="41" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="U18" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="V18" s="41" t="s">
         <v>335</v>
       </c>
-      <c r="V18" s="41" t="s">
-        <v>336</v>
-      </c>
       <c r="W18" s="41" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="X18" s="41" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Y18" s="41" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z18" s="41" t="s">
         <v>343</v>
       </c>
-      <c r="Z18" s="41" t="s">
+      <c r="AA18" s="41" t="s">
         <v>344</v>
       </c>
-      <c r="AA18" s="41" t="s">
-        <v>345</v>
-      </c>
       <c r="AB18" s="41" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AC18" s="41" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AD18" s="41" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AE18" s="41" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF18" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="AG18" s="41" t="s">
         <v>356</v>
       </c>
-      <c r="AG18" s="41" t="s">
-        <v>357</v>
-      </c>
       <c r="AH18" s="41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AI18" s="41" t="s">
+        <v>361</v>
+      </c>
+      <c r="AJ18" s="41" t="s">
         <v>362</v>
       </c>
-      <c r="AJ18" s="41" t="s">
-        <v>363</v>
-      </c>
       <c r="AK18" s="41" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL18" s="41" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AM18" s="41" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AN18" s="41" t="s">
+        <v>370</v>
+      </c>
+      <c r="AO18" s="41" t="s">
         <v>371</v>
       </c>
-      <c r="AO18" s="41" t="s">
-        <v>372</v>
-      </c>
       <c r="AP18" s="41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AQ18" s="41" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AR18" s="41" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AS18" s="41" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:45">
       <c r="A19" s="16" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B19" s="42">
         <v>350</v>
@@ -7259,7 +7265,7 @@
     </row>
     <row r="20" spans="1:45" ht="51">
       <c r="A20" s="17" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B20" s="43">
         <v>300</v>
@@ -7283,7 +7289,7 @@
         <v>570</v>
       </c>
       <c r="I20" s="43" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J20" s="43">
         <v>750</v>
@@ -7364,7 +7370,7 @@
         <v>600</v>
       </c>
       <c r="AJ20" s="101" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="AK20" s="43">
         <v>340</v>
@@ -7396,7 +7402,7 @@
     </row>
     <row r="21" spans="1:45">
       <c r="A21" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B21" s="44">
         <v>300</v>
@@ -7420,7 +7426,7 @@
         <v>440</v>
       </c>
       <c r="I21" s="44" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J21" s="44">
         <v>640</v>
@@ -7787,10 +7793,10 @@
         <v>178</v>
       </c>
       <c r="AM24" s="75" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AN24" s="65" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AO24" s="65" t="s">
         <v>101</v>
@@ -7799,10 +7805,10 @@
         <v>8</v>
       </c>
       <c r="AQ24" s="65" t="s">
+        <v>383</v>
+      </c>
+      <c r="AR24" s="65" t="s">
         <v>384</v>
-      </c>
-      <c r="AR24" s="65" t="s">
-        <v>385</v>
       </c>
       <c r="AS24" s="64" t="s">
         <v>8</v>
@@ -7813,13 +7819,13 @@
         <v>2</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C25" s="47" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>102</v>
@@ -7861,7 +7867,7 @@
         <v>102</v>
       </c>
       <c r="R25" s="115" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="S25" s="32" t="s">
         <v>164</v>
@@ -7876,7 +7882,7 @@
         <v>31</v>
       </c>
       <c r="W25" s="115" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="X25" s="47" t="s">
         <v>8</v>
@@ -7909,7 +7915,7 @@
         <v>224</v>
       </c>
       <c r="AH25" s="116" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AI25" s="47" t="s">
         <v>8</v>
@@ -7924,7 +7930,7 @@
         <v>31</v>
       </c>
       <c r="AM25" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AN25" s="32" t="s">
         <v>224</v>
@@ -7936,10 +7942,10 @@
         <v>8</v>
       </c>
       <c r="AQ25" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AR25" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AS25" s="47" t="s">
         <v>8</v>
@@ -7976,9 +7982,7 @@
       <c r="J26" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="K26" s="56">
-        <v>1757755</v>
-      </c>
+      <c r="K26" s="56"/>
       <c r="L26" s="56">
         <v>215620</v>
       </c>
@@ -8108,14 +8112,12 @@
         <v>8</v>
       </c>
       <c r="I27" s="60" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J27" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="K27" s="60" t="s">
-        <v>124</v>
-      </c>
+      <c r="K27" s="60"/>
       <c r="L27" s="60" t="s">
         <v>125</v>
       </c>
@@ -8123,7 +8125,7 @@
         <v>128</v>
       </c>
       <c r="N27" s="60" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="O27" s="59" t="s">
         <v>8</v>
@@ -8165,7 +8167,7 @@
         <v>172</v>
       </c>
       <c r="AB27" s="102" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AC27" s="59" t="s">
         <v>8</v>
@@ -8180,7 +8182,7 @@
         <v>8</v>
       </c>
       <c r="AG27" s="102" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AH27" s="60" t="s">
         <v>232</v>
@@ -8195,7 +8197,7 @@
         <v>8</v>
       </c>
       <c r="AL27" s="60" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AM27" s="60" t="s">
         <v>172</v>
@@ -8250,14 +8252,14 @@
       <c r="J28" s="20">
         <v>4375122</v>
       </c>
-      <c r="K28" s="20">
-        <v>2950635</v>
+      <c r="K28" s="148">
+        <v>2873365</v>
       </c>
       <c r="L28" s="20">
         <v>649746</v>
       </c>
-      <c r="M28" s="20">
-        <v>2556068</v>
+      <c r="M28" s="148">
+        <v>2807505</v>
       </c>
       <c r="N28" s="37" t="s">
         <v>8</v>
@@ -8271,14 +8273,14 @@
       <c r="Q28" s="20">
         <v>6017036.5999999996</v>
       </c>
-      <c r="R28" s="37" t="s">
-        <v>8</v>
+      <c r="R28" s="148">
+        <v>4390302</v>
       </c>
       <c r="S28" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="T28" s="20">
-        <v>2003645</v>
+      <c r="T28" s="148">
+        <v>1994968</v>
       </c>
       <c r="U28" s="20">
         <v>35599</v>
@@ -8295,8 +8297,8 @@
       <c r="Y28" s="20">
         <v>15474</v>
       </c>
-      <c r="Z28" s="20">
-        <v>1282510</v>
+      <c r="Z28" s="148">
+        <v>1374233</v>
       </c>
       <c r="AA28" s="20">
         <v>227326</v>
@@ -8320,8 +8322,8 @@
       <c r="AH28" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="AI28" s="20">
-        <v>13432489</v>
+      <c r="AI28" s="148">
+        <v>12965598</v>
       </c>
       <c r="AJ28" s="20">
         <v>5621098</v>
@@ -8341,8 +8343,8 @@
       <c r="AO28" s="20">
         <v>25849338</v>
       </c>
-      <c r="AP28" s="20">
-        <v>4572562</v>
+      <c r="AP28" s="148">
+        <v>4824227</v>
       </c>
       <c r="AQ28" s="20">
         <v>4420538</v>
@@ -8366,7 +8368,7 @@
         <v>31</v>
       </c>
       <c r="E29" s="115" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F29" s="55" t="s">
         <v>104</v>
@@ -8383,14 +8385,14 @@
       <c r="J29" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="K29" s="55" t="s">
-        <v>31</v>
+      <c r="K29" s="190" t="s">
+        <v>922</v>
       </c>
       <c r="L29" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="M29" s="55" t="s">
-        <v>31</v>
+      <c r="M29" s="190" t="s">
+        <v>922</v>
       </c>
       <c r="N29" s="38" t="s">
         <v>8</v>
@@ -8404,17 +8406,17 @@
       <c r="Q29" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="R29" s="38" t="s">
-        <v>8</v>
+      <c r="R29" s="190" t="s">
+        <v>922</v>
       </c>
       <c r="S29" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="55" t="s">
-        <v>31</v>
+      <c r="T29" s="190" t="s">
+        <v>922</v>
       </c>
       <c r="U29" s="55" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="V29" s="38" t="s">
         <v>8</v>
@@ -8426,10 +8428,10 @@
         <v>183</v>
       </c>
       <c r="Y29" s="55" t="s">
-        <v>681</v>
-      </c>
-      <c r="Z29" s="55" t="s">
-        <v>172</v>
+        <v>680</v>
+      </c>
+      <c r="Z29" s="190" t="s">
+        <v>922</v>
       </c>
       <c r="AA29" s="55" t="s">
         <v>172</v>
@@ -8441,7 +8443,7 @@
         <v>8</v>
       </c>
       <c r="AD29" s="55" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AE29" s="38" t="s">
         <v>8</v>
@@ -8453,8 +8455,8 @@
       <c r="AH29" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AI29" s="55" t="s">
-        <v>239</v>
+      <c r="AI29" s="190" t="s">
+        <v>922</v>
       </c>
       <c r="AJ29" s="55" t="s">
         <v>31</v>
@@ -8474,11 +8476,11 @@
       <c r="AO29" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="AP29" s="55" t="s">
-        <v>31</v>
+      <c r="AP29" s="190" t="s">
+        <v>922</v>
       </c>
       <c r="AQ29" s="55" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AR29" s="55"/>
       <c r="AS29" s="55" t="s">
@@ -8497,24 +8499,26 @@
       <c r="G31" s="171"/>
       <c r="H31" s="19"/>
       <c r="I31" s="172" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="J31" s="171"/>
       <c r="K31" s="171"/>
       <c r="L31" s="171"/>
       <c r="M31" s="171"/>
       <c r="N31" s="172" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="O31" s="171"/>
       <c r="P31" s="171"/>
       <c r="Q31" s="171"/>
-      <c r="R31" s="171"/>
+      <c r="R31" s="173" t="s">
+        <v>923</v>
+      </c>
       <c r="S31" s="171"/>
       <c r="T31" s="171"/>
       <c r="U31" s="171"/>
       <c r="V31" s="172" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="W31" s="172"/>
       <c r="X31" s="171"/>
@@ -8523,7 +8527,7 @@
       <c r="AA31" s="171"/>
       <c r="AB31" s="19"/>
       <c r="AC31" s="173" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AD31" s="171"/>
       <c r="AE31" s="171"/>
@@ -8532,14 +8536,14 @@
       <c r="AH31" s="19"/>
       <c r="AI31" s="171"/>
       <c r="AJ31" s="173" t="s">
-        <v>856</v>
+        <v>924</v>
       </c>
       <c r="AK31" s="171"/>
       <c r="AL31" s="171"/>
       <c r="AM31" s="174"/>
       <c r="AN31" s="171"/>
       <c r="AO31" s="19" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AP31" s="171"/>
       <c r="AQ31" s="171"/>
@@ -8551,7 +8555,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -8759,7 +8763,7 @@
   <sheetData>
     <row r="1" spans="1:45" s="1" customFormat="1" ht="35" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
@@ -8896,12 +8900,12 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" s="31" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:45">
       <c r="A3" s="91" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B3" s="42" t="s">
         <v>8</v>
@@ -9030,7 +9034,7 @@
     </row>
     <row r="4" spans="1:45">
       <c r="A4" s="66" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B4" s="168">
         <v>11302</v>
@@ -9157,7 +9161,7 @@
     </row>
     <row r="5" spans="1:45">
       <c r="A5" s="66" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B5" s="169">
         <v>4624</v>
@@ -9284,7 +9288,7 @@
     </row>
     <row r="6" spans="1:45">
       <c r="A6" s="66" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B6" s="168">
         <v>15926</v>
@@ -9416,131 +9420,131 @@
         <v>2</v>
       </c>
       <c r="B7" s="144" t="s">
+        <v>715</v>
+      </c>
+      <c r="C7" s="143" t="s">
         <v>716</v>
       </c>
-      <c r="C7" s="143" t="s">
+      <c r="D7" s="92" t="s">
+        <v>713</v>
+      </c>
+      <c r="E7" s="92" t="s">
+        <v>713</v>
+      </c>
+      <c r="F7" s="92" t="s">
+        <v>714</v>
+      </c>
+      <c r="G7" s="92" t="s">
+        <v>713</v>
+      </c>
+      <c r="H7" s="92" t="s">
+        <v>713</v>
+      </c>
+      <c r="I7" s="92" t="s">
+        <v>713</v>
+      </c>
+      <c r="J7" s="145" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="92" t="s">
+        <v>713</v>
+      </c>
+      <c r="L7" s="92" t="s">
+        <v>713</v>
+      </c>
+      <c r="M7" s="92" t="s">
+        <v>713</v>
+      </c>
+      <c r="N7" s="92" t="s">
+        <v>713</v>
+      </c>
+      <c r="O7" s="145" t="s">
+        <v>8</v>
+      </c>
+      <c r="P7" s="145" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="145" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" s="145" t="s">
+        <v>8</v>
+      </c>
+      <c r="S7" s="98" t="s">
         <v>717</v>
       </c>
-      <c r="D7" s="92" t="s">
-        <v>714</v>
-      </c>
-      <c r="E7" s="92" t="s">
-        <v>714</v>
-      </c>
-      <c r="F7" s="92" t="s">
-        <v>715</v>
-      </c>
-      <c r="G7" s="92" t="s">
-        <v>714</v>
-      </c>
-      <c r="H7" s="92" t="s">
-        <v>714</v>
-      </c>
-      <c r="I7" s="92" t="s">
-        <v>714</v>
-      </c>
-      <c r="J7" s="145" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="92" t="s">
-        <v>714</v>
-      </c>
-      <c r="L7" s="92" t="s">
-        <v>714</v>
-      </c>
-      <c r="M7" s="92" t="s">
-        <v>714</v>
-      </c>
-      <c r="N7" s="92" t="s">
-        <v>714</v>
-      </c>
-      <c r="O7" s="145" t="s">
-        <v>8</v>
-      </c>
-      <c r="P7" s="145" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q7" s="145" t="s">
-        <v>8</v>
-      </c>
-      <c r="R7" s="145" t="s">
-        <v>8</v>
-      </c>
-      <c r="S7" s="98" t="s">
+      <c r="T7" s="92" t="s">
+        <v>713</v>
+      </c>
+      <c r="U7" s="145" t="s">
+        <v>8</v>
+      </c>
+      <c r="V7" s="145" t="s">
+        <v>8</v>
+      </c>
+      <c r="W7" s="98" t="s">
+        <v>728</v>
+      </c>
+      <c r="X7" s="92" t="s">
+        <v>713</v>
+      </c>
+      <c r="Y7" s="98" t="s">
         <v>718</v>
       </c>
-      <c r="T7" s="92" t="s">
-        <v>714</v>
-      </c>
-      <c r="U7" s="145" t="s">
-        <v>8</v>
-      </c>
-      <c r="V7" s="145" t="s">
-        <v>8</v>
-      </c>
-      <c r="W7" s="98" t="s">
-        <v>729</v>
-      </c>
-      <c r="X7" s="92" t="s">
-        <v>714</v>
-      </c>
-      <c r="Y7" s="98" t="s">
+      <c r="Z7" s="92" t="s">
+        <v>713</v>
+      </c>
+      <c r="AA7" s="92" t="s">
+        <v>713</v>
+      </c>
+      <c r="AB7" s="98" t="s">
         <v>719</v>
       </c>
-      <c r="Z7" s="92" t="s">
-        <v>714</v>
-      </c>
-      <c r="AA7" s="92" t="s">
-        <v>714</v>
-      </c>
-      <c r="AB7" s="98" t="s">
+      <c r="AC7" s="98" t="s">
         <v>720</v>
       </c>
-      <c r="AC7" s="98" t="s">
+      <c r="AD7" s="98" t="s">
         <v>721</v>
       </c>
-      <c r="AD7" s="98" t="s">
-        <v>722</v>
-      </c>
       <c r="AE7" s="145" t="s">
         <v>8</v>
       </c>
       <c r="AF7" s="92" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AG7" s="98" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AH7" s="92"/>
       <c r="AI7" s="92"/>
       <c r="AJ7" s="92" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AK7" s="92" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AL7" s="98" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AM7" s="92" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AN7" s="92" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AO7" s="92"/>
       <c r="AP7" s="92"/>
       <c r="AQ7" s="92" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AR7" s="92"/>
       <c r="AS7" s="92" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="8" spans="1:45">
       <c r="A8" s="103" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B8" s="147">
         <v>15926</v>
@@ -9680,141 +9684,141 @@
         <v>2</v>
       </c>
       <c r="B9" s="149" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C9" s="99" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D9" s="99" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E9" s="99" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F9" s="99" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G9" s="99" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H9" s="99" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I9" s="99" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J9" s="100" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K9" s="99" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L9" s="99" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M9" s="99" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N9" s="99" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O9" s="120" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="P9" s="100" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="Q9" s="100" t="s">
         <v>150</v>
       </c>
       <c r="R9" s="120" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="S9" s="99" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="T9" s="99" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="U9" s="100" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="V9" s="100" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="W9" s="99" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="X9" s="99" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Y9" s="99" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Z9" s="99" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AA9" s="99" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AB9" s="99" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AC9" s="99" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AD9" s="99" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AE9" s="100" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AF9" s="99" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AG9" s="99" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AH9" s="100" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AI9" s="120" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AJ9" s="99" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AK9" s="99" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AL9" s="99" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AM9" s="99" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AN9" s="99" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AO9" s="120" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AP9" s="120" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AQ9" s="107" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AR9" s="100" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AS9" s="99" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:45">
       <c r="A10" s="90" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B10" s="170">
         <v>5012796.6732999999</v>
@@ -9941,7 +9945,7 @@
     </row>
     <row r="11" spans="1:45">
       <c r="A11" s="90" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B11" s="170">
         <v>315</v>
@@ -10081,689 +10085,689 @@
         <v>2</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C12" s="90" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="J12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="K12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="L12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="M12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="N12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="O12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="P12" s="90" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Q12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="R12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="S12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="T12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="U12" s="90" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="V12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="W12" s="90" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="X12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="Y12" s="90" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Z12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AA12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AB12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AC12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AD12" s="90" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AE12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AF12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AG12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AH12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AI12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AJ12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AK12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AL12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AM12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AN12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AO12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AP12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AQ12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AR12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AS12" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="13" spans="1:45" s="4" customFormat="1" ht="51">
       <c r="A13" s="10" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B13" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C13" s="109" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D13" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E13" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F13" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G13" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H13" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I13" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J13" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K13" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L13" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="M13" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="N13" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="O13" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="P13" s="111" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Q13" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="R13" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="S13" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="T13" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="U13" s="134" t="s">
+        <v>702</v>
+      </c>
+      <c r="V13" s="108" t="s">
+        <v>726</v>
+      </c>
+      <c r="W13" s="134" t="s">
+        <v>729</v>
+      </c>
+      <c r="X13" s="108" t="s">
+        <v>726</v>
+      </c>
+      <c r="Y13" s="134" t="s">
         <v>703</v>
       </c>
-      <c r="V13" s="108" t="s">
-        <v>727</v>
-      </c>
-      <c r="W13" s="134" t="s">
-        <v>730</v>
-      </c>
-      <c r="X13" s="108" t="s">
-        <v>727</v>
-      </c>
-      <c r="Y13" s="134" t="s">
-        <v>704</v>
-      </c>
       <c r="Z13" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AA13" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AB13" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AC13" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AD13" s="111" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AE13" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AF13" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AG13" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AH13" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AI13" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AJ13" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AK13" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AL13" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AM13" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AN13" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AO13" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AP13" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AQ13" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AR13" s="108" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AS13" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="14" spans="1:45" s="4" customFormat="1">
       <c r="A14" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>458</v>
-      </c>
       <c r="D14" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="F14" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="G14" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="I14" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="J14" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="K14" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="L14" s="110" t="s">
         <v>470</v>
       </c>
-      <c r="L14" s="110" t="s">
+      <c r="M14" s="110" t="s">
         <v>471</v>
       </c>
-      <c r="M14" s="110" t="s">
+      <c r="N14" s="110" t="s">
         <v>472</v>
       </c>
-      <c r="N14" s="110" t="s">
+      <c r="O14" s="110" t="s">
         <v>473</v>
       </c>
-      <c r="O14" s="110" t="s">
+      <c r="P14" s="110" t="s">
         <v>474</v>
       </c>
-      <c r="P14" s="110" t="s">
+      <c r="Q14" s="110" t="s">
         <v>475</v>
       </c>
-      <c r="Q14" s="110" t="s">
+      <c r="R14" s="110" t="s">
         <v>476</v>
       </c>
-      <c r="R14" s="110" t="s">
+      <c r="S14" s="110" t="s">
         <v>477</v>
       </c>
-      <c r="S14" s="110" t="s">
+      <c r="T14" s="110" t="s">
         <v>478</v>
       </c>
-      <c r="T14" s="110" t="s">
+      <c r="U14" s="110" t="s">
         <v>479</v>
       </c>
-      <c r="U14" s="110" t="s">
+      <c r="V14" s="110" t="s">
         <v>480</v>
       </c>
-      <c r="V14" s="110" t="s">
+      <c r="W14" s="110" t="s">
         <v>481</v>
       </c>
-      <c r="W14" s="110" t="s">
+      <c r="X14" s="110" t="s">
         <v>482</v>
       </c>
-      <c r="X14" s="110" t="s">
+      <c r="Y14" s="110" t="s">
         <v>483</v>
       </c>
-      <c r="Y14" s="110" t="s">
+      <c r="Z14" s="110" t="s">
         <v>484</v>
       </c>
-      <c r="Z14" s="110" t="s">
+      <c r="AA14" s="110" t="s">
         <v>485</v>
       </c>
-      <c r="AA14" s="110" t="s">
+      <c r="AB14" s="110" t="s">
         <v>486</v>
       </c>
-      <c r="AB14" s="110" t="s">
+      <c r="AC14" s="110" t="s">
         <v>487</v>
       </c>
-      <c r="AC14" s="110" t="s">
+      <c r="AD14" s="110" t="s">
         <v>488</v>
       </c>
-      <c r="AD14" s="110" t="s">
+      <c r="AE14" s="110" t="s">
         <v>489</v>
       </c>
-      <c r="AE14" s="110" t="s">
+      <c r="AF14" s="110" t="s">
         <v>490</v>
       </c>
-      <c r="AF14" s="110" t="s">
+      <c r="AG14" s="110" t="s">
         <v>491</v>
       </c>
-      <c r="AG14" s="110" t="s">
+      <c r="AH14" s="110" t="s">
         <v>492</v>
       </c>
-      <c r="AH14" s="110" t="s">
+      <c r="AI14" s="110" t="s">
         <v>493</v>
       </c>
-      <c r="AI14" s="110" t="s">
+      <c r="AJ14" s="110" t="s">
         <v>494</v>
       </c>
-      <c r="AJ14" s="110" t="s">
+      <c r="AK14" s="110" t="s">
         <v>495</v>
       </c>
-      <c r="AK14" s="110" t="s">
+      <c r="AL14" s="110" t="s">
         <v>496</v>
       </c>
-      <c r="AL14" s="110" t="s">
+      <c r="AM14" s="110" t="s">
         <v>497</v>
       </c>
-      <c r="AM14" s="110" t="s">
+      <c r="AN14" s="110" t="s">
         <v>498</v>
       </c>
-      <c r="AN14" s="110" t="s">
+      <c r="AO14" s="110" t="s">
         <v>499</v>
       </c>
-      <c r="AO14" s="110" t="s">
+      <c r="AP14" s="110" t="s">
         <v>500</v>
       </c>
-      <c r="AP14" s="110" t="s">
+      <c r="AQ14" s="110" t="s">
         <v>501</v>
       </c>
-      <c r="AQ14" s="110" t="s">
+      <c r="AR14" s="110" t="s">
+        <v>382</v>
+      </c>
+      <c r="AS14" s="110" t="s">
         <v>502</v>
-      </c>
-      <c r="AR14" s="110" t="s">
-        <v>383</v>
-      </c>
-      <c r="AS14" s="110" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="15" spans="1:45">
       <c r="A15" s="41" t="s">
+        <v>458</v>
+      </c>
+      <c r="B15" s="41" t="s">
         <v>459</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>460</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="P15" s="112" t="s">
         <v>144</v>
       </c>
       <c r="Q15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="R15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="S15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="T15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="U15" s="112" t="s">
         <v>90</v>
       </c>
       <c r="V15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="W15" s="112" t="s">
         <v>90</v>
       </c>
       <c r="X15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Y15" s="112" t="s">
         <v>34</v>
       </c>
       <c r="Z15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AA15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AB15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AC15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AD15" s="112" t="s">
         <v>144</v>
       </c>
       <c r="AE15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AH15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AI15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AJ15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AK15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AL15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AM15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AN15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AO15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AP15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AQ15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AR15" s="41" t="s">
         <v>34</v>
       </c>
       <c r="AS15" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:45">
       <c r="A16" s="82" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B16" s="82" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C16" s="82" t="s">
+        <v>503</v>
+      </c>
+      <c r="D16" s="82" t="s">
         <v>504</v>
       </c>
-      <c r="D16" s="82" t="s">
+      <c r="E16" s="82" t="s">
         <v>505</v>
       </c>
-      <c r="E16" s="82" t="s">
+      <c r="F16" s="129" t="s">
         <v>506</v>
       </c>
-      <c r="F16" s="129" t="s">
+      <c r="G16" s="129" t="s">
         <v>507</v>
       </c>
-      <c r="G16" s="129" t="s">
+      <c r="H16" s="129" t="s">
         <v>508</v>
       </c>
-      <c r="H16" s="129" t="s">
+      <c r="I16" s="129" t="s">
         <v>509</v>
       </c>
-      <c r="I16" s="129" t="s">
+      <c r="J16" s="129" t="s">
         <v>510</v>
       </c>
-      <c r="J16" s="129" t="s">
+      <c r="K16" s="129" t="s">
         <v>511</v>
       </c>
-      <c r="K16" s="129" t="s">
+      <c r="L16" s="129" t="s">
         <v>512</v>
       </c>
-      <c r="L16" s="129" t="s">
+      <c r="M16" s="129" t="s">
         <v>513</v>
       </c>
-      <c r="M16" s="129" t="s">
+      <c r="N16" s="129" t="s">
         <v>514</v>
       </c>
-      <c r="N16" s="129" t="s">
+      <c r="O16" s="129" t="s">
         <v>515</v>
       </c>
-      <c r="O16" s="129" t="s">
+      <c r="P16" s="129" t="s">
         <v>516</v>
       </c>
-      <c r="P16" s="129" t="s">
+      <c r="Q16" s="129" t="s">
         <v>517</v>
       </c>
-      <c r="Q16" s="129" t="s">
+      <c r="R16" s="129" t="s">
         <v>518</v>
       </c>
-      <c r="R16" s="129" t="s">
+      <c r="S16" s="129" t="s">
         <v>519</v>
       </c>
-      <c r="S16" s="129" t="s">
+      <c r="T16" s="129" t="s">
         <v>520</v>
       </c>
-      <c r="T16" s="129" t="s">
+      <c r="U16" s="129" t="s">
         <v>521</v>
       </c>
-      <c r="U16" s="129" t="s">
+      <c r="V16" s="129" t="s">
         <v>522</v>
       </c>
-      <c r="V16" s="129" t="s">
+      <c r="W16" s="129" t="s">
         <v>523</v>
       </c>
-      <c r="W16" s="129" t="s">
+      <c r="X16" s="129" t="s">
         <v>524</v>
       </c>
-      <c r="X16" s="129" t="s">
+      <c r="Y16" s="129" t="s">
         <v>525</v>
       </c>
-      <c r="Y16" s="129" t="s">
+      <c r="Z16" s="129" t="s">
         <v>526</v>
       </c>
-      <c r="Z16" s="129" t="s">
+      <c r="AA16" s="129" t="s">
         <v>527</v>
       </c>
-      <c r="AA16" s="129" t="s">
+      <c r="AB16" s="129" t="s">
         <v>528</v>
       </c>
-      <c r="AB16" s="129" t="s">
+      <c r="AC16" s="129" t="s">
         <v>529</v>
       </c>
-      <c r="AC16" s="129" t="s">
+      <c r="AD16" s="129" t="s">
         <v>530</v>
       </c>
-      <c r="AD16" s="129" t="s">
+      <c r="AE16" s="129" t="s">
         <v>531</v>
       </c>
-      <c r="AE16" s="129" t="s">
+      <c r="AF16" s="129" t="s">
         <v>532</v>
       </c>
-      <c r="AF16" s="129" t="s">
+      <c r="AG16" s="129" t="s">
         <v>533</v>
       </c>
-      <c r="AG16" s="129" t="s">
+      <c r="AH16" s="129" t="s">
         <v>534</v>
       </c>
-      <c r="AH16" s="129" t="s">
+      <c r="AI16" s="129" t="s">
         <v>535</v>
       </c>
-      <c r="AI16" s="129" t="s">
+      <c r="AJ16" s="129" t="s">
         <v>536</v>
       </c>
-      <c r="AJ16" s="129" t="s">
+      <c r="AK16" s="129" t="s">
         <v>537</v>
       </c>
-      <c r="AK16" s="129" t="s">
+      <c r="AL16" s="129" t="s">
         <v>538</v>
       </c>
-      <c r="AL16" s="129" t="s">
+      <c r="AM16" s="129" t="s">
         <v>539</v>
       </c>
-      <c r="AM16" s="129" t="s">
+      <c r="AN16" s="129" t="s">
         <v>540</v>
       </c>
-      <c r="AN16" s="129" t="s">
+      <c r="AO16" s="129" t="s">
         <v>541</v>
       </c>
-      <c r="AO16" s="129" t="s">
+      <c r="AP16" s="129" t="s">
         <v>542</v>
       </c>
-      <c r="AP16" s="129" t="s">
+      <c r="AQ16" s="129" t="s">
         <v>543</v>
       </c>
-      <c r="AQ16" s="129" t="s">
+      <c r="AR16" s="129" t="s">
         <v>544</v>
       </c>
-      <c r="AR16" s="129" t="s">
+      <c r="AS16" s="129" t="s">
         <v>545</v>
-      </c>
-      <c r="AS16" s="129" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="17" spans="1:45">
       <c r="A17" s="126" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B17" s="127">
         <v>200</v>
@@ -10910,7 +10914,7 @@
       <c r="G19" s="167"/>
       <c r="H19" s="163"/>
       <c r="I19" s="164" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J19" s="163"/>
       <c r="K19" s="163"/>
@@ -10932,7 +10936,7 @@
       <c r="AA19" s="164"/>
       <c r="AB19" s="164"/>
       <c r="AC19" s="164" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AD19" s="164"/>
       <c r="AE19" s="164"/>
@@ -10941,14 +10945,14 @@
       <c r="AH19" s="164"/>
       <c r="AI19" s="164"/>
       <c r="AJ19" s="164" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AK19" s="164"/>
       <c r="AL19" s="165"/>
       <c r="AM19" s="165"/>
       <c r="AN19" s="165"/>
       <c r="AO19" s="164" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="AP19" s="165"/>
       <c r="AQ19" s="165"/>
@@ -10970,7 +10974,7 @@
   <dimension ref="A1:AS74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AS4" sqref="AS4"/>
@@ -11027,7 +11031,7 @@
   <sheetData>
     <row r="1" spans="1:45" s="1" customFormat="1" ht="35" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
@@ -11164,144 +11168,144 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" s="114" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" s="189" customFormat="1" ht="68">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" s="182" customFormat="1" ht="68">
       <c r="A3" s="152" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B3" s="152" t="s">
+        <v>750</v>
+      </c>
+      <c r="C3" s="152" t="s">
+        <v>764</v>
+      </c>
+      <c r="D3" s="152" t="s">
         <v>751</v>
       </c>
-      <c r="C3" s="152" t="s">
-        <v>765</v>
-      </c>
-      <c r="D3" s="152" t="s">
-        <v>752</v>
-      </c>
       <c r="E3" s="152" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F3" s="152" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G3" s="152" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H3" s="152" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I3" s="152" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="J3" s="152" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="K3" s="152" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="L3" s="152" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="M3" s="152" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="N3" s="152" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="O3" s="152" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="P3" s="152" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="Q3" s="152" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="R3" s="152" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="S3" s="152" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="T3" s="152" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U3" s="152" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="V3" s="152" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="W3" s="152" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="X3" s="152" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="Y3" s="152" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="Z3" s="152" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AA3" s="152" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AB3" s="152" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AC3" s="152" t="s">
+        <v>786</v>
+      </c>
+      <c r="AD3" s="152" t="s">
         <v>787</v>
       </c>
-      <c r="AD3" s="152" t="s">
-        <v>788</v>
-      </c>
       <c r="AE3" s="152" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AF3" s="152" t="s">
+        <v>793</v>
+      </c>
+      <c r="AG3" s="152" t="s">
+        <v>790</v>
+      </c>
+      <c r="AH3" s="152" t="s">
         <v>794</v>
       </c>
-      <c r="AG3" s="152" t="s">
-        <v>791</v>
-      </c>
-      <c r="AH3" s="152" t="s">
+      <c r="AI3" s="152" t="s">
         <v>795</v>
       </c>
-      <c r="AI3" s="152" t="s">
-        <v>796</v>
-      </c>
       <c r="AJ3" s="152" t="s">
+        <v>797</v>
+      </c>
+      <c r="AK3" s="152" t="s">
         <v>798</v>
       </c>
-      <c r="AK3" s="152" t="s">
-        <v>799</v>
-      </c>
       <c r="AL3" s="152" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AM3" s="152" t="s">
+        <v>803</v>
+      </c>
+      <c r="AN3" s="152" t="s">
         <v>804</v>
       </c>
-      <c r="AN3" s="152" t="s">
+      <c r="AO3" s="152" t="s">
         <v>805</v>
       </c>
-      <c r="AO3" s="152" t="s">
-        <v>806</v>
-      </c>
       <c r="AP3" s="152" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AQ3" s="152" t="s">
+        <v>808</v>
+      </c>
+      <c r="AR3" s="152" t="s">
+        <v>807</v>
+      </c>
+      <c r="AS3" s="152" t="s">
         <v>809</v>
-      </c>
-      <c r="AR3" s="152" t="s">
-        <v>808</v>
-      </c>
-      <c r="AS3" s="152" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="4" spans="1:45" s="124" customFormat="1" ht="99" customHeight="1">
@@ -11309,273 +11313,273 @@
         <v>6</v>
       </c>
       <c r="B4" s="154" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C4" s="154" t="s">
+        <v>734</v>
+      </c>
+      <c r="D4" s="154" t="s">
         <v>735</v>
       </c>
-      <c r="D4" s="154" t="s">
-        <v>736</v>
-      </c>
       <c r="E4" s="154" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F4" s="154" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G4" s="154" t="s">
+        <v>812</v>
+      </c>
+      <c r="H4" s="154" t="s">
         <v>813</v>
       </c>
-      <c r="H4" s="154" t="s">
+      <c r="I4" s="154" t="s">
         <v>814</v>
       </c>
-      <c r="I4" s="154" t="s">
-        <v>815</v>
-      </c>
       <c r="J4" s="154" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="K4" s="154" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="L4" s="154" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="M4" s="154" t="s">
         <v>128</v>
       </c>
       <c r="N4" s="154" t="s">
+        <v>815</v>
+      </c>
+      <c r="O4" s="154" t="s">
         <v>816</v>
       </c>
-      <c r="O4" s="154" t="s">
+      <c r="P4" s="154" t="s">
+        <v>752</v>
+      </c>
+      <c r="Q4" s="154" t="s">
+        <v>756</v>
+      </c>
+      <c r="R4" s="154" t="s">
         <v>817</v>
       </c>
-      <c r="P4" s="154" t="s">
-        <v>753</v>
-      </c>
-      <c r="Q4" s="154" t="s">
-        <v>757</v>
-      </c>
-      <c r="R4" s="154" t="s">
+      <c r="S4" s="154" t="s">
+        <v>765</v>
+      </c>
+      <c r="T4" s="154" t="s">
+        <v>767</v>
+      </c>
+      <c r="U4" s="154" t="s">
+        <v>769</v>
+      </c>
+      <c r="V4" s="154" t="s">
+        <v>771</v>
+      </c>
+      <c r="W4" s="154" t="s">
+        <v>773</v>
+      </c>
+      <c r="X4" s="154" t="s">
+        <v>777</v>
+      </c>
+      <c r="Y4" s="154" t="s">
+        <v>778</v>
+      </c>
+      <c r="Z4" s="154" t="s">
+        <v>780</v>
+      </c>
+      <c r="AA4" s="154" t="s">
+        <v>782</v>
+      </c>
+      <c r="AB4" s="154" t="s">
+        <v>784</v>
+      </c>
+      <c r="AC4" s="154" t="s">
+        <v>785</v>
+      </c>
+      <c r="AD4" s="154" t="s">
+        <v>788</v>
+      </c>
+      <c r="AE4" s="154" t="s">
+        <v>792</v>
+      </c>
+      <c r="AF4" s="154" t="s">
         <v>818</v>
       </c>
-      <c r="S4" s="154" t="s">
-        <v>766</v>
-      </c>
-      <c r="T4" s="154" t="s">
-        <v>768</v>
-      </c>
-      <c r="U4" s="154" t="s">
-        <v>770</v>
-      </c>
-      <c r="V4" s="154" t="s">
-        <v>772</v>
-      </c>
-      <c r="W4" s="154" t="s">
-        <v>774</v>
-      </c>
-      <c r="X4" s="154" t="s">
-        <v>778</v>
-      </c>
-      <c r="Y4" s="154" t="s">
-        <v>779</v>
-      </c>
-      <c r="Z4" s="154" t="s">
-        <v>781</v>
-      </c>
-      <c r="AA4" s="154" t="s">
-        <v>783</v>
-      </c>
-      <c r="AB4" s="154" t="s">
-        <v>785</v>
-      </c>
-      <c r="AC4" s="154" t="s">
-        <v>786</v>
-      </c>
-      <c r="AD4" s="154" t="s">
+      <c r="AG4" s="154" t="s">
         <v>789</v>
-      </c>
-      <c r="AE4" s="154" t="s">
-        <v>793</v>
-      </c>
-      <c r="AF4" s="154" t="s">
-        <v>819</v>
-      </c>
-      <c r="AG4" s="154" t="s">
-        <v>790</v>
       </c>
       <c r="AH4" s="154" t="s">
         <v>229</v>
       </c>
       <c r="AI4" s="154" t="s">
+        <v>819</v>
+      </c>
+      <c r="AJ4" s="154" t="s">
+        <v>240</v>
+      </c>
+      <c r="AK4" s="154" t="s">
+        <v>799</v>
+      </c>
+      <c r="AL4" s="154" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM4" s="154" t="s">
+        <v>802</v>
+      </c>
+      <c r="AN4" s="154" t="s">
         <v>820</v>
       </c>
-      <c r="AJ4" s="154" t="s">
-        <v>241</v>
-      </c>
-      <c r="AK4" s="154" t="s">
-        <v>800</v>
-      </c>
-      <c r="AL4" s="154" t="s">
-        <v>802</v>
-      </c>
-      <c r="AM4" s="154" t="s">
-        <v>803</v>
-      </c>
-      <c r="AN4" s="154" t="s">
+      <c r="AO4" s="154" t="s">
         <v>821</v>
       </c>
-      <c r="AO4" s="154" t="s">
+      <c r="AP4" s="154" t="s">
+        <v>806</v>
+      </c>
+      <c r="AQ4" s="155" t="s">
+        <v>282</v>
+      </c>
+      <c r="AR4" s="155" t="s">
+        <v>285</v>
+      </c>
+      <c r="AS4" s="154" t="s">
         <v>822</v>
-      </c>
-      <c r="AP4" s="154" t="s">
-        <v>807</v>
-      </c>
-      <c r="AQ4" s="155" t="s">
-        <v>283</v>
-      </c>
-      <c r="AR4" s="155" t="s">
-        <v>286</v>
-      </c>
-      <c r="AS4" s="154" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="5" spans="1:45">
       <c r="A5" s="110" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B5" s="110" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C5" s="125" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D5" s="142" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E5" s="110" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F5" s="110" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G5" s="110" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H5" s="110" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I5" s="110" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J5" s="110" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K5" s="110" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L5" s="110" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M5" s="110" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="N5" s="110" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O5" s="110" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P5" s="110" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="Q5" s="110" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="R5" s="110" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="S5" s="110" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="T5" s="110" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="U5" s="110" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="V5" s="110" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="W5" s="110" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="X5" s="110" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="Y5" s="110" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Z5" s="110" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AA5" s="110" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AB5" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AC5" s="110" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AD5" s="110" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AE5" s="110" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AF5" s="110" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AG5" s="110" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AH5" s="110" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AI5" s="110" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AJ5" s="110" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AK5" s="110" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AL5" s="110" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AM5" s="110" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AN5" s="110" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AO5" s="110" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AP5" s="110" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AQ5" s="110" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AR5" s="110" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AS5" s="110" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -11720,278 +11724,278 @@
         <v>4</v>
       </c>
       <c r="B7" s="132" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C7" s="132" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D7" s="129" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E7" s="132" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F7" s="130" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G7" s="130" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H7" s="130" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I7" s="130" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J7" s="130" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K7" s="130" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L7" s="130" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M7" s="130" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N7" s="130" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O7" s="130" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="P7" s="130" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Q7" s="130" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R7" s="130" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="S7" s="130" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="T7" s="130" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="U7" s="130" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="V7" s="130" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="W7" s="130" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="X7" s="130" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="Y7" s="130" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="Z7" s="130" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AA7" s="130" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AB7" s="130" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AC7" s="130" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AD7" s="130" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AE7" s="130" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AF7" s="130" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AG7" s="130" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AH7" s="130" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AI7" s="130" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AJ7" s="130" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AK7" s="130" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AL7" s="130" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AM7" s="130" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AN7" s="130" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AO7" s="130" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AP7" s="130" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AQ7" s="130" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AR7" s="130" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AS7" s="130" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="8" spans="1:45">
       <c r="A8" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>551</v>
-      </c>
       <c r="C8" s="138" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="X8" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="Y8" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="Z8" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AA8" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AB8" s="9" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AC8" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AD8" s="9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AE8" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AF8" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AG8" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AH8" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AI8" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AJ8" s="9" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AK8" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AL8" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AM8" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AN8" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AO8" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AP8" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AQ8" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AR8" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AS8" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="9" spans="1:45">
       <c r="A9" s="156" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B9" s="57">
         <v>400</v>
@@ -12128,7 +12132,7 @@
     </row>
     <row r="10" spans="1:45">
       <c r="A10" s="131" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B10" s="34">
         <v>300</v>
@@ -12265,7 +12269,7 @@
     </row>
     <row r="11" spans="1:45">
       <c r="A11" s="157" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B11" s="102">
         <v>360</v>
@@ -12407,7 +12411,7 @@
     </row>
     <row r="13" spans="1:45">
       <c r="A13" s="140" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B13" s="147">
         <v>1398058</v>
@@ -12565,7 +12569,7 @@
     </row>
     <row r="14" spans="1:45">
       <c r="A14" s="139" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B14" s="148">
         <v>3339806</v>
@@ -12721,7 +12725,7 @@
     </row>
     <row r="15" spans="1:45">
       <c r="A15" s="139" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B15" s="148">
         <v>3728155</v>
@@ -12880,7 +12884,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="149" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C16" s="149" t="s">
         <v>8</v>
@@ -12895,7 +12899,7 @@
         <v>8</v>
       </c>
       <c r="G16" s="151" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H16" s="151" t="s">
         <v>102</v>
@@ -12904,10 +12908,10 @@
         <v>102</v>
       </c>
       <c r="J16" s="151" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K16" s="151" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="L16" s="151" t="s">
         <v>102</v>
@@ -12916,19 +12920,19 @@
         <v>102</v>
       </c>
       <c r="N16" s="151" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="O16" s="151" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="P16" s="151" t="s">
         <v>8</v>
       </c>
       <c r="Q16" s="151" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="R16" s="151" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="S16" s="151"/>
       <c r="T16" s="151" t="s">
@@ -12939,7 +12943,7 @@
         <v>102</v>
       </c>
       <c r="W16" s="151" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="X16" s="151" t="s">
         <v>102</v>
@@ -12962,17 +12966,17 @@
       </c>
       <c r="AG16" s="151"/>
       <c r="AH16" s="151" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AI16" s="151" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="AJ16" s="151" t="s">
         <v>102</v>
       </c>
       <c r="AK16" s="151"/>
       <c r="AL16" s="151" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AM16" s="151" t="s">
         <v>102</v>
@@ -12987,13 +12991,13 @@
         <v>102</v>
       </c>
       <c r="AQ16" s="151" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AR16" s="158" t="s">
         <v>8</v>
       </c>
       <c r="AS16" s="151" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="18" spans="1:45" s="124" customFormat="1" ht="68">
@@ -13002,19 +13006,19 @@
       </c>
       <c r="B18" s="161"/>
       <c r="C18" s="162" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D18" s="162"/>
       <c r="E18" s="163"/>
       <c r="F18" s="163" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G18" s="167" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H18" s="163"/>
       <c r="I18" s="164" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J18" s="163"/>
       <c r="K18" s="163"/>
@@ -13023,56 +13027,56 @@
       <c r="N18" s="163"/>
       <c r="O18" s="163"/>
       <c r="P18" s="164" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="Q18" s="164" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="R18" s="164"/>
       <c r="S18" s="164" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="T18" s="164"/>
       <c r="U18" s="164" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="V18" s="164"/>
       <c r="W18" s="164" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="X18" s="164"/>
       <c r="Y18" s="164" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="Z18" s="164"/>
       <c r="AA18" s="164"/>
       <c r="AB18" s="164"/>
       <c r="AC18" s="164" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AD18" s="164" t="s">
+        <v>845</v>
+      </c>
+      <c r="AE18" s="164" t="s">
         <v>846</v>
-      </c>
-      <c r="AE18" s="164" t="s">
-        <v>847</v>
       </c>
       <c r="AF18" s="164"/>
       <c r="AG18" s="164" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="AH18" s="164"/>
       <c r="AI18" s="164"/>
       <c r="AJ18" s="164" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AK18" s="164" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AL18" s="165"/>
       <c r="AM18" s="165"/>
       <c r="AN18" s="165"/>
       <c r="AO18" s="164" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AP18" s="165"/>
       <c r="AQ18" s="165"/>
@@ -13264,34 +13268,34 @@
     </row>
     <row r="2" spans="1:2" ht="33" customHeight="1">
       <c r="A2" s="178" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B2" s="136" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17">
       <c r="A3" s="178" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B3" s="136" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="51">
       <c r="A4" s="178" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B4" s="136" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="51">
       <c r="A5" s="178" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B5" s="136" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -13300,10 +13304,10 @@
     </row>
     <row r="7" spans="1:2" ht="34">
       <c r="A7" s="178" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B7" s="136" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -13312,34 +13316,34 @@
     </row>
     <row r="9" spans="1:2" ht="34">
       <c r="A9" s="179" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B9" s="136" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="34">
       <c r="A10" s="179" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B10" s="136" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="51">
       <c r="A11" s="179" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B11" s="136" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="33" customHeight="1">
       <c r="A12" s="179" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B12" s="136" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -13347,10 +13351,10 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B14" s="180" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
   </sheetData>

--- a/sources/European_Exposure_Model_Data_Inputs_Sources.xlsx
+++ b/sources/European_Exposure_Model_Data_Inputs_Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helencrowley/Documents/5-GitHub/esrm20_exposure/sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C6C70E-EB0B-8E47-B20F-3E880A6B38A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38DD3BE3-C7CC-9942-A75F-F5167A302643}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="460" windowWidth="28300" windowHeight="16700" activeTab="1" xr2:uid="{3ADB8CE8-CD4D-1C4D-B72A-BA24B45CE5E7}"/>
+    <workbookView xWindow="180" yWindow="460" windowWidth="28300" windowHeight="16700" xr2:uid="{3ADB8CE8-CD4D-1C4D-B72A-BA24B45CE5E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="924">
   <si>
     <t>data_Albania_RES_census-buildings.xlsx</t>
   </si>
@@ -2917,9 +2917,6 @@
   </si>
   <si>
     <t>Only buildings in government controlled area included in final model. Total population in government controlled area in 2018 has been obtained from  http://www.cystat.gov.cy and scaled up to an estimated 2020 value</t>
-  </si>
-  <si>
-    <t>710 (https://forumdacasa.com/discussion/53535/orientacao-valor-medio-construcao-2018/)</t>
   </si>
   <si>
     <t>Eurostat 2011 
@@ -3497,9 +3494,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3703,28 +3697,31 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4045,7 +4042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDE1935-F182-8E4C-A9F6-BCE17C9647EE}">
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
@@ -4056,51 +4053,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="48" customHeight="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="188" t="s">
         <v>894</v>
       </c>
-      <c r="B1" s="183"/>
+      <c r="B1" s="188"/>
     </row>
     <row r="2" spans="1:3" ht="22" customHeight="1">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="184" t="s">
         <v>911</v>
       </c>
-      <c r="B2" s="185"/>
+      <c r="B2" s="184"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="22" customHeight="1">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="185" t="s">
         <v>913</v>
       </c>
-      <c r="B3" s="185"/>
+      <c r="B3" s="184"/>
     </row>
     <row r="4" spans="1:3" ht="22" customHeight="1">
-      <c r="A4" s="185" t="s">
+      <c r="A4" s="184" t="s">
         <v>893</v>
       </c>
-      <c r="B4" s="185"/>
+      <c r="B4" s="184"/>
     </row>
     <row r="5" spans="1:3" ht="22" customHeight="1">
-      <c r="A5" s="185" t="s">
+      <c r="A5" s="184" t="s">
         <v>912</v>
       </c>
-      <c r="B5" s="185"/>
+      <c r="B5" s="184"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="184"/>
-      <c r="B6" s="184"/>
+      <c r="A6" s="189"/>
+      <c r="B6" s="189"/>
     </row>
     <row r="7" spans="1:3" ht="39">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="186" t="s">
         <v>687</v>
       </c>
-      <c r="B7" s="188"/>
+      <c r="B7" s="186"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="189" t="s">
+      <c r="A8" s="187" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="189"/>
+      <c r="B8" s="187"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3"/>
@@ -4266,10 +4263,10 @@
       <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="186" t="s">
+      <c r="A30" s="183" t="s">
         <v>212</v>
       </c>
-      <c r="B30" s="186"/>
+      <c r="B30" s="183"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4"/>
@@ -4336,10 +4333,10 @@
       <c r="B39" s="4"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="186" t="s">
+      <c r="A41" s="183" t="s">
         <v>698</v>
       </c>
-      <c r="B41" s="186"/>
+      <c r="B41" s="183"/>
     </row>
     <row r="42" spans="1:2" ht="51">
       <c r="A42" s="61" t="s">
@@ -4353,21 +4350,21 @@
       <c r="A43" s="8" t="s">
         <v>859</v>
       </c>
-      <c r="B43" s="176" t="s">
+      <c r="B43" s="175" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="39">
-      <c r="A45" s="188" t="s">
+      <c r="A45" s="186" t="s">
         <v>857</v>
       </c>
-      <c r="B45" s="188"/>
+      <c r="B45" s="186"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="189" t="s">
+      <c r="A46" s="187" t="s">
         <v>447</v>
       </c>
-      <c r="B46" s="189"/>
+      <c r="B46" s="187"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="3"/>
@@ -4406,16 +4403,16 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="103" t="s">
+      <c r="A53" s="102" t="s">
         <v>460</v>
       </c>
       <c r="B53" s="6"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="104" t="s">
+      <c r="A54" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="149"/>
+      <c r="B54" s="148"/>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="90" t="s">
@@ -4469,12 +4466,12 @@
       <c r="A61" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B61" s="177" t="s">
+      <c r="B61" s="176" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="126" t="s">
+      <c r="A62" s="125" t="s">
         <v>830</v>
       </c>
       <c r="B62" s="9" t="s">
@@ -4482,10 +4479,10 @@
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="186" t="s">
+      <c r="A64" s="183" t="s">
         <v>698</v>
       </c>
-      <c r="B64" s="186"/>
+      <c r="B64" s="183"/>
     </row>
     <row r="65" spans="1:2" ht="51">
       <c r="A65" s="61" t="s">
@@ -4499,36 +4496,36 @@
       <c r="A66" s="8" t="s">
         <v>859</v>
       </c>
-      <c r="B66" s="176" t="s">
+      <c r="B66" s="175" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="39">
-      <c r="A68" s="188" t="s">
+      <c r="A68" s="186" t="s">
         <v>856</v>
       </c>
-      <c r="B68" s="188"/>
+      <c r="B68" s="186"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="189" t="s">
+      <c r="A69" s="187" t="s">
         <v>546</v>
       </c>
-      <c r="B69" s="189"/>
+      <c r="B69" s="187"/>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
     </row>
     <row r="71" spans="1:2" ht="34">
-      <c r="A71" s="152" t="s">
+      <c r="A71" s="151" t="s">
         <v>776</v>
       </c>
-      <c r="B71" s="152" t="s">
+      <c r="B71" s="151" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="153" t="s">
+      <c r="A72" s="152" t="s">
         <v>6</v>
       </c>
       <c r="B72" s="18" t="s">
@@ -4536,7 +4533,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="110" t="s">
+      <c r="A73" s="109" t="s">
         <v>708</v>
       </c>
       <c r="B73" s="11" t="s">
@@ -4552,10 +4549,10 @@
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="129" t="s">
+      <c r="A75" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="B75" s="177" t="s">
+      <c r="B75" s="176" t="s">
         <v>864</v>
       </c>
     </row>
@@ -4568,7 +4565,7 @@
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="156" t="s">
+      <c r="A77" s="155" t="s">
         <v>833</v>
       </c>
       <c r="B77" s="17" t="s">
@@ -4576,7 +4573,7 @@
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="131" t="s">
+      <c r="A78" s="130" t="s">
         <v>832</v>
       </c>
       <c r="B78" s="17" t="s">
@@ -4584,7 +4581,7 @@
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="157" t="s">
+      <c r="A79" s="156" t="s">
         <v>831</v>
       </c>
       <c r="B79" s="18" t="s">
@@ -4596,36 +4593,36 @@
       <c r="B80" s="4"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="186" t="s">
+      <c r="A81" s="183" t="s">
         <v>212</v>
       </c>
-      <c r="B81" s="186"/>
+      <c r="B81" s="183"/>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="140" t="s">
+      <c r="A83" s="139" t="s">
         <v>873</v>
       </c>
-      <c r="B83" s="140" t="s">
+      <c r="B83" s="139" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="139" t="s">
+      <c r="A84" s="138" t="s">
         <v>875</v>
       </c>
-      <c r="B84" s="139" t="s">
+      <c r="B84" s="138" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="139" t="s">
+      <c r="A85" s="138" t="s">
         <v>874</v>
       </c>
-      <c r="B85" s="139" t="s">
+      <c r="B85" s="138" t="s">
         <v>878</v>
       </c>
     </row>
@@ -4638,10 +4635,10 @@
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="186" t="s">
+      <c r="A88" s="183" t="s">
         <v>698</v>
       </c>
-      <c r="B88" s="186"/>
+      <c r="B88" s="183"/>
     </row>
     <row r="89" spans="1:2" ht="51">
       <c r="A89" s="61" t="s">
@@ -4655,7 +4652,7 @@
       <c r="A90" s="8" t="s">
         <v>859</v>
       </c>
-      <c r="B90" s="176" t="s">
+      <c r="B90" s="175" t="s">
         <v>903</v>
       </c>
     </row>
@@ -4669,6 +4666,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A64:B64"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -4680,12 +4683,6 @@
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A64:B64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4695,11 +4692,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D9D520-21E0-4740-A733-1FA0F3F531E7}">
   <dimension ref="A1:AS82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="S16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK31" sqref="AK31"/>
+      <selection pane="bottomRight" activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6892,7 +6889,7 @@
       <c r="M17" s="61" t="s">
         <v>403</v>
       </c>
-      <c r="N17" s="181" t="s">
+      <c r="N17" s="180" t="s">
         <v>137</v>
       </c>
       <c r="O17" s="61" t="s">
@@ -7170,7 +7167,7 @@
         <v>1700</v>
       </c>
       <c r="O19" s="42">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="P19" s="42" t="s">
         <v>8</v>
@@ -7179,7 +7176,7 @@
         <v>850</v>
       </c>
       <c r="R19" s="42">
-        <v>825</v>
+        <v>1000</v>
       </c>
       <c r="S19" s="42">
         <v>1850</v>
@@ -7191,7 +7188,7 @@
         <v>8</v>
       </c>
       <c r="V19" s="42">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="W19" s="42">
         <v>325</v>
@@ -7233,7 +7230,7 @@
         <v>8</v>
       </c>
       <c r="AJ19" s="57">
-        <v>820</v>
+        <v>1000</v>
       </c>
       <c r="AK19" s="42">
         <v>480</v>
@@ -7248,7 +7245,7 @@
         <v>830</v>
       </c>
       <c r="AO19" s="42">
-        <v>1030</v>
+        <v>1300</v>
       </c>
       <c r="AP19" s="42" t="s">
         <v>8</v>
@@ -7263,7 +7260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:45" ht="51">
+    <row r="20" spans="1:45">
       <c r="A20" s="17" t="s">
         <v>828</v>
       </c>
@@ -7271,7 +7268,7 @@
         <v>300</v>
       </c>
       <c r="C20" s="43">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="D20" s="43" t="s">
         <v>8</v>
@@ -7295,19 +7292,19 @@
         <v>750</v>
       </c>
       <c r="K20" s="43">
-        <v>1420</v>
+        <v>1500</v>
       </c>
       <c r="L20" s="43">
         <v>750</v>
       </c>
       <c r="M20" s="43">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="N20" s="43">
         <v>1300</v>
       </c>
       <c r="O20" s="43">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="P20" s="43">
         <v>1300</v>
@@ -7328,7 +7325,7 @@
         <v>1200</v>
       </c>
       <c r="V20" s="43">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="W20" s="43">
         <v>300</v>
@@ -7337,7 +7334,7 @@
         <v>750</v>
       </c>
       <c r="Y20" s="43">
-        <v>1400</v>
+        <v>1620</v>
       </c>
       <c r="Z20" s="43">
         <v>750</v>
@@ -7367,10 +7364,10 @@
         <v>1550</v>
       </c>
       <c r="AI20" s="43">
-        <v>600</v>
-      </c>
-      <c r="AJ20" s="101" t="s">
-        <v>921</v>
+        <v>700</v>
+      </c>
+      <c r="AJ20" s="190">
+        <v>800</v>
       </c>
       <c r="AK20" s="43">
         <v>340</v>
@@ -7385,13 +7382,13 @@
         <v>640</v>
       </c>
       <c r="AO20" s="43">
-        <v>900</v>
-      </c>
-      <c r="AP20" s="169">
-        <v>1200</v>
+        <v>1000</v>
+      </c>
+      <c r="AP20" s="168">
+        <v>1550</v>
       </c>
       <c r="AQ20" s="43">
-        <v>1550</v>
+        <v>1800</v>
       </c>
       <c r="AR20" s="43">
         <v>320</v>
@@ -7408,7 +7405,7 @@
         <v>300</v>
       </c>
       <c r="C21" s="44">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="D21" s="44">
         <v>1200</v>
@@ -7432,19 +7429,19 @@
         <v>640</v>
       </c>
       <c r="K21" s="44">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="L21" s="44">
         <v>640</v>
       </c>
       <c r="M21" s="44">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="N21" s="44">
         <v>1100</v>
       </c>
       <c r="O21" s="44">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="P21" s="44">
         <v>1000</v>
@@ -7465,7 +7462,7 @@
         <v>1000</v>
       </c>
       <c r="V21" s="44">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="W21" s="44">
         <v>300</v>
@@ -7474,7 +7471,7 @@
         <v>640</v>
       </c>
       <c r="Y21" s="44">
-        <v>1260</v>
+        <v>1350</v>
       </c>
       <c r="Z21" s="44">
         <v>640</v>
@@ -7483,7 +7480,7 @@
         <v>1260</v>
       </c>
       <c r="AB21" s="44">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="AC21" s="44">
         <v>250</v>
@@ -7504,9 +7501,11 @@
         <v>1190</v>
       </c>
       <c r="AI21" s="44">
-        <v>500</v>
-      </c>
-      <c r="AJ21" s="102"/>
+        <v>600</v>
+      </c>
+      <c r="AJ21" s="101">
+        <v>800</v>
+      </c>
       <c r="AK21" s="44">
         <v>260</v>
       </c>
@@ -7520,13 +7519,13 @@
         <v>500</v>
       </c>
       <c r="AO21" s="44">
-        <v>800</v>
-      </c>
-      <c r="AP21" s="175">
-        <v>1100</v>
+        <v>900</v>
+      </c>
+      <c r="AP21" s="174">
+        <v>1350</v>
       </c>
       <c r="AQ21" s="44">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="AR21" s="44">
         <v>250</v>
@@ -7848,7 +7847,7 @@
       <c r="K25" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="L25" s="117" t="s">
+      <c r="L25" s="116" t="s">
         <v>8</v>
       </c>
       <c r="M25" s="47" t="s">
@@ -7866,7 +7865,7 @@
       <c r="Q25" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="R25" s="115" t="s">
+      <c r="R25" s="114" t="s">
         <v>685</v>
       </c>
       <c r="S25" s="32" t="s">
@@ -7881,7 +7880,7 @@
       <c r="V25" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="W25" s="115" t="s">
+      <c r="W25" s="114" t="s">
         <v>685</v>
       </c>
       <c r="X25" s="47" t="s">
@@ -7914,7 +7913,7 @@
       <c r="AG25" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="AH25" s="116" t="s">
+      <c r="AH25" s="115" t="s">
         <v>686</v>
       </c>
       <c r="AI25" s="47" t="s">
@@ -8102,7 +8101,7 @@
       <c r="E27" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="123" t="s">
+      <c r="F27" s="122" t="s">
         <v>104</v>
       </c>
       <c r="G27" s="59" t="s">
@@ -8157,16 +8156,16 @@
       <c r="X27" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="Y27" s="118" t="s">
+      <c r="Y27" s="117" t="s">
         <v>186</v>
       </c>
       <c r="Z27" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="AA27" s="118" t="s">
+      <c r="AA27" s="117" t="s">
         <v>172</v>
       </c>
-      <c r="AB27" s="102" t="s">
+      <c r="AB27" s="101" t="s">
         <v>685</v>
       </c>
       <c r="AC27" s="59" t="s">
@@ -8181,7 +8180,7 @@
       <c r="AF27" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="AG27" s="102" t="s">
+      <c r="AG27" s="101" t="s">
         <v>685</v>
       </c>
       <c r="AH27" s="60" t="s">
@@ -8228,7 +8227,7 @@
       <c r="B28" s="20">
         <v>1012062</v>
       </c>
-      <c r="C28" s="121" t="s">
+      <c r="C28" s="120" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="20">
@@ -8252,13 +8251,13 @@
       <c r="J28" s="20">
         <v>4375122</v>
       </c>
-      <c r="K28" s="148">
+      <c r="K28" s="147">
         <v>2873365</v>
       </c>
       <c r="L28" s="20">
         <v>649746</v>
       </c>
-      <c r="M28" s="148">
+      <c r="M28" s="147">
         <v>2807505</v>
       </c>
       <c r="N28" s="37" t="s">
@@ -8273,13 +8272,13 @@
       <c r="Q28" s="20">
         <v>6017036.5999999996</v>
       </c>
-      <c r="R28" s="148">
+      <c r="R28" s="147">
         <v>4390302</v>
       </c>
       <c r="S28" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="T28" s="148">
+      <c r="T28" s="147">
         <v>1994968</v>
       </c>
       <c r="U28" s="20">
@@ -8297,7 +8296,7 @@
       <c r="Y28" s="20">
         <v>15474</v>
       </c>
-      <c r="Z28" s="148">
+      <c r="Z28" s="147">
         <v>1374233</v>
       </c>
       <c r="AA28" s="20">
@@ -8322,7 +8321,7 @@
       <c r="AH28" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="AI28" s="148">
+      <c r="AI28" s="147">
         <v>12965598</v>
       </c>
       <c r="AJ28" s="20">
@@ -8343,7 +8342,7 @@
       <c r="AO28" s="20">
         <v>25849338</v>
       </c>
-      <c r="AP28" s="148">
+      <c r="AP28" s="147">
         <v>4824227</v>
       </c>
       <c r="AQ28" s="20">
@@ -8361,13 +8360,13 @@
       <c r="B29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="122" t="s">
+      <c r="C29" s="121" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="115" t="s">
+      <c r="E29" s="114" t="s">
         <v>685</v>
       </c>
       <c r="F29" s="55" t="s">
@@ -8385,14 +8384,14 @@
       <c r="J29" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="K29" s="190" t="s">
-        <v>922</v>
+      <c r="K29" s="182" t="s">
+        <v>921</v>
       </c>
       <c r="L29" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="M29" s="190" t="s">
-        <v>922</v>
+      <c r="M29" s="182" t="s">
+        <v>921</v>
       </c>
       <c r="N29" s="38" t="s">
         <v>8</v>
@@ -8406,14 +8405,14 @@
       <c r="Q29" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="R29" s="190" t="s">
-        <v>922</v>
+      <c r="R29" s="182" t="s">
+        <v>921</v>
       </c>
       <c r="S29" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="190" t="s">
-        <v>922</v>
+      <c r="T29" s="182" t="s">
+        <v>921</v>
       </c>
       <c r="U29" s="55" t="s">
         <v>679</v>
@@ -8430,8 +8429,8 @@
       <c r="Y29" s="55" t="s">
         <v>680</v>
       </c>
-      <c r="Z29" s="190" t="s">
-        <v>922</v>
+      <c r="Z29" s="182" t="s">
+        <v>921</v>
       </c>
       <c r="AA29" s="55" t="s">
         <v>172</v>
@@ -8455,8 +8454,8 @@
       <c r="AH29" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AI29" s="190" t="s">
-        <v>922</v>
+      <c r="AI29" s="182" t="s">
+        <v>921</v>
       </c>
       <c r="AJ29" s="55" t="s">
         <v>31</v>
@@ -8476,8 +8475,8 @@
       <c r="AO29" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="AP29" s="190" t="s">
-        <v>922</v>
+      <c r="AP29" s="182" t="s">
+        <v>921</v>
       </c>
       <c r="AQ29" s="55" t="s">
         <v>283</v>
@@ -8491,64 +8490,64 @@
       <c r="A31" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="171"/>
-      <c r="C31" s="172"/>
-      <c r="D31" s="171"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="171"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="171"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="171"/>
+      <c r="F31" s="171"/>
+      <c r="G31" s="170"/>
       <c r="H31" s="19"/>
-      <c r="I31" s="172" t="s">
+      <c r="I31" s="171" t="s">
         <v>920</v>
       </c>
-      <c r="J31" s="171"/>
-      <c r="K31" s="171"/>
-      <c r="L31" s="171"/>
-      <c r="M31" s="171"/>
-      <c r="N31" s="172" t="s">
+      <c r="J31" s="170"/>
+      <c r="K31" s="170"/>
+      <c r="L31" s="170"/>
+      <c r="M31" s="170"/>
+      <c r="N31" s="171" t="s">
         <v>834</v>
       </c>
-      <c r="O31" s="171"/>
-      <c r="P31" s="171"/>
-      <c r="Q31" s="171"/>
-      <c r="R31" s="173" t="s">
+      <c r="O31" s="170"/>
+      <c r="P31" s="170"/>
+      <c r="Q31" s="170"/>
+      <c r="R31" s="172" t="s">
+        <v>922</v>
+      </c>
+      <c r="S31" s="170"/>
+      <c r="T31" s="170"/>
+      <c r="U31" s="170"/>
+      <c r="V31" s="171" t="s">
+        <v>852</v>
+      </c>
+      <c r="W31" s="171"/>
+      <c r="X31" s="170"/>
+      <c r="Y31" s="170"/>
+      <c r="Z31" s="170"/>
+      <c r="AA31" s="170"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="172" t="s">
+        <v>853</v>
+      </c>
+      <c r="AD31" s="170"/>
+      <c r="AE31" s="170"/>
+      <c r="AF31" s="19"/>
+      <c r="AG31" s="170"/>
+      <c r="AH31" s="19"/>
+      <c r="AI31" s="170"/>
+      <c r="AJ31" s="172" t="s">
         <v>923</v>
       </c>
-      <c r="S31" s="171"/>
-      <c r="T31" s="171"/>
-      <c r="U31" s="171"/>
-      <c r="V31" s="172" t="s">
-        <v>852</v>
-      </c>
-      <c r="W31" s="172"/>
-      <c r="X31" s="171"/>
-      <c r="Y31" s="171"/>
-      <c r="Z31" s="171"/>
-      <c r="AA31" s="171"/>
-      <c r="AB31" s="19"/>
-      <c r="AC31" s="173" t="s">
-        <v>853</v>
-      </c>
-      <c r="AD31" s="171"/>
-      <c r="AE31" s="171"/>
-      <c r="AF31" s="19"/>
-      <c r="AG31" s="171"/>
-      <c r="AH31" s="19"/>
-      <c r="AI31" s="171"/>
-      <c r="AJ31" s="173" t="s">
-        <v>924</v>
-      </c>
-      <c r="AK31" s="171"/>
-      <c r="AL31" s="171"/>
-      <c r="AM31" s="174"/>
-      <c r="AN31" s="171"/>
+      <c r="AK31" s="170"/>
+      <c r="AL31" s="170"/>
+      <c r="AM31" s="173"/>
+      <c r="AN31" s="170"/>
       <c r="AO31" s="19" t="s">
         <v>854</v>
       </c>
-      <c r="AP31" s="171"/>
-      <c r="AQ31" s="171"/>
-      <c r="AR31" s="171"/>
-      <c r="AS31" s="171"/>
+      <c r="AP31" s="170"/>
+      <c r="AQ31" s="170"/>
+      <c r="AR31" s="170"/>
+      <c r="AS31" s="170"/>
     </row>
     <row r="34" spans="1:10">
       <c r="J34" s="69"/>
@@ -8559,136 +8558,136 @@
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="B39" s="159"/>
+      <c r="B39" s="158"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="B40" s="159"/>
+      <c r="B40" s="158"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="B41" s="159"/>
+      <c r="B41" s="158"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="B42" s="159"/>
+      <c r="B42" s="158"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="B43" s="159"/>
+      <c r="B43" s="158"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="B44" s="159"/>
+      <c r="B44" s="158"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="B45" s="159"/>
+      <c r="B45" s="158"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="B46" s="159"/>
+      <c r="B46" s="158"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="B47" s="159"/>
+      <c r="B47" s="158"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="B48" s="159"/>
+      <c r="B48" s="158"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="159"/>
+      <c r="B49" s="158"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="159"/>
+      <c r="B50" s="158"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="159"/>
+      <c r="B51" s="158"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="159"/>
+      <c r="B52" s="158"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="159"/>
+      <c r="B53" s="158"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="159"/>
+      <c r="B54" s="158"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="159"/>
+      <c r="B55" s="158"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="159"/>
+      <c r="B56" s="158"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="159"/>
+      <c r="B57" s="158"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="159"/>
+      <c r="B58" s="158"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="159"/>
+      <c r="B59" s="158"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="159"/>
+      <c r="B60" s="158"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="159"/>
+      <c r="B61" s="158"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="159"/>
+      <c r="B62" s="158"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="159"/>
+      <c r="B63" s="158"/>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="159"/>
+      <c r="B64" s="158"/>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="159"/>
+      <c r="B65" s="158"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="159"/>
+      <c r="B66" s="158"/>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="159"/>
+      <c r="B67" s="158"/>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="159"/>
+      <c r="B68" s="158"/>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="159"/>
+      <c r="B69" s="158"/>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="159"/>
+      <c r="B70" s="158"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="159"/>
+      <c r="B71" s="158"/>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="159"/>
+      <c r="B72" s="158"/>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="159"/>
+      <c r="B73" s="158"/>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="159"/>
+      <c r="B74" s="158"/>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="159"/>
+      <c r="B75" s="158"/>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="159"/>
+      <c r="B76" s="158"/>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="159"/>
+      <c r="B77" s="158"/>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="159"/>
+      <c r="B78" s="158"/>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="159"/>
+      <c r="B79" s="158"/>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="159"/>
+      <c r="B80" s="158"/>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="159"/>
+      <c r="B81" s="158"/>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="159"/>
+      <c r="B82" s="158"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8706,10 +8705,10 @@
   <dimension ref="A1:AS23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AR2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17:AS17"/>
+      <selection pane="bottomRight" activeCell="AS17" sqref="B17:AS17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9036,7 +9035,7 @@
       <c r="A4" s="66" t="s">
         <v>449</v>
       </c>
-      <c r="B4" s="168">
+      <c r="B4" s="167">
         <v>11302</v>
       </c>
       <c r="C4" s="34">
@@ -9163,7 +9162,7 @@
       <c r="A5" s="66" t="s">
         <v>450</v>
       </c>
-      <c r="B5" s="169">
+      <c r="B5" s="168">
         <v>4624</v>
       </c>
       <c r="C5" s="34">
@@ -9290,7 +9289,7 @@
       <c r="A6" s="66" t="s">
         <v>451</v>
       </c>
-      <c r="B6" s="168">
+      <c r="B6" s="167">
         <v>15926</v>
       </c>
       <c r="C6" s="34">
@@ -9419,10 +9418,10 @@
       <c r="A7" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="144" t="s">
+      <c r="B7" s="143" t="s">
         <v>715</v>
       </c>
-      <c r="C7" s="143" t="s">
+      <c r="C7" s="142" t="s">
         <v>716</v>
       </c>
       <c r="D7" s="92" t="s">
@@ -9443,7 +9442,7 @@
       <c r="I7" s="92" t="s">
         <v>713</v>
       </c>
-      <c r="J7" s="145" t="s">
+      <c r="J7" s="144" t="s">
         <v>8</v>
       </c>
       <c r="K7" s="92" t="s">
@@ -9458,16 +9457,16 @@
       <c r="N7" s="92" t="s">
         <v>713</v>
       </c>
-      <c r="O7" s="145" t="s">
-        <v>8</v>
-      </c>
-      <c r="P7" s="145" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q7" s="145" t="s">
-        <v>8</v>
-      </c>
-      <c r="R7" s="145" t="s">
+      <c r="O7" s="144" t="s">
+        <v>8</v>
+      </c>
+      <c r="P7" s="144" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="144" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" s="144" t="s">
         <v>8</v>
       </c>
       <c r="S7" s="98" t="s">
@@ -9476,10 +9475,10 @@
       <c r="T7" s="92" t="s">
         <v>713</v>
       </c>
-      <c r="U7" s="145" t="s">
-        <v>8</v>
-      </c>
-      <c r="V7" s="145" t="s">
+      <c r="U7" s="144" t="s">
+        <v>8</v>
+      </c>
+      <c r="V7" s="144" t="s">
         <v>8</v>
       </c>
       <c r="W7" s="98" t="s">
@@ -9506,7 +9505,7 @@
       <c r="AD7" s="98" t="s">
         <v>721</v>
       </c>
-      <c r="AE7" s="145" t="s">
+      <c r="AE7" s="144" t="s">
         <v>8</v>
       </c>
       <c r="AF7" s="92" t="s">
@@ -9543,10 +9542,10 @@
       </c>
     </row>
     <row r="8" spans="1:45">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="102" t="s">
         <v>460</v>
       </c>
-      <c r="B8" s="147">
+      <c r="B8" s="146">
         <v>15926</v>
       </c>
       <c r="C8" s="93">
@@ -9680,10 +9679,10 @@
       </c>
     </row>
     <row r="9" spans="1:45" ht="85">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="149" t="s">
+      <c r="B9" s="148" t="s">
         <v>461</v>
       </c>
       <c r="C9" s="99" t="s">
@@ -9722,7 +9721,7 @@
       <c r="N9" s="99" t="s">
         <v>461</v>
       </c>
-      <c r="O9" s="120" t="s">
+      <c r="O9" s="119" t="s">
         <v>682</v>
       </c>
       <c r="P9" s="100" t="s">
@@ -9731,7 +9730,7 @@
       <c r="Q9" s="100" t="s">
         <v>150</v>
       </c>
-      <c r="R9" s="120" t="s">
+      <c r="R9" s="119" t="s">
         <v>682</v>
       </c>
       <c r="S9" s="99" t="s">
@@ -9782,7 +9781,7 @@
       <c r="AH9" s="100" t="s">
         <v>731</v>
       </c>
-      <c r="AI9" s="120" t="s">
+      <c r="AI9" s="119" t="s">
         <v>682</v>
       </c>
       <c r="AJ9" s="99" t="s">
@@ -9800,13 +9799,13 @@
       <c r="AN9" s="99" t="s">
         <v>461</v>
       </c>
-      <c r="AO9" s="120" t="s">
+      <c r="AO9" s="119" t="s">
         <v>682</v>
       </c>
-      <c r="AP9" s="120" t="s">
+      <c r="AP9" s="119" t="s">
         <v>682</v>
       </c>
-      <c r="AQ9" s="107" t="s">
+      <c r="AQ9" s="106" t="s">
         <v>461</v>
       </c>
       <c r="AR9" s="100" t="s">
@@ -9820,10 +9819,10 @@
       <c r="A10" s="90" t="s">
         <v>723</v>
       </c>
-      <c r="B10" s="170">
+      <c r="B10" s="169">
         <v>5012796.6732999999</v>
       </c>
-      <c r="C10" s="119" t="s">
+      <c r="C10" s="118" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="95">
@@ -9869,7 +9868,7 @@
       <c r="R10" s="56">
         <v>82345387.952430904</v>
       </c>
-      <c r="S10" s="133">
+      <c r="S10" s="132">
         <v>4252598.5233969996</v>
       </c>
       <c r="T10" s="95">
@@ -9947,136 +9946,136 @@
       <c r="A11" s="90" t="s">
         <v>452</v>
       </c>
-      <c r="B11" s="170">
+      <c r="B11" s="169">
         <v>315</v>
       </c>
-      <c r="C11" s="105">
+      <c r="C11" s="104">
         <v>683.76068376068383</v>
       </c>
-      <c r="D11" s="105">
+      <c r="D11" s="104">
         <v>1782.0491206299</v>
       </c>
-      <c r="E11" s="105">
+      <c r="E11" s="104">
         <v>2764.35088615625</v>
       </c>
-      <c r="F11" s="106">
+      <c r="F11" s="105">
         <v>1604.1704433505386</v>
       </c>
-      <c r="G11" s="105">
+      <c r="G11" s="104">
         <v>2053.2339212509896</v>
       </c>
-      <c r="H11" s="106">
+      <c r="H11" s="105">
         <v>645.3040551855554</v>
       </c>
-      <c r="I11" s="105">
+      <c r="I11" s="104">
         <v>2243.5498017543596</v>
       </c>
-      <c r="J11" s="106">
+      <c r="J11" s="105">
         <v>1505.4381005720495</v>
       </c>
-      <c r="K11" s="105">
+      <c r="K11" s="104">
         <v>1028.7680753785721</v>
       </c>
-      <c r="L11" s="106">
+      <c r="L11" s="105">
         <v>1783.7485595959595</v>
       </c>
-      <c r="M11" s="105">
+      <c r="M11" s="104">
         <v>1892.3484787375025</v>
       </c>
-      <c r="N11" s="106">
+      <c r="N11" s="105">
         <v>2011.568174022852</v>
       </c>
-      <c r="O11" s="105">
+      <c r="O11" s="104">
         <v>1158.1415265194069</v>
       </c>
-      <c r="P11" s="106">
+      <c r="P11" s="105">
         <v>855.76271186440681</v>
       </c>
-      <c r="Q11" s="105">
+      <c r="Q11" s="104">
         <v>1215.0818946100446</v>
       </c>
-      <c r="R11" s="105">
+      <c r="R11" s="104">
         <v>1326.0126884449421</v>
       </c>
-      <c r="S11" s="106">
+      <c r="S11" s="105">
         <v>776.0216283571167</v>
       </c>
-      <c r="T11" s="105">
+      <c r="T11" s="104">
         <v>796.73207817437765</v>
       </c>
-      <c r="U11" s="106">
+      <c r="U11" s="105">
         <v>300</v>
       </c>
-      <c r="V11" s="105">
+      <c r="V11" s="104">
         <v>1741.923571361383</v>
       </c>
-      <c r="W11" s="106">
+      <c r="W11" s="105">
         <v>683.76068376068395</v>
       </c>
-      <c r="X11" s="105">
+      <c r="X11" s="104">
         <v>1569.5072174242423</v>
       </c>
-      <c r="Y11" s="106">
+      <c r="Y11" s="105">
         <v>658.1196581196582</v>
       </c>
-      <c r="Z11" s="105">
+      <c r="Z11" s="104">
         <v>2261.984570642202</v>
       </c>
-      <c r="AA11" s="106">
+      <c r="AA11" s="105">
         <v>2402.0244285714284</v>
       </c>
-      <c r="AB11" s="105">
+      <c r="AB11" s="104">
         <v>479.42947266612634</v>
       </c>
-      <c r="AC11" s="106">
+      <c r="AC11" s="105">
         <v>2353.1205479947371</v>
       </c>
-      <c r="AD11" s="105">
+      <c r="AD11" s="104">
         <v>683.76068376068383</v>
       </c>
-      <c r="AE11" s="106">
+      <c r="AE11" s="105">
         <v>1114.1518817025515</v>
       </c>
-      <c r="AF11" s="105">
+      <c r="AF11" s="104">
         <v>2079.9960106600006</v>
       </c>
-      <c r="AG11" s="106">
+      <c r="AG11" s="105">
         <v>850.39161831383319</v>
       </c>
-      <c r="AH11" s="105">
+      <c r="AH11" s="104">
         <v>371.09507453016619</v>
       </c>
-      <c r="AI11" s="106">
+      <c r="AI11" s="105">
         <v>1391.6358481073423</v>
       </c>
-      <c r="AJ11" s="105">
+      <c r="AJ11" s="104">
         <v>586.41942079943169</v>
       </c>
-      <c r="AK11" s="106">
+      <c r="AK11" s="105">
         <v>1459.7544338335606</v>
       </c>
-      <c r="AL11" s="105">
+      <c r="AL11" s="104">
         <v>1538.8232825320779</v>
       </c>
-      <c r="AM11" s="106">
+      <c r="AM11" s="105">
         <v>926.23514983359803</v>
       </c>
-      <c r="AN11" s="105">
+      <c r="AN11" s="104">
         <v>604.03193109814833</v>
       </c>
-      <c r="AO11" s="106">
+      <c r="AO11" s="105">
         <v>1421.536556610894</v>
       </c>
-      <c r="AP11" s="105">
+      <c r="AP11" s="104">
         <v>1334.4719484383502</v>
       </c>
-      <c r="AQ11" s="106">
+      <c r="AQ11" s="105">
         <v>1926.0632303363227</v>
       </c>
-      <c r="AR11" s="105">
+      <c r="AR11" s="104">
         <v>878</v>
       </c>
-      <c r="AS11" s="105">
+      <c r="AS11" s="104">
         <v>1539.7516003566352</v>
       </c>
     </row>
@@ -10084,136 +10083,136 @@
       <c r="A12" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="105" t="s">
+      <c r="B12" s="104" t="s">
         <v>704</v>
       </c>
       <c r="C12" s="90" t="s">
         <v>701</v>
       </c>
-      <c r="D12" s="105" t="s">
+      <c r="D12" s="104" t="s">
         <v>704</v>
       </c>
-      <c r="E12" s="105" t="s">
+      <c r="E12" s="104" t="s">
         <v>704</v>
       </c>
-      <c r="F12" s="105" t="s">
+      <c r="F12" s="104" t="s">
         <v>704</v>
       </c>
-      <c r="G12" s="105" t="s">
+      <c r="G12" s="104" t="s">
         <v>704</v>
       </c>
-      <c r="H12" s="105" t="s">
+      <c r="H12" s="104" t="s">
         <v>704</v>
       </c>
-      <c r="I12" s="105" t="s">
+      <c r="I12" s="104" t="s">
         <v>704</v>
       </c>
-      <c r="J12" s="105" t="s">
+      <c r="J12" s="104" t="s">
         <v>704</v>
       </c>
-      <c r="K12" s="105" t="s">
+      <c r="K12" s="104" t="s">
         <v>704</v>
       </c>
-      <c r="L12" s="105" t="s">
+      <c r="L12" s="104" t="s">
         <v>704</v>
       </c>
-      <c r="M12" s="105" t="s">
+      <c r="M12" s="104" t="s">
         <v>704</v>
       </c>
-      <c r="N12" s="105" t="s">
+      <c r="N12" s="104" t="s">
         <v>704</v>
       </c>
-      <c r="O12" s="105" t="s">
+      <c r="O12" s="104" t="s">
         <v>704</v>
       </c>
       <c r="P12" s="90" t="s">
         <v>701</v>
       </c>
-      <c r="Q12" s="105" t="s">
+      <c r="Q12" s="104" t="s">
         <v>704</v>
       </c>
-      <c r="R12" s="105" t="s">
+      <c r="R12" s="104" t="s">
         <v>704</v>
       </c>
-      <c r="S12" s="105" t="s">
+      <c r="S12" s="104" t="s">
         <v>704</v>
       </c>
-      <c r="T12" s="105" t="s">
+      <c r="T12" s="104" t="s">
         <v>704</v>
       </c>
       <c r="U12" s="90" t="s">
         <v>701</v>
       </c>
-      <c r="V12" s="105" t="s">
+      <c r="V12" s="104" t="s">
         <v>704</v>
       </c>
       <c r="W12" s="90" t="s">
         <v>701</v>
       </c>
-      <c r="X12" s="105" t="s">
+      <c r="X12" s="104" t="s">
         <v>704</v>
       </c>
       <c r="Y12" s="90" t="s">
         <v>701</v>
       </c>
-      <c r="Z12" s="105" t="s">
+      <c r="Z12" s="104" t="s">
         <v>704</v>
       </c>
-      <c r="AA12" s="105" t="s">
+      <c r="AA12" s="104" t="s">
         <v>704</v>
       </c>
-      <c r="AB12" s="105" t="s">
+      <c r="AB12" s="104" t="s">
         <v>704</v>
       </c>
-      <c r="AC12" s="105" t="s">
+      <c r="AC12" s="104" t="s">
         <v>704</v>
       </c>
       <c r="AD12" s="90" t="s">
         <v>701</v>
       </c>
-      <c r="AE12" s="105" t="s">
+      <c r="AE12" s="104" t="s">
         <v>704</v>
       </c>
-      <c r="AF12" s="105" t="s">
+      <c r="AF12" s="104" t="s">
         <v>704</v>
       </c>
-      <c r="AG12" s="105" t="s">
+      <c r="AG12" s="104" t="s">
         <v>704</v>
       </c>
-      <c r="AH12" s="105" t="s">
+      <c r="AH12" s="104" t="s">
         <v>704</v>
       </c>
-      <c r="AI12" s="105" t="s">
+      <c r="AI12" s="104" t="s">
         <v>704</v>
       </c>
-      <c r="AJ12" s="105" t="s">
+      <c r="AJ12" s="104" t="s">
         <v>704</v>
       </c>
-      <c r="AK12" s="105" t="s">
+      <c r="AK12" s="104" t="s">
         <v>704</v>
       </c>
-      <c r="AL12" s="105" t="s">
+      <c r="AL12" s="104" t="s">
         <v>704</v>
       </c>
-      <c r="AM12" s="105" t="s">
+      <c r="AM12" s="104" t="s">
         <v>704</v>
       </c>
-      <c r="AN12" s="105" t="s">
+      <c r="AN12" s="104" t="s">
         <v>704</v>
       </c>
-      <c r="AO12" s="105" t="s">
+      <c r="AO12" s="104" t="s">
         <v>704</v>
       </c>
-      <c r="AP12" s="105" t="s">
+      <c r="AP12" s="104" t="s">
         <v>704</v>
       </c>
-      <c r="AQ12" s="105" t="s">
+      <c r="AQ12" s="104" t="s">
         <v>704</v>
       </c>
-      <c r="AR12" s="105" t="s">
+      <c r="AR12" s="104" t="s">
         <v>704</v>
       </c>
-      <c r="AS12" s="105" t="s">
+      <c r="AS12" s="104" t="s">
         <v>704</v>
       </c>
     </row>
@@ -10221,136 +10220,136 @@
       <c r="A13" s="10" t="s">
         <v>712</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="C13" s="109" t="s">
+      <c r="C13" s="108" t="s">
         <v>736</v>
       </c>
-      <c r="D13" s="108" t="s">
+      <c r="D13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="E13" s="108" t="s">
+      <c r="E13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="F13" s="108" t="s">
+      <c r="F13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="G13" s="108" t="s">
+      <c r="G13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="H13" s="108" t="s">
+      <c r="H13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="I13" s="108" t="s">
+      <c r="I13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="J13" s="108" t="s">
+      <c r="J13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="K13" s="108" t="s">
+      <c r="K13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="L13" s="108" t="s">
+      <c r="L13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="M13" s="108" t="s">
+      <c r="M13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="N13" s="108" t="s">
+      <c r="N13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="O13" s="108" t="s">
+      <c r="O13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="P13" s="111" t="s">
+      <c r="P13" s="110" t="s">
         <v>389</v>
       </c>
-      <c r="Q13" s="108" t="s">
+      <c r="Q13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="R13" s="108" t="s">
+      <c r="R13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="S13" s="108" t="s">
+      <c r="S13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="T13" s="108" t="s">
+      <c r="T13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="U13" s="134" t="s">
+      <c r="U13" s="133" t="s">
         <v>702</v>
       </c>
-      <c r="V13" s="108" t="s">
+      <c r="V13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="W13" s="134" t="s">
+      <c r="W13" s="133" t="s">
         <v>729</v>
       </c>
-      <c r="X13" s="108" t="s">
+      <c r="X13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="Y13" s="134" t="s">
+      <c r="Y13" s="133" t="s">
         <v>703</v>
       </c>
-      <c r="Z13" s="108" t="s">
+      <c r="Z13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="AA13" s="108" t="s">
+      <c r="AA13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="AB13" s="108" t="s">
+      <c r="AB13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="AC13" s="108" t="s">
+      <c r="AC13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="AD13" s="111" t="s">
+      <c r="AD13" s="110" t="s">
         <v>389</v>
       </c>
-      <c r="AE13" s="108" t="s">
+      <c r="AE13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="AF13" s="108" t="s">
+      <c r="AF13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="AG13" s="108" t="s">
+      <c r="AG13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="AH13" s="108" t="s">
+      <c r="AH13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="AI13" s="108" t="s">
+      <c r="AI13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="AJ13" s="108" t="s">
+      <c r="AJ13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="AK13" s="108" t="s">
+      <c r="AK13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="AL13" s="108" t="s">
+      <c r="AL13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="AM13" s="108" t="s">
+      <c r="AM13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="AN13" s="108" t="s">
+      <c r="AN13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="AO13" s="108" t="s">
+      <c r="AO13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="AP13" s="108" t="s">
+      <c r="AP13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="AQ13" s="108" t="s">
+      <c r="AQ13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="AR13" s="108" t="s">
+      <c r="AR13" s="107" t="s">
         <v>733</v>
       </c>
-      <c r="AS13" s="108" t="s">
+      <c r="AS13" s="107" t="s">
         <v>726</v>
       </c>
     </row>
@@ -10388,106 +10387,106 @@
       <c r="K14" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="L14" s="110" t="s">
+      <c r="L14" s="109" t="s">
         <v>470</v>
       </c>
-      <c r="M14" s="110" t="s">
+      <c r="M14" s="109" t="s">
         <v>471</v>
       </c>
-      <c r="N14" s="110" t="s">
+      <c r="N14" s="109" t="s">
         <v>472</v>
       </c>
-      <c r="O14" s="110" t="s">
+      <c r="O14" s="109" t="s">
         <v>473</v>
       </c>
-      <c r="P14" s="110" t="s">
+      <c r="P14" s="109" t="s">
         <v>474</v>
       </c>
-      <c r="Q14" s="110" t="s">
+      <c r="Q14" s="109" t="s">
         <v>475</v>
       </c>
-      <c r="R14" s="110" t="s">
+      <c r="R14" s="109" t="s">
         <v>476</v>
       </c>
-      <c r="S14" s="110" t="s">
+      <c r="S14" s="109" t="s">
         <v>477</v>
       </c>
-      <c r="T14" s="110" t="s">
+      <c r="T14" s="109" t="s">
         <v>478</v>
       </c>
-      <c r="U14" s="110" t="s">
+      <c r="U14" s="109" t="s">
         <v>479</v>
       </c>
-      <c r="V14" s="110" t="s">
+      <c r="V14" s="109" t="s">
         <v>480</v>
       </c>
-      <c r="W14" s="110" t="s">
+      <c r="W14" s="109" t="s">
         <v>481</v>
       </c>
-      <c r="X14" s="110" t="s">
+      <c r="X14" s="109" t="s">
         <v>482</v>
       </c>
-      <c r="Y14" s="110" t="s">
+      <c r="Y14" s="109" t="s">
         <v>483</v>
       </c>
-      <c r="Z14" s="110" t="s">
+      <c r="Z14" s="109" t="s">
         <v>484</v>
       </c>
-      <c r="AA14" s="110" t="s">
+      <c r="AA14" s="109" t="s">
         <v>485</v>
       </c>
-      <c r="AB14" s="110" t="s">
+      <c r="AB14" s="109" t="s">
         <v>486</v>
       </c>
-      <c r="AC14" s="110" t="s">
+      <c r="AC14" s="109" t="s">
         <v>487</v>
       </c>
-      <c r="AD14" s="110" t="s">
+      <c r="AD14" s="109" t="s">
         <v>488</v>
       </c>
-      <c r="AE14" s="110" t="s">
+      <c r="AE14" s="109" t="s">
         <v>489</v>
       </c>
-      <c r="AF14" s="110" t="s">
+      <c r="AF14" s="109" t="s">
         <v>490</v>
       </c>
-      <c r="AG14" s="110" t="s">
+      <c r="AG14" s="109" t="s">
         <v>491</v>
       </c>
-      <c r="AH14" s="110" t="s">
+      <c r="AH14" s="109" t="s">
         <v>492</v>
       </c>
-      <c r="AI14" s="110" t="s">
+      <c r="AI14" s="109" t="s">
         <v>493</v>
       </c>
-      <c r="AJ14" s="110" t="s">
+      <c r="AJ14" s="109" t="s">
         <v>494</v>
       </c>
-      <c r="AK14" s="110" t="s">
+      <c r="AK14" s="109" t="s">
         <v>495</v>
       </c>
-      <c r="AL14" s="110" t="s">
+      <c r="AL14" s="109" t="s">
         <v>496</v>
       </c>
-      <c r="AM14" s="110" t="s">
+      <c r="AM14" s="109" t="s">
         <v>497</v>
       </c>
-      <c r="AN14" s="110" t="s">
+      <c r="AN14" s="109" t="s">
         <v>498</v>
       </c>
-      <c r="AO14" s="110" t="s">
+      <c r="AO14" s="109" t="s">
         <v>499</v>
       </c>
-      <c r="AP14" s="110" t="s">
+      <c r="AP14" s="109" t="s">
         <v>500</v>
       </c>
-      <c r="AQ14" s="110" t="s">
+      <c r="AQ14" s="109" t="s">
         <v>501</v>
       </c>
-      <c r="AR14" s="110" t="s">
+      <c r="AR14" s="109" t="s">
         <v>382</v>
       </c>
-      <c r="AS14" s="110" t="s">
+      <c r="AS14" s="109" t="s">
         <v>502</v>
       </c>
     </row>
@@ -10537,7 +10536,7 @@
       <c r="O15" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="P15" s="112" t="s">
+      <c r="P15" s="111" t="s">
         <v>144</v>
       </c>
       <c r="Q15" s="41" t="s">
@@ -10552,19 +10551,19 @@
       <c r="T15" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="U15" s="112" t="s">
+      <c r="U15" s="111" t="s">
         <v>90</v>
       </c>
       <c r="V15" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="W15" s="112" t="s">
+      <c r="W15" s="111" t="s">
         <v>90</v>
       </c>
       <c r="X15" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="Y15" s="112" t="s">
+      <c r="Y15" s="111" t="s">
         <v>34</v>
       </c>
       <c r="Z15" s="41" t="s">
@@ -10579,7 +10578,7 @@
       <c r="AC15" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="AD15" s="112" t="s">
+      <c r="AD15" s="111" t="s">
         <v>144</v>
       </c>
       <c r="AE15" s="41" t="s">
@@ -10644,325 +10643,325 @@
       <c r="E16" s="82" t="s">
         <v>505</v>
       </c>
-      <c r="F16" s="129" t="s">
+      <c r="F16" s="128" t="s">
         <v>506</v>
       </c>
-      <c r="G16" s="129" t="s">
+      <c r="G16" s="128" t="s">
         <v>507</v>
       </c>
-      <c r="H16" s="129" t="s">
+      <c r="H16" s="128" t="s">
         <v>508</v>
       </c>
-      <c r="I16" s="129" t="s">
+      <c r="I16" s="128" t="s">
         <v>509</v>
       </c>
-      <c r="J16" s="129" t="s">
+      <c r="J16" s="128" t="s">
         <v>510</v>
       </c>
-      <c r="K16" s="129" t="s">
+      <c r="K16" s="128" t="s">
         <v>511</v>
       </c>
-      <c r="L16" s="129" t="s">
+      <c r="L16" s="128" t="s">
         <v>512</v>
       </c>
-      <c r="M16" s="129" t="s">
+      <c r="M16" s="128" t="s">
         <v>513</v>
       </c>
-      <c r="N16" s="129" t="s">
+      <c r="N16" s="128" t="s">
         <v>514</v>
       </c>
-      <c r="O16" s="129" t="s">
+      <c r="O16" s="128" t="s">
         <v>515</v>
       </c>
-      <c r="P16" s="129" t="s">
+      <c r="P16" s="128" t="s">
         <v>516</v>
       </c>
-      <c r="Q16" s="129" t="s">
+      <c r="Q16" s="128" t="s">
         <v>517</v>
       </c>
-      <c r="R16" s="129" t="s">
+      <c r="R16" s="128" t="s">
         <v>518</v>
       </c>
-      <c r="S16" s="129" t="s">
+      <c r="S16" s="128" t="s">
         <v>519</v>
       </c>
-      <c r="T16" s="129" t="s">
+      <c r="T16" s="128" t="s">
         <v>520</v>
       </c>
-      <c r="U16" s="129" t="s">
+      <c r="U16" s="128" t="s">
         <v>521</v>
       </c>
-      <c r="V16" s="129" t="s">
+      <c r="V16" s="128" t="s">
         <v>522</v>
       </c>
-      <c r="W16" s="129" t="s">
+      <c r="W16" s="128" t="s">
         <v>523</v>
       </c>
-      <c r="X16" s="129" t="s">
+      <c r="X16" s="128" t="s">
         <v>524</v>
       </c>
-      <c r="Y16" s="129" t="s">
+      <c r="Y16" s="128" t="s">
         <v>525</v>
       </c>
-      <c r="Z16" s="129" t="s">
+      <c r="Z16" s="128" t="s">
         <v>526</v>
       </c>
-      <c r="AA16" s="129" t="s">
+      <c r="AA16" s="128" t="s">
         <v>527</v>
       </c>
-      <c r="AB16" s="129" t="s">
+      <c r="AB16" s="128" t="s">
         <v>528</v>
       </c>
-      <c r="AC16" s="129" t="s">
+      <c r="AC16" s="128" t="s">
         <v>529</v>
       </c>
-      <c r="AD16" s="129" t="s">
+      <c r="AD16" s="128" t="s">
         <v>530</v>
       </c>
-      <c r="AE16" s="129" t="s">
+      <c r="AE16" s="128" t="s">
         <v>531</v>
       </c>
-      <c r="AF16" s="129" t="s">
+      <c r="AF16" s="128" t="s">
         <v>532</v>
       </c>
-      <c r="AG16" s="129" t="s">
+      <c r="AG16" s="128" t="s">
         <v>533</v>
       </c>
-      <c r="AH16" s="129" t="s">
+      <c r="AH16" s="128" t="s">
         <v>534</v>
       </c>
-      <c r="AI16" s="129" t="s">
+      <c r="AI16" s="128" t="s">
         <v>535</v>
       </c>
-      <c r="AJ16" s="129" t="s">
+      <c r="AJ16" s="128" t="s">
         <v>536</v>
       </c>
-      <c r="AK16" s="129" t="s">
+      <c r="AK16" s="128" t="s">
         <v>537</v>
       </c>
-      <c r="AL16" s="129" t="s">
+      <c r="AL16" s="128" t="s">
         <v>538</v>
       </c>
-      <c r="AM16" s="129" t="s">
+      <c r="AM16" s="128" t="s">
         <v>539</v>
       </c>
-      <c r="AN16" s="129" t="s">
+      <c r="AN16" s="128" t="s">
         <v>540</v>
       </c>
-      <c r="AO16" s="129" t="s">
+      <c r="AO16" s="128" t="s">
         <v>541</v>
       </c>
-      <c r="AP16" s="129" t="s">
+      <c r="AP16" s="128" t="s">
         <v>542</v>
       </c>
-      <c r="AQ16" s="129" t="s">
+      <c r="AQ16" s="128" t="s">
         <v>543</v>
       </c>
-      <c r="AR16" s="129" t="s">
+      <c r="AR16" s="128" t="s">
         <v>544</v>
       </c>
-      <c r="AS16" s="129" t="s">
+      <c r="AS16" s="128" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="17" spans="1:45">
-      <c r="A17" s="126" t="s">
+      <c r="A17" s="125" t="s">
         <v>830</v>
       </c>
-      <c r="B17" s="127">
+      <c r="B17" s="126">
         <v>200</v>
       </c>
-      <c r="C17" s="127">
+      <c r="C17" s="126">
         <v>600</v>
       </c>
-      <c r="D17" s="127">
+      <c r="D17" s="126">
         <v>770</v>
       </c>
-      <c r="E17" s="127">
+      <c r="E17" s="126">
         <v>750</v>
       </c>
-      <c r="F17" s="127">
+      <c r="F17" s="126">
         <v>250</v>
       </c>
-      <c r="G17" s="127">
+      <c r="G17" s="126">
+        <v>350</v>
+      </c>
+      <c r="H17" s="126">
+        <v>300</v>
+      </c>
+      <c r="I17" s="126">
+        <v>500</v>
+      </c>
+      <c r="J17" s="126">
+        <v>600</v>
+      </c>
+      <c r="K17" s="126">
+        <v>800</v>
+      </c>
+      <c r="L17" s="126">
+        <v>400</v>
+      </c>
+      <c r="M17" s="126">
+        <v>850</v>
+      </c>
+      <c r="N17" s="126">
+        <v>770</v>
+      </c>
+      <c r="O17" s="126">
+        <v>800</v>
+      </c>
+      <c r="P17" s="126">
+        <v>750</v>
+      </c>
+      <c r="Q17" s="126">
+        <v>400</v>
+      </c>
+      <c r="R17" s="126">
+        <v>500</v>
+      </c>
+      <c r="S17" s="126">
+        <v>1020</v>
+      </c>
+      <c r="T17" s="126">
+        <v>800</v>
+      </c>
+      <c r="U17" s="126">
+        <v>670</v>
+      </c>
+      <c r="V17" s="126">
+        <v>700</v>
+      </c>
+      <c r="W17" s="126">
+        <v>200</v>
+      </c>
+      <c r="X17" s="126">
+        <v>400</v>
+      </c>
+      <c r="Y17" s="126">
+        <v>900</v>
+      </c>
+      <c r="Z17" s="126">
+        <v>400</v>
+      </c>
+      <c r="AA17" s="126">
+        <v>750</v>
+      </c>
+      <c r="AB17" s="126">
+        <v>600</v>
+      </c>
+      <c r="AC17" s="126">
         <v>250</v>
       </c>
-      <c r="H17" s="127">
-        <v>300</v>
-      </c>
-      <c r="I17" s="127">
+      <c r="AD17" s="126">
+        <v>1020</v>
+      </c>
+      <c r="AE17" s="126">
+        <v>250</v>
+      </c>
+      <c r="AF17" s="126">
+        <v>790</v>
+      </c>
+      <c r="AG17" s="126">
+        <v>250</v>
+      </c>
+      <c r="AH17" s="126">
+        <v>1020</v>
+      </c>
+      <c r="AI17" s="126">
         <v>500</v>
       </c>
-      <c r="J17" s="127">
+      <c r="AJ17" s="126">
+        <v>530</v>
+      </c>
+      <c r="AK17" s="126">
+        <v>250</v>
+      </c>
+      <c r="AL17" s="126">
+        <v>400</v>
+      </c>
+      <c r="AM17" s="126">
+        <v>500</v>
+      </c>
+      <c r="AN17" s="126">
+        <v>500</v>
+      </c>
+      <c r="AO17" s="126">
         <v>600</v>
       </c>
-      <c r="K17" s="127">
+      <c r="AP17" s="126">
+        <v>850</v>
+      </c>
+      <c r="AQ17" s="126">
         <v>950</v>
       </c>
-      <c r="L17" s="127">
-        <v>400</v>
-      </c>
-      <c r="M17" s="127">
-        <v>800</v>
-      </c>
-      <c r="N17" s="127">
-        <v>770</v>
-      </c>
-      <c r="O17" s="127">
-        <v>750</v>
-      </c>
-      <c r="P17" s="127">
-        <v>750</v>
-      </c>
-      <c r="Q17" s="127">
-        <v>400</v>
-      </c>
-      <c r="R17" s="127">
-        <v>600</v>
-      </c>
-      <c r="S17" s="127">
-        <v>1020</v>
-      </c>
-      <c r="T17" s="127">
-        <v>860</v>
-      </c>
-      <c r="U17" s="127">
-        <v>670</v>
-      </c>
-      <c r="V17" s="127">
-        <v>600</v>
-      </c>
-      <c r="W17" s="127">
-        <v>200</v>
-      </c>
-      <c r="X17" s="127">
-        <v>400</v>
-      </c>
-      <c r="Y17" s="127">
-        <v>900</v>
-      </c>
-      <c r="Z17" s="127">
-        <v>400</v>
-      </c>
-      <c r="AA17" s="127">
-        <v>750</v>
-      </c>
-      <c r="AB17" s="127">
-        <v>600</v>
-      </c>
-      <c r="AC17" s="127">
-        <v>250</v>
-      </c>
-      <c r="AD17" s="127">
-        <v>1020</v>
-      </c>
-      <c r="AE17" s="127">
-        <v>250</v>
-      </c>
-      <c r="AF17" s="127">
-        <v>790</v>
-      </c>
-      <c r="AG17" s="127">
-        <v>250</v>
-      </c>
-      <c r="AH17" s="127">
-        <v>1020</v>
-      </c>
-      <c r="AI17" s="127">
-        <v>350</v>
-      </c>
-      <c r="AJ17" s="127">
-        <v>530</v>
-      </c>
-      <c r="AK17" s="127">
-        <v>250</v>
-      </c>
-      <c r="AL17" s="127">
-        <v>250</v>
-      </c>
-      <c r="AM17" s="127">
-        <v>500</v>
-      </c>
-      <c r="AN17" s="127">
-        <v>500</v>
-      </c>
-      <c r="AO17" s="127">
-        <v>600</v>
-      </c>
-      <c r="AP17" s="127">
-        <v>700</v>
-      </c>
-      <c r="AQ17" s="127">
-        <v>1020</v>
-      </c>
-      <c r="AR17" s="127">
+      <c r="AR17" s="126">
         <v>220</v>
       </c>
-      <c r="AS17" s="128">
+      <c r="AS17" s="127">
         <v>830</v>
       </c>
     </row>
-    <row r="19" spans="1:45" s="124" customFormat="1" ht="34">
-      <c r="A19" s="160" t="s">
+    <row r="19" spans="1:45" s="123" customFormat="1" ht="34">
+      <c r="A19" s="159" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="161"/>
-      <c r="C19" s="162"/>
-      <c r="D19" s="162"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="167"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="164" t="s">
+      <c r="B19" s="160"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="166"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="163" t="s">
         <v>855</v>
       </c>
-      <c r="J19" s="163"/>
-      <c r="K19" s="163"/>
-      <c r="L19" s="163"/>
-      <c r="M19" s="163"/>
-      <c r="N19" s="163"/>
-      <c r="O19" s="163"/>
-      <c r="P19" s="164"/>
-      <c r="Q19" s="164"/>
-      <c r="R19" s="164"/>
-      <c r="S19" s="164"/>
-      <c r="T19" s="164"/>
-      <c r="U19" s="164"/>
-      <c r="V19" s="164"/>
-      <c r="W19" s="164"/>
-      <c r="X19" s="164"/>
-      <c r="Y19" s="164"/>
-      <c r="Z19" s="164"/>
-      <c r="AA19" s="164"/>
-      <c r="AB19" s="164"/>
-      <c r="AC19" s="164" t="s">
+      <c r="J19" s="162"/>
+      <c r="K19" s="162"/>
+      <c r="L19" s="162"/>
+      <c r="M19" s="162"/>
+      <c r="N19" s="162"/>
+      <c r="O19" s="162"/>
+      <c r="P19" s="163"/>
+      <c r="Q19" s="163"/>
+      <c r="R19" s="163"/>
+      <c r="S19" s="163"/>
+      <c r="T19" s="163"/>
+      <c r="U19" s="163"/>
+      <c r="V19" s="163"/>
+      <c r="W19" s="163"/>
+      <c r="X19" s="163"/>
+      <c r="Y19" s="163"/>
+      <c r="Z19" s="163"/>
+      <c r="AA19" s="163"/>
+      <c r="AB19" s="163"/>
+      <c r="AC19" s="163" t="s">
         <v>847</v>
       </c>
-      <c r="AD19" s="164"/>
-      <c r="AE19" s="164"/>
-      <c r="AF19" s="164"/>
-      <c r="AG19" s="164"/>
-      <c r="AH19" s="164"/>
-      <c r="AI19" s="164"/>
-      <c r="AJ19" s="164" t="s">
+      <c r="AD19" s="163"/>
+      <c r="AE19" s="163"/>
+      <c r="AF19" s="163"/>
+      <c r="AG19" s="163"/>
+      <c r="AH19" s="163"/>
+      <c r="AI19" s="163"/>
+      <c r="AJ19" s="163" t="s">
         <v>849</v>
       </c>
-      <c r="AK19" s="164"/>
-      <c r="AL19" s="165"/>
-      <c r="AM19" s="165"/>
-      <c r="AN19" s="165"/>
-      <c r="AO19" s="164" t="s">
+      <c r="AK19" s="163"/>
+      <c r="AL19" s="164"/>
+      <c r="AM19" s="164"/>
+      <c r="AN19" s="164"/>
+      <c r="AO19" s="163" t="s">
         <v>851</v>
       </c>
-      <c r="AP19" s="165"/>
-      <c r="AQ19" s="165"/>
-      <c r="AR19" s="166" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS19" s="165"/>
+      <c r="AP19" s="164"/>
+      <c r="AQ19" s="164"/>
+      <c r="AR19" s="165" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS19" s="164"/>
     </row>
     <row r="23" spans="1:45">
-      <c r="A23" s="135"/>
+      <c r="A23" s="134"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10974,10 +10973,10 @@
   <dimension ref="A1:AS74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AS4" sqref="AS4"/>
+      <selection pane="bottomRight" activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11167,418 +11166,418 @@
       </c>
     </row>
     <row r="2" spans="1:45">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="113" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:45" s="182" customFormat="1" ht="68">
-      <c r="A3" s="152" t="s">
+    <row r="3" spans="1:45" s="181" customFormat="1" ht="68">
+      <c r="A3" s="151" t="s">
         <v>776</v>
       </c>
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="151" t="s">
         <v>750</v>
       </c>
-      <c r="C3" s="152" t="s">
+      <c r="C3" s="151" t="s">
         <v>764</v>
       </c>
-      <c r="D3" s="152" t="s">
+      <c r="D3" s="151" t="s">
         <v>751</v>
       </c>
-      <c r="E3" s="152" t="s">
+      <c r="E3" s="151" t="s">
         <v>740</v>
       </c>
-      <c r="F3" s="152" t="s">
+      <c r="F3" s="151" t="s">
         <v>749</v>
       </c>
-      <c r="G3" s="152" t="s">
+      <c r="G3" s="151" t="s">
         <v>763</v>
       </c>
-      <c r="H3" s="152" t="s">
+      <c r="H3" s="151" t="s">
         <v>748</v>
       </c>
-      <c r="I3" s="152" t="s">
+      <c r="I3" s="151" t="s">
         <v>762</v>
       </c>
-      <c r="J3" s="152" t="s">
+      <c r="J3" s="151" t="s">
         <v>742</v>
       </c>
-      <c r="K3" s="152" t="s">
+      <c r="K3" s="151" t="s">
         <v>746</v>
       </c>
-      <c r="L3" s="152" t="s">
+      <c r="L3" s="151" t="s">
         <v>742</v>
       </c>
-      <c r="M3" s="152" t="s">
+      <c r="M3" s="151" t="s">
         <v>746</v>
       </c>
-      <c r="N3" s="152" t="s">
+      <c r="N3" s="151" t="s">
         <v>761</v>
       </c>
-      <c r="O3" s="152" t="s">
+      <c r="O3" s="151" t="s">
         <v>760</v>
       </c>
-      <c r="P3" s="152" t="s">
+      <c r="P3" s="151" t="s">
         <v>753</v>
       </c>
-      <c r="Q3" s="152" t="s">
+      <c r="Q3" s="151" t="s">
         <v>755</v>
       </c>
-      <c r="R3" s="152" t="s">
+      <c r="R3" s="151" t="s">
         <v>759</v>
       </c>
-      <c r="S3" s="152" t="s">
+      <c r="S3" s="151" t="s">
         <v>766</v>
       </c>
-      <c r="T3" s="152" t="s">
+      <c r="T3" s="151" t="s">
         <v>755</v>
       </c>
-      <c r="U3" s="152" t="s">
+      <c r="U3" s="151" t="s">
         <v>770</v>
       </c>
-      <c r="V3" s="152" t="s">
+      <c r="V3" s="151" t="s">
         <v>746</v>
       </c>
-      <c r="W3" s="152" t="s">
+      <c r="W3" s="151" t="s">
         <v>772</v>
       </c>
-      <c r="X3" s="152" t="s">
+      <c r="X3" s="151" t="s">
         <v>755</v>
       </c>
-      <c r="Y3" s="152" t="s">
+      <c r="Y3" s="151" t="s">
         <v>779</v>
       </c>
-      <c r="Z3" s="152" t="s">
+      <c r="Z3" s="151" t="s">
         <v>781</v>
       </c>
-      <c r="AA3" s="152" t="s">
+      <c r="AA3" s="151" t="s">
         <v>781</v>
       </c>
-      <c r="AB3" s="152" t="s">
+      <c r="AB3" s="151" t="s">
         <v>783</v>
       </c>
-      <c r="AC3" s="152" t="s">
+      <c r="AC3" s="151" t="s">
         <v>786</v>
       </c>
-      <c r="AD3" s="152" t="s">
+      <c r="AD3" s="151" t="s">
         <v>787</v>
       </c>
-      <c r="AE3" s="152" t="s">
+      <c r="AE3" s="151" t="s">
         <v>791</v>
       </c>
-      <c r="AF3" s="152" t="s">
+      <c r="AF3" s="151" t="s">
         <v>793</v>
       </c>
-      <c r="AG3" s="152" t="s">
+      <c r="AG3" s="151" t="s">
         <v>790</v>
       </c>
-      <c r="AH3" s="152" t="s">
+      <c r="AH3" s="151" t="s">
         <v>794</v>
       </c>
-      <c r="AI3" s="152" t="s">
+      <c r="AI3" s="151" t="s">
         <v>795</v>
       </c>
-      <c r="AJ3" s="152" t="s">
+      <c r="AJ3" s="151" t="s">
         <v>797</v>
       </c>
-      <c r="AK3" s="152" t="s">
+      <c r="AK3" s="151" t="s">
         <v>798</v>
       </c>
-      <c r="AL3" s="152" t="s">
+      <c r="AL3" s="151" t="s">
         <v>800</v>
       </c>
-      <c r="AM3" s="152" t="s">
+      <c r="AM3" s="151" t="s">
         <v>803</v>
       </c>
-      <c r="AN3" s="152" t="s">
+      <c r="AN3" s="151" t="s">
         <v>804</v>
       </c>
-      <c r="AO3" s="152" t="s">
+      <c r="AO3" s="151" t="s">
         <v>805</v>
       </c>
-      <c r="AP3" s="152" t="s">
+      <c r="AP3" s="151" t="s">
         <v>768</v>
       </c>
-      <c r="AQ3" s="152" t="s">
+      <c r="AQ3" s="151" t="s">
         <v>808</v>
       </c>
-      <c r="AR3" s="152" t="s">
+      <c r="AR3" s="151" t="s">
         <v>807</v>
       </c>
-      <c r="AS3" s="152" t="s">
+      <c r="AS3" s="151" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="4" spans="1:45" s="124" customFormat="1" ht="99" customHeight="1">
-      <c r="A4" s="153" t="s">
+    <row r="4" spans="1:45" s="123" customFormat="1" ht="99" customHeight="1">
+      <c r="A4" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="153" t="s">
         <v>739</v>
       </c>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="153" t="s">
         <v>734</v>
       </c>
-      <c r="D4" s="154" t="s">
+      <c r="D4" s="153" t="s">
         <v>735</v>
       </c>
-      <c r="E4" s="154" t="s">
+      <c r="E4" s="153" t="s">
         <v>738</v>
       </c>
-      <c r="F4" s="154" t="s">
+      <c r="F4" s="153" t="s">
         <v>737</v>
       </c>
-      <c r="G4" s="154" t="s">
+      <c r="G4" s="153" t="s">
         <v>812</v>
       </c>
-      <c r="H4" s="154" t="s">
+      <c r="H4" s="153" t="s">
         <v>813</v>
       </c>
-      <c r="I4" s="154" t="s">
+      <c r="I4" s="153" t="s">
         <v>814</v>
       </c>
-      <c r="J4" s="154" t="s">
+      <c r="J4" s="153" t="s">
         <v>743</v>
       </c>
-      <c r="K4" s="154" t="s">
+      <c r="K4" s="153" t="s">
         <v>745</v>
       </c>
-      <c r="L4" s="154" t="s">
+      <c r="L4" s="153" t="s">
         <v>747</v>
       </c>
-      <c r="M4" s="154" t="s">
+      <c r="M4" s="153" t="s">
         <v>128</v>
       </c>
-      <c r="N4" s="154" t="s">
+      <c r="N4" s="153" t="s">
         <v>815</v>
       </c>
-      <c r="O4" s="154" t="s">
+      <c r="O4" s="153" t="s">
         <v>816</v>
       </c>
-      <c r="P4" s="154" t="s">
+      <c r="P4" s="153" t="s">
         <v>752</v>
       </c>
-      <c r="Q4" s="154" t="s">
+      <c r="Q4" s="153" t="s">
         <v>756</v>
       </c>
-      <c r="R4" s="154" t="s">
+      <c r="R4" s="153" t="s">
         <v>817</v>
       </c>
-      <c r="S4" s="154" t="s">
+      <c r="S4" s="153" t="s">
         <v>765</v>
       </c>
-      <c r="T4" s="154" t="s">
+      <c r="T4" s="153" t="s">
         <v>767</v>
       </c>
-      <c r="U4" s="154" t="s">
+      <c r="U4" s="153" t="s">
         <v>769</v>
       </c>
-      <c r="V4" s="154" t="s">
+      <c r="V4" s="153" t="s">
         <v>771</v>
       </c>
-      <c r="W4" s="154" t="s">
+      <c r="W4" s="153" t="s">
         <v>773</v>
       </c>
-      <c r="X4" s="154" t="s">
+      <c r="X4" s="153" t="s">
         <v>777</v>
       </c>
-      <c r="Y4" s="154" t="s">
+      <c r="Y4" s="153" t="s">
         <v>778</v>
       </c>
-      <c r="Z4" s="154" t="s">
+      <c r="Z4" s="153" t="s">
         <v>780</v>
       </c>
-      <c r="AA4" s="154" t="s">
+      <c r="AA4" s="153" t="s">
         <v>782</v>
       </c>
-      <c r="AB4" s="154" t="s">
+      <c r="AB4" s="153" t="s">
         <v>784</v>
       </c>
-      <c r="AC4" s="154" t="s">
+      <c r="AC4" s="153" t="s">
         <v>785</v>
       </c>
-      <c r="AD4" s="154" t="s">
+      <c r="AD4" s="153" t="s">
         <v>788</v>
       </c>
-      <c r="AE4" s="154" t="s">
+      <c r="AE4" s="153" t="s">
         <v>792</v>
       </c>
-      <c r="AF4" s="154" t="s">
+      <c r="AF4" s="153" t="s">
         <v>818</v>
       </c>
-      <c r="AG4" s="154" t="s">
+      <c r="AG4" s="153" t="s">
         <v>789</v>
       </c>
-      <c r="AH4" s="154" t="s">
+      <c r="AH4" s="153" t="s">
         <v>229</v>
       </c>
-      <c r="AI4" s="154" t="s">
+      <c r="AI4" s="153" t="s">
         <v>819</v>
       </c>
-      <c r="AJ4" s="154" t="s">
+      <c r="AJ4" s="153" t="s">
         <v>240</v>
       </c>
-      <c r="AK4" s="154" t="s">
+      <c r="AK4" s="153" t="s">
         <v>799</v>
       </c>
-      <c r="AL4" s="154" t="s">
+      <c r="AL4" s="153" t="s">
         <v>801</v>
       </c>
-      <c r="AM4" s="154" t="s">
+      <c r="AM4" s="153" t="s">
         <v>802</v>
       </c>
-      <c r="AN4" s="154" t="s">
+      <c r="AN4" s="153" t="s">
         <v>820</v>
       </c>
-      <c r="AO4" s="154" t="s">
+      <c r="AO4" s="153" t="s">
         <v>821</v>
       </c>
-      <c r="AP4" s="154" t="s">
+      <c r="AP4" s="153" t="s">
         <v>806</v>
       </c>
-      <c r="AQ4" s="155" t="s">
+      <c r="AQ4" s="154" t="s">
         <v>282</v>
       </c>
-      <c r="AR4" s="155" t="s">
+      <c r="AR4" s="154" t="s">
         <v>285</v>
       </c>
-      <c r="AS4" s="154" t="s">
+      <c r="AS4" s="153" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="5" spans="1:45">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="109" t="s">
         <v>708</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="109" t="s">
         <v>547</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="124" t="s">
         <v>551</v>
       </c>
-      <c r="D5" s="142" t="s">
+      <c r="D5" s="141" t="s">
         <v>554</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="109" t="s">
         <v>557</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="109" t="s">
         <v>560</v>
       </c>
-      <c r="G5" s="110" t="s">
+      <c r="G5" s="109" t="s">
         <v>563</v>
       </c>
-      <c r="H5" s="110" t="s">
+      <c r="H5" s="109" t="s">
         <v>566</v>
       </c>
-      <c r="I5" s="110" t="s">
+      <c r="I5" s="109" t="s">
         <v>569</v>
       </c>
-      <c r="J5" s="110" t="s">
+      <c r="J5" s="109" t="s">
         <v>572</v>
       </c>
-      <c r="K5" s="110" t="s">
+      <c r="K5" s="109" t="s">
         <v>575</v>
       </c>
-      <c r="L5" s="110" t="s">
+      <c r="L5" s="109" t="s">
         <v>578</v>
       </c>
-      <c r="M5" s="110" t="s">
+      <c r="M5" s="109" t="s">
         <v>581</v>
       </c>
-      <c r="N5" s="110" t="s">
+      <c r="N5" s="109" t="s">
         <v>584</v>
       </c>
-      <c r="O5" s="110" t="s">
+      <c r="O5" s="109" t="s">
         <v>587</v>
       </c>
-      <c r="P5" s="110" t="s">
+      <c r="P5" s="109" t="s">
         <v>590</v>
       </c>
-      <c r="Q5" s="110" t="s">
+      <c r="Q5" s="109" t="s">
         <v>593</v>
       </c>
-      <c r="R5" s="110" t="s">
+      <c r="R5" s="109" t="s">
         <v>596</v>
       </c>
-      <c r="S5" s="110" t="s">
+      <c r="S5" s="109" t="s">
         <v>599</v>
       </c>
-      <c r="T5" s="110" t="s">
+      <c r="T5" s="109" t="s">
         <v>602</v>
       </c>
-      <c r="U5" s="110" t="s">
+      <c r="U5" s="109" t="s">
         <v>605</v>
       </c>
-      <c r="V5" s="110" t="s">
+      <c r="V5" s="109" t="s">
         <v>608</v>
       </c>
-      <c r="W5" s="110" t="s">
+      <c r="W5" s="109" t="s">
         <v>611</v>
       </c>
-      <c r="X5" s="110" t="s">
+      <c r="X5" s="109" t="s">
         <v>614</v>
       </c>
-      <c r="Y5" s="110" t="s">
+      <c r="Y5" s="109" t="s">
         <v>617</v>
       </c>
-      <c r="Z5" s="110" t="s">
+      <c r="Z5" s="109" t="s">
         <v>620</v>
       </c>
-      <c r="AA5" s="110" t="s">
+      <c r="AA5" s="109" t="s">
         <v>623</v>
       </c>
-      <c r="AB5" s="110" t="s">
+      <c r="AB5" s="109" t="s">
         <v>626</v>
       </c>
-      <c r="AC5" s="110" t="s">
+      <c r="AC5" s="109" t="s">
         <v>629</v>
       </c>
-      <c r="AD5" s="110" t="s">
+      <c r="AD5" s="109" t="s">
         <v>632</v>
       </c>
-      <c r="AE5" s="110" t="s">
+      <c r="AE5" s="109" t="s">
         <v>635</v>
       </c>
-      <c r="AF5" s="110" t="s">
+      <c r="AF5" s="109" t="s">
         <v>638</v>
       </c>
-      <c r="AG5" s="110" t="s">
+      <c r="AG5" s="109" t="s">
         <v>641</v>
       </c>
-      <c r="AH5" s="110" t="s">
+      <c r="AH5" s="109" t="s">
         <v>644</v>
       </c>
-      <c r="AI5" s="110" t="s">
+      <c r="AI5" s="109" t="s">
         <v>647</v>
       </c>
-      <c r="AJ5" s="110" t="s">
+      <c r="AJ5" s="109" t="s">
         <v>650</v>
       </c>
-      <c r="AK5" s="110" t="s">
+      <c r="AK5" s="109" t="s">
         <v>653</v>
       </c>
-      <c r="AL5" s="110" t="s">
+      <c r="AL5" s="109" t="s">
         <v>656</v>
       </c>
-      <c r="AM5" s="110" t="s">
+      <c r="AM5" s="109" t="s">
         <v>659</v>
       </c>
-      <c r="AN5" s="110" t="s">
+      <c r="AN5" s="109" t="s">
         <v>662</v>
       </c>
-      <c r="AO5" s="110" t="s">
+      <c r="AO5" s="109" t="s">
         <v>665</v>
       </c>
-      <c r="AP5" s="110" t="s">
+      <c r="AP5" s="109" t="s">
         <v>668</v>
       </c>
-      <c r="AQ5" s="110" t="s">
+      <c r="AQ5" s="109" t="s">
         <v>671</v>
       </c>
-      <c r="AR5" s="110" t="s">
+      <c r="AR5" s="109" t="s">
         <v>382</v>
       </c>
-      <c r="AS5" s="110" t="s">
+      <c r="AS5" s="109" t="s">
         <v>674</v>
       </c>
     </row>
@@ -11592,7 +11591,7 @@
       <c r="C6" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="137" t="s">
+      <c r="D6" s="136" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="94" t="s">
@@ -11720,139 +11719,139 @@
       </c>
     </row>
     <row r="7" spans="1:45">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="131" t="s">
         <v>548</v>
       </c>
-      <c r="C7" s="132" t="s">
+      <c r="C7" s="131" t="s">
         <v>552</v>
       </c>
-      <c r="D7" s="129" t="s">
+      <c r="D7" s="128" t="s">
         <v>555</v>
       </c>
-      <c r="E7" s="132" t="s">
+      <c r="E7" s="131" t="s">
         <v>558</v>
       </c>
-      <c r="F7" s="130" t="s">
+      <c r="F7" s="129" t="s">
         <v>561</v>
       </c>
-      <c r="G7" s="130" t="s">
+      <c r="G7" s="129" t="s">
         <v>564</v>
       </c>
-      <c r="H7" s="130" t="s">
+      <c r="H7" s="129" t="s">
         <v>567</v>
       </c>
-      <c r="I7" s="130" t="s">
+      <c r="I7" s="129" t="s">
         <v>570</v>
       </c>
-      <c r="J7" s="130" t="s">
+      <c r="J7" s="129" t="s">
         <v>573</v>
       </c>
-      <c r="K7" s="130" t="s">
+      <c r="K7" s="129" t="s">
         <v>576</v>
       </c>
-      <c r="L7" s="130" t="s">
+      <c r="L7" s="129" t="s">
         <v>579</v>
       </c>
-      <c r="M7" s="130" t="s">
+      <c r="M7" s="129" t="s">
         <v>582</v>
       </c>
-      <c r="N7" s="130" t="s">
+      <c r="N7" s="129" t="s">
         <v>585</v>
       </c>
-      <c r="O7" s="130" t="s">
+      <c r="O7" s="129" t="s">
         <v>588</v>
       </c>
-      <c r="P7" s="130" t="s">
+      <c r="P7" s="129" t="s">
         <v>591</v>
       </c>
-      <c r="Q7" s="130" t="s">
+      <c r="Q7" s="129" t="s">
         <v>594</v>
       </c>
-      <c r="R7" s="130" t="s">
+      <c r="R7" s="129" t="s">
         <v>597</v>
       </c>
-      <c r="S7" s="130" t="s">
+      <c r="S7" s="129" t="s">
         <v>600</v>
       </c>
-      <c r="T7" s="130" t="s">
+      <c r="T7" s="129" t="s">
         <v>603</v>
       </c>
-      <c r="U7" s="130" t="s">
+      <c r="U7" s="129" t="s">
         <v>606</v>
       </c>
-      <c r="V7" s="130" t="s">
+      <c r="V7" s="129" t="s">
         <v>609</v>
       </c>
-      <c r="W7" s="130" t="s">
+      <c r="W7" s="129" t="s">
         <v>612</v>
       </c>
-      <c r="X7" s="130" t="s">
+      <c r="X7" s="129" t="s">
         <v>615</v>
       </c>
-      <c r="Y7" s="130" t="s">
+      <c r="Y7" s="129" t="s">
         <v>618</v>
       </c>
-      <c r="Z7" s="130" t="s">
+      <c r="Z7" s="129" t="s">
         <v>621</v>
       </c>
-      <c r="AA7" s="130" t="s">
+      <c r="AA7" s="129" t="s">
         <v>624</v>
       </c>
-      <c r="AB7" s="130" t="s">
+      <c r="AB7" s="129" t="s">
         <v>627</v>
       </c>
-      <c r="AC7" s="130" t="s">
+      <c r="AC7" s="129" t="s">
         <v>630</v>
       </c>
-      <c r="AD7" s="130" t="s">
+      <c r="AD7" s="129" t="s">
         <v>633</v>
       </c>
-      <c r="AE7" s="130" t="s">
+      <c r="AE7" s="129" t="s">
         <v>636</v>
       </c>
-      <c r="AF7" s="130" t="s">
+      <c r="AF7" s="129" t="s">
         <v>639</v>
       </c>
-      <c r="AG7" s="130" t="s">
+      <c r="AG7" s="129" t="s">
         <v>642</v>
       </c>
-      <c r="AH7" s="130" t="s">
+      <c r="AH7" s="129" t="s">
         <v>645</v>
       </c>
-      <c r="AI7" s="130" t="s">
+      <c r="AI7" s="129" t="s">
         <v>648</v>
       </c>
-      <c r="AJ7" s="130" t="s">
+      <c r="AJ7" s="129" t="s">
         <v>651</v>
       </c>
-      <c r="AK7" s="130" t="s">
+      <c r="AK7" s="129" t="s">
         <v>654</v>
       </c>
-      <c r="AL7" s="130" t="s">
+      <c r="AL7" s="129" t="s">
         <v>657</v>
       </c>
-      <c r="AM7" s="130" t="s">
+      <c r="AM7" s="129" t="s">
         <v>660</v>
       </c>
-      <c r="AN7" s="130" t="s">
+      <c r="AN7" s="129" t="s">
         <v>663</v>
       </c>
-      <c r="AO7" s="130" t="s">
+      <c r="AO7" s="129" t="s">
         <v>666</v>
       </c>
-      <c r="AP7" s="130" t="s">
+      <c r="AP7" s="129" t="s">
         <v>669</v>
       </c>
-      <c r="AQ7" s="130" t="s">
+      <c r="AQ7" s="129" t="s">
         <v>672</v>
       </c>
-      <c r="AR7" s="130" t="s">
+      <c r="AR7" s="129" t="s">
         <v>677</v>
       </c>
-      <c r="AS7" s="130" t="s">
+      <c r="AS7" s="129" t="s">
         <v>675</v>
       </c>
     </row>
@@ -11863,7 +11862,7 @@
       <c r="B8" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="C8" s="138" t="s">
+      <c r="C8" s="137" t="s">
         <v>553</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -11994,7 +11993,7 @@
       </c>
     </row>
     <row r="9" spans="1:45">
-      <c r="A9" s="156" t="s">
+      <c r="A9" s="155" t="s">
         <v>833</v>
       </c>
       <c r="B9" s="57">
@@ -12013,7 +12012,7 @@
         <v>500</v>
       </c>
       <c r="G9" s="57">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="H9" s="57">
         <v>600</v>
@@ -12025,19 +12024,19 @@
         <v>1200</v>
       </c>
       <c r="K9" s="57">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="L9" s="57">
         <v>800</v>
       </c>
       <c r="M9" s="57">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="N9" s="57">
         <v>1550</v>
       </c>
       <c r="O9" s="57">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="P9" s="57">
         <v>1500</v>
@@ -12046,19 +12045,19 @@
         <v>800</v>
       </c>
       <c r="R9" s="57">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="S9" s="57">
         <v>2050</v>
       </c>
       <c r="T9" s="57">
-        <v>1725</v>
+        <v>1600</v>
       </c>
       <c r="U9" s="57">
         <v>1350</v>
       </c>
       <c r="V9" s="57">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="W9" s="57">
         <v>400</v>
@@ -12097,7 +12096,7 @@
         <v>2050</v>
       </c>
       <c r="AI9" s="57">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" s="57">
         <v>1060</v>
@@ -12106,7 +12105,7 @@
         <v>500</v>
       </c>
       <c r="AL9" s="57">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="AM9" s="57">
         <v>1000</v>
@@ -12118,10 +12117,10 @@
         <v>1200</v>
       </c>
       <c r="AP9" s="57">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="AQ9" s="57">
-        <v>2050</v>
+        <v>1900</v>
       </c>
       <c r="AR9" s="57">
         <v>450</v>
@@ -12131,751 +12130,751 @@
       </c>
     </row>
     <row r="10" spans="1:45">
-      <c r="A10" s="131" t="s">
+      <c r="A10" s="130" t="s">
         <v>832</v>
       </c>
       <c r="B10" s="34">
         <v>300</v>
       </c>
       <c r="C10" s="34">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="D10" s="34">
-        <v>1180</v>
+        <v>1160</v>
       </c>
       <c r="E10" s="34">
-        <v>1140</v>
+        <v>1120</v>
       </c>
       <c r="F10" s="34">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="G10" s="34">
-        <v>380</v>
+        <v>520</v>
       </c>
       <c r="H10" s="34">
         <v>450</v>
       </c>
       <c r="I10" s="34">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="J10" s="34">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="K10" s="34">
-        <v>1450</v>
+        <v>1200</v>
       </c>
       <c r="L10" s="34">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="M10" s="34">
-        <v>1220</v>
+        <v>1270</v>
       </c>
       <c r="N10" s="34">
-        <v>1180</v>
+        <v>1160</v>
       </c>
       <c r="O10" s="34">
-        <v>1140</v>
+        <v>1200</v>
       </c>
       <c r="P10" s="34">
-        <v>1140</v>
+        <v>1120</v>
       </c>
       <c r="Q10" s="34">
         <v>760</v>
       </c>
       <c r="R10" s="34">
-        <v>910</v>
+        <v>750</v>
       </c>
       <c r="S10" s="34">
-        <v>1560</v>
+        <v>1530</v>
       </c>
       <c r="T10" s="34">
-        <v>1310</v>
+        <v>1200</v>
       </c>
       <c r="U10" s="34">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="V10" s="34">
-        <v>910</v>
+        <v>1050</v>
       </c>
       <c r="W10" s="34">
         <v>300</v>
       </c>
       <c r="X10" s="34">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="Y10" s="34">
-        <v>1370</v>
+        <v>1350</v>
       </c>
       <c r="Z10" s="34">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="AA10" s="34">
-        <v>1140</v>
+        <v>1120</v>
       </c>
       <c r="AB10" s="34">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="AC10" s="34">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AD10" s="34">
-        <v>1560</v>
+        <v>1530</v>
       </c>
       <c r="AE10" s="34">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AF10" s="34">
-        <v>1200</v>
+        <v>1180</v>
       </c>
       <c r="AG10" s="34">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AH10" s="34">
-        <v>1560</v>
+        <v>1530</v>
       </c>
       <c r="AI10" s="34">
-        <v>530</v>
+        <v>750</v>
       </c>
       <c r="AJ10" s="34">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="AK10" s="34">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AL10" s="34">
-        <v>380</v>
+        <v>600</v>
       </c>
       <c r="AM10" s="34">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="AN10" s="34">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="AO10" s="34">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="AP10" s="34">
-        <v>1070</v>
+        <v>1270</v>
       </c>
       <c r="AQ10" s="34">
-        <v>1560</v>
+        <v>1420</v>
       </c>
       <c r="AR10" s="34">
         <v>450</v>
       </c>
       <c r="AS10" s="34">
-        <v>1270</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="11" spans="1:45">
-      <c r="A11" s="157" t="s">
+      <c r="A11" s="156" t="s">
         <v>831</v>
       </c>
-      <c r="B11" s="102">
-        <v>360</v>
-      </c>
-      <c r="C11" s="102">
-        <v>1080</v>
-      </c>
-      <c r="D11" s="102">
-        <v>1390</v>
-      </c>
-      <c r="E11" s="102">
-        <v>1350</v>
-      </c>
-      <c r="F11" s="102">
+      <c r="B11" s="101">
+        <v>420</v>
+      </c>
+      <c r="C11" s="101">
+        <v>1260</v>
+      </c>
+      <c r="D11" s="101">
+        <v>1620</v>
+      </c>
+      <c r="E11" s="101">
+        <v>1570</v>
+      </c>
+      <c r="F11" s="101">
+        <v>520</v>
+      </c>
+      <c r="G11" s="101">
+        <v>730</v>
+      </c>
+      <c r="H11" s="101">
+        <v>630</v>
+      </c>
+      <c r="I11" s="101">
+        <v>1050</v>
+      </c>
+      <c r="J11" s="101">
+        <v>1260</v>
+      </c>
+      <c r="K11" s="101">
+        <v>1680</v>
+      </c>
+      <c r="L11" s="101">
+        <v>840</v>
+      </c>
+      <c r="M11" s="101">
+        <v>1780</v>
+      </c>
+      <c r="N11" s="101">
+        <v>1620</v>
+      </c>
+      <c r="O11" s="101">
+        <v>1680</v>
+      </c>
+      <c r="P11" s="101">
+        <v>1570</v>
+      </c>
+      <c r="Q11" s="101">
+        <v>900</v>
+      </c>
+      <c r="R11" s="101">
+        <v>1050</v>
+      </c>
+      <c r="S11" s="101">
+        <v>2150</v>
+      </c>
+      <c r="T11" s="101">
+        <v>1680</v>
+      </c>
+      <c r="U11" s="101">
+        <v>1410</v>
+      </c>
+      <c r="V11" s="101">
+        <v>1470</v>
+      </c>
+      <c r="W11" s="101">
+        <v>420</v>
+      </c>
+      <c r="X11" s="101">
+        <v>840</v>
+      </c>
+      <c r="Y11" s="101">
+        <v>1890</v>
+      </c>
+      <c r="Z11" s="101">
+        <v>840</v>
+      </c>
+      <c r="AA11" s="101">
+        <v>1570</v>
+      </c>
+      <c r="AB11" s="101">
+        <v>1260</v>
+      </c>
+      <c r="AC11" s="101">
+        <v>520</v>
+      </c>
+      <c r="AD11" s="101">
+        <v>2150</v>
+      </c>
+      <c r="AE11" s="101">
+        <v>520</v>
+      </c>
+      <c r="AF11" s="101">
+        <v>1650</v>
+      </c>
+      <c r="AG11" s="101">
+        <v>520</v>
+      </c>
+      <c r="AH11" s="101">
+        <v>2150</v>
+      </c>
+      <c r="AI11" s="101">
+        <v>1050</v>
+      </c>
+      <c r="AJ11" s="101">
+        <v>1110</v>
+      </c>
+      <c r="AK11" s="101">
+        <v>520</v>
+      </c>
+      <c r="AL11" s="101">
+        <v>840</v>
+      </c>
+      <c r="AM11" s="101">
+        <v>1050</v>
+      </c>
+      <c r="AN11" s="101">
+        <v>1050</v>
+      </c>
+      <c r="AO11" s="101">
+        <v>1260</v>
+      </c>
+      <c r="AP11" s="101">
+        <v>1780</v>
+      </c>
+      <c r="AQ11" s="101">
+        <v>1990</v>
+      </c>
+      <c r="AR11" s="101">
         <v>450</v>
       </c>
-      <c r="G11" s="102">
-        <v>450</v>
-      </c>
-      <c r="H11" s="102">
-        <v>540</v>
-      </c>
-      <c r="I11" s="102">
-        <v>900</v>
-      </c>
-      <c r="J11" s="102">
-        <v>1080</v>
-      </c>
-      <c r="K11" s="102">
-        <v>1710</v>
-      </c>
-      <c r="L11" s="102">
-        <v>720</v>
-      </c>
-      <c r="M11" s="102">
-        <v>1440</v>
-      </c>
-      <c r="N11" s="102">
-        <v>1390</v>
-      </c>
-      <c r="O11" s="102">
-        <v>1350</v>
-      </c>
-      <c r="P11" s="102">
-        <v>1350</v>
-      </c>
-      <c r="Q11" s="102">
-        <v>900</v>
-      </c>
-      <c r="R11" s="102">
-        <v>1080</v>
-      </c>
-      <c r="S11" s="102">
-        <v>1840</v>
-      </c>
-      <c r="T11" s="102">
-        <v>1550</v>
-      </c>
-      <c r="U11" s="102">
-        <v>1210</v>
-      </c>
-      <c r="V11" s="102">
-        <v>1080</v>
-      </c>
-      <c r="W11" s="102">
-        <v>360</v>
-      </c>
-      <c r="X11" s="102">
-        <v>720</v>
-      </c>
-      <c r="Y11" s="102">
-        <v>1620</v>
-      </c>
-      <c r="Z11" s="102">
-        <v>720</v>
-      </c>
-      <c r="AA11" s="102">
-        <v>1350</v>
-      </c>
-      <c r="AB11" s="102">
-        <v>1080</v>
-      </c>
-      <c r="AC11" s="102">
-        <v>450</v>
-      </c>
-      <c r="AD11" s="102">
-        <v>1840</v>
-      </c>
-      <c r="AE11" s="102">
-        <v>450</v>
-      </c>
-      <c r="AF11" s="102">
-        <v>1420</v>
-      </c>
-      <c r="AG11" s="102">
-        <v>450</v>
-      </c>
-      <c r="AH11" s="102">
-        <v>1840</v>
-      </c>
-      <c r="AI11" s="102">
-        <v>630</v>
-      </c>
-      <c r="AJ11" s="102">
-        <v>950</v>
-      </c>
-      <c r="AK11" s="102">
-        <v>450</v>
-      </c>
-      <c r="AL11" s="102">
-        <v>450</v>
-      </c>
-      <c r="AM11" s="102">
-        <v>900</v>
-      </c>
-      <c r="AN11" s="102">
-        <v>900</v>
-      </c>
-      <c r="AO11" s="102">
-        <v>1080</v>
-      </c>
-      <c r="AP11" s="102">
-        <v>1260</v>
-      </c>
-      <c r="AQ11" s="102">
-        <v>1840</v>
-      </c>
-      <c r="AR11" s="102">
-        <v>450</v>
-      </c>
-      <c r="AS11" s="102">
-        <v>1500</v>
+      <c r="AS11" s="101">
+        <v>1750</v>
       </c>
     </row>
     <row r="12" spans="1:45">
-      <c r="A12" s="141" t="s">
+      <c r="A12" s="140" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:45">
-      <c r="A13" s="140" t="s">
+      <c r="A13" s="139" t="s">
         <v>709</v>
       </c>
-      <c r="B13" s="147">
+      <c r="B13" s="146">
         <v>1398058</v>
       </c>
-      <c r="C13" s="147">
+      <c r="C13" s="146">
         <v>503460</v>
       </c>
-      <c r="D13" s="147">
+      <c r="D13" s="146">
         <f>33.26*1000000</f>
         <v>33259999.999999996</v>
       </c>
-      <c r="E13" s="147">
+      <c r="E13" s="146">
         <f>45.25*1000000</f>
         <v>45250000</v>
       </c>
-      <c r="F13" s="147">
+      <c r="F13" s="146">
         <v>3113040</v>
       </c>
-      <c r="G13" s="147">
+      <c r="G13" s="146">
         <v>16055200</v>
       </c>
-      <c r="H13" s="147">
+      <c r="H13" s="146">
         <f>1.91*1000000</f>
         <v>1910000</v>
       </c>
-      <c r="I13" s="147">
+      <c r="I13" s="146">
         <f>1.66*1000000</f>
         <v>1660000</v>
       </c>
-      <c r="J13" s="147">
+      <c r="J13" s="146">
         <f>35.57*1000000</f>
         <v>35570000</v>
       </c>
-      <c r="K13" s="147">
+      <c r="K13" s="146">
         <v>50000000</v>
       </c>
-      <c r="L13" s="147">
+      <c r="L13" s="146">
         <f>1.23*1000000</f>
         <v>1230000</v>
       </c>
-      <c r="M13" s="147">
+      <c r="M13" s="146">
         <f>4.06*1000000</f>
         <v>4059999.9999999995</v>
       </c>
-      <c r="N13" s="147">
+      <c r="N13" s="146">
         <v>200000000</v>
       </c>
-      <c r="O13" s="147">
+      <c r="O13" s="146">
         <v>210000000</v>
       </c>
-      <c r="P13" s="147">
+      <c r="P13" s="146">
         <v>450000</v>
       </c>
-      <c r="Q13" s="147">
+      <c r="Q13" s="146">
         <f>11.51*1000000</f>
         <v>11510000</v>
       </c>
-      <c r="R13" s="147">
+      <c r="R13" s="146">
         <v>4000000</v>
       </c>
-      <c r="S13" s="147">
+      <c r="S13" s="146">
         <v>2273616</v>
       </c>
-      <c r="T13" s="147">
+      <c r="T13" s="146">
         <f>16.13*1000000</f>
         <v>16129999.999999998</v>
       </c>
-      <c r="U13" s="147">
+      <c r="U13" s="146">
         <v>543142.85714285716</v>
       </c>
-      <c r="V13" s="147">
+      <c r="V13" s="146">
         <f>48.47*1000000</f>
         <v>48470000</v>
       </c>
-      <c r="W13" s="147">
+      <c r="W13" s="146">
         <v>2040786.9267534486</v>
       </c>
-      <c r="X13" s="147">
+      <c r="X13" s="146">
         <f>3.72*1000000</f>
         <v>3720000</v>
       </c>
-      <c r="Y13" s="147">
+      <c r="Y13" s="146">
         <v>1756981.5360000001</v>
       </c>
-      <c r="Z13" s="147">
+      <c r="Z13" s="146">
         <f>9.66*1000000</f>
         <v>9660000</v>
       </c>
-      <c r="AA13" s="147">
+      <c r="AA13" s="146">
         <f>4.15*1000000</f>
         <v>4150000.0000000005</v>
       </c>
-      <c r="AB13" s="147">
+      <c r="AB13" s="146">
         <f>0.78*1000000</f>
         <v>780000</v>
       </c>
-      <c r="AC13" s="147">
+      <c r="AC13" s="146">
         <v>1159679.9999999998</v>
       </c>
-      <c r="AD13" s="147">
+      <c r="AD13" s="146">
         <v>194750</v>
       </c>
-      <c r="AE13" s="147">
+      <c r="AE13" s="146">
         <v>1367480</v>
       </c>
-      <c r="AF13" s="147">
+      <c r="AF13" s="146">
         <f>58.67*1000000</f>
         <v>58670000</v>
       </c>
-      <c r="AG13" s="147">
+      <c r="AG13" s="146">
         <v>3589760.0000000014</v>
       </c>
-      <c r="AH13" s="147">
+      <c r="AH13" s="146">
         <v>17000000</v>
       </c>
-      <c r="AI13" s="147">
+      <c r="AI13" s="146">
         <f>98.78*1000000</f>
         <v>98780000</v>
       </c>
-      <c r="AJ13" s="147">
+      <c r="AJ13" s="146">
         <f>21.43*1000000</f>
         <v>21430000</v>
       </c>
-      <c r="AK13" s="147">
+      <c r="AK13" s="146">
         <v>5000000</v>
       </c>
-      <c r="AL13" s="147">
+      <c r="AL13" s="146">
         <v>15428571.43</v>
       </c>
-      <c r="AM13" s="147">
+      <c r="AM13" s="146">
         <f>4.68*1000000</f>
         <v>4680000</v>
       </c>
-      <c r="AN13" s="147">
+      <c r="AN13" s="146">
         <f>3.65*1000000</f>
         <v>3650000</v>
       </c>
-      <c r="AO13" s="147">
+      <c r="AO13" s="146">
         <f>21.04*1000000</f>
         <v>21040000</v>
       </c>
-      <c r="AP13" s="147">
+      <c r="AP13" s="146">
         <f>44.92*1000000</f>
         <v>44920000</v>
       </c>
-      <c r="AQ13" s="147">
+      <c r="AQ13" s="146">
         <v>31000000</v>
       </c>
-      <c r="AR13" s="147" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS13" s="147">
+      <c r="AR13" s="146" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS13" s="146">
         <v>120000000</v>
       </c>
     </row>
     <row r="14" spans="1:45">
-      <c r="A14" s="139" t="s">
+      <c r="A14" s="138" t="s">
         <v>710</v>
       </c>
-      <c r="B14" s="148">
+      <c r="B14" s="147">
         <v>3339806</v>
       </c>
-      <c r="C14" s="148">
+      <c r="C14" s="147">
         <v>458079</v>
       </c>
-      <c r="D14" s="148">
+      <c r="D14" s="147">
         <f>32.43*1000000</f>
         <v>32430000</v>
       </c>
-      <c r="E14" s="148">
+      <c r="E14" s="147">
         <f>44.92*1000000</f>
         <v>44920000</v>
       </c>
-      <c r="F14" s="148">
+      <c r="F14" s="147">
         <v>5461610.1379053304</v>
       </c>
-      <c r="G14" s="148">
+      <c r="G14" s="147">
         <v>12000000</v>
       </c>
-      <c r="H14" s="148">
+      <c r="H14" s="147">
         <f>3.25*1000000</f>
         <v>3250000</v>
       </c>
-      <c r="I14" s="148">
+      <c r="I14" s="147">
         <f>1.74*1000000</f>
         <v>1740000</v>
       </c>
-      <c r="J14" s="148">
+      <c r="J14" s="147">
         <v>15000000</v>
       </c>
-      <c r="K14" s="148">
+      <c r="K14" s="147">
         <v>12000000</v>
       </c>
-      <c r="L14" s="148">
+      <c r="L14" s="147">
         <f>1.78*1000000</f>
         <v>1780000</v>
       </c>
-      <c r="M14" s="148">
+      <c r="M14" s="147">
         <f>27.6*1000000</f>
         <v>27600000</v>
       </c>
-      <c r="N14" s="148">
+      <c r="N14" s="147">
         <v>210000000</v>
       </c>
-      <c r="O14" s="148">
+      <c r="O14" s="147">
         <v>430000000</v>
       </c>
-      <c r="P14" s="148">
+      <c r="P14" s="147">
         <v>86152.534784405565</v>
       </c>
-      <c r="Q14" s="148">
+      <c r="Q14" s="147">
         <f>23.59*1000000</f>
         <v>23590000</v>
       </c>
-      <c r="R14" s="148">
+      <c r="R14" s="147">
         <v>28828470</v>
       </c>
-      <c r="S14" s="148">
+      <c r="S14" s="147">
         <v>277411.20000000001</v>
       </c>
-      <c r="T14" s="148">
+      <c r="T14" s="147">
         <f>20.65*1000000</f>
         <v>20650000</v>
       </c>
-      <c r="U14" s="148">
+      <c r="U14" s="147">
         <v>374060.5166666666</v>
       </c>
-      <c r="V14" s="148">
+      <c r="V14" s="147">
         <f>92.4*1000000</f>
         <v>92400000</v>
       </c>
-      <c r="W14" s="148">
+      <c r="W14" s="147">
         <v>1689026.3104721196</v>
       </c>
-      <c r="X14" s="148">
+      <c r="X14" s="147">
         <f>6.1*1000000</f>
         <v>6100000</v>
       </c>
-      <c r="Y14" s="148">
+      <c r="Y14" s="147">
         <v>166356.80000000002</v>
       </c>
-      <c r="Z14" s="148">
+      <c r="Z14" s="147">
         <f>20.09*1000000</f>
         <v>20090000</v>
       </c>
-      <c r="AA14" s="148">
+      <c r="AA14" s="147">
         <f>3.28*1000000</f>
         <v>3280000</v>
       </c>
-      <c r="AB14" s="148">
+      <c r="AB14" s="147">
         <f>0.57*1000000</f>
         <v>570000</v>
       </c>
-      <c r="AC14" s="148">
+      <c r="AC14" s="147">
         <v>3079799.9999999991</v>
       </c>
-      <c r="AD14" s="148">
+      <c r="AD14" s="147">
         <v>102480</v>
       </c>
-      <c r="AE14" s="148">
+      <c r="AE14" s="147">
         <v>3396600</v>
       </c>
-      <c r="AF14" s="148">
+      <c r="AF14" s="147">
         <f>64.28*1000000</f>
         <v>64280000</v>
       </c>
-      <c r="AG14" s="148">
+      <c r="AG14" s="147">
         <v>5853999.9999999972</v>
       </c>
-      <c r="AH14" s="148">
+      <c r="AH14" s="147">
         <v>24000000</v>
       </c>
-      <c r="AI14" s="148">
+      <c r="AI14" s="147">
         <v>94000000</v>
       </c>
-      <c r="AJ14" s="148">
+      <c r="AJ14" s="147">
         <f>30.43*1000000</f>
         <v>30430000</v>
       </c>
-      <c r="AK14" s="148">
+      <c r="AK14" s="147">
         <v>20640880</v>
       </c>
-      <c r="AL14" s="148">
+      <c r="AL14" s="147">
         <v>18000000</v>
       </c>
-      <c r="AM14" s="148">
+      <c r="AM14" s="147">
         <f>1.6*1000000</f>
         <v>1600000</v>
       </c>
-      <c r="AN14" s="148">
+      <c r="AN14" s="147">
         <f>3.13*1000000</f>
         <v>3130000</v>
       </c>
-      <c r="AO14" s="148">
+      <c r="AO14" s="147">
         <f>76.97*1000000</f>
         <v>76970000</v>
       </c>
-      <c r="AP14" s="148">
+      <c r="AP14" s="147">
         <f>50.5*1000000</f>
         <v>50500000</v>
       </c>
-      <c r="AQ14" s="148">
+      <c r="AQ14" s="147">
         <v>14300000</v>
       </c>
-      <c r="AR14" s="148" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS14" s="148">
+      <c r="AR14" s="147" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS14" s="147">
         <v>250000000</v>
       </c>
     </row>
     <row r="15" spans="1:45">
-      <c r="A15" s="139" t="s">
+      <c r="A15" s="138" t="s">
         <v>711</v>
       </c>
-      <c r="B15" s="148">
+      <c r="B15" s="147">
         <v>3728155</v>
       </c>
-      <c r="C15" s="148">
+      <c r="C15" s="147">
         <v>834392.07</v>
       </c>
-      <c r="D15" s="148">
+      <c r="D15" s="147">
         <f>29.55*1000000</f>
         <v>29550000</v>
       </c>
-      <c r="E15" s="148">
+      <c r="E15" s="147">
         <f>28.63*1000000</f>
         <v>28630000</v>
       </c>
-      <c r="F15" s="148">
+      <c r="F15" s="147">
         <v>427061.89103883627</v>
       </c>
-      <c r="G15" s="148">
+      <c r="G15" s="147">
         <v>7437000</v>
       </c>
-      <c r="H15" s="148">
+      <c r="H15" s="147">
         <f>15.41*1000000</f>
         <v>15410000</v>
       </c>
-      <c r="I15" s="148">
+      <c r="I15" s="147">
         <f>2.74*1000000</f>
         <v>2740000</v>
       </c>
-      <c r="J15" s="148">
+      <c r="J15" s="147">
         <v>9000000</v>
       </c>
-      <c r="K15" s="148">
+      <c r="K15" s="147">
         <v>8000000</v>
       </c>
-      <c r="L15" s="148">
+      <c r="L15" s="147">
         <f>3.48*1000000</f>
         <v>3480000</v>
       </c>
-      <c r="M15" s="148">
+      <c r="M15" s="147">
         <f>5.1*100000</f>
         <v>509999.99999999994</v>
       </c>
-      <c r="N15" s="148">
+      <c r="N15" s="147">
         <v>64720000</v>
       </c>
-      <c r="O15" s="148">
+      <c r="O15" s="147">
         <v>250000000</v>
       </c>
-      <c r="P15" s="148">
+      <c r="P15" s="147">
         <v>172671.84035476716</v>
       </c>
-      <c r="Q15" s="148">
+      <c r="Q15" s="147">
         <f>23.27*1000000</f>
         <v>23270000</v>
       </c>
-      <c r="R15" s="148">
+      <c r="R15" s="147">
         <v>26000000</v>
       </c>
-      <c r="S15" s="148">
+      <c r="S15" s="147">
         <v>2628120</v>
       </c>
-      <c r="T15" s="148">
+      <c r="T15" s="147">
         <f>21.98*1000000</f>
         <v>21980000</v>
       </c>
-      <c r="U15" s="148">
+      <c r="U15" s="147">
         <v>466855.79904610495</v>
       </c>
-      <c r="V15" s="148">
+      <c r="V15" s="147">
         <f>48.6*1000000</f>
         <v>48600000</v>
       </c>
-      <c r="W15" s="148">
+      <c r="W15" s="147">
         <v>2462589.5473091123</v>
       </c>
-      <c r="X15" s="148">
+      <c r="X15" s="147">
         <f>2.3*1000000</f>
         <v>2300000</v>
       </c>
-      <c r="Y15" s="148">
+      <c r="Y15" s="147">
         <v>57669.192000000003</v>
       </c>
-      <c r="Z15" s="148">
+      <c r="Z15" s="147">
         <f>1.97*1000000</f>
         <v>1970000</v>
       </c>
-      <c r="AA15" s="148">
+      <c r="AA15" s="147">
         <f>2.85*1000000</f>
         <v>2850000</v>
       </c>
-      <c r="AB15" s="148">
+      <c r="AB15" s="147">
         <f>0.75*1000000</f>
         <v>750000</v>
       </c>
-      <c r="AC15" s="148">
+      <c r="AC15" s="147">
         <v>217319.99999999997</v>
       </c>
-      <c r="AD15" s="148">
+      <c r="AD15" s="147">
         <v>319600</v>
       </c>
-      <c r="AE15" s="148">
+      <c r="AE15" s="147">
         <v>1815210</v>
       </c>
-      <c r="AF15" s="148">
+      <c r="AF15" s="147">
         <f>46.66*1000000</f>
         <v>46660000</v>
       </c>
-      <c r="AG15" s="148">
+      <c r="AG15" s="147">
         <v>2205280.0000000005</v>
       </c>
-      <c r="AH15" s="148">
+      <c r="AH15" s="147">
         <v>10000000</v>
       </c>
-      <c r="AI15" s="148">
+      <c r="AI15" s="147">
         <v>40000000</v>
       </c>
-      <c r="AJ15" s="148">
+      <c r="AJ15" s="147">
         <f>14.08*1000000</f>
         <v>14080000</v>
       </c>
-      <c r="AK15" s="148">
+      <c r="AK15" s="147">
         <v>11490500</v>
       </c>
-      <c r="AL15" s="148">
+      <c r="AL15" s="147">
         <v>1714285.7139999999</v>
       </c>
-      <c r="AM15" s="148">
+      <c r="AM15" s="147">
         <f>11.81*1000000</f>
         <v>11810000</v>
       </c>
-      <c r="AN15" s="148">
+      <c r="AN15" s="147">
         <f>2.62*1000000</f>
         <v>2620000</v>
       </c>
-      <c r="AO15" s="148">
+      <c r="AO15" s="147">
         <f>106.8*1000000</f>
         <v>106800000</v>
       </c>
-      <c r="AP15" s="148">
+      <c r="AP15" s="147">
         <f>8.65*1000000</f>
         <v>8650000</v>
       </c>
-      <c r="AQ15" s="148">
+      <c r="AQ15" s="147">
         <v>10500000</v>
       </c>
-      <c r="AR15" s="148" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS15" s="148">
+      <c r="AR15" s="147" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS15" s="147">
         <v>60000000</v>
       </c>
     </row>
@@ -12883,361 +12882,361 @@
       <c r="A16" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="149" t="s">
+      <c r="B16" s="148" t="s">
         <v>683</v>
       </c>
-      <c r="C16" s="149" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="149" t="s">
+      <c r="C16" s="148" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="148" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="150" t="s">
+      <c r="E16" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="150" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="151" t="s">
+      <c r="F16" s="149" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="150" t="s">
         <v>744</v>
       </c>
-      <c r="H16" s="151" t="s">
+      <c r="H16" s="150" t="s">
         <v>102</v>
       </c>
-      <c r="I16" s="151" t="s">
+      <c r="I16" s="150" t="s">
         <v>102</v>
       </c>
-      <c r="J16" s="151" t="s">
+      <c r="J16" s="150" t="s">
         <v>744</v>
       </c>
-      <c r="K16" s="151" t="s">
+      <c r="K16" s="150" t="s">
         <v>741</v>
       </c>
-      <c r="L16" s="151" t="s">
+      <c r="L16" s="150" t="s">
         <v>102</v>
       </c>
-      <c r="M16" s="151" t="s">
+      <c r="M16" s="150" t="s">
         <v>102</v>
       </c>
-      <c r="N16" s="151" t="s">
+      <c r="N16" s="150" t="s">
         <v>741</v>
       </c>
-      <c r="O16" s="151" t="s">
+      <c r="O16" s="150" t="s">
         <v>741</v>
       </c>
-      <c r="P16" s="151" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q16" s="151" t="s">
+      <c r="P16" s="150" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q16" s="150" t="s">
         <v>754</v>
       </c>
-      <c r="R16" s="151" t="s">
+      <c r="R16" s="150" t="s">
         <v>741</v>
       </c>
-      <c r="S16" s="151"/>
-      <c r="T16" s="151" t="s">
+      <c r="S16" s="150"/>
+      <c r="T16" s="150" t="s">
         <v>102</v>
       </c>
-      <c r="U16" s="151"/>
-      <c r="V16" s="151" t="s">
+      <c r="U16" s="150"/>
+      <c r="V16" s="150" t="s">
         <v>102</v>
       </c>
-      <c r="W16" s="151" t="s">
+      <c r="W16" s="150" t="s">
         <v>774</v>
       </c>
-      <c r="X16" s="151" t="s">
+      <c r="X16" s="150" t="s">
         <v>102</v>
       </c>
-      <c r="Y16" s="151"/>
-      <c r="Z16" s="151" t="s">
+      <c r="Y16" s="150"/>
+      <c r="Z16" s="150" t="s">
         <v>102</v>
       </c>
-      <c r="AA16" s="151" t="s">
+      <c r="AA16" s="150" t="s">
         <v>102</v>
       </c>
-      <c r="AB16" s="151" t="s">
+      <c r="AB16" s="150" t="s">
         <v>102</v>
       </c>
-      <c r="AC16" s="151"/>
-      <c r="AD16" s="151"/>
-      <c r="AE16" s="151"/>
-      <c r="AF16" s="151" t="s">
+      <c r="AC16" s="150"/>
+      <c r="AD16" s="150"/>
+      <c r="AE16" s="150"/>
+      <c r="AF16" s="150" t="s">
         <v>102</v>
       </c>
-      <c r="AG16" s="151"/>
-      <c r="AH16" s="151" t="s">
+      <c r="AG16" s="150"/>
+      <c r="AH16" s="150" t="s">
         <v>741</v>
       </c>
-      <c r="AI16" s="151" t="s">
+      <c r="AI16" s="150" t="s">
         <v>796</v>
       </c>
-      <c r="AJ16" s="151" t="s">
+      <c r="AJ16" s="150" t="s">
         <v>102</v>
       </c>
-      <c r="AK16" s="151"/>
-      <c r="AL16" s="151" t="s">
+      <c r="AK16" s="150"/>
+      <c r="AL16" s="150" t="s">
         <v>801</v>
       </c>
-      <c r="AM16" s="151" t="s">
+      <c r="AM16" s="150" t="s">
         <v>102</v>
       </c>
-      <c r="AN16" s="151" t="s">
+      <c r="AN16" s="150" t="s">
         <v>102</v>
       </c>
-      <c r="AO16" s="151" t="s">
+      <c r="AO16" s="150" t="s">
         <v>102</v>
       </c>
-      <c r="AP16" s="151" t="s">
+      <c r="AP16" s="150" t="s">
         <v>102</v>
       </c>
-      <c r="AQ16" s="151" t="s">
+      <c r="AQ16" s="150" t="s">
         <v>741</v>
       </c>
-      <c r="AR16" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS16" s="151" t="s">
+      <c r="AR16" s="157" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS16" s="150" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="18" spans="1:45" s="124" customFormat="1" ht="68">
-      <c r="A18" s="160" t="s">
+    <row r="18" spans="1:45" s="123" customFormat="1" ht="68">
+      <c r="A18" s="159" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="161"/>
-      <c r="C18" s="162" t="s">
+      <c r="B18" s="160"/>
+      <c r="C18" s="161" t="s">
         <v>839</v>
       </c>
-      <c r="D18" s="162"/>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163" t="s">
+      <c r="D18" s="161"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="162" t="s">
         <v>840</v>
       </c>
-      <c r="G18" s="167" t="s">
+      <c r="G18" s="166" t="s">
         <v>837</v>
       </c>
-      <c r="H18" s="163"/>
-      <c r="I18" s="164" t="s">
+      <c r="H18" s="162"/>
+      <c r="I18" s="163" t="s">
         <v>855</v>
       </c>
-      <c r="J18" s="163"/>
-      <c r="K18" s="163"/>
-      <c r="L18" s="163"/>
-      <c r="M18" s="163"/>
-      <c r="N18" s="163"/>
-      <c r="O18" s="163"/>
-      <c r="P18" s="164" t="s">
+      <c r="J18" s="162"/>
+      <c r="K18" s="162"/>
+      <c r="L18" s="162"/>
+      <c r="M18" s="162"/>
+      <c r="N18" s="162"/>
+      <c r="O18" s="162"/>
+      <c r="P18" s="163" t="s">
         <v>839</v>
       </c>
-      <c r="Q18" s="164" t="s">
+      <c r="Q18" s="163" t="s">
         <v>757</v>
       </c>
-      <c r="R18" s="164"/>
-      <c r="S18" s="164" t="s">
+      <c r="R18" s="163"/>
+      <c r="S18" s="163" t="s">
         <v>841</v>
       </c>
-      <c r="T18" s="164"/>
-      <c r="U18" s="164" t="s">
+      <c r="T18" s="163"/>
+      <c r="U18" s="163" t="s">
         <v>842</v>
       </c>
-      <c r="V18" s="164"/>
-      <c r="W18" s="164" t="s">
+      <c r="V18" s="163"/>
+      <c r="W18" s="163" t="s">
         <v>775</v>
       </c>
-      <c r="X18" s="164"/>
-      <c r="Y18" s="164" t="s">
+      <c r="X18" s="163"/>
+      <c r="Y18" s="163" t="s">
         <v>843</v>
       </c>
-      <c r="Z18" s="164"/>
-      <c r="AA18" s="164"/>
-      <c r="AB18" s="164"/>
-      <c r="AC18" s="164" t="s">
+      <c r="Z18" s="163"/>
+      <c r="AA18" s="163"/>
+      <c r="AB18" s="163"/>
+      <c r="AC18" s="163" t="s">
         <v>848</v>
       </c>
-      <c r="AD18" s="164" t="s">
+      <c r="AD18" s="163" t="s">
         <v>845</v>
       </c>
-      <c r="AE18" s="164" t="s">
+      <c r="AE18" s="163" t="s">
         <v>846</v>
       </c>
-      <c r="AF18" s="164"/>
-      <c r="AG18" s="164" t="s">
+      <c r="AF18" s="163"/>
+      <c r="AG18" s="163" t="s">
         <v>844</v>
       </c>
-      <c r="AH18" s="164"/>
-      <c r="AI18" s="164"/>
-      <c r="AJ18" s="164" t="s">
+      <c r="AH18" s="163"/>
+      <c r="AI18" s="163"/>
+      <c r="AJ18" s="163" t="s">
         <v>849</v>
       </c>
-      <c r="AK18" s="164" t="s">
+      <c r="AK18" s="163" t="s">
         <v>838</v>
       </c>
-      <c r="AL18" s="165"/>
-      <c r="AM18" s="165"/>
-      <c r="AN18" s="165"/>
-      <c r="AO18" s="164" t="s">
+      <c r="AL18" s="164"/>
+      <c r="AM18" s="164"/>
+      <c r="AN18" s="164"/>
+      <c r="AO18" s="163" t="s">
         <v>850</v>
       </c>
-      <c r="AP18" s="165"/>
-      <c r="AQ18" s="165"/>
-      <c r="AR18" s="166" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS18" s="165"/>
+      <c r="AP18" s="164"/>
+      <c r="AQ18" s="164"/>
+      <c r="AR18" s="165" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS18" s="164"/>
     </row>
     <row r="19" spans="1:45">
       <c r="B19" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="146"/>
-      <c r="O19" s="146"/>
+      <c r="H19" s="145"/>
+      <c r="O19" s="145"/>
     </row>
     <row r="20" spans="1:45">
-      <c r="O20" s="146"/>
+      <c r="O20" s="145"/>
     </row>
     <row r="21" spans="1:45">
-      <c r="C21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="S21" s="113"/>
-      <c r="V21" s="113"/>
-      <c r="AJ21" s="113"/>
-      <c r="AK21" s="113"/>
-      <c r="AL21" s="113"/>
-      <c r="AO21" s="113"/>
-      <c r="AR21" s="113"/>
+      <c r="C21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="S21" s="112"/>
+      <c r="V21" s="112"/>
+      <c r="AJ21" s="112"/>
+      <c r="AK21" s="112"/>
+      <c r="AL21" s="112"/>
+      <c r="AO21" s="112"/>
+      <c r="AR21" s="112"/>
     </row>
     <row r="31" spans="1:45">
-      <c r="B31" s="159"/>
+      <c r="B31" s="158"/>
     </row>
     <row r="32" spans="1:45">
-      <c r="B32" s="159"/>
+      <c r="B32" s="158"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="159"/>
+      <c r="B33" s="158"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="159"/>
+      <c r="B34" s="158"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="159"/>
+      <c r="B35" s="158"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="159"/>
+      <c r="B36" s="158"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="159"/>
+      <c r="B37" s="158"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="159"/>
+      <c r="B38" s="158"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="159"/>
+      <c r="B39" s="158"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="159"/>
+      <c r="B40" s="158"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="159"/>
+      <c r="B41" s="158"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="159"/>
+      <c r="B42" s="158"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="159"/>
+      <c r="B43" s="158"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="159"/>
+      <c r="B44" s="158"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="159"/>
+      <c r="B45" s="158"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="159"/>
+      <c r="B46" s="158"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="159"/>
+      <c r="B47" s="158"/>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="159"/>
+      <c r="B48" s="158"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="159"/>
+      <c r="B49" s="158"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="159"/>
+      <c r="B50" s="158"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="159"/>
+      <c r="B51" s="158"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="159"/>
+      <c r="B52" s="158"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="159"/>
+      <c r="B53" s="158"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="159"/>
+      <c r="B54" s="158"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="159"/>
+      <c r="B55" s="158"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="159"/>
+      <c r="B56" s="158"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="159"/>
+      <c r="B57" s="158"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="159"/>
+      <c r="B58" s="158"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="159"/>
+      <c r="B59" s="158"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="159"/>
+      <c r="B60" s="158"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="159"/>
+      <c r="B61" s="158"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="159"/>
+      <c r="B62" s="158"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="159"/>
+      <c r="B63" s="158"/>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="159"/>
+      <c r="B64" s="158"/>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="159"/>
+      <c r="B65" s="158"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="159"/>
+      <c r="B66" s="158"/>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="159"/>
+      <c r="B67" s="158"/>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="159"/>
+      <c r="B68" s="158"/>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="159"/>
+      <c r="B69" s="158"/>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="159"/>
+      <c r="B70" s="158"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="159"/>
+      <c r="B71" s="158"/>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="159"/>
+      <c r="B72" s="158"/>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="159"/>
+      <c r="B73" s="158"/>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="159"/>
+      <c r="B74" s="158"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13262,98 +13261,98 @@
       <c r="A1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="114" t="s">
+      <c r="B1" s="113" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="33" customHeight="1">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="177" t="s">
         <v>824</v>
       </c>
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="135" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="177" t="s">
         <v>891</v>
       </c>
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="135" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="51">
-      <c r="A4" s="178" t="s">
+      <c r="A4" s="177" t="s">
         <v>896</v>
       </c>
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="135" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="51">
-      <c r="A5" s="178" t="s">
+      <c r="A5" s="177" t="s">
         <v>904</v>
       </c>
-      <c r="B5" s="136" t="s">
+      <c r="B5" s="135" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="178"/>
-      <c r="B6" s="136"/>
+      <c r="A6" s="177"/>
+      <c r="B6" s="135"/>
     </row>
     <row r="7" spans="1:2" ht="34">
-      <c r="A7" s="178" t="s">
+      <c r="A7" s="177" t="s">
         <v>900</v>
       </c>
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="135" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="178"/>
-      <c r="B8" s="136"/>
+      <c r="A8" s="177"/>
+      <c r="B8" s="135"/>
     </row>
     <row r="9" spans="1:2" ht="34">
-      <c r="A9" s="179" t="s">
+      <c r="A9" s="178" t="s">
         <v>704</v>
       </c>
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="135" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="34">
-      <c r="A10" s="179" t="s">
+      <c r="A10" s="178" t="s">
         <v>705</v>
       </c>
-      <c r="B10" s="136" t="s">
+      <c r="B10" s="135" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="51">
-      <c r="A11" s="179" t="s">
+      <c r="A11" s="178" t="s">
         <v>706</v>
       </c>
-      <c r="B11" s="136" t="s">
+      <c r="B11" s="135" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="33" customHeight="1">
-      <c r="A12" s="179" t="s">
+      <c r="A12" s="178" t="s">
         <v>725</v>
       </c>
-      <c r="B12" s="136" t="s">
+      <c r="B12" s="135" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="B13" s="136"/>
+      <c r="B13" s="135"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="B14" s="180" t="s">
+      <c r="B14" s="179" t="s">
         <v>914</v>
       </c>
     </row>

--- a/sources/European_Exposure_Model_Data_Inputs_Sources.xlsx
+++ b/sources/European_Exposure_Model_Data_Inputs_Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helencrowley/Documents/5-GitHub/esrm20_exposure/sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38DD3BE3-C7CC-9942-A75F-F5167A302643}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4970E2A5-EDF6-3C48-9141-139FE529CE4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="460" windowWidth="28300" windowHeight="16700" xr2:uid="{3ADB8CE8-CD4D-1C4D-B72A-BA24B45CE5E7}"/>
+    <workbookView xWindow="180" yWindow="460" windowWidth="28300" windowHeight="16700" activeTab="1" xr2:uid="{3ADB8CE8-CD4D-1C4D-B72A-BA24B45CE5E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="4" r:id="rId1"/>
@@ -3700,13 +3700,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3714,15 +3723,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4042,7 +4042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDE1935-F182-8E4C-A9F6-BCE17C9647EE}">
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
@@ -4053,51 +4053,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="48" customHeight="1">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="184" t="s">
         <v>894</v>
       </c>
-      <c r="B1" s="188"/>
+      <c r="B1" s="184"/>
     </row>
     <row r="2" spans="1:3" ht="22" customHeight="1">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="186" t="s">
         <v>911</v>
       </c>
-      <c r="B2" s="184"/>
+      <c r="B2" s="186"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="22" customHeight="1">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="188" t="s">
         <v>913</v>
       </c>
-      <c r="B3" s="184"/>
+      <c r="B3" s="186"/>
     </row>
     <row r="4" spans="1:3" ht="22" customHeight="1">
-      <c r="A4" s="184" t="s">
+      <c r="A4" s="186" t="s">
         <v>893</v>
       </c>
-      <c r="B4" s="184"/>
+      <c r="B4" s="186"/>
     </row>
     <row r="5" spans="1:3" ht="22" customHeight="1">
-      <c r="A5" s="184" t="s">
+      <c r="A5" s="186" t="s">
         <v>912</v>
       </c>
-      <c r="B5" s="184"/>
+      <c r="B5" s="186"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="189"/>
-      <c r="B6" s="189"/>
+      <c r="A6" s="185"/>
+      <c r="B6" s="185"/>
     </row>
     <row r="7" spans="1:3" ht="39">
-      <c r="A7" s="186" t="s">
+      <c r="A7" s="189" t="s">
         <v>687</v>
       </c>
-      <c r="B7" s="186"/>
+      <c r="B7" s="189"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="187" t="s">
+      <c r="A8" s="190" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="187"/>
+      <c r="B8" s="190"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3"/>
@@ -4263,10 +4263,10 @@
       <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="183" t="s">
+      <c r="A30" s="187" t="s">
         <v>212</v>
       </c>
-      <c r="B30" s="183"/>
+      <c r="B30" s="187"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4"/>
@@ -4333,10 +4333,10 @@
       <c r="B39" s="4"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="183" t="s">
+      <c r="A41" s="187" t="s">
         <v>698</v>
       </c>
-      <c r="B41" s="183"/>
+      <c r="B41" s="187"/>
     </row>
     <row r="42" spans="1:2" ht="51">
       <c r="A42" s="61" t="s">
@@ -4355,16 +4355,16 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="39">
-      <c r="A45" s="186" t="s">
+      <c r="A45" s="189" t="s">
         <v>857</v>
       </c>
-      <c r="B45" s="186"/>
+      <c r="B45" s="189"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="187" t="s">
+      <c r="A46" s="190" t="s">
         <v>447</v>
       </c>
-      <c r="B46" s="187"/>
+      <c r="B46" s="190"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="3"/>
@@ -4479,10 +4479,10 @@
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="183" t="s">
+      <c r="A64" s="187" t="s">
         <v>698</v>
       </c>
-      <c r="B64" s="183"/>
+      <c r="B64" s="187"/>
     </row>
     <row r="65" spans="1:2" ht="51">
       <c r="A65" s="61" t="s">
@@ -4501,16 +4501,16 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="39">
-      <c r="A68" s="186" t="s">
+      <c r="A68" s="189" t="s">
         <v>856</v>
       </c>
-      <c r="B68" s="186"/>
+      <c r="B68" s="189"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="187" t="s">
+      <c r="A69" s="190" t="s">
         <v>546</v>
       </c>
-      <c r="B69" s="187"/>
+      <c r="B69" s="190"/>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3"/>
@@ -4593,10 +4593,10 @@
       <c r="B80" s="4"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="183" t="s">
+      <c r="A81" s="187" t="s">
         <v>212</v>
       </c>
-      <c r="B81" s="183"/>
+      <c r="B81" s="187"/>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="4"/>
@@ -4635,10 +4635,10 @@
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="183" t="s">
+      <c r="A88" s="187" t="s">
         <v>698</v>
       </c>
-      <c r="B88" s="183"/>
+      <c r="B88" s="187"/>
     </row>
     <row r="89" spans="1:2" ht="51">
       <c r="A89" s="61" t="s">
@@ -4666,12 +4666,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A64:B64"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -4683,6 +4677,12 @@
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A64:B64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4692,11 +4692,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D9D520-21E0-4740-A733-1FA0F3F531E7}">
   <dimension ref="A1:AS82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S16" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V20" sqref="V20"/>
+      <selection pane="bottomRight" activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5269,7 +5269,7 @@
         <v>34</v>
       </c>
       <c r="U5" s="51" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="V5" s="51" t="s">
         <v>35</v>
@@ -5293,10 +5293,10 @@
         <v>34</v>
       </c>
       <c r="AC5" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD5" s="51" t="s">
         <v>144</v>
-      </c>
-      <c r="AD5" s="51" t="s">
-        <v>34</v>
       </c>
       <c r="AE5" s="51" t="s">
         <v>34</v>
@@ -7366,7 +7366,7 @@
       <c r="AI20" s="43">
         <v>700</v>
       </c>
-      <c r="AJ20" s="190">
+      <c r="AJ20" s="183">
         <v>800</v>
       </c>
       <c r="AK20" s="43">

--- a/sources/European_Exposure_Model_Data_Inputs_Sources.xlsx
+++ b/sources/European_Exposure_Model_Data_Inputs_Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helencrowley/Documents/5-GitHub/esrm20_exposure/sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4970E2A5-EDF6-3C48-9141-139FE529CE4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAE1857-253D-D94D-9E80-D3407C473479}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="460" windowWidth="28300" windowHeight="16700" activeTab="1" xr2:uid="{3ADB8CE8-CD4D-1C4D-B72A-BA24B45CE5E7}"/>
+    <workbookView xWindow="2220" yWindow="460" windowWidth="28300" windowHeight="16700" xr2:uid="{3ADB8CE8-CD4D-1C4D-B72A-BA24B45CE5E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="924">
   <si>
     <t>data_Albania_RES_census-buildings.xlsx</t>
   </si>
@@ -3703,26 +3703,26 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4042,7 +4042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDE1935-F182-8E4C-A9F6-BCE17C9647EE}">
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
@@ -4053,51 +4053,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="48" customHeight="1">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="189" t="s">
         <v>894</v>
       </c>
-      <c r="B1" s="184"/>
+      <c r="B1" s="189"/>
     </row>
     <row r="2" spans="1:3" ht="22" customHeight="1">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="185" t="s">
         <v>911</v>
       </c>
-      <c r="B2" s="186"/>
+      <c r="B2" s="185"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="22" customHeight="1">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="186" t="s">
         <v>913</v>
       </c>
-      <c r="B3" s="186"/>
+      <c r="B3" s="185"/>
     </row>
     <row r="4" spans="1:3" ht="22" customHeight="1">
-      <c r="A4" s="186" t="s">
+      <c r="A4" s="185" t="s">
         <v>893</v>
       </c>
-      <c r="B4" s="186"/>
+      <c r="B4" s="185"/>
     </row>
     <row r="5" spans="1:3" ht="22" customHeight="1">
-      <c r="A5" s="186" t="s">
+      <c r="A5" s="185" t="s">
         <v>912</v>
       </c>
-      <c r="B5" s="186"/>
+      <c r="B5" s="185"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="185"/>
-      <c r="B6" s="185"/>
+      <c r="A6" s="190"/>
+      <c r="B6" s="190"/>
     </row>
     <row r="7" spans="1:3" ht="39">
-      <c r="A7" s="189" t="s">
+      <c r="A7" s="187" t="s">
         <v>687</v>
       </c>
-      <c r="B7" s="189"/>
+      <c r="B7" s="187"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="190" t="s">
+      <c r="A8" s="188" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="190"/>
+      <c r="B8" s="188"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3"/>
@@ -4263,10 +4263,10 @@
       <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="187" t="s">
+      <c r="A30" s="184" t="s">
         <v>212</v>
       </c>
-      <c r="B30" s="187"/>
+      <c r="B30" s="184"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4"/>
@@ -4333,10 +4333,10 @@
       <c r="B39" s="4"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="187" t="s">
+      <c r="A41" s="184" t="s">
         <v>698</v>
       </c>
-      <c r="B41" s="187"/>
+      <c r="B41" s="184"/>
     </row>
     <row r="42" spans="1:2" ht="51">
       <c r="A42" s="61" t="s">
@@ -4355,16 +4355,16 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="39">
-      <c r="A45" s="189" t="s">
+      <c r="A45" s="187" t="s">
         <v>857</v>
       </c>
-      <c r="B45" s="189"/>
+      <c r="B45" s="187"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="190" t="s">
+      <c r="A46" s="188" t="s">
         <v>447</v>
       </c>
-      <c r="B46" s="190"/>
+      <c r="B46" s="188"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="3"/>
@@ -4479,10 +4479,10 @@
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="187" t="s">
+      <c r="A64" s="184" t="s">
         <v>698</v>
       </c>
-      <c r="B64" s="187"/>
+      <c r="B64" s="184"/>
     </row>
     <row r="65" spans="1:2" ht="51">
       <c r="A65" s="61" t="s">
@@ -4501,16 +4501,16 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="39">
-      <c r="A68" s="189" t="s">
+      <c r="A68" s="187" t="s">
         <v>856</v>
       </c>
-      <c r="B68" s="189"/>
+      <c r="B68" s="187"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="190" t="s">
+      <c r="A69" s="188" t="s">
         <v>546</v>
       </c>
-      <c r="B69" s="190"/>
+      <c r="B69" s="188"/>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3"/>
@@ -4593,10 +4593,10 @@
       <c r="B80" s="4"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="187" t="s">
+      <c r="A81" s="184" t="s">
         <v>212</v>
       </c>
-      <c r="B81" s="187"/>
+      <c r="B81" s="184"/>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="4"/>
@@ -4635,10 +4635,10 @@
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="187" t="s">
+      <c r="A88" s="184" t="s">
         <v>698</v>
       </c>
-      <c r="B88" s="187"/>
+      <c r="B88" s="184"/>
     </row>
     <row r="89" spans="1:2" ht="51">
       <c r="A89" s="61" t="s">
@@ -4666,6 +4666,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A64:B64"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -4677,12 +4683,6 @@
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A64:B64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4692,11 +4692,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D9D520-21E0-4740-A733-1FA0F3F531E7}">
   <dimension ref="A1:AS82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AQ21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC6" sqref="AC6"/>
+      <selection pane="bottomRight" activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8284,8 +8284,8 @@
       <c r="U28" s="20">
         <v>35599</v>
       </c>
-      <c r="V28" s="37" t="s">
-        <v>8</v>
+      <c r="V28" s="37">
+        <v>31208161</v>
       </c>
       <c r="W28" s="20">
         <v>412884</v>
@@ -8300,10 +8300,10 @@
         <v>1374233</v>
       </c>
       <c r="AA28" s="20">
-        <v>227326</v>
-      </c>
-      <c r="AB28" s="37" t="s">
-        <v>8</v>
+        <v>222946</v>
+      </c>
+      <c r="AB28" s="20">
+        <v>223850</v>
       </c>
       <c r="AC28" s="37" t="s">
         <v>8</v>
@@ -8333,11 +8333,11 @@
       <c r="AL28" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="AM28" s="37" t="s">
-        <v>8</v>
+      <c r="AM28" s="20">
+        <v>194117</v>
       </c>
       <c r="AN28" s="20">
-        <v>777772</v>
+        <v>844656</v>
       </c>
       <c r="AO28" s="20">
         <v>25849338</v>
@@ -8417,8 +8417,8 @@
       <c r="U29" s="55" t="s">
         <v>679</v>
       </c>
-      <c r="V29" s="38" t="s">
-        <v>8</v>
+      <c r="V29" s="182" t="s">
+        <v>921</v>
       </c>
       <c r="W29" s="55" t="s">
         <v>31</v>
@@ -8432,11 +8432,11 @@
       <c r="Z29" s="182" t="s">
         <v>921</v>
       </c>
-      <c r="AA29" s="55" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB29" s="38" t="s">
-        <v>8</v>
+      <c r="AA29" s="182" t="s">
+        <v>921</v>
+      </c>
+      <c r="AB29" s="182" t="s">
+        <v>921</v>
       </c>
       <c r="AC29" s="38" t="s">
         <v>8</v>
@@ -8466,11 +8466,11 @@
       <c r="AL29" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AM29" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN29" s="55" t="s">
-        <v>224</v>
+      <c r="AM29" s="182" t="s">
+        <v>921</v>
+      </c>
+      <c r="AN29" s="182" t="s">
+        <v>921</v>
       </c>
       <c r="AO29" s="55" t="s">
         <v>31</v>

--- a/sources/European_Exposure_Model_Data_Inputs_Sources.xlsx
+++ b/sources/European_Exposure_Model_Data_Inputs_Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helencrowley/Documents/5-GitHub/esrm20_exposure/sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAE1857-253D-D94D-9E80-D3407C473479}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D9B53A-BDB3-8749-A18D-5E2ADA8BCE34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="460" windowWidth="28300" windowHeight="16700" xr2:uid="{3ADB8CE8-CD4D-1C4D-B72A-BA24B45CE5E7}"/>
+    <workbookView xWindow="920" yWindow="520" windowWidth="28300" windowHeight="16700" activeTab="1" xr2:uid="{3ADB8CE8-CD4D-1C4D-B72A-BA24B45CE5E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="927">
   <si>
     <t>data_Albania_RES_census-buildings.xlsx</t>
   </si>
@@ -2712,9 +2712,6 @@
     <t>Buildings in Canary Islands are not considered in final model.</t>
   </si>
   <si>
-    <t>We are not able to share the 2011 census source data for this model but the 2001 census data can be obtained from v0.4 of the exposure repository</t>
-  </si>
-  <si>
     <t>Buildings in occupied territory (Transnistria) are not included in final model</t>
   </si>
   <si>
@@ -2927,6 +2924,18 @@
   </si>
   <si>
     <t>Buildings in Azores are not included in final model, and an estimated population of ﻿243,862 has thus been removed from the total population in the social indicators folder</t>
+  </si>
+  <si>
+    <t>No data was reported for Leposaviq, Zubin Potok, Zveqan in the 2011 census due to disputed land</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are not able to share the 2011 census source data for this model but the 2001 census data can be obtained from v0.4 of the exposure repository. The dwellings from the census are occupied dwellings, and so the data has been uniformly scaled to the total number of dwellings from Eurostat 2011. </t>
+  </si>
+  <si>
+    <t>The dwellings from the 2001 census have been uniformly scaled to the total number of dwellings from Eurostat 2011</t>
+  </si>
+  <si>
+    <t>The dwellings from the 2005 census have been uniformly scaled to the total number of dwellings from Eurostat 2011</t>
   </si>
 </sst>
 </file>
@@ -3674,9 +3683,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3703,13 +3709,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3718,11 +3730,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4042,7 +4051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDE1935-F182-8E4C-A9F6-BCE17C9647EE}">
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
@@ -4053,51 +4062,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="48" customHeight="1">
-      <c r="A1" s="189" t="s">
-        <v>894</v>
-      </c>
-      <c r="B1" s="189"/>
+      <c r="A1" s="183" t="s">
+        <v>893</v>
+      </c>
+      <c r="B1" s="183"/>
     </row>
     <row r="2" spans="1:3" ht="22" customHeight="1">
       <c r="A2" s="185" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B2" s="185"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="22" customHeight="1">
-      <c r="A3" s="186" t="s">
-        <v>913</v>
+      <c r="A3" s="187" t="s">
+        <v>912</v>
       </c>
       <c r="B3" s="185"/>
     </row>
     <row r="4" spans="1:3" ht="22" customHeight="1">
       <c r="A4" s="185" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B4" s="185"/>
     </row>
     <row r="5" spans="1:3" ht="22" customHeight="1">
       <c r="A5" s="185" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B5" s="185"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="190"/>
-      <c r="B6" s="190"/>
+      <c r="A6" s="184"/>
+      <c r="B6" s="184"/>
     </row>
     <row r="7" spans="1:3" ht="39">
-      <c r="A7" s="187" t="s">
+      <c r="A7" s="188" t="s">
         <v>687</v>
       </c>
-      <c r="B7" s="187"/>
+      <c r="B7" s="188"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="189" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="188"/>
+      <c r="B8" s="189"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3"/>
@@ -4140,7 +4149,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4156,7 +4165,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4239,7 +4248,7 @@
         <v>827</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4247,7 +4256,7 @@
         <v>828</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4255,7 +4264,7 @@
         <v>829</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4263,10 +4272,10 @@
       <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="184" t="s">
+      <c r="A30" s="186" t="s">
         <v>212</v>
       </c>
-      <c r="B30" s="184"/>
+      <c r="B30" s="186"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4"/>
@@ -4333,10 +4342,10 @@
       <c r="B39" s="4"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="184" t="s">
+      <c r="A41" s="186" t="s">
         <v>698</v>
       </c>
-      <c r="B41" s="184"/>
+      <c r="B41" s="186"/>
     </row>
     <row r="42" spans="1:2" ht="51">
       <c r="A42" s="61" t="s">
@@ -4348,23 +4357,23 @@
     </row>
     <row r="43" spans="1:2" ht="34">
       <c r="A43" s="8" t="s">
-        <v>859</v>
-      </c>
-      <c r="B43" s="175" t="s">
-        <v>901</v>
+        <v>858</v>
+      </c>
+      <c r="B43" s="174" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="39">
-      <c r="A45" s="187" t="s">
-        <v>857</v>
-      </c>
-      <c r="B45" s="187"/>
+      <c r="A45" s="188" t="s">
+        <v>856</v>
+      </c>
+      <c r="B45" s="188"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="188" t="s">
+      <c r="A46" s="189" t="s">
         <v>447</v>
       </c>
-      <c r="B46" s="188"/>
+      <c r="B46" s="189"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="3"/>
@@ -4399,7 +4408,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4419,7 +4428,7 @@
         <v>723</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -4427,7 +4436,7 @@
         <v>452</v>
       </c>
       <c r="B56" s="82" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -4435,7 +4444,7 @@
         <v>2</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4443,7 +4452,7 @@
         <v>712</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -4451,7 +4460,7 @@
         <v>456</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -4459,15 +4468,15 @@
         <v>40</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B61" s="176" t="s">
-        <v>863</v>
+      <c r="B61" s="175" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -4475,42 +4484,42 @@
         <v>830</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="184" t="s">
+      <c r="A64" s="186" t="s">
         <v>698</v>
       </c>
-      <c r="B64" s="184"/>
+      <c r="B64" s="186"/>
     </row>
     <row r="65" spans="1:2" ht="51">
       <c r="A65" s="61" t="s">
         <v>830</v>
       </c>
       <c r="B65" s="68" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="34">
       <c r="A66" s="8" t="s">
-        <v>859</v>
-      </c>
-      <c r="B66" s="175" t="s">
-        <v>902</v>
+        <v>858</v>
+      </c>
+      <c r="B66" s="174" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="39">
-      <c r="A68" s="187" t="s">
-        <v>856</v>
-      </c>
-      <c r="B68" s="187"/>
+      <c r="A68" s="188" t="s">
+        <v>855</v>
+      </c>
+      <c r="B68" s="188"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="188" t="s">
+      <c r="A69" s="189" t="s">
         <v>546</v>
       </c>
-      <c r="B69" s="188"/>
+      <c r="B69" s="189"/>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3"/>
@@ -4521,7 +4530,7 @@
         <v>776</v>
       </c>
       <c r="B71" s="151" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4529,7 +4538,7 @@
         <v>6</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4537,7 +4546,7 @@
         <v>708</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4552,8 +4561,8 @@
       <c r="A75" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="B75" s="176" t="s">
-        <v>864</v>
+      <c r="B75" s="175" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -4561,7 +4570,7 @@
         <v>549</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -4569,7 +4578,7 @@
         <v>833</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -4577,7 +4586,7 @@
         <v>832</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -4585,7 +4594,7 @@
         <v>831</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -4593,10 +4602,10 @@
       <c r="B80" s="4"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="184" t="s">
+      <c r="A81" s="186" t="s">
         <v>212</v>
       </c>
-      <c r="B81" s="184"/>
+      <c r="B81" s="186"/>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="4"/>
@@ -4604,26 +4613,26 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="139" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B83" s="139" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="138" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B84" s="138" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="138" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B85" s="138" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -4631,29 +4640,29 @@
         <v>2</v>
       </c>
       <c r="B86" s="36" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="184" t="s">
+      <c r="A88" s="186" t="s">
         <v>698</v>
       </c>
-      <c r="B88" s="184"/>
+      <c r="B88" s="186"/>
     </row>
     <row r="89" spans="1:2" ht="51">
       <c r="A89" s="61" t="s">
         <v>830</v>
       </c>
       <c r="B89" s="68" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="34">
       <c r="A90" s="8" t="s">
-        <v>859</v>
-      </c>
-      <c r="B90" s="175" t="s">
-        <v>903</v>
+        <v>858</v>
+      </c>
+      <c r="B90" s="174" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="51">
@@ -4661,17 +4670,11 @@
         <v>4</v>
       </c>
       <c r="B91" s="68" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A64:B64"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -4683,6 +4686,12 @@
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A64:B64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4692,11 +4701,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D9D520-21E0-4740-A733-1FA0F3F531E7}">
   <dimension ref="A1:AS82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AQ21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z29" sqref="Z29"/>
+      <selection pane="bottomRight" activeCell="AB32" sqref="AB32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5352,7 +5361,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>42</v>
@@ -5373,16 +5382,16 @@
         <v>118</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="N6" s="72" t="s">
         <v>133</v>
@@ -5391,7 +5400,7 @@
         <v>139</v>
       </c>
       <c r="P6" s="22" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="Q6" s="22" t="s">
         <v>150</v>
@@ -5403,10 +5412,10 @@
         <v>161</v>
       </c>
       <c r="T6" s="22" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="U6" s="22" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="V6" s="22" t="s">
         <v>823</v>
@@ -5415,16 +5424,16 @@
         <v>175</v>
       </c>
       <c r="X6" s="22" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="Y6" s="22" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="Z6" s="22" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AA6" s="22" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AB6" s="22" t="s">
         <v>194</v>
@@ -5433,7 +5442,7 @@
         <v>199</v>
       </c>
       <c r="AD6" s="22" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AE6" s="22" t="s">
         <v>206</v>
@@ -5448,7 +5457,7 @@
         <v>229</v>
       </c>
       <c r="AI6" s="22" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AJ6" s="22" t="s">
         <v>240</v>
@@ -5469,7 +5478,7 @@
         <v>273</v>
       </c>
       <c r="AP6" s="22" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AQ6" s="22" t="s">
         <v>282</v>
@@ -5478,7 +5487,7 @@
         <v>285</v>
       </c>
       <c r="AS6" s="22" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -5626,7 +5635,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>31</v>
@@ -5665,7 +5674,7 @@
         <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>31</v>
@@ -5680,7 +5689,7 @@
         <v>168</v>
       </c>
       <c r="U8" s="76" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="V8" s="76" t="s">
         <v>31</v>
@@ -5692,7 +5701,7 @@
         <v>181</v>
       </c>
       <c r="Y8" s="7" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="Z8" s="7" t="s">
         <v>188</v>
@@ -5707,7 +5716,7 @@
         <v>201</v>
       </c>
       <c r="AD8" s="7" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AE8" s="7" t="s">
         <v>31</v>
@@ -6308,106 +6317,106 @@
         <v>6</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="J13" s="73" t="s">
+        <v>896</v>
+      </c>
+      <c r="K13" s="73" t="s">
+        <v>896</v>
+      </c>
+      <c r="L13" s="73" t="s">
+        <v>896</v>
+      </c>
+      <c r="M13" s="73" t="s">
+        <v>896</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>894</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>894</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>896</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>894</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>894</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>894</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>896</v>
+      </c>
+      <c r="U13" s="14" t="s">
         <v>897</v>
-      </c>
-      <c r="K13" s="73" t="s">
-        <v>897</v>
-      </c>
-      <c r="L13" s="73" t="s">
-        <v>897</v>
-      </c>
-      <c r="M13" s="73" t="s">
-        <v>897</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>895</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>895</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>897</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>895</v>
-      </c>
-      <c r="R13" s="14" t="s">
-        <v>895</v>
-      </c>
-      <c r="S13" s="14" t="s">
-        <v>895</v>
-      </c>
-      <c r="T13" s="14" t="s">
-        <v>897</v>
-      </c>
-      <c r="U13" s="14" t="s">
-        <v>898</v>
       </c>
       <c r="V13" s="14" t="s">
         <v>243</v>
       </c>
       <c r="W13" s="14" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="X13" s="22" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="Y13" s="14" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="Z13" s="22" t="s">
+        <v>896</v>
+      </c>
+      <c r="AA13" s="22" t="s">
+        <v>896</v>
+      </c>
+      <c r="AB13" s="14" t="s">
+        <v>894</v>
+      </c>
+      <c r="AC13" s="14" t="s">
+        <v>894</v>
+      </c>
+      <c r="AD13" s="14" t="s">
+        <v>896</v>
+      </c>
+      <c r="AE13" s="14" t="s">
+        <v>894</v>
+      </c>
+      <c r="AF13" s="14" t="s">
+        <v>894</v>
+      </c>
+      <c r="AG13" s="14" t="s">
+        <v>894</v>
+      </c>
+      <c r="AH13" s="14" t="s">
+        <v>894</v>
+      </c>
+      <c r="AI13" s="22" t="s">
         <v>897</v>
-      </c>
-      <c r="AA13" s="22" t="s">
-        <v>897</v>
-      </c>
-      <c r="AB13" s="14" t="s">
-        <v>895</v>
-      </c>
-      <c r="AC13" s="14" t="s">
-        <v>895</v>
-      </c>
-      <c r="AD13" s="14" t="s">
-        <v>897</v>
-      </c>
-      <c r="AE13" s="14" t="s">
-        <v>895</v>
-      </c>
-      <c r="AF13" s="14" t="s">
-        <v>895</v>
-      </c>
-      <c r="AG13" s="14" t="s">
-        <v>895</v>
-      </c>
-      <c r="AH13" s="14" t="s">
-        <v>895</v>
-      </c>
-      <c r="AI13" s="22" t="s">
-        <v>898</v>
       </c>
       <c r="AJ13" s="14" t="s">
         <v>249</v>
@@ -6419,25 +6428,25 @@
         <v>259</v>
       </c>
       <c r="AM13" s="14" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="AN13" s="14" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="AO13" s="14" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="AP13" s="22" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AQ13" s="14" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="AR13" s="14" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="AS13" s="14" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -6445,28 +6454,28 @@
         <v>9</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>406</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>406</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>406</v>
@@ -6481,22 +6490,22 @@
         <v>406</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="P14" s="11" t="s">
         <v>406</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="T14" s="11" t="s">
         <v>406</v>
@@ -6505,10 +6514,10 @@
         <v>406</v>
       </c>
       <c r="V14" s="11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="W14" s="11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="X14" s="11" t="s">
         <v>406</v>
@@ -6532,13 +6541,13 @@
         <v>406</v>
       </c>
       <c r="AE14" s="11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AF14" s="11" t="s">
         <v>406</v>
       </c>
       <c r="AG14" s="11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AH14" s="11" t="s">
         <v>406</v>
@@ -6547,31 +6556,31 @@
         <v>406</v>
       </c>
       <c r="AJ14" s="11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AK14" s="11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AL14" s="11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AM14" s="11" t="s">
         <v>406</v>
       </c>
       <c r="AN14" s="11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AO14" s="11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AP14" s="11" t="s">
         <v>406</v>
       </c>
       <c r="AQ14" s="11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AR14" s="11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AS14" s="11" t="s">
         <v>406</v>
@@ -6722,7 +6731,7 @@
         <v>108</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>47</v>
@@ -6743,16 +6752,16 @@
         <v>108</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="N16" s="9" t="s">
         <v>136</v>
@@ -6761,7 +6770,7 @@
         <v>141</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>108</v>
@@ -6773,10 +6782,10 @@
         <v>205</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="V16" s="78" t="s">
         <v>826</v>
@@ -6785,16 +6794,16 @@
         <v>177</v>
       </c>
       <c r="X16" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="Y16" s="9" t="s">
         <v>897</v>
       </c>
-      <c r="Y16" s="9" t="s">
-        <v>898</v>
-      </c>
       <c r="Z16" s="9" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AA16" s="9" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AB16" s="9" t="s">
         <v>197</v>
@@ -6803,7 +6812,7 @@
         <v>136</v>
       </c>
       <c r="AD16" s="9" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AE16" s="74" t="s">
         <v>269</v>
@@ -6837,7 +6846,7 @@
         <v>276</v>
       </c>
       <c r="AP16" s="9" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AQ16" s="74" t="s">
         <v>292</v>
@@ -6846,7 +6855,7 @@
         <v>294</v>
       </c>
       <c r="AS16" s="9" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="191" customHeight="1">
@@ -6889,7 +6898,7 @@
       <c r="M17" s="61" t="s">
         <v>403</v>
       </c>
-      <c r="N17" s="180" t="s">
+      <c r="N17" s="179" t="s">
         <v>137</v>
       </c>
       <c r="O17" s="61" t="s">
@@ -6914,7 +6923,7 @@
         <v>403</v>
       </c>
       <c r="V17" s="61" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="W17" s="61" t="s">
         <v>179</v>
@@ -6956,10 +6965,10 @@
         <v>403</v>
       </c>
       <c r="AJ17" s="79" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AK17" s="79" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="AL17" s="84" t="s">
         <v>441</v>
@@ -6968,7 +6977,7 @@
         <v>255</v>
       </c>
       <c r="AN17" s="86" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="AO17" s="61" t="s">
         <v>277</v>
@@ -7366,7 +7375,7 @@
       <c r="AI20" s="43">
         <v>700</v>
       </c>
-      <c r="AJ20" s="183">
+      <c r="AJ20" s="182">
         <v>800</v>
       </c>
       <c r="AK20" s="43">
@@ -7521,7 +7530,7 @@
       <c r="AO21" s="44">
         <v>900</v>
       </c>
-      <c r="AP21" s="174">
+      <c r="AP21" s="173">
         <v>1350</v>
       </c>
       <c r="AQ21" s="44">
@@ -8384,14 +8393,14 @@
       <c r="J29" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="K29" s="182" t="s">
-        <v>921</v>
+      <c r="K29" s="181" t="s">
+        <v>920</v>
       </c>
       <c r="L29" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="M29" s="182" t="s">
-        <v>921</v>
+      <c r="M29" s="181" t="s">
+        <v>920</v>
       </c>
       <c r="N29" s="38" t="s">
         <v>8</v>
@@ -8405,20 +8414,20 @@
       <c r="Q29" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="R29" s="182" t="s">
-        <v>921</v>
+      <c r="R29" s="181" t="s">
+        <v>920</v>
       </c>
       <c r="S29" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="182" t="s">
-        <v>921</v>
+      <c r="T29" s="181" t="s">
+        <v>920</v>
       </c>
       <c r="U29" s="55" t="s">
         <v>679</v>
       </c>
-      <c r="V29" s="182" t="s">
-        <v>921</v>
+      <c r="V29" s="181" t="s">
+        <v>920</v>
       </c>
       <c r="W29" s="55" t="s">
         <v>31</v>
@@ -8429,14 +8438,14 @@
       <c r="Y29" s="55" t="s">
         <v>680</v>
       </c>
-      <c r="Z29" s="182" t="s">
-        <v>921</v>
-      </c>
-      <c r="AA29" s="182" t="s">
-        <v>921</v>
-      </c>
-      <c r="AB29" s="182" t="s">
-        <v>921</v>
+      <c r="Z29" s="181" t="s">
+        <v>920</v>
+      </c>
+      <c r="AA29" s="181" t="s">
+        <v>920</v>
+      </c>
+      <c r="AB29" s="181" t="s">
+        <v>920</v>
       </c>
       <c r="AC29" s="38" t="s">
         <v>8</v>
@@ -8454,8 +8463,8 @@
       <c r="AH29" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AI29" s="182" t="s">
-        <v>921</v>
+      <c r="AI29" s="181" t="s">
+        <v>920</v>
       </c>
       <c r="AJ29" s="55" t="s">
         <v>31</v>
@@ -8466,17 +8475,17 @@
       <c r="AL29" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AM29" s="182" t="s">
-        <v>921</v>
-      </c>
-      <c r="AN29" s="182" t="s">
-        <v>921</v>
+      <c r="AM29" s="181" t="s">
+        <v>920</v>
+      </c>
+      <c r="AN29" s="181" t="s">
+        <v>920</v>
       </c>
       <c r="AO29" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="AP29" s="182" t="s">
-        <v>921</v>
+      <c r="AP29" s="181" t="s">
+        <v>920</v>
       </c>
       <c r="AQ29" s="55" t="s">
         <v>283</v>
@@ -8498,7 +8507,7 @@
       <c r="G31" s="170"/>
       <c r="H31" s="19"/>
       <c r="I31" s="171" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="J31" s="170"/>
       <c r="K31" s="170"/>
@@ -8511,22 +8520,26 @@
       <c r="P31" s="170"/>
       <c r="Q31" s="170"/>
       <c r="R31" s="172" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="S31" s="170"/>
       <c r="T31" s="170"/>
       <c r="U31" s="170"/>
       <c r="V31" s="171" t="s">
-        <v>852</v>
-      </c>
-      <c r="W31" s="171"/>
+        <v>924</v>
+      </c>
+      <c r="W31" s="171" t="s">
+        <v>923</v>
+      </c>
       <c r="X31" s="170"/>
       <c r="Y31" s="170"/>
       <c r="Z31" s="170"/>
       <c r="AA31" s="170"/>
-      <c r="AB31" s="19"/>
+      <c r="AB31" s="190" t="s">
+        <v>926</v>
+      </c>
       <c r="AC31" s="172" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AD31" s="170"/>
       <c r="AE31" s="170"/>
@@ -8535,14 +8548,16 @@
       <c r="AH31" s="19"/>
       <c r="AI31" s="170"/>
       <c r="AJ31" s="172" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AK31" s="170"/>
       <c r="AL31" s="170"/>
-      <c r="AM31" s="173"/>
+      <c r="AM31" s="190" t="s">
+        <v>925</v>
+      </c>
       <c r="AN31" s="170"/>
       <c r="AO31" s="19" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AP31" s="170"/>
       <c r="AQ31" s="170"/>
@@ -10913,7 +10928,7 @@
       <c r="G19" s="166"/>
       <c r="H19" s="162"/>
       <c r="I19" s="163" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J19" s="162"/>
       <c r="K19" s="162"/>
@@ -11170,7 +11185,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:45" s="181" customFormat="1" ht="68">
+    <row r="3" spans="1:45" s="180" customFormat="1" ht="68">
       <c r="A3" s="151" t="s">
         <v>776</v>
       </c>
@@ -13017,7 +13032,7 @@
       </c>
       <c r="H18" s="162"/>
       <c r="I18" s="163" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J18" s="162"/>
       <c r="K18" s="162"/>
@@ -13266,63 +13281,63 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="33" customHeight="1">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="176" t="s">
         <v>824</v>
       </c>
       <c r="B2" s="135" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17">
-      <c r="A3" s="177" t="s">
-        <v>891</v>
+      <c r="A3" s="176" t="s">
+        <v>890</v>
       </c>
       <c r="B3" s="135" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="51">
-      <c r="A4" s="177" t="s">
-        <v>896</v>
+      <c r="A4" s="176" t="s">
+        <v>895</v>
       </c>
       <c r="B4" s="135" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="51">
+      <c r="A5" s="176" t="s">
+        <v>903</v>
+      </c>
+      <c r="B5" s="135" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="176"/>
+      <c r="B6" s="135"/>
+    </row>
+    <row r="7" spans="1:2" ht="34">
+      <c r="A7" s="176" t="s">
+        <v>899</v>
+      </c>
+      <c r="B7" s="135" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="176"/>
+      <c r="B8" s="135"/>
+    </row>
+    <row r="9" spans="1:2" ht="34">
+      <c r="A9" s="177" t="s">
+        <v>704</v>
+      </c>
+      <c r="B9" s="135" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="51">
-      <c r="A5" s="177" t="s">
-        <v>904</v>
-      </c>
-      <c r="B5" s="135" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="177"/>
-      <c r="B6" s="135"/>
-    </row>
-    <row r="7" spans="1:2" ht="34">
-      <c r="A7" s="177" t="s">
-        <v>900</v>
-      </c>
-      <c r="B7" s="135" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="177"/>
-      <c r="B8" s="135"/>
-    </row>
-    <row r="9" spans="1:2" ht="34">
-      <c r="A9" s="178" t="s">
-        <v>704</v>
-      </c>
-      <c r="B9" s="135" t="s">
-        <v>910</v>
-      </c>
-    </row>
     <row r="10" spans="1:2" ht="34">
-      <c r="A10" s="178" t="s">
+      <c r="A10" s="177" t="s">
         <v>705</v>
       </c>
       <c r="B10" s="135" t="s">
@@ -13330,19 +13345,19 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="51">
-      <c r="A11" s="178" t="s">
+      <c r="A11" s="177" t="s">
         <v>706</v>
       </c>
       <c r="B11" s="135" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="33" customHeight="1">
+      <c r="A12" s="177" t="s">
+        <v>725</v>
+      </c>
+      <c r="B12" s="135" t="s">
         <v>906</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="33" customHeight="1">
-      <c r="A12" s="178" t="s">
-        <v>725</v>
-      </c>
-      <c r="B12" s="135" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -13352,8 +13367,8 @@
       <c r="A14" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="B14" s="179" t="s">
-        <v>914</v>
+      <c r="B14" s="178" t="s">
+        <v>913</v>
       </c>
     </row>
   </sheetData>

--- a/sources/European_Exposure_Model_Data_Inputs_Sources.xlsx
+++ b/sources/European_Exposure_Model_Data_Inputs_Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helencrowley/Documents/5-GitHub/esrm20_exposure/sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D9B53A-BDB3-8749-A18D-5E2ADA8BCE34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9127CB8-B05C-9141-8472-44B4FB759C55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="520" windowWidth="28300" windowHeight="16700" activeTab="1" xr2:uid="{3ADB8CE8-CD4D-1C4D-B72A-BA24B45CE5E7}"/>
+    <workbookView xWindow="500" yWindow="520" windowWidth="28300" windowHeight="16700" activeTab="3" xr2:uid="{3ADB8CE8-CD4D-1C4D-B72A-BA24B45CE5E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="4" r:id="rId1"/>
@@ -3709,29 +3709,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4062,10 +4062,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="48" customHeight="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="189" t="s">
         <v>893</v>
       </c>
-      <c r="B1" s="183"/>
+      <c r="B1" s="189"/>
     </row>
     <row r="2" spans="1:3" ht="22" customHeight="1">
       <c r="A2" s="185" t="s">
@@ -4075,7 +4075,7 @@
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="22" customHeight="1">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="186" t="s">
         <v>912</v>
       </c>
       <c r="B3" s="185"/>
@@ -4093,20 +4093,20 @@
       <c r="B5" s="185"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="184"/>
-      <c r="B6" s="184"/>
+      <c r="A6" s="190"/>
+      <c r="B6" s="190"/>
     </row>
     <row r="7" spans="1:3" ht="39">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="187" t="s">
         <v>687</v>
       </c>
-      <c r="B7" s="188"/>
+      <c r="B7" s="187"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="189" t="s">
+      <c r="A8" s="188" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="189"/>
+      <c r="B8" s="188"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3"/>
@@ -4272,10 +4272,10 @@
       <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="186" t="s">
+      <c r="A30" s="184" t="s">
         <v>212</v>
       </c>
-      <c r="B30" s="186"/>
+      <c r="B30" s="184"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4"/>
@@ -4342,10 +4342,10 @@
       <c r="B39" s="4"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="186" t="s">
+      <c r="A41" s="184" t="s">
         <v>698</v>
       </c>
-      <c r="B41" s="186"/>
+      <c r="B41" s="184"/>
     </row>
     <row r="42" spans="1:2" ht="51">
       <c r="A42" s="61" t="s">
@@ -4364,16 +4364,16 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="39">
-      <c r="A45" s="188" t="s">
+      <c r="A45" s="187" t="s">
         <v>856</v>
       </c>
-      <c r="B45" s="188"/>
+      <c r="B45" s="187"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="189" t="s">
+      <c r="A46" s="188" t="s">
         <v>447</v>
       </c>
-      <c r="B46" s="189"/>
+      <c r="B46" s="188"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="3"/>
@@ -4488,10 +4488,10 @@
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="186" t="s">
+      <c r="A64" s="184" t="s">
         <v>698</v>
       </c>
-      <c r="B64" s="186"/>
+      <c r="B64" s="184"/>
     </row>
     <row r="65" spans="1:2" ht="51">
       <c r="A65" s="61" t="s">
@@ -4510,16 +4510,16 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="39">
-      <c r="A68" s="188" t="s">
+      <c r="A68" s="187" t="s">
         <v>855</v>
       </c>
-      <c r="B68" s="188"/>
+      <c r="B68" s="187"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="189" t="s">
+      <c r="A69" s="188" t="s">
         <v>546</v>
       </c>
-      <c r="B69" s="189"/>
+      <c r="B69" s="188"/>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3"/>
@@ -4602,10 +4602,10 @@
       <c r="B80" s="4"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="186" t="s">
+      <c r="A81" s="184" t="s">
         <v>212</v>
       </c>
-      <c r="B81" s="186"/>
+      <c r="B81" s="184"/>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="4"/>
@@ -4644,10 +4644,10 @@
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="186" t="s">
+      <c r="A88" s="184" t="s">
         <v>698</v>
       </c>
-      <c r="B88" s="186"/>
+      <c r="B88" s="184"/>
     </row>
     <row r="89" spans="1:2" ht="51">
       <c r="A89" s="61" t="s">
@@ -4675,6 +4675,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A64:B64"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -4686,12 +4692,6 @@
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A64:B64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4701,7 +4701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D9D520-21E0-4740-A733-1FA0F3F531E7}">
   <dimension ref="A1:AS82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -8535,7 +8535,7 @@
       <c r="Y31" s="170"/>
       <c r="Z31" s="170"/>
       <c r="AA31" s="170"/>
-      <c r="AB31" s="190" t="s">
+      <c r="AB31" s="183" t="s">
         <v>926</v>
       </c>
       <c r="AC31" s="172" t="s">
@@ -8552,7 +8552,7 @@
       </c>
       <c r="AK31" s="170"/>
       <c r="AL31" s="170"/>
-      <c r="AM31" s="190" t="s">
+      <c r="AM31" s="183" t="s">
         <v>925</v>
       </c>
       <c r="AN31" s="170"/>
@@ -10987,11 +10987,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AEA308-1482-084B-80EE-660006D8760C}">
   <dimension ref="A1:AS74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U11" sqref="U11"/>
+      <selection pane="bottomRight" activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11676,7 +11676,7 @@
         <v>34</v>
       </c>
       <c r="AA6" s="94" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="AB6" s="94" t="s">
         <v>34</v>

--- a/sources/European_Exposure_Model_Data_Inputs_Sources.xlsx
+++ b/sources/European_Exposure_Model_Data_Inputs_Sources.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helencrowley/Documents/5-GitHub/esrm20_exposure/sources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\GFZ_local\SERA\From_EFEHR_GitLab\esrm20_exposure\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9127CB8-B05C-9141-8472-44B4FB759C55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="520" windowWidth="28300" windowHeight="16700" activeTab="3" xr2:uid="{3ADB8CE8-CD4D-1C4D-B72A-BA24B45CE5E7}"/>
+    <workbookView xWindow="504" yWindow="516" windowWidth="28296" windowHeight="16704"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="4" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="COM" sheetId="2" r:id="rId4"/>
     <sheet name="References" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="932">
   <si>
     <t>data_Albania_RES_census-buildings.xlsx</t>
   </si>
@@ -2664,9 +2663,6 @@
     <t>Population spatial distribution data</t>
   </si>
   <si>
-    <t xml:space="preserve">The structural and non-structural reconstruction cost per m^2 is assumed to comprise 80% of the total replacement cost. The total replacement cost is divided into structural, non-structural and contents according to the following percentages: 0.3, 0.5, 0.2, respectively. The structural and non-structural reconstruction cost has been adapted for different materials according to the macro-taxonomy as follows: ﻿MIX:1.00, MUR:0.95, ADO:0.95, CR:1.05, M:1.05, S:1.00, W:0.95, OT:1.00. </t>
-  </si>
-  <si>
     <t>Change in CDL lateral force coefficients not considered (due to year not being in mapping scheme)</t>
   </si>
   <si>
@@ -2731,12 +2727,6 @@
   </si>
   <si>
     <t>Occupants (day, night, transit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The structural and non-structural reconstruction cost per m^2 is assumed to comprise 40% of the total replacement cost. The total replacement cost is divided into structural, non-structural and contents according to the following percentages: 0.15, 0.25, 0.6, respectively. The structural and non-structural reconstruction cost has been adapted for different materials according to the macro-taxonomy as follows: ﻿MIX:1.00, MUR:0.95, ADO:0.95, CR:1.05, M:1.05, S:1.00, W:0.95, OT:1.00. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The structural and non-structural reconstruction cost per m^2 is assumed to comprise 50% of the total replacement cost. The total replacement cost is divided into structural, non-structural and contents according to the following percentages: 0.2, 0.3, 0.5, respectively. The structural and non-structural reconstruction cost has been adapted for different materials according to the macro-taxonomy as follows: ﻿MIX:1.00, MUR:0.95, ADO:0.95, CR:1.05, M:1.05, S:1.00, W:0.95, OT:1.00. </t>
   </si>
   <si>
     <t>Name of the file that contains the mapping scheme to map census attributes to bulding classes (inside folder 'res_mapping_schemes')</t>
@@ -2936,17 +2926,41 @@
   </si>
   <si>
     <t>The dwellings from the 2005 census have been uniformly scaled to the total number of dwellings from Eurostat 2011</t>
+  </si>
+  <si>
+    <t>Occupants</t>
+  </si>
+  <si>
+    <t>Replacement cost: structural / total</t>
+  </si>
+  <si>
+    <t>Replacement cost: non-structural / total</t>
+  </si>
+  <si>
+    <t>Replacement cost: contents / total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The structural and non-structural reconstruction cost per m^2 is assumed to comprise 80% of the total replacement cost. The total replacement cost is divided into structural, non-structural and contents according to the percentages shown in the rows below. The structural and non-structural reconstruction cost has been adapted for different materials according to the macro-taxonomy as follows: ﻿MIX:1.00, MUR:0.95, ADO:0.95, CR:1.05, M:1.05, S:1.00, W:0.95, OT:1.00. </t>
+  </si>
+  <si>
+    <t>Replacement Costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The structural and non-structural reconstruction cost per m^2 is assumed to comprise 40% of the total replacement cost. The total replacement cost is divided into structural, non-structural and contents according to the percentages shown in the rows below. The structural and non-structural reconstruction cost has been adapted for different materials according to the macro-taxonomy as follows: ﻿MIX:1.00, MUR:0.95, ADO:0.95, CR:1.05, M:1.05, S:1.00, W:0.95, OT:1.00. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The structural and non-structural reconstruction cost per m^2 is assumed to comprise 50% of the total replacement cost. The total replacement cost is divided into structural, non-structural and contents according to the percentages shown in the rows below. The structural and non-structural reconstruction cost has been adapted for different materials according to the macro-taxonomy as follows: ﻿MIX:1.00, MUR:0.95, ADO:0.95, CR:1.05, M:1.05, S:1.00, W:0.95, OT:1.00. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3013,6 +3027,18 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -3237,9 +3263,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3607,7 +3633,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3712,13 +3738,19 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3727,11 +3759,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4048,65 +4086,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDE1935-F182-8E4C-A9F6-BCE17C9647EE}">
-  <dimension ref="A1:D91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="44.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="155.6640625" customWidth="1"/>
+    <col min="1" max="1" width="44.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="155.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="48" customHeight="1">
-      <c r="A1" s="189" t="s">
-        <v>893</v>
-      </c>
-      <c r="B1" s="189"/>
-    </row>
-    <row r="2" spans="1:3" ht="22" customHeight="1">
-      <c r="A2" s="185" t="s">
-        <v>910</v>
-      </c>
-      <c r="B2" s="185"/>
+      <c r="A1" s="184" t="s">
+        <v>890</v>
+      </c>
+      <c r="B1" s="184"/>
+    </row>
+    <row r="2" spans="1:3" ht="22.05" customHeight="1">
+      <c r="A2" s="186" t="s">
+        <v>907</v>
+      </c>
+      <c r="B2" s="186"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" ht="22" customHeight="1">
-      <c r="A3" s="186" t="s">
-        <v>912</v>
-      </c>
-      <c r="B3" s="185"/>
-    </row>
-    <row r="4" spans="1:3" ht="22" customHeight="1">
-      <c r="A4" s="185" t="s">
-        <v>892</v>
-      </c>
-      <c r="B4" s="185"/>
-    </row>
-    <row r="5" spans="1:3" ht="22" customHeight="1">
-      <c r="A5" s="185" t="s">
-        <v>911</v>
-      </c>
-      <c r="B5" s="185"/>
+    <row r="3" spans="1:3" ht="22.05" customHeight="1">
+      <c r="A3" s="188" t="s">
+        <v>909</v>
+      </c>
+      <c r="B3" s="186"/>
+    </row>
+    <row r="4" spans="1:3" ht="22.05" customHeight="1">
+      <c r="A4" s="186" t="s">
+        <v>889</v>
+      </c>
+      <c r="B4" s="186"/>
+    </row>
+    <row r="5" spans="1:3" ht="22.05" customHeight="1">
+      <c r="A5" s="186" t="s">
+        <v>908</v>
+      </c>
+      <c r="B5" s="186"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="190"/>
-      <c r="B6" s="190"/>
-    </row>
-    <row r="7" spans="1:3" ht="39">
-      <c r="A7" s="187" t="s">
+      <c r="A6" s="185"/>
+      <c r="B6" s="185"/>
+    </row>
+    <row r="7" spans="1:3" ht="38.4">
+      <c r="A7" s="189" t="s">
         <v>687</v>
       </c>
-      <c r="B7" s="187"/>
+      <c r="B7" s="189"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="190" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="188"/>
+      <c r="B8" s="190"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3"/>
@@ -4149,7 +4187,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4165,7 +4203,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4248,7 +4286,7 @@
         <v>827</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4256,7 +4294,7 @@
         <v>828</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4264,7 +4302,7 @@
         <v>829</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4272,10 +4310,10 @@
       <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="184" t="s">
+      <c r="A30" s="187" t="s">
         <v>212</v>
       </c>
-      <c r="B30" s="184"/>
+      <c r="B30" s="187"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4"/>
@@ -4337,368 +4375,465 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="184" t="s">
-        <v>698</v>
-      </c>
-      <c r="B41" s="184"/>
-    </row>
-    <row r="42" spans="1:2" ht="51">
+    <row r="40" spans="1:2">
+      <c r="A40" s="191" t="s">
+        <v>929</v>
+      </c>
+      <c r="B40" s="191"/>
+    </row>
+    <row r="42" spans="1:2" ht="46.8">
       <c r="A42" s="61" t="s">
         <v>830</v>
       </c>
-      <c r="B42" s="68" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="34">
-      <c r="A43" s="8" t="s">
-        <v>858</v>
-      </c>
-      <c r="B43" s="174" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="39">
-      <c r="A45" s="187" t="s">
-        <v>856</v>
-      </c>
-      <c r="B45" s="187"/>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="188" t="s">
+      <c r="B42" s="193" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="192" t="s">
+        <v>925</v>
+      </c>
+      <c r="B43" s="194">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="192" t="s">
+        <v>926</v>
+      </c>
+      <c r="B44" s="194">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="192" t="s">
+        <v>927</v>
+      </c>
+      <c r="B45" s="194">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="191" t="s">
+        <v>924</v>
+      </c>
+      <c r="B47" s="191"/>
+    </row>
+    <row r="49" spans="1:2" ht="31.2">
+      <c r="A49" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="B49" s="174" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="38.4">
+      <c r="A51" s="189" t="s">
+        <v>855</v>
+      </c>
+      <c r="B51" s="189"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="190" t="s">
         <v>447</v>
       </c>
-      <c r="B46" s="188"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="91" t="s">
+      <c r="B52" s="190"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="91" t="s">
         <v>448</v>
       </c>
-      <c r="B48" s="91"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="66" t="s">
+      <c r="B54" s="91"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="66" t="s">
         <v>449</v>
       </c>
-      <c r="B49" s="66"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="66" t="s">
+      <c r="B55" s="66"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="66" t="s">
         <v>450</v>
       </c>
-      <c r="B50" s="66"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="66" t="s">
+      <c r="B56" s="66"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="66" t="s">
         <v>451</v>
       </c>
-      <c r="B51" s="66"/>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="92" t="s">
+      <c r="B57" s="66"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="18" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="102" t="s">
+      <c r="B58" s="18" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="102" t="s">
         <v>460</v>
       </c>
-      <c r="B53" s="6"/>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="103" t="s">
+      <c r="B59" s="6"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="148"/>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="90" t="s">
+      <c r="B60" s="148"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="90" t="s">
         <v>723</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B61" s="13" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="90" t="s">
+        <v>452</v>
+      </c>
+      <c r="B62" s="82" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="90" t="s">
-        <v>452</v>
-      </c>
-      <c r="B56" s="82" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="41" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="90" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="175" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="125" t="s">
+        <v>830</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="191" t="s">
+        <v>929</v>
+      </c>
+      <c r="B70" s="191"/>
+    </row>
+    <row r="72" spans="1:2" ht="46.8">
+      <c r="A72" s="61" t="s">
+        <v>830</v>
+      </c>
+      <c r="B72" s="68" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="192" t="s">
+        <v>925</v>
+      </c>
+      <c r="B73" s="194">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="192" t="s">
+        <v>926</v>
+      </c>
+      <c r="B74" s="194">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="192" t="s">
+        <v>927</v>
+      </c>
+      <c r="B75" s="194">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="191" t="s">
+        <v>924</v>
+      </c>
+      <c r="B77" s="191"/>
+    </row>
+    <row r="79" spans="1:2" ht="31.2">
+      <c r="A79" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="B79" s="174" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="38.4">
+      <c r="A81" s="189" t="s">
+        <v>854</v>
+      </c>
+      <c r="B81" s="189"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="190" t="s">
+        <v>546</v>
+      </c>
+      <c r="B82" s="190"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+    </row>
+    <row r="84" spans="1:2" ht="31.2">
+      <c r="A84" s="151" t="s">
+        <v>776</v>
+      </c>
+      <c r="B84" s="151" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="152" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="109" t="s">
+        <v>708</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B87" s="41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="128" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="175" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="155" t="s">
+        <v>833</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="130" t="s">
+        <v>832</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="156" t="s">
+        <v>831</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="187" t="s">
+        <v>212</v>
+      </c>
+      <c r="B94" s="187"/>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="139" t="s">
+        <v>869</v>
+      </c>
+      <c r="B96" s="139" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="138" t="s">
+        <v>871</v>
+      </c>
+      <c r="B97" s="138" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="138" t="s">
+        <v>870</v>
+      </c>
+      <c r="B98" s="138" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="14" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="10" t="s">
-        <v>712</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B60" s="41" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="82" t="s">
+      <c r="B99" s="36" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="191" t="s">
+        <v>929</v>
+      </c>
+      <c r="B101" s="191"/>
+    </row>
+    <row r="103" spans="1:2" ht="46.8">
+      <c r="A103" s="61" t="s">
+        <v>830</v>
+      </c>
+      <c r="B103" s="68" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="192" t="s">
+        <v>925</v>
+      </c>
+      <c r="B104" s="194">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="192" t="s">
+        <v>926</v>
+      </c>
+      <c r="B105" s="194">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="192" t="s">
+        <v>927</v>
+      </c>
+      <c r="B106" s="194">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="191" t="s">
+        <v>924</v>
+      </c>
+      <c r="B108" s="191"/>
+    </row>
+    <row r="110" spans="1:2" ht="31.2">
+      <c r="A110" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="B110" s="174" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="187" t="s">
+        <v>698</v>
+      </c>
+      <c r="B112" s="187"/>
+    </row>
+    <row r="114" spans="1:2" ht="31.2" customHeight="1">
+      <c r="A114" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B61" s="175" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="125" t="s">
-        <v>830</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="184" t="s">
-        <v>698</v>
-      </c>
-      <c r="B64" s="184"/>
-    </row>
-    <row r="65" spans="1:2" ht="51">
-      <c r="A65" s="61" t="s">
-        <v>830</v>
-      </c>
-      <c r="B65" s="68" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="34">
-      <c r="A66" s="8" t="s">
-        <v>858</v>
-      </c>
-      <c r="B66" s="174" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="39">
-      <c r="A68" s="187" t="s">
-        <v>855</v>
-      </c>
-      <c r="B68" s="187"/>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="188" t="s">
-        <v>546</v>
-      </c>
-      <c r="B69" s="188"/>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-    </row>
-    <row r="71" spans="1:2" ht="34">
-      <c r="A71" s="151" t="s">
-        <v>776</v>
-      </c>
-      <c r="B71" s="151" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="152" t="s">
-        <v>6</v>
-      </c>
-      <c r="B72" s="18" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="109" t="s">
-        <v>708</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B74" s="41" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="128" t="s">
-        <v>4</v>
-      </c>
-      <c r="B75" s="175" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="155" t="s">
-        <v>833</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="130" t="s">
-        <v>832</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="156" t="s">
-        <v>831</v>
-      </c>
-      <c r="B79" s="18" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="184" t="s">
-        <v>212</v>
-      </c>
-      <c r="B81" s="184"/>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="139" t="s">
-        <v>872</v>
-      </c>
-      <c r="B83" s="139" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="138" t="s">
-        <v>874</v>
-      </c>
-      <c r="B84" s="138" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="138" t="s">
-        <v>873</v>
-      </c>
-      <c r="B85" s="138" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B86" s="36" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="184" t="s">
-        <v>698</v>
-      </c>
-      <c r="B88" s="184"/>
-    </row>
-    <row r="89" spans="1:2" ht="51">
-      <c r="A89" s="61" t="s">
-        <v>830</v>
-      </c>
-      <c r="B89" s="68" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="34">
-      <c r="A90" s="8" t="s">
-        <v>858</v>
-      </c>
-      <c r="B90" s="174" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="51">
-      <c r="A91" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="B91" s="68" t="s">
-        <v>864</v>
+      <c r="B114" s="68" t="s">
+        <v>861</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="21">
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A77:B77"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A70:B70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D9D520-21E0-4740-A733-1FA0F3F531E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4708,55 +4843,55 @@
       <selection pane="bottomRight" activeCell="AB32" sqref="AB32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="41" style="28" customWidth="1"/>
-    <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.33203125" customWidth="1"/>
-    <col min="7" max="7" width="61.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.296875" customWidth="1"/>
+    <col min="7" max="7" width="61.296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.296875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="36" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="37" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="36" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="50.296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="37" customWidth="1"/>
     <col min="16" max="16" width="36" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="47.296875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="37.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="37" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="35.83203125" customWidth="1"/>
+    <col min="20" max="20" width="35.796875" customWidth="1"/>
     <col min="21" max="21" width="36" customWidth="1"/>
-    <col min="22" max="22" width="34.83203125" customWidth="1"/>
+    <col min="22" max="22" width="34.796875" customWidth="1"/>
     <col min="23" max="23" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="37.83203125" customWidth="1"/>
-    <col min="25" max="25" width="40.1640625" customWidth="1"/>
-    <col min="26" max="26" width="37.33203125" customWidth="1"/>
-    <col min="27" max="27" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="51.33203125" customWidth="1"/>
-    <col min="29" max="29" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="39.1640625" customWidth="1"/>
-    <col min="31" max="31" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="37.796875" customWidth="1"/>
+    <col min="25" max="25" width="40.19921875" customWidth="1"/>
+    <col min="26" max="26" width="37.296875" customWidth="1"/>
+    <col min="27" max="27" width="39.69921875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="51.296875" customWidth="1"/>
+    <col min="29" max="29" width="36.19921875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="39.19921875" customWidth="1"/>
+    <col min="31" max="31" width="39.69921875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="39.296875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="39.6640625" customWidth="1"/>
-    <col min="35" max="35" width="45.6640625" customWidth="1"/>
-    <col min="36" max="36" width="40.6640625" customWidth="1"/>
-    <col min="37" max="37" width="55.1640625" customWidth="1"/>
-    <col min="38" max="38" width="41.83203125" customWidth="1"/>
-    <col min="39" max="39" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="39.69921875" customWidth="1"/>
+    <col min="35" max="35" width="45.69921875" customWidth="1"/>
+    <col min="36" max="36" width="40.69921875" customWidth="1"/>
+    <col min="37" max="37" width="55.19921875" customWidth="1"/>
+    <col min="38" max="38" width="41.796875" customWidth="1"/>
+    <col min="39" max="39" width="46.69921875" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="44.5" customWidth="1"/>
     <col min="41" max="41" width="49.5" customWidth="1"/>
-    <col min="42" max="42" width="37.83203125" customWidth="1"/>
-    <col min="43" max="43" width="59.6640625" customWidth="1"/>
-    <col min="44" max="44" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="37.796875" customWidth="1"/>
+    <col min="43" max="43" width="59.69921875" customWidth="1"/>
+    <col min="44" max="44" width="43.296875" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="43.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="1" customFormat="1" ht="35" customHeight="1">
+    <row r="1" spans="1:45" s="1" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>387</v>
       </c>
@@ -4893,7 +5028,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:45" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="2" spans="1:45" s="1" customFormat="1" ht="19.95" customHeight="1">
       <c r="A2" s="31" t="s">
         <v>38</v>
       </c>
@@ -5353,7 +5488,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:45" ht="51">
+    <row r="6" spans="1:45" ht="46.8">
       <c r="A6" s="18" t="s">
         <v>2</v>
       </c>
@@ -5361,7 +5496,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>42</v>
@@ -5382,16 +5517,16 @@
         <v>118</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="N6" s="72" t="s">
         <v>133</v>
@@ -5400,7 +5535,7 @@
         <v>139</v>
       </c>
       <c r="P6" s="22" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="Q6" s="22" t="s">
         <v>150</v>
@@ -5412,10 +5547,10 @@
         <v>161</v>
       </c>
       <c r="T6" s="22" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="U6" s="22" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="V6" s="22" t="s">
         <v>823</v>
@@ -5424,16 +5559,16 @@
         <v>175</v>
       </c>
       <c r="X6" s="22" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="Y6" s="22" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="Z6" s="22" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="AA6" s="22" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="AB6" s="22" t="s">
         <v>194</v>
@@ -5442,7 +5577,7 @@
         <v>199</v>
       </c>
       <c r="AD6" s="22" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="AE6" s="22" t="s">
         <v>206</v>
@@ -5457,7 +5592,7 @@
         <v>229</v>
       </c>
       <c r="AI6" s="22" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="AJ6" s="22" t="s">
         <v>240</v>
@@ -5478,7 +5613,7 @@
         <v>273</v>
       </c>
       <c r="AP6" s="22" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="AQ6" s="22" t="s">
         <v>282</v>
@@ -5487,7 +5622,7 @@
         <v>285</v>
       </c>
       <c r="AS6" s="22" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -5627,7 +5762,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="8" spans="1:45" ht="34">
+    <row r="8" spans="1:45" ht="31.2">
       <c r="A8" s="11" t="s">
         <v>2</v>
       </c>
@@ -5635,7 +5770,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>31</v>
@@ -5674,7 +5809,7 @@
         <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>31</v>
@@ -5689,7 +5824,7 @@
         <v>168</v>
       </c>
       <c r="U8" s="76" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="V8" s="76" t="s">
         <v>31</v>
@@ -5701,7 +5836,7 @@
         <v>181</v>
       </c>
       <c r="Y8" s="7" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="Z8" s="7" t="s">
         <v>188</v>
@@ -5716,7 +5851,7 @@
         <v>201</v>
       </c>
       <c r="AD8" s="7" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="AE8" s="7" t="s">
         <v>31</v>
@@ -6312,111 +6447,111 @@
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:45" ht="17">
+    <row r="13" spans="1:45">
       <c r="A13" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="J13" s="73" t="s">
+        <v>893</v>
+      </c>
+      <c r="K13" s="73" t="s">
+        <v>893</v>
+      </c>
+      <c r="L13" s="73" t="s">
+        <v>893</v>
+      </c>
+      <c r="M13" s="73" t="s">
+        <v>893</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>893</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>893</v>
+      </c>
+      <c r="U13" s="14" t="s">
         <v>894</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>898</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>894</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>894</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>894</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>894</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>894</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>894</v>
-      </c>
-      <c r="J13" s="73" t="s">
-        <v>896</v>
-      </c>
-      <c r="K13" s="73" t="s">
-        <v>896</v>
-      </c>
-      <c r="L13" s="73" t="s">
-        <v>896</v>
-      </c>
-      <c r="M13" s="73" t="s">
-        <v>896</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>894</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>894</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>896</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>894</v>
-      </c>
-      <c r="R13" s="14" t="s">
-        <v>894</v>
-      </c>
-      <c r="S13" s="14" t="s">
-        <v>894</v>
-      </c>
-      <c r="T13" s="14" t="s">
-        <v>896</v>
-      </c>
-      <c r="U13" s="14" t="s">
-        <v>897</v>
       </c>
       <c r="V13" s="14" t="s">
         <v>243</v>
       </c>
       <c r="W13" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="X13" s="22" t="s">
         <v>894</v>
       </c>
-      <c r="X13" s="22" t="s">
-        <v>897</v>
-      </c>
       <c r="Y13" s="14" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="Z13" s="22" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="AA13" s="22" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="AB13" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="AC13" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="AD13" s="14" t="s">
+        <v>893</v>
+      </c>
+      <c r="AE13" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="AF13" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="AG13" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="AH13" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="AI13" s="22" t="s">
         <v>894</v>
-      </c>
-      <c r="AC13" s="14" t="s">
-        <v>894</v>
-      </c>
-      <c r="AD13" s="14" t="s">
-        <v>896</v>
-      </c>
-      <c r="AE13" s="14" t="s">
-        <v>894</v>
-      </c>
-      <c r="AF13" s="14" t="s">
-        <v>894</v>
-      </c>
-      <c r="AG13" s="14" t="s">
-        <v>894</v>
-      </c>
-      <c r="AH13" s="14" t="s">
-        <v>894</v>
-      </c>
-      <c r="AI13" s="22" t="s">
-        <v>897</v>
       </c>
       <c r="AJ13" s="14" t="s">
         <v>249</v>
@@ -6428,25 +6563,25 @@
         <v>259</v>
       </c>
       <c r="AM13" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="AN13" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="AO13" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="AP13" s="22" t="s">
         <v>894</v>
       </c>
-      <c r="AN13" s="14" t="s">
+      <c r="AQ13" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="AR13" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="AS13" s="14" t="s">
         <v>894</v>
-      </c>
-      <c r="AO13" s="14" t="s">
-        <v>894</v>
-      </c>
-      <c r="AP13" s="22" t="s">
-        <v>897</v>
-      </c>
-      <c r="AQ13" s="14" t="s">
-        <v>894</v>
-      </c>
-      <c r="AR13" s="14" t="s">
-        <v>894</v>
-      </c>
-      <c r="AS13" s="14" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -6454,28 +6589,28 @@
         <v>9</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>406</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>406</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>406</v>
@@ -6490,22 +6625,22 @@
         <v>406</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="P14" s="11" t="s">
         <v>406</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="T14" s="11" t="s">
         <v>406</v>
@@ -6514,10 +6649,10 @@
         <v>406</v>
       </c>
       <c r="V14" s="11" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="W14" s="11" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="X14" s="11" t="s">
         <v>406</v>
@@ -6541,13 +6676,13 @@
         <v>406</v>
       </c>
       <c r="AE14" s="11" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="AF14" s="11" t="s">
         <v>406</v>
       </c>
       <c r="AG14" s="11" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="AH14" s="11" t="s">
         <v>406</v>
@@ -6556,31 +6691,31 @@
         <v>406</v>
       </c>
       <c r="AJ14" s="11" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="AK14" s="11" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="AL14" s="11" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="AM14" s="11" t="s">
         <v>406</v>
       </c>
       <c r="AN14" s="11" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="AO14" s="11" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="AP14" s="11" t="s">
         <v>406</v>
       </c>
       <c r="AQ14" s="11" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="AR14" s="11" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="AS14" s="11" t="s">
         <v>406</v>
@@ -6731,7 +6866,7 @@
         <v>108</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>47</v>
@@ -6752,16 +6887,16 @@
         <v>108</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="N16" s="9" t="s">
         <v>136</v>
@@ -6770,7 +6905,7 @@
         <v>141</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>108</v>
@@ -6782,10 +6917,10 @@
         <v>205</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="V16" s="78" t="s">
         <v>826</v>
@@ -6794,16 +6929,16 @@
         <v>177</v>
       </c>
       <c r="X16" s="9" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="Y16" s="9" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="Z16" s="9" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="AA16" s="9" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="AB16" s="9" t="s">
         <v>197</v>
@@ -6812,7 +6947,7 @@
         <v>136</v>
       </c>
       <c r="AD16" s="9" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="AE16" s="74" t="s">
         <v>269</v>
@@ -6846,7 +6981,7 @@
         <v>276</v>
       </c>
       <c r="AP16" s="9" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="AQ16" s="74" t="s">
         <v>292</v>
@@ -6855,10 +6990,10 @@
         <v>294</v>
       </c>
       <c r="AS16" s="9" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="17" spans="1:45" ht="191" customHeight="1">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" ht="190.95" customHeight="1">
       <c r="A17" s="18" t="s">
         <v>13</v>
       </c>
@@ -6923,7 +7058,7 @@
         <v>403</v>
       </c>
       <c r="V17" s="61" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="W17" s="61" t="s">
         <v>179</v>
@@ -6965,10 +7100,10 @@
         <v>403</v>
       </c>
       <c r="AJ17" s="79" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="AK17" s="79" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="AL17" s="84" t="s">
         <v>441</v>
@@ -6977,7 +7112,7 @@
         <v>255</v>
       </c>
       <c r="AN17" s="86" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="AO17" s="61" t="s">
         <v>277</v>
@@ -7685,7 +7820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:45" ht="153">
+    <row r="24" spans="1:45" ht="140.4">
       <c r="A24" s="25" t="s">
         <v>12</v>
       </c>
@@ -7822,7 +7957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:45" ht="34">
+    <row r="25" spans="1:45" ht="31.2">
       <c r="A25" s="27" t="s">
         <v>2</v>
       </c>
@@ -8094,7 +8229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:45" ht="34">
+    <row r="27" spans="1:45" ht="31.2">
       <c r="A27" s="24" t="s">
         <v>2</v>
       </c>
@@ -8362,7 +8497,7 @@
         <v>22900000</v>
       </c>
     </row>
-    <row r="29" spans="1:45" ht="34">
+    <row r="29" spans="1:45" ht="31.2">
       <c r="A29" s="36" t="s">
         <v>2</v>
       </c>
@@ -8394,13 +8529,13 @@
         <v>122</v>
       </c>
       <c r="K29" s="181" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="L29" s="55" t="s">
         <v>31</v>
       </c>
       <c r="M29" s="181" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="N29" s="38" t="s">
         <v>8</v>
@@ -8415,19 +8550,19 @@
         <v>31</v>
       </c>
       <c r="R29" s="181" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="S29" s="38" t="s">
         <v>8</v>
       </c>
       <c r="T29" s="181" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="U29" s="55" t="s">
         <v>679</v>
       </c>
       <c r="V29" s="181" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="W29" s="55" t="s">
         <v>31</v>
@@ -8439,13 +8574,13 @@
         <v>680</v>
       </c>
       <c r="Z29" s="181" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="AA29" s="181" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="AB29" s="181" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="AC29" s="38" t="s">
         <v>8</v>
@@ -8464,7 +8599,7 @@
         <v>8</v>
       </c>
       <c r="AI29" s="181" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="AJ29" s="55" t="s">
         <v>31</v>
@@ -8476,16 +8611,16 @@
         <v>8</v>
       </c>
       <c r="AM29" s="181" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="AN29" s="181" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="AO29" s="55" t="s">
         <v>31</v>
       </c>
       <c r="AP29" s="181" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="AQ29" s="55" t="s">
         <v>283</v>
@@ -8495,7 +8630,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="1:45" s="4" customFormat="1" ht="130" customHeight="1">
+    <row r="31" spans="1:45" s="4" customFormat="1" ht="130.05000000000001" customHeight="1">
       <c r="A31" s="67" t="s">
         <v>138</v>
       </c>
@@ -8507,7 +8642,7 @@
       <c r="G31" s="170"/>
       <c r="H31" s="19"/>
       <c r="I31" s="171" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="J31" s="170"/>
       <c r="K31" s="170"/>
@@ -8520,26 +8655,26 @@
       <c r="P31" s="170"/>
       <c r="Q31" s="170"/>
       <c r="R31" s="172" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="S31" s="170"/>
       <c r="T31" s="170"/>
       <c r="U31" s="170"/>
       <c r="V31" s="171" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="W31" s="171" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="X31" s="170"/>
       <c r="Y31" s="170"/>
       <c r="Z31" s="170"/>
       <c r="AA31" s="170"/>
       <c r="AB31" s="183" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="AC31" s="172" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="AD31" s="170"/>
       <c r="AE31" s="170"/>
@@ -8548,16 +8683,16 @@
       <c r="AH31" s="19"/>
       <c r="AI31" s="170"/>
       <c r="AJ31" s="172" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="AK31" s="170"/>
       <c r="AL31" s="170"/>
       <c r="AM31" s="183" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="AN31" s="170"/>
       <c r="AO31" s="19" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AP31" s="170"/>
       <c r="AQ31" s="170"/>
@@ -8706,9 +8841,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F25" r:id="rId1" xr:uid="{FCA6F18E-1626-134B-8756-FBE4351EDE74}"/>
-    <hyperlink ref="F27" r:id="rId2" xr:uid="{FF0F616F-5433-744C-A5FC-8EBF552F493F}"/>
-    <hyperlink ref="F29" r:id="rId3" xr:uid="{68C4F114-6133-F049-9B01-9A4B54FDD220}"/>
+    <hyperlink ref="F25" r:id="rId1"/>
+    <hyperlink ref="F27" r:id="rId2"/>
+    <hyperlink ref="F29" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8716,7 +8851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E556547C-C132-9D4F-8892-5C1D16968525}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8726,56 +8861,56 @@
       <selection pane="bottomRight" activeCell="AS17" sqref="B17:AS17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="52.5" customWidth="1"/>
-    <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.296875" customWidth="1"/>
+    <col min="4" max="4" width="35.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.69921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53.5" customWidth="1"/>
-    <col min="8" max="8" width="48.83203125" customWidth="1"/>
+    <col min="8" max="8" width="48.796875" customWidth="1"/>
     <col min="9" max="9" width="43.5" customWidth="1"/>
-    <col min="10" max="10" width="47.83203125" customWidth="1"/>
-    <col min="11" max="11" width="46.33203125" customWidth="1"/>
-    <col min="12" max="12" width="44.1640625" customWidth="1"/>
-    <col min="13" max="13" width="44.33203125" customWidth="1"/>
-    <col min="14" max="14" width="50.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="47.1640625" customWidth="1"/>
+    <col min="10" max="10" width="47.796875" customWidth="1"/>
+    <col min="11" max="11" width="46.296875" customWidth="1"/>
+    <col min="12" max="12" width="44.19921875" customWidth="1"/>
+    <col min="13" max="13" width="44.296875" customWidth="1"/>
+    <col min="14" max="14" width="50.296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.19921875" customWidth="1"/>
     <col min="16" max="16" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="47.296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35.796875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="41" customWidth="1"/>
     <col min="20" max="20" width="41.5" customWidth="1"/>
-    <col min="21" max="21" width="43.83203125" customWidth="1"/>
-    <col min="22" max="22" width="34.83203125" customWidth="1"/>
+    <col min="21" max="21" width="43.796875" customWidth="1"/>
+    <col min="22" max="22" width="34.796875" customWidth="1"/>
     <col min="23" max="23" width="39" customWidth="1"/>
-    <col min="24" max="24" width="37.83203125" customWidth="1"/>
-    <col min="25" max="25" width="40.1640625" customWidth="1"/>
-    <col min="26" max="26" width="37.33203125" customWidth="1"/>
-    <col min="27" max="27" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="51.33203125" customWidth="1"/>
-    <col min="29" max="29" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="39.1640625" customWidth="1"/>
-    <col min="31" max="31" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="37.796875" customWidth="1"/>
+    <col min="25" max="25" width="40.19921875" customWidth="1"/>
+    <col min="26" max="26" width="37.296875" customWidth="1"/>
+    <col min="27" max="27" width="39.69921875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="51.296875" customWidth="1"/>
+    <col min="29" max="29" width="36.19921875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="39.19921875" customWidth="1"/>
+    <col min="31" max="31" width="39.69921875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="39.296875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="39.6640625" customWidth="1"/>
-    <col min="35" max="35" width="45.6640625" customWidth="1"/>
-    <col min="36" max="36" width="39.1640625" customWidth="1"/>
+    <col min="34" max="34" width="39.69921875" customWidth="1"/>
+    <col min="35" max="35" width="45.69921875" customWidth="1"/>
+    <col min="36" max="36" width="39.19921875" customWidth="1"/>
     <col min="37" max="37" width="40" customWidth="1"/>
-    <col min="38" max="38" width="41.83203125" customWidth="1"/>
-    <col min="39" max="39" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="41.796875" customWidth="1"/>
+    <col min="39" max="39" width="46.69921875" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="44.5" customWidth="1"/>
     <col min="41" max="41" width="49.5" customWidth="1"/>
-    <col min="42" max="42" width="37.83203125" customWidth="1"/>
-    <col min="43" max="43" width="59.6640625" customWidth="1"/>
-    <col min="44" max="44" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="37.796875" customWidth="1"/>
+    <col min="43" max="43" width="59.69921875" customWidth="1"/>
+    <col min="44" max="44" width="43.296875" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="43.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="1" customFormat="1" ht="35" customHeight="1">
+    <row r="1" spans="1:45" s="1" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>387</v>
       </c>
@@ -9429,7 +9564,7 @@
         <v>201200</v>
       </c>
     </row>
-    <row r="7" spans="1:45" ht="68">
+    <row r="7" spans="1:45" ht="62.4">
       <c r="A7" s="92" t="s">
         <v>2</v>
       </c>
@@ -9693,7 +9828,7 @@
         <v>201200</v>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="85">
+    <row r="9" spans="1:45" ht="78">
       <c r="A9" s="103" t="s">
         <v>2</v>
       </c>
@@ -10231,7 +10366,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="13" spans="1:45" s="4" customFormat="1" ht="51">
+    <row r="13" spans="1:45" s="4" customFormat="1" ht="46.8">
       <c r="A13" s="10" t="s">
         <v>712</v>
       </c>
@@ -10916,7 +11051,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="19" spans="1:45" s="123" customFormat="1" ht="34">
+    <row r="19" spans="1:45" s="123" customFormat="1" ht="31.2">
       <c r="A19" s="159" t="s">
         <v>138</v>
       </c>
@@ -10928,7 +11063,7 @@
       <c r="G19" s="166"/>
       <c r="H19" s="162"/>
       <c r="I19" s="163" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="J19" s="162"/>
       <c r="K19" s="162"/>
@@ -10950,7 +11085,7 @@
       <c r="AA19" s="163"/>
       <c r="AB19" s="163"/>
       <c r="AC19" s="163" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="AD19" s="163"/>
       <c r="AE19" s="163"/>
@@ -10959,14 +11094,14 @@
       <c r="AH19" s="163"/>
       <c r="AI19" s="163"/>
       <c r="AJ19" s="163" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AK19" s="163"/>
       <c r="AL19" s="164"/>
       <c r="AM19" s="164"/>
       <c r="AN19" s="164"/>
       <c r="AO19" s="163" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AP19" s="164"/>
       <c r="AQ19" s="164"/>
@@ -10984,66 +11119,66 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AEA308-1482-084B-80EE-660006D8760C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" customWidth="1"/>
-    <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.33203125" customWidth="1"/>
-    <col min="4" max="4" width="47.83203125" customWidth="1"/>
-    <col min="5" max="5" width="59.33203125" customWidth="1"/>
-    <col min="6" max="6" width="49.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.33203125" customWidth="1"/>
-    <col min="8" max="8" width="48.83203125" customWidth="1"/>
+    <col min="1" max="1" width="44.296875" customWidth="1"/>
+    <col min="2" max="2" width="42.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.296875" customWidth="1"/>
+    <col min="4" max="4" width="47.796875" customWidth="1"/>
+    <col min="5" max="5" width="59.296875" customWidth="1"/>
+    <col min="6" max="6" width="49.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.296875" customWidth="1"/>
+    <col min="8" max="8" width="48.796875" customWidth="1"/>
     <col min="9" max="9" width="43.5" customWidth="1"/>
-    <col min="10" max="10" width="47.83203125" customWidth="1"/>
-    <col min="11" max="11" width="46.33203125" customWidth="1"/>
-    <col min="12" max="12" width="44.1640625" customWidth="1"/>
-    <col min="13" max="13" width="44.33203125" customWidth="1"/>
-    <col min="14" max="14" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.796875" customWidth="1"/>
+    <col min="11" max="11" width="46.296875" customWidth="1"/>
+    <col min="12" max="12" width="44.19921875" customWidth="1"/>
+    <col min="13" max="13" width="44.296875" customWidth="1"/>
+    <col min="14" max="14" width="50.296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="50" customWidth="1"/>
     <col min="16" max="16" width="36" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="60.83203125" customWidth="1"/>
+    <col min="17" max="17" width="47.296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="60.796875" customWidth="1"/>
     <col min="19" max="19" width="43.5" customWidth="1"/>
-    <col min="20" max="20" width="49.1640625" customWidth="1"/>
+    <col min="20" max="20" width="49.19921875" customWidth="1"/>
     <col min="21" max="21" width="36" customWidth="1"/>
-    <col min="22" max="22" width="34.83203125" customWidth="1"/>
-    <col min="23" max="23" width="55.33203125" customWidth="1"/>
-    <col min="24" max="24" width="43.83203125" customWidth="1"/>
-    <col min="25" max="25" width="40.1640625" customWidth="1"/>
-    <col min="26" max="26" width="37.33203125" customWidth="1"/>
-    <col min="27" max="27" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="51.33203125" customWidth="1"/>
-    <col min="29" max="29" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="39.1640625" customWidth="1"/>
-    <col min="31" max="31" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="56.33203125" customWidth="1"/>
+    <col min="22" max="22" width="34.796875" customWidth="1"/>
+    <col min="23" max="23" width="55.296875" customWidth="1"/>
+    <col min="24" max="24" width="43.796875" customWidth="1"/>
+    <col min="25" max="25" width="40.19921875" customWidth="1"/>
+    <col min="26" max="26" width="37.296875" customWidth="1"/>
+    <col min="27" max="27" width="39.69921875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="51.296875" customWidth="1"/>
+    <col min="29" max="29" width="36.19921875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="39.19921875" customWidth="1"/>
+    <col min="31" max="31" width="39.69921875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="56.296875" customWidth="1"/>
     <col min="33" max="33" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="58.83203125" customWidth="1"/>
-    <col min="35" max="35" width="45.6640625" customWidth="1"/>
-    <col min="36" max="36" width="39.1640625" customWidth="1"/>
+    <col min="34" max="34" width="58.796875" customWidth="1"/>
+    <col min="35" max="35" width="45.69921875" customWidth="1"/>
+    <col min="36" max="36" width="39.19921875" customWidth="1"/>
     <col min="37" max="37" width="40" customWidth="1"/>
-    <col min="38" max="38" width="41.83203125" customWidth="1"/>
-    <col min="39" max="39" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="41.796875" customWidth="1"/>
+    <col min="39" max="39" width="46.69921875" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="44.5" customWidth="1"/>
     <col min="41" max="41" width="49.5" customWidth="1"/>
-    <col min="42" max="42" width="37.83203125" customWidth="1"/>
-    <col min="43" max="43" width="59.6640625" customWidth="1"/>
-    <col min="44" max="44" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="37.796875" customWidth="1"/>
+    <col min="43" max="43" width="59.69921875" customWidth="1"/>
+    <col min="44" max="44" width="43.296875" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="43.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="1" customFormat="1" ht="35" customHeight="1">
+    <row r="1" spans="1:45" s="1" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>387</v>
       </c>
@@ -11185,7 +11320,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:45" s="180" customFormat="1" ht="68">
+    <row r="3" spans="1:45" s="180" customFormat="1" ht="62.4">
       <c r="A3" s="151" t="s">
         <v>776</v>
       </c>
@@ -12893,7 +13028,7 @@
         <v>60000000</v>
       </c>
     </row>
-    <row r="16" spans="1:45" s="4" customFormat="1" ht="85">
+    <row r="16" spans="1:45" s="4" customFormat="1" ht="78">
       <c r="A16" s="36" t="s">
         <v>2</v>
       </c>
@@ -13014,25 +13149,25 @@
         <v>741</v>
       </c>
     </row>
-    <row r="18" spans="1:45" s="123" customFormat="1" ht="68">
+    <row r="18" spans="1:45" s="123" customFormat="1" ht="62.4">
       <c r="A18" s="159" t="s">
         <v>138</v>
       </c>
       <c r="B18" s="160"/>
       <c r="C18" s="161" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D18" s="161"/>
       <c r="E18" s="162"/>
       <c r="F18" s="162" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G18" s="166" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H18" s="162"/>
       <c r="I18" s="163" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="J18" s="162"/>
       <c r="K18" s="162"/>
@@ -13041,18 +13176,18 @@
       <c r="N18" s="162"/>
       <c r="O18" s="162"/>
       <c r="P18" s="163" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="Q18" s="163" t="s">
         <v>757</v>
       </c>
       <c r="R18" s="163"/>
       <c r="S18" s="163" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="T18" s="163"/>
       <c r="U18" s="163" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="V18" s="163"/>
       <c r="W18" s="163" t="s">
@@ -13060,37 +13195,37 @@
       </c>
       <c r="X18" s="163"/>
       <c r="Y18" s="163" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="Z18" s="163"/>
       <c r="AA18" s="163"/>
       <c r="AB18" s="163"/>
       <c r="AC18" s="163" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AD18" s="163" t="s">
+        <v>844</v>
+      </c>
+      <c r="AE18" s="163" t="s">
         <v>845</v>
-      </c>
-      <c r="AE18" s="163" t="s">
-        <v>846</v>
       </c>
       <c r="AF18" s="163"/>
       <c r="AG18" s="163" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AH18" s="163"/>
       <c r="AI18" s="163"/>
       <c r="AJ18" s="163" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AK18" s="163" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="AL18" s="164"/>
       <c r="AM18" s="164"/>
       <c r="AN18" s="164"/>
       <c r="AO18" s="163" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AP18" s="164"/>
       <c r="AQ18" s="164"/>
@@ -13259,16 +13394,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A63FEDD-1574-124C-AE5E-B9EB3BB8513B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.796875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="165.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13285,58 +13420,58 @@
         <v>824</v>
       </c>
       <c r="B2" s="135" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="176" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B3" s="135" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="51">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="46.8">
       <c r="A4" s="176" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B4" s="135" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="51">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="46.8">
       <c r="A5" s="176" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B5" s="135" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="176"/>
       <c r="B6" s="135"/>
     </row>
-    <row r="7" spans="1:2" ht="34">
+    <row r="7" spans="1:2" ht="31.2">
       <c r="A7" s="176" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B7" s="135" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="176"/>
       <c r="B8" s="135"/>
     </row>
-    <row r="9" spans="1:2" ht="34">
+    <row r="9" spans="1:2" ht="31.2">
       <c r="A9" s="177" t="s">
         <v>704</v>
       </c>
       <c r="B9" s="135" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="34">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="31.2">
       <c r="A10" s="177" t="s">
         <v>705</v>
       </c>
@@ -13344,12 +13479,12 @@
         <v>707</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="51">
+    <row r="11" spans="1:2" ht="46.8">
       <c r="A11" s="177" t="s">
         <v>706</v>
       </c>
       <c r="B11" s="135" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="33" customHeight="1">
@@ -13357,7 +13492,7 @@
         <v>725</v>
       </c>
       <c r="B12" s="135" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -13368,7 +13503,7 @@
         <v>758</v>
       </c>
       <c r="B14" s="178" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
   </sheetData>

--- a/sources/European_Exposure_Model_Data_Inputs_Sources.xlsx
+++ b/sources/European_Exposure_Model_Data_Inputs_Sources.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\GFZ_local\SERA\From_EFEHR_GitLab\esrm20_exposure\sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helencrowley/Documents/5-GitHub/esrm20_exposure/sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADEF985-6649-3742-A5F6-2761B42066CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="504" yWindow="516" windowWidth="28296" windowHeight="16704"/>
+    <workbookView xWindow="500" yWindow="520" windowWidth="28300" windowHeight="16700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="4" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="COM" sheetId="2" r:id="rId4"/>
     <sheet name="References" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2955,10 +2956,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -3263,7 +3264,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3633,7 +3634,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3738,38 +3739,38 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4086,65 +4087,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="44.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="155.69921875" customWidth="1"/>
+    <col min="1" max="1" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="155.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="48" customHeight="1">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="193" t="s">
         <v>890</v>
       </c>
-      <c r="B1" s="184"/>
-    </row>
-    <row r="2" spans="1:3" ht="22.05" customHeight="1">
-      <c r="A2" s="186" t="s">
+      <c r="B1" s="193"/>
+    </row>
+    <row r="2" spans="1:3" ht="22" customHeight="1">
+      <c r="A2" s="189" t="s">
         <v>907</v>
       </c>
-      <c r="B2" s="186"/>
+      <c r="B2" s="189"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" ht="22.05" customHeight="1">
-      <c r="A3" s="188" t="s">
+    <row r="3" spans="1:3" ht="22" customHeight="1">
+      <c r="A3" s="190" t="s">
         <v>909</v>
       </c>
-      <c r="B3" s="186"/>
-    </row>
-    <row r="4" spans="1:3" ht="22.05" customHeight="1">
-      <c r="A4" s="186" t="s">
+      <c r="B3" s="189"/>
+    </row>
+    <row r="4" spans="1:3" ht="22" customHeight="1">
+      <c r="A4" s="189" t="s">
         <v>889</v>
       </c>
-      <c r="B4" s="186"/>
-    </row>
-    <row r="5" spans="1:3" ht="22.05" customHeight="1">
-      <c r="A5" s="186" t="s">
+      <c r="B4" s="189"/>
+    </row>
+    <row r="5" spans="1:3" ht="22" customHeight="1">
+      <c r="A5" s="189" t="s">
         <v>908</v>
       </c>
-      <c r="B5" s="186"/>
+      <c r="B5" s="189"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="185"/>
-      <c r="B6" s="185"/>
-    </row>
-    <row r="7" spans="1:3" ht="38.4">
-      <c r="A7" s="189" t="s">
+      <c r="A6" s="194"/>
+      <c r="B6" s="194"/>
+    </row>
+    <row r="7" spans="1:3" ht="39">
+      <c r="A7" s="191" t="s">
         <v>687</v>
       </c>
-      <c r="B7" s="189"/>
+      <c r="B7" s="191"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="190" t="s">
+      <c r="A8" s="192" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="190"/>
+      <c r="B8" s="192"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3"/>
@@ -4376,50 +4377,50 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="191" t="s">
+      <c r="A40" s="188" t="s">
         <v>929</v>
       </c>
-      <c r="B40" s="191"/>
-    </row>
-    <row r="42" spans="1:2" ht="46.8">
+      <c r="B40" s="188"/>
+    </row>
+    <row r="42" spans="1:2" ht="51">
       <c r="A42" s="61" t="s">
         <v>830</v>
       </c>
-      <c r="B42" s="193" t="s">
+      <c r="B42" s="185" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="192" t="s">
+      <c r="A43" s="184" t="s">
         <v>925</v>
       </c>
-      <c r="B43" s="194">
+      <c r="B43" s="186">
         <v>0.3</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="192" t="s">
+      <c r="A44" s="184" t="s">
         <v>926</v>
       </c>
-      <c r="B44" s="194">
+      <c r="B44" s="186">
         <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="192" t="s">
+      <c r="A45" s="184" t="s">
         <v>927</v>
       </c>
-      <c r="B45" s="194">
+      <c r="B45" s="186">
         <v>0.2</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="191" t="s">
+      <c r="A47" s="188" t="s">
         <v>924</v>
       </c>
-      <c r="B47" s="191"/>
-    </row>
-    <row r="49" spans="1:2" ht="31.2">
+      <c r="B47" s="188"/>
+    </row>
+    <row r="49" spans="1:2" ht="34">
       <c r="A49" s="8" t="s">
         <v>857</v>
       </c>
@@ -4427,17 +4428,17 @@
         <v>897</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="38.4">
-      <c r="A51" s="189" t="s">
+    <row r="51" spans="1:2" ht="39">
+      <c r="A51" s="191" t="s">
         <v>855</v>
       </c>
-      <c r="B51" s="189"/>
+      <c r="B51" s="191"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="190" t="s">
+      <c r="A52" s="192" t="s">
         <v>447</v>
       </c>
-      <c r="B52" s="190"/>
+      <c r="B52" s="192"/>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="3"/>
@@ -4552,12 +4553,12 @@
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="191" t="s">
+      <c r="A70" s="188" t="s">
         <v>929</v>
       </c>
-      <c r="B70" s="191"/>
-    </row>
-    <row r="72" spans="1:2" ht="46.8">
+      <c r="B70" s="188"/>
+    </row>
+    <row r="72" spans="1:2" ht="51">
       <c r="A72" s="61" t="s">
         <v>830</v>
       </c>
@@ -4566,36 +4567,36 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="192" t="s">
+      <c r="A73" s="184" t="s">
         <v>925</v>
       </c>
-      <c r="B73" s="194">
+      <c r="B73" s="186">
         <v>0.15</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="192" t="s">
+      <c r="A74" s="184" t="s">
         <v>926</v>
       </c>
-      <c r="B74" s="194">
+      <c r="B74" s="186">
         <v>0.25</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="192" t="s">
+      <c r="A75" s="184" t="s">
         <v>927</v>
       </c>
-      <c r="B75" s="194">
+      <c r="B75" s="186">
         <v>0.6</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="191" t="s">
+      <c r="A77" s="188" t="s">
         <v>924</v>
       </c>
-      <c r="B77" s="191"/>
-    </row>
-    <row r="79" spans="1:2" ht="31.2">
+      <c r="B77" s="188"/>
+    </row>
+    <row r="79" spans="1:2" ht="34">
       <c r="A79" s="8" t="s">
         <v>857</v>
       </c>
@@ -4603,23 +4604,23 @@
         <v>898</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="38.4">
-      <c r="A81" s="189" t="s">
+    <row r="81" spans="1:2" ht="39">
+      <c r="A81" s="191" t="s">
         <v>854</v>
       </c>
-      <c r="B81" s="189"/>
+      <c r="B81" s="191"/>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="190" t="s">
+      <c r="A82" s="192" t="s">
         <v>546</v>
       </c>
-      <c r="B82" s="190"/>
+      <c r="B82" s="192"/>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
     </row>
-    <row r="84" spans="1:2" ht="31.2">
+    <row r="84" spans="1:2" ht="34">
       <c r="A84" s="151" t="s">
         <v>776</v>
       </c>
@@ -4738,12 +4739,12 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="191" t="s">
+      <c r="A101" s="188" t="s">
         <v>929</v>
       </c>
-      <c r="B101" s="191"/>
-    </row>
-    <row r="103" spans="1:2" ht="46.8">
+      <c r="B101" s="188"/>
+    </row>
+    <row r="103" spans="1:2" ht="51">
       <c r="A103" s="61" t="s">
         <v>830</v>
       </c>
@@ -4752,36 +4753,36 @@
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="192" t="s">
+      <c r="A104" s="184" t="s">
         <v>925</v>
       </c>
-      <c r="B104" s="194">
+      <c r="B104" s="186">
         <v>0.2</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="192" t="s">
+      <c r="A105" s="184" t="s">
         <v>926</v>
       </c>
-      <c r="B105" s="194">
+      <c r="B105" s="186">
         <v>0.3</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="192" t="s">
+      <c r="A106" s="184" t="s">
         <v>927</v>
       </c>
-      <c r="B106" s="194">
+      <c r="B106" s="186">
         <v>0.5</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="191" t="s">
+      <c r="A108" s="188" t="s">
         <v>924</v>
       </c>
-      <c r="B108" s="191"/>
-    </row>
-    <row r="110" spans="1:2" ht="31.2">
+      <c r="B108" s="188"/>
+    </row>
+    <row r="110" spans="1:2" ht="34">
       <c r="A110" s="8" t="s">
         <v>857</v>
       </c>
@@ -4795,7 +4796,7 @@
       </c>
       <c r="B112" s="187"/>
     </row>
-    <row r="114" spans="1:2" ht="31.2" customHeight="1">
+    <row r="114" spans="1:2" ht="31.25" customHeight="1">
       <c r="A114" s="61" t="s">
         <v>4</v>
       </c>
@@ -4805,6 +4806,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A70:B70"/>
     <mergeCell ref="A112:B112"/>
     <mergeCell ref="A108:B108"/>
     <mergeCell ref="A101:B101"/>
@@ -4820,12 +4827,6 @@
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A70:B70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4833,7 +4834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AS82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4843,55 +4844,55 @@
       <selection pane="bottomRight" activeCell="AB32" sqref="AB32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="41" style="28" customWidth="1"/>
-    <col min="2" max="2" width="42.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.296875" customWidth="1"/>
-    <col min="7" max="7" width="61.296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49.296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.33203125" customWidth="1"/>
+    <col min="7" max="7" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="36" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="37" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="36" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="50.296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="50.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="37" customWidth="1"/>
     <col min="16" max="16" width="36" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="47.296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="47.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="37.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="37" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="35.796875" customWidth="1"/>
+    <col min="20" max="20" width="35.83203125" customWidth="1"/>
     <col min="21" max="21" width="36" customWidth="1"/>
-    <col min="22" max="22" width="34.796875" customWidth="1"/>
+    <col min="22" max="22" width="34.83203125" customWidth="1"/>
     <col min="23" max="23" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="37.796875" customWidth="1"/>
-    <col min="25" max="25" width="40.19921875" customWidth="1"/>
-    <col min="26" max="26" width="37.296875" customWidth="1"/>
-    <col min="27" max="27" width="39.69921875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="51.296875" customWidth="1"/>
-    <col min="29" max="29" width="36.19921875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="39.19921875" customWidth="1"/>
-    <col min="31" max="31" width="39.69921875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="39.296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="37.83203125" customWidth="1"/>
+    <col min="25" max="25" width="40.1640625" customWidth="1"/>
+    <col min="26" max="26" width="37.33203125" customWidth="1"/>
+    <col min="27" max="27" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="51.33203125" customWidth="1"/>
+    <col min="29" max="29" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="39.1640625" customWidth="1"/>
+    <col min="31" max="31" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="39.69921875" customWidth="1"/>
-    <col min="35" max="35" width="45.69921875" customWidth="1"/>
-    <col min="36" max="36" width="40.69921875" customWidth="1"/>
-    <col min="37" max="37" width="55.19921875" customWidth="1"/>
-    <col min="38" max="38" width="41.796875" customWidth="1"/>
-    <col min="39" max="39" width="46.69921875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="39.6640625" customWidth="1"/>
+    <col min="35" max="35" width="45.6640625" customWidth="1"/>
+    <col min="36" max="36" width="40.6640625" customWidth="1"/>
+    <col min="37" max="37" width="55.1640625" customWidth="1"/>
+    <col min="38" max="38" width="41.83203125" customWidth="1"/>
+    <col min="39" max="39" width="46.6640625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="44.5" customWidth="1"/>
     <col min="41" max="41" width="49.5" customWidth="1"/>
-    <col min="42" max="42" width="37.796875" customWidth="1"/>
-    <col min="43" max="43" width="59.69921875" customWidth="1"/>
-    <col min="44" max="44" width="43.296875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="37.83203125" customWidth="1"/>
+    <col min="43" max="43" width="59.6640625" customWidth="1"/>
+    <col min="44" max="44" width="43.33203125" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="43.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="1" customFormat="1" ht="34.950000000000003" customHeight="1">
+    <row r="1" spans="1:45" s="1" customFormat="1" ht="35" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>387</v>
       </c>
@@ -5028,7 +5029,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:45" s="1" customFormat="1" ht="19.95" customHeight="1">
+    <row r="2" spans="1:45" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A2" s="31" t="s">
         <v>38</v>
       </c>
@@ -5488,7 +5489,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:45" ht="46.8">
+    <row r="6" spans="1:45" ht="51">
       <c r="A6" s="18" t="s">
         <v>2</v>
       </c>
@@ -5762,7 +5763,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="8" spans="1:45" ht="31.2">
+    <row r="8" spans="1:45" ht="34">
       <c r="A8" s="11" t="s">
         <v>2</v>
       </c>
@@ -6447,7 +6448,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:45" ht="17">
       <c r="A13" s="18" t="s">
         <v>6</v>
       </c>
@@ -6993,7 +6994,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="17" spans="1:45" ht="190.95" customHeight="1">
+    <row r="17" spans="1:45" ht="191" customHeight="1">
       <c r="A17" s="18" t="s">
         <v>13</v>
       </c>
@@ -7820,7 +7821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:45" ht="140.4">
+    <row r="24" spans="1:45" ht="153">
       <c r="A24" s="25" t="s">
         <v>12</v>
       </c>
@@ -7957,7 +7958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:45" ht="31.2">
+    <row r="25" spans="1:45" ht="34">
       <c r="A25" s="27" t="s">
         <v>2</v>
       </c>
@@ -8229,7 +8230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:45" ht="31.2">
+    <row r="27" spans="1:45" ht="34">
       <c r="A27" s="24" t="s">
         <v>2</v>
       </c>
@@ -8497,7 +8498,7 @@
         <v>22900000</v>
       </c>
     </row>
-    <row r="29" spans="1:45" ht="31.2">
+    <row r="29" spans="1:45" ht="34">
       <c r="A29" s="36" t="s">
         <v>2</v>
       </c>
@@ -8630,7 +8631,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="1:45" s="4" customFormat="1" ht="130.05000000000001" customHeight="1">
+    <row r="31" spans="1:45" s="4" customFormat="1" ht="130" customHeight="1">
       <c r="A31" s="67" t="s">
         <v>138</v>
       </c>
@@ -8841,9 +8842,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F25" r:id="rId1"/>
-    <hyperlink ref="F27" r:id="rId2"/>
-    <hyperlink ref="F29" r:id="rId3"/>
+    <hyperlink ref="F25" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F27" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="F29" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8851,7 +8852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AS23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8861,56 +8862,56 @@
       <selection pane="bottomRight" activeCell="AS17" sqref="B17:AS17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="52.5" customWidth="1"/>
-    <col min="2" max="2" width="42.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.296875" customWidth="1"/>
-    <col min="4" max="4" width="35.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53.5" customWidth="1"/>
-    <col min="8" max="8" width="48.796875" customWidth="1"/>
+    <col min="8" max="8" width="48.83203125" customWidth="1"/>
     <col min="9" max="9" width="43.5" customWidth="1"/>
-    <col min="10" max="10" width="47.796875" customWidth="1"/>
-    <col min="11" max="11" width="46.296875" customWidth="1"/>
-    <col min="12" max="12" width="44.19921875" customWidth="1"/>
-    <col min="13" max="13" width="44.296875" customWidth="1"/>
-    <col min="14" max="14" width="50.296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="47.19921875" customWidth="1"/>
+    <col min="10" max="10" width="47.83203125" customWidth="1"/>
+    <col min="11" max="11" width="46.33203125" customWidth="1"/>
+    <col min="12" max="12" width="44.1640625" customWidth="1"/>
+    <col min="13" max="13" width="44.33203125" customWidth="1"/>
+    <col min="14" max="14" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.1640625" customWidth="1"/>
     <col min="16" max="16" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="47.296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="35.796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35.83203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="41" customWidth="1"/>
     <col min="20" max="20" width="41.5" customWidth="1"/>
-    <col min="21" max="21" width="43.796875" customWidth="1"/>
-    <col min="22" max="22" width="34.796875" customWidth="1"/>
+    <col min="21" max="21" width="43.83203125" customWidth="1"/>
+    <col min="22" max="22" width="34.83203125" customWidth="1"/>
     <col min="23" max="23" width="39" customWidth="1"/>
-    <col min="24" max="24" width="37.796875" customWidth="1"/>
-    <col min="25" max="25" width="40.19921875" customWidth="1"/>
-    <col min="26" max="26" width="37.296875" customWidth="1"/>
-    <col min="27" max="27" width="39.69921875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="51.296875" customWidth="1"/>
-    <col min="29" max="29" width="36.19921875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="39.19921875" customWidth="1"/>
-    <col min="31" max="31" width="39.69921875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="39.296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="37.83203125" customWidth="1"/>
+    <col min="25" max="25" width="40.1640625" customWidth="1"/>
+    <col min="26" max="26" width="37.33203125" customWidth="1"/>
+    <col min="27" max="27" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="51.33203125" customWidth="1"/>
+    <col min="29" max="29" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="39.1640625" customWidth="1"/>
+    <col min="31" max="31" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="39.69921875" customWidth="1"/>
-    <col min="35" max="35" width="45.69921875" customWidth="1"/>
-    <col min="36" max="36" width="39.19921875" customWidth="1"/>
+    <col min="34" max="34" width="39.6640625" customWidth="1"/>
+    <col min="35" max="35" width="45.6640625" customWidth="1"/>
+    <col min="36" max="36" width="39.1640625" customWidth="1"/>
     <col min="37" max="37" width="40" customWidth="1"/>
-    <col min="38" max="38" width="41.796875" customWidth="1"/>
-    <col min="39" max="39" width="46.69921875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="41.83203125" customWidth="1"/>
+    <col min="39" max="39" width="46.6640625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="44.5" customWidth="1"/>
     <col min="41" max="41" width="49.5" customWidth="1"/>
-    <col min="42" max="42" width="37.796875" customWidth="1"/>
-    <col min="43" max="43" width="59.69921875" customWidth="1"/>
-    <col min="44" max="44" width="43.296875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="37.83203125" customWidth="1"/>
+    <col min="43" max="43" width="59.6640625" customWidth="1"/>
+    <col min="44" max="44" width="43.33203125" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="43.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="1" customFormat="1" ht="34.950000000000003" customHeight="1">
+    <row r="1" spans="1:45" s="1" customFormat="1" ht="35" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>387</v>
       </c>
@@ -9564,7 +9565,7 @@
         <v>201200</v>
       </c>
     </row>
-    <row r="7" spans="1:45" ht="62.4">
+    <row r="7" spans="1:45" ht="68">
       <c r="A7" s="92" t="s">
         <v>2</v>
       </c>
@@ -9828,7 +9829,7 @@
         <v>201200</v>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="78">
+    <row r="9" spans="1:45" ht="85">
       <c r="A9" s="103" t="s">
         <v>2</v>
       </c>
@@ -10366,7 +10367,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="13" spans="1:45" s="4" customFormat="1" ht="46.8">
+    <row r="13" spans="1:45" s="4" customFormat="1" ht="51">
       <c r="A13" s="10" t="s">
         <v>712</v>
       </c>
@@ -11051,7 +11052,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="19" spans="1:45" s="123" customFormat="1" ht="31.2">
+    <row r="19" spans="1:45" s="123" customFormat="1" ht="34">
       <c r="A19" s="159" t="s">
         <v>138</v>
       </c>
@@ -11119,66 +11120,66 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AS74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA7" sqref="AA7"/>
+      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="44.296875" customWidth="1"/>
-    <col min="2" max="2" width="42.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.296875" customWidth="1"/>
-    <col min="4" max="4" width="47.796875" customWidth="1"/>
-    <col min="5" max="5" width="59.296875" customWidth="1"/>
-    <col min="6" max="6" width="49.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.296875" customWidth="1"/>
-    <col min="8" max="8" width="48.796875" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" customWidth="1"/>
+    <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.33203125" customWidth="1"/>
+    <col min="4" max="4" width="47.83203125" customWidth="1"/>
+    <col min="5" max="5" width="59.33203125" customWidth="1"/>
+    <col min="6" max="6" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.33203125" customWidth="1"/>
+    <col min="8" max="8" width="48.83203125" customWidth="1"/>
     <col min="9" max="9" width="43.5" customWidth="1"/>
-    <col min="10" max="10" width="47.796875" customWidth="1"/>
-    <col min="11" max="11" width="46.296875" customWidth="1"/>
-    <col min="12" max="12" width="44.19921875" customWidth="1"/>
-    <col min="13" max="13" width="44.296875" customWidth="1"/>
-    <col min="14" max="14" width="50.296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.83203125" customWidth="1"/>
+    <col min="11" max="11" width="46.33203125" customWidth="1"/>
+    <col min="12" max="12" width="44.1640625" customWidth="1"/>
+    <col min="13" max="13" width="44.33203125" customWidth="1"/>
+    <col min="14" max="14" width="50.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="50" customWidth="1"/>
     <col min="16" max="16" width="36" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="47.296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="60.796875" customWidth="1"/>
+    <col min="17" max="17" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="60.83203125" customWidth="1"/>
     <col min="19" max="19" width="43.5" customWidth="1"/>
-    <col min="20" max="20" width="49.19921875" customWidth="1"/>
+    <col min="20" max="20" width="49.1640625" customWidth="1"/>
     <col min="21" max="21" width="36" customWidth="1"/>
-    <col min="22" max="22" width="34.796875" customWidth="1"/>
-    <col min="23" max="23" width="55.296875" customWidth="1"/>
-    <col min="24" max="24" width="43.796875" customWidth="1"/>
-    <col min="25" max="25" width="40.19921875" customWidth="1"/>
-    <col min="26" max="26" width="37.296875" customWidth="1"/>
-    <col min="27" max="27" width="39.69921875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="51.296875" customWidth="1"/>
-    <col min="29" max="29" width="36.19921875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="39.19921875" customWidth="1"/>
-    <col min="31" max="31" width="39.69921875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="56.296875" customWidth="1"/>
+    <col min="22" max="22" width="34.83203125" customWidth="1"/>
+    <col min="23" max="23" width="55.33203125" customWidth="1"/>
+    <col min="24" max="24" width="43.83203125" customWidth="1"/>
+    <col min="25" max="25" width="40.1640625" customWidth="1"/>
+    <col min="26" max="26" width="37.33203125" customWidth="1"/>
+    <col min="27" max="27" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="51.33203125" customWidth="1"/>
+    <col min="29" max="29" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="39.1640625" customWidth="1"/>
+    <col min="31" max="31" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="56.33203125" customWidth="1"/>
     <col min="33" max="33" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="58.796875" customWidth="1"/>
-    <col min="35" max="35" width="45.69921875" customWidth="1"/>
-    <col min="36" max="36" width="39.19921875" customWidth="1"/>
+    <col min="34" max="34" width="58.83203125" customWidth="1"/>
+    <col min="35" max="35" width="45.6640625" customWidth="1"/>
+    <col min="36" max="36" width="39.1640625" customWidth="1"/>
     <col min="37" max="37" width="40" customWidth="1"/>
-    <col min="38" max="38" width="41.796875" customWidth="1"/>
-    <col min="39" max="39" width="46.69921875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="41.83203125" customWidth="1"/>
+    <col min="39" max="39" width="46.6640625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="44.5" customWidth="1"/>
     <col min="41" max="41" width="49.5" customWidth="1"/>
-    <col min="42" max="42" width="37.796875" customWidth="1"/>
-    <col min="43" max="43" width="59.69921875" customWidth="1"/>
-    <col min="44" max="44" width="43.296875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="37.83203125" customWidth="1"/>
+    <col min="43" max="43" width="59.6640625" customWidth="1"/>
+    <col min="44" max="44" width="43.33203125" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="43.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="1" customFormat="1" ht="34.950000000000003" customHeight="1">
+    <row r="1" spans="1:45" s="1" customFormat="1" ht="35" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>387</v>
       </c>
@@ -11320,7 +11321,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:45" s="180" customFormat="1" ht="62.4">
+    <row r="3" spans="1:45" s="180" customFormat="1" ht="68">
       <c r="A3" s="151" t="s">
         <v>776</v>
       </c>
@@ -11775,7 +11776,7 @@
         <v>90</v>
       </c>
       <c r="O6" s="94" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="P6" s="94" t="s">
         <v>144</v>
@@ -13028,7 +13029,7 @@
         <v>60000000</v>
       </c>
     </row>
-    <row r="16" spans="1:45" s="4" customFormat="1" ht="78">
+    <row r="16" spans="1:45" s="4" customFormat="1" ht="85">
       <c r="A16" s="36" t="s">
         <v>2</v>
       </c>
@@ -13149,7 +13150,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="18" spans="1:45" s="123" customFormat="1" ht="62.4">
+    <row r="18" spans="1:45" s="123" customFormat="1" ht="68">
       <c r="A18" s="159" t="s">
         <v>138</v>
       </c>
@@ -13394,16 +13395,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="16.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="165.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13423,7 +13424,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="17">
       <c r="A3" s="176" t="s">
         <v>887</v>
       </c>
@@ -13431,7 +13432,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="46.8">
+    <row r="4" spans="1:2" ht="51">
       <c r="A4" s="176" t="s">
         <v>892</v>
       </c>
@@ -13439,7 +13440,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="46.8">
+    <row r="5" spans="1:2" ht="51">
       <c r="A5" s="176" t="s">
         <v>900</v>
       </c>
@@ -13451,7 +13452,7 @@
       <c r="A6" s="176"/>
       <c r="B6" s="135"/>
     </row>
-    <row r="7" spans="1:2" ht="31.2">
+    <row r="7" spans="1:2" ht="34">
       <c r="A7" s="176" t="s">
         <v>896</v>
       </c>
@@ -13463,7 +13464,7 @@
       <c r="A8" s="176"/>
       <c r="B8" s="135"/>
     </row>
-    <row r="9" spans="1:2" ht="31.2">
+    <row r="9" spans="1:2" ht="34">
       <c r="A9" s="177" t="s">
         <v>704</v>
       </c>
@@ -13471,7 +13472,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="31.2">
+    <row r="10" spans="1:2" ht="34">
       <c r="A10" s="177" t="s">
         <v>705</v>
       </c>
@@ -13479,7 +13480,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="46.8">
+    <row r="11" spans="1:2" ht="51">
       <c r="A11" s="177" t="s">
         <v>706</v>
       </c>

--- a/sources/European_Exposure_Model_Data_Inputs_Sources.xlsx
+++ b/sources/European_Exposure_Model_Data_Inputs_Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helencrowley/Documents/5-GitHub/esrm20_exposure/sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADEF985-6649-3742-A5F6-2761B42066CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D20F977-E830-0E4B-A614-DE8B1EAEB14E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="520" windowWidth="28300" windowHeight="16700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="460" windowWidth="28220" windowHeight="16700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="934">
   <si>
     <t>data_Albania_RES_census-buildings.xlsx</t>
   </si>
@@ -2951,6 +2951,12 @@
   </si>
   <si>
     <t xml:space="preserve">The structural and non-structural reconstruction cost per m^2 is assumed to comprise 50% of the total replacement cost. The total replacement cost is divided into structural, non-structural and contents according to the percentages shown in the rows below. The structural and non-structural reconstruction cost has been adapted for different materials according to the macro-taxonomy as follows: ﻿MIX:1.00, MUR:0.95, ADO:0.95, CR:1.05, M:1.05, S:1.00, W:0.95, OT:1.00. </t>
+  </si>
+  <si>
+    <t>Earthquake Risk Model of Switzerland ERM-CH23</t>
+  </si>
+  <si>
+    <t>The total floor area has been approximated by taking the volume of buildings in ERM-CH23 and dividing by 3. The reconstruction costs have also been based on average values per m^2 in ERM-CH23</t>
   </si>
 </sst>
 </file>
@@ -3748,6 +3754,15 @@
     <xf numFmtId="2" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3755,9 +3770,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3765,12 +3777,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4101,10 +4107,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="48" customHeight="1">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="187" t="s">
         <v>890</v>
       </c>
-      <c r="B1" s="193"/>
+      <c r="B1" s="187"/>
     </row>
     <row r="2" spans="1:3" ht="22" customHeight="1">
       <c r="A2" s="189" t="s">
@@ -4114,7 +4120,7 @@
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="22" customHeight="1">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="192" t="s">
         <v>909</v>
       </c>
       <c r="B3" s="189"/>
@@ -4132,20 +4138,20 @@
       <c r="B5" s="189"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="194"/>
-      <c r="B6" s="194"/>
+      <c r="A6" s="188"/>
+      <c r="B6" s="188"/>
     </row>
     <row r="7" spans="1:3" ht="39">
-      <c r="A7" s="191" t="s">
+      <c r="A7" s="193" t="s">
         <v>687</v>
       </c>
-      <c r="B7" s="191"/>
+      <c r="B7" s="193"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="192" t="s">
+      <c r="A8" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="192"/>
+      <c r="B8" s="194"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3"/>
@@ -4311,10 +4317,10 @@
       <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="187" t="s">
+      <c r="A30" s="190" t="s">
         <v>212</v>
       </c>
-      <c r="B30" s="187"/>
+      <c r="B30" s="190"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4"/>
@@ -4377,10 +4383,10 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="188" t="s">
+      <c r="A40" s="191" t="s">
         <v>929</v>
       </c>
-      <c r="B40" s="188"/>
+      <c r="B40" s="191"/>
     </row>
     <row r="42" spans="1:2" ht="51">
       <c r="A42" s="61" t="s">
@@ -4415,10 +4421,10 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="188" t="s">
+      <c r="A47" s="191" t="s">
         <v>924</v>
       </c>
-      <c r="B47" s="188"/>
+      <c r="B47" s="191"/>
     </row>
     <row r="49" spans="1:2" ht="34">
       <c r="A49" s="8" t="s">
@@ -4429,16 +4435,16 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="39">
-      <c r="A51" s="191" t="s">
+      <c r="A51" s="193" t="s">
         <v>855</v>
       </c>
-      <c r="B51" s="191"/>
+      <c r="B51" s="193"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="192" t="s">
+      <c r="A52" s="194" t="s">
         <v>447</v>
       </c>
-      <c r="B52" s="192"/>
+      <c r="B52" s="194"/>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="3"/>
@@ -4553,10 +4559,10 @@
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="188" t="s">
+      <c r="A70" s="191" t="s">
         <v>929</v>
       </c>
-      <c r="B70" s="188"/>
+      <c r="B70" s="191"/>
     </row>
     <row r="72" spans="1:2" ht="51">
       <c r="A72" s="61" t="s">
@@ -4591,10 +4597,10 @@
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="188" t="s">
+      <c r="A77" s="191" t="s">
         <v>924</v>
       </c>
-      <c r="B77" s="188"/>
+      <c r="B77" s="191"/>
     </row>
     <row r="79" spans="1:2" ht="34">
       <c r="A79" s="8" t="s">
@@ -4605,16 +4611,16 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="39">
-      <c r="A81" s="191" t="s">
+      <c r="A81" s="193" t="s">
         <v>854</v>
       </c>
-      <c r="B81" s="191"/>
+      <c r="B81" s="193"/>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="192" t="s">
+      <c r="A82" s="194" t="s">
         <v>546</v>
       </c>
-      <c r="B82" s="192"/>
+      <c r="B82" s="194"/>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="3"/>
@@ -4697,10 +4703,10 @@
       <c r="B93" s="4"/>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="187" t="s">
+      <c r="A94" s="190" t="s">
         <v>212</v>
       </c>
-      <c r="B94" s="187"/>
+      <c r="B94" s="190"/>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="4"/>
@@ -4739,10 +4745,10 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="188" t="s">
+      <c r="A101" s="191" t="s">
         <v>929</v>
       </c>
-      <c r="B101" s="188"/>
+      <c r="B101" s="191"/>
     </row>
     <row r="103" spans="1:2" ht="51">
       <c r="A103" s="61" t="s">
@@ -4777,10 +4783,10 @@
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="188" t="s">
+      <c r="A108" s="191" t="s">
         <v>924</v>
       </c>
-      <c r="B108" s="188"/>
+      <c r="B108" s="191"/>
     </row>
     <row r="110" spans="1:2" ht="34">
       <c r="A110" s="8" t="s">
@@ -4791,10 +4797,10 @@
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="187" t="s">
+      <c r="A112" s="190" t="s">
         <v>698</v>
       </c>
-      <c r="B112" s="187"/>
+      <c r="B112" s="190"/>
     </row>
     <row r="114" spans="1:2" ht="31.25" customHeight="1">
       <c r="A114" s="61" t="s">
@@ -4806,12 +4812,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A70:B70"/>
     <mergeCell ref="A112:B112"/>
     <mergeCell ref="A108:B108"/>
     <mergeCell ref="A101:B101"/>
@@ -4827,6 +4827,12 @@
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A70:B70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4837,11 +4843,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AS82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AN17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB32" sqref="AB32"/>
+      <selection pane="bottomRight" activeCell="AQ20" sqref="AQ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -7396,7 +7402,7 @@
         <v>8</v>
       </c>
       <c r="AQ19" s="42">
-        <v>2010</v>
+        <v>2500</v>
       </c>
       <c r="AR19" s="42">
         <v>440</v>
@@ -7533,7 +7539,7 @@
         <v>1550</v>
       </c>
       <c r="AQ20" s="43">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="AR20" s="43">
         <v>320</v>
@@ -7670,7 +7676,7 @@
         <v>1350</v>
       </c>
       <c r="AQ21" s="44">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="AR21" s="44">
         <v>250</v>
@@ -7812,7 +7818,7 @@
         <v>8</v>
       </c>
       <c r="AQ23" s="45">
-        <v>437633270</v>
+        <v>818056531.70000005</v>
       </c>
       <c r="AR23" s="45">
         <v>1192264869</v>
@@ -8086,7 +8092,7 @@
         <v>8</v>
       </c>
       <c r="AQ25" s="32" t="s">
-        <v>283</v>
+        <v>932</v>
       </c>
       <c r="AR25" s="32" t="s">
         <v>286</v>
@@ -8696,7 +8702,9 @@
         <v>852</v>
       </c>
       <c r="AP31" s="170"/>
-      <c r="AQ31" s="170"/>
+      <c r="AQ31" s="172" t="s">
+        <v>933</v>
+      </c>
       <c r="AR31" s="170"/>
       <c r="AS31" s="170"/>
     </row>
@@ -11123,7 +11131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AS74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/sources/European_Exposure_Model_Data_Inputs_Sources.xlsx
+++ b/sources/European_Exposure_Model_Data_Inputs_Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helencrowley/Documents/5-GitHub/esrm20_exposure/sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D20F977-E830-0E4B-A614-DE8B1EAEB14E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B56B6FD-0BAA-334F-A178-2202BA5A6448}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="460" windowWidth="28220" windowHeight="16700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="6300" windowWidth="28220" windowHeight="16700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="937">
   <si>
     <t>data_Albania_RES_census-buildings.xlsx</t>
   </si>
@@ -2957,6 +2957,15 @@
   </si>
   <si>
     <t>The total floor area has been approximated by taking the volume of buildings in ERM-CH23 and dividing by 3. The reconstruction costs have also been based on average values per m^2 in ERM-CH23</t>
+  </si>
+  <si>
+    <t>ERM-CH23</t>
+  </si>
+  <si>
+    <t>ERM-CH23 based on volume/4.5</t>
+  </si>
+  <si>
+    <t>Reconstruction cost, number and area based on ERM-CH23</t>
   </si>
 </sst>
 </file>
@@ -3754,29 +3763,29 @@
     <xf numFmtId="2" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4107,10 +4116,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="48" customHeight="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="193" t="s">
         <v>890</v>
       </c>
-      <c r="B1" s="187"/>
+      <c r="B1" s="193"/>
     </row>
     <row r="2" spans="1:3" ht="22" customHeight="1">
       <c r="A2" s="189" t="s">
@@ -4120,7 +4129,7 @@
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="22" customHeight="1">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="190" t="s">
         <v>909</v>
       </c>
       <c r="B3" s="189"/>
@@ -4138,20 +4147,20 @@
       <c r="B5" s="189"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="188"/>
-      <c r="B6" s="188"/>
+      <c r="A6" s="194"/>
+      <c r="B6" s="194"/>
     </row>
     <row r="7" spans="1:3" ht="39">
-      <c r="A7" s="193" t="s">
+      <c r="A7" s="191" t="s">
         <v>687</v>
       </c>
-      <c r="B7" s="193"/>
+      <c r="B7" s="191"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="194" t="s">
+      <c r="A8" s="192" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="194"/>
+      <c r="B8" s="192"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3"/>
@@ -4317,10 +4326,10 @@
       <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="190" t="s">
+      <c r="A30" s="187" t="s">
         <v>212</v>
       </c>
-      <c r="B30" s="190"/>
+      <c r="B30" s="187"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4"/>
@@ -4383,10 +4392,10 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="191" t="s">
+      <c r="A40" s="188" t="s">
         <v>929</v>
       </c>
-      <c r="B40" s="191"/>
+      <c r="B40" s="188"/>
     </row>
     <row r="42" spans="1:2" ht="51">
       <c r="A42" s="61" t="s">
@@ -4421,10 +4430,10 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="191" t="s">
+      <c r="A47" s="188" t="s">
         <v>924</v>
       </c>
-      <c r="B47" s="191"/>
+      <c r="B47" s="188"/>
     </row>
     <row r="49" spans="1:2" ht="34">
       <c r="A49" s="8" t="s">
@@ -4435,16 +4444,16 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="39">
-      <c r="A51" s="193" t="s">
+      <c r="A51" s="191" t="s">
         <v>855</v>
       </c>
-      <c r="B51" s="193"/>
+      <c r="B51" s="191"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="194" t="s">
+      <c r="A52" s="192" t="s">
         <v>447</v>
       </c>
-      <c r="B52" s="194"/>
+      <c r="B52" s="192"/>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="3"/>
@@ -4559,10 +4568,10 @@
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="191" t="s">
+      <c r="A70" s="188" t="s">
         <v>929</v>
       </c>
-      <c r="B70" s="191"/>
+      <c r="B70" s="188"/>
     </row>
     <row r="72" spans="1:2" ht="51">
       <c r="A72" s="61" t="s">
@@ -4597,10 +4606,10 @@
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="191" t="s">
+      <c r="A77" s="188" t="s">
         <v>924</v>
       </c>
-      <c r="B77" s="191"/>
+      <c r="B77" s="188"/>
     </row>
     <row r="79" spans="1:2" ht="34">
       <c r="A79" s="8" t="s">
@@ -4611,16 +4620,16 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="39">
-      <c r="A81" s="193" t="s">
+      <c r="A81" s="191" t="s">
         <v>854</v>
       </c>
-      <c r="B81" s="193"/>
+      <c r="B81" s="191"/>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="194" t="s">
+      <c r="A82" s="192" t="s">
         <v>546</v>
       </c>
-      <c r="B82" s="194"/>
+      <c r="B82" s="192"/>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="3"/>
@@ -4703,10 +4712,10 @@
       <c r="B93" s="4"/>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="190" t="s">
+      <c r="A94" s="187" t="s">
         <v>212</v>
       </c>
-      <c r="B94" s="190"/>
+      <c r="B94" s="187"/>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="4"/>
@@ -4745,10 +4754,10 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="191" t="s">
+      <c r="A101" s="188" t="s">
         <v>929</v>
       </c>
-      <c r="B101" s="191"/>
+      <c r="B101" s="188"/>
     </row>
     <row r="103" spans="1:2" ht="51">
       <c r="A103" s="61" t="s">
@@ -4783,10 +4792,10 @@
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="191" t="s">
+      <c r="A108" s="188" t="s">
         <v>924</v>
       </c>
-      <c r="B108" s="191"/>
+      <c r="B108" s="188"/>
     </row>
     <row r="110" spans="1:2" ht="34">
       <c r="A110" s="8" t="s">
@@ -4797,10 +4806,10 @@
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="190" t="s">
+      <c r="A112" s="187" t="s">
         <v>698</v>
       </c>
-      <c r="B112" s="190"/>
+      <c r="B112" s="187"/>
     </row>
     <row r="114" spans="1:2" ht="31.25" customHeight="1">
       <c r="A114" s="61" t="s">
@@ -4812,6 +4821,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A70:B70"/>
     <mergeCell ref="A112:B112"/>
     <mergeCell ref="A108:B108"/>
     <mergeCell ref="A101:B101"/>
@@ -4827,12 +4842,6 @@
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A70:B70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4843,7 +4852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AS82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="AN17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -8863,11 +8872,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AS23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AP9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AS17" sqref="B17:AS17"/>
+      <selection pane="bottomRight" activeCell="AQ21" sqref="AQ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -9828,7 +9837,7 @@
         <v>99350</v>
       </c>
       <c r="AQ8" s="58">
-        <v>25000</v>
+        <v>53066</v>
       </c>
       <c r="AR8" s="58">
         <v>197027</v>
@@ -9965,7 +9974,7 @@
         <v>682</v>
       </c>
       <c r="AQ9" s="106" t="s">
-        <v>461</v>
+        <v>934</v>
       </c>
       <c r="AR9" s="100" t="s">
         <v>285</v>
@@ -10092,7 +10101,7 @@
         <v>132579788.07735008</v>
       </c>
       <c r="AQ10" s="95">
-        <v>48151580.75840807</v>
+        <v>111102462.40000001</v>
       </c>
       <c r="AR10" s="95">
         <v>173029820.63733897</v>
@@ -10229,7 +10238,8 @@
         <v>1334.4719484383502</v>
       </c>
       <c r="AQ11" s="105">
-        <v>1926.0632303363227</v>
+        <f>AQ10/AQ8</f>
+        <v>2093.6656691666981</v>
       </c>
       <c r="AR11" s="104">
         <v>878</v>
@@ -10366,7 +10376,7 @@
         <v>704</v>
       </c>
       <c r="AQ12" s="104" t="s">
-        <v>704</v>
+        <v>935</v>
       </c>
       <c r="AR12" s="104" t="s">
         <v>704</v>
@@ -11051,7 +11061,7 @@
         <v>850</v>
       </c>
       <c r="AQ17" s="126">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="AR17" s="126">
         <v>220</v>
@@ -11113,7 +11123,9 @@
         <v>850</v>
       </c>
       <c r="AP19" s="164"/>
-      <c r="AQ19" s="164"/>
+      <c r="AQ19" s="163" t="s">
+        <v>936</v>
+      </c>
       <c r="AR19" s="165" t="s">
         <v>8</v>
       </c>

--- a/sources/European_Exposure_Model_Data_Inputs_Sources.xlsx
+++ b/sources/European_Exposure_Model_Data_Inputs_Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helencrowley/Documents/5-GitHub/esrm20_exposure/sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B56B6FD-0BAA-334F-A178-2202BA5A6448}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8E25E1-885B-2C41-ABAD-2DA77B5E897F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="6300" windowWidth="28220" windowHeight="16700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="28220" windowHeight="16700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="938">
   <si>
     <t>data_Albania_RES_census-buildings.xlsx</t>
   </si>
@@ -2965,7 +2965,10 @@
     <t>ERM-CH23 based on volume/4.5</t>
   </si>
   <si>
-    <t>Reconstruction cost, number and area based on ERM-CH23</t>
+    <t>Number and area based on ERM-CH23</t>
+  </si>
+  <si>
+    <t>Areas per building have been doubled to match more closely the total area of commercial buildings in ERM-CH23</t>
   </si>
 </sst>
 </file>
@@ -3763,6 +3766,15 @@
     <xf numFmtId="2" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3770,9 +3782,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3780,12 +3789,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4116,10 +4119,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="48" customHeight="1">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="187" t="s">
         <v>890</v>
       </c>
-      <c r="B1" s="193"/>
+      <c r="B1" s="187"/>
     </row>
     <row r="2" spans="1:3" ht="22" customHeight="1">
       <c r="A2" s="189" t="s">
@@ -4129,7 +4132,7 @@
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="22" customHeight="1">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="192" t="s">
         <v>909</v>
       </c>
       <c r="B3" s="189"/>
@@ -4147,20 +4150,20 @@
       <c r="B5" s="189"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="194"/>
-      <c r="B6" s="194"/>
+      <c r="A6" s="188"/>
+      <c r="B6" s="188"/>
     </row>
     <row r="7" spans="1:3" ht="39">
-      <c r="A7" s="191" t="s">
+      <c r="A7" s="193" t="s">
         <v>687</v>
       </c>
-      <c r="B7" s="191"/>
+      <c r="B7" s="193"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="192" t="s">
+      <c r="A8" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="192"/>
+      <c r="B8" s="194"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3"/>
@@ -4326,10 +4329,10 @@
       <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="187" t="s">
+      <c r="A30" s="190" t="s">
         <v>212</v>
       </c>
-      <c r="B30" s="187"/>
+      <c r="B30" s="190"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4"/>
@@ -4392,10 +4395,10 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="188" t="s">
+      <c r="A40" s="191" t="s">
         <v>929</v>
       </c>
-      <c r="B40" s="188"/>
+      <c r="B40" s="191"/>
     </row>
     <row r="42" spans="1:2" ht="51">
       <c r="A42" s="61" t="s">
@@ -4430,10 +4433,10 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="188" t="s">
+      <c r="A47" s="191" t="s">
         <v>924</v>
       </c>
-      <c r="B47" s="188"/>
+      <c r="B47" s="191"/>
     </row>
     <row r="49" spans="1:2" ht="34">
       <c r="A49" s="8" t="s">
@@ -4444,16 +4447,16 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="39">
-      <c r="A51" s="191" t="s">
+      <c r="A51" s="193" t="s">
         <v>855</v>
       </c>
-      <c r="B51" s="191"/>
+      <c r="B51" s="193"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="192" t="s">
+      <c r="A52" s="194" t="s">
         <v>447</v>
       </c>
-      <c r="B52" s="192"/>
+      <c r="B52" s="194"/>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="3"/>
@@ -4568,10 +4571,10 @@
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="188" t="s">
+      <c r="A70" s="191" t="s">
         <v>929</v>
       </c>
-      <c r="B70" s="188"/>
+      <c r="B70" s="191"/>
     </row>
     <row r="72" spans="1:2" ht="51">
       <c r="A72" s="61" t="s">
@@ -4606,10 +4609,10 @@
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="188" t="s">
+      <c r="A77" s="191" t="s">
         <v>924</v>
       </c>
-      <c r="B77" s="188"/>
+      <c r="B77" s="191"/>
     </row>
     <row r="79" spans="1:2" ht="34">
       <c r="A79" s="8" t="s">
@@ -4620,16 +4623,16 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="39">
-      <c r="A81" s="191" t="s">
+      <c r="A81" s="193" t="s">
         <v>854</v>
       </c>
-      <c r="B81" s="191"/>
+      <c r="B81" s="193"/>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="192" t="s">
+      <c r="A82" s="194" t="s">
         <v>546</v>
       </c>
-      <c r="B82" s="192"/>
+      <c r="B82" s="194"/>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="3"/>
@@ -4712,10 +4715,10 @@
       <c r="B93" s="4"/>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="187" t="s">
+      <c r="A94" s="190" t="s">
         <v>212</v>
       </c>
-      <c r="B94" s="187"/>
+      <c r="B94" s="190"/>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="4"/>
@@ -4754,10 +4757,10 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="188" t="s">
+      <c r="A101" s="191" t="s">
         <v>929</v>
       </c>
-      <c r="B101" s="188"/>
+      <c r="B101" s="191"/>
     </row>
     <row r="103" spans="1:2" ht="51">
       <c r="A103" s="61" t="s">
@@ -4792,10 +4795,10 @@
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="188" t="s">
+      <c r="A108" s="191" t="s">
         <v>924</v>
       </c>
-      <c r="B108" s="188"/>
+      <c r="B108" s="191"/>
     </row>
     <row r="110" spans="1:2" ht="34">
       <c r="A110" s="8" t="s">
@@ -4806,10 +4809,10 @@
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="187" t="s">
+      <c r="A112" s="190" t="s">
         <v>698</v>
       </c>
-      <c r="B112" s="187"/>
+      <c r="B112" s="190"/>
     </row>
     <row r="114" spans="1:2" ht="31.25" customHeight="1">
       <c r="A114" s="61" t="s">
@@ -4821,12 +4824,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A70:B70"/>
     <mergeCell ref="A112:B112"/>
     <mergeCell ref="A108:B108"/>
     <mergeCell ref="A101:B101"/>
@@ -4842,6 +4839,12 @@
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A70:B70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8872,11 +8875,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AS23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AP9" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AQ21" sqref="AQ21"/>
+      <selection pane="bottomRight" activeCell="AQ19" sqref="AQ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -11143,11 +11146,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AS74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AO2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomRight" activeCell="AQ17" sqref="AQ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -13249,7 +13252,9 @@
         <v>849</v>
       </c>
       <c r="AP18" s="164"/>
-      <c r="AQ18" s="164"/>
+      <c r="AQ18" s="163" t="s">
+        <v>937</v>
+      </c>
       <c r="AR18" s="165" t="s">
         <v>8</v>
       </c>
